--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cox075\dev\ENV\anzsoil\def-au-scma\rdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrwong\OneDrive - Federation University Australia\Documents\GitHub\def-au-scma\rdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB87016-9A21-403E-AFD0-E1753F93F507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E1B1-BB36-47D1-A82B-188A55C4FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1995" windowWidth="31485" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12881,8 +12881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25E589-C762-47F7-A5B5-46A66BE90C97}">
   <dimension ref="A1:L461"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13318,7 +13318,7 @@
         <v>1312</v>
       </c>
       <c r="K22" s="32"/>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="26" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -20403,20 +20403,18 @@
     <hyperlink ref="H24" r:id="rId125" xr:uid="{633A92AC-C216-489C-8E44-C64A7AD123A1}"/>
     <hyperlink ref="H25" r:id="rId126" xr:uid="{4EE159A3-7A1E-4BC7-8995-C198701C450A}"/>
     <hyperlink ref="B15" r:id="rId127" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{0752AF16-E9C0-4D0F-9949-1FCC5DC37060}"/>
+    <hyperlink ref="L22" r:id="rId128" xr:uid="{874440BF-61E1-45FF-A38A-42FECFC40089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId128"/>
-  <legacyDrawing r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId129"/>
+  <legacyDrawing r:id="rId130"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20631,15 +20629,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20664,10 +20666,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrwong\OneDrive - Federation University Australia\Documents\GitHub\def-au-scma\rdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cox075\dev\ENV\anzsoil\def-au-scma\rdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E1B1-BB36-47D1-A82B-188A55C4FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3FFE68-B1A2-408E-ABA7-A912D7F0800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1995" windowWidth="31485" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="1322">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -4088,7 +4088,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4184,6 +4184,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4225,7 +4233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -4328,22 +4336,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4709,8 +4706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L466"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4723,7 +4720,7 @@
     <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="15" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" style="15" customWidth="1"/>
     <col min="11" max="11" width="39.28515625" style="15" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -4743,7 +4740,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="50"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="43"/>
       <c r="K1" s="15"/>
       <c r="L1" s="3"/>
@@ -4763,7 +4760,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="43"/>
       <c r="K2" s="15"/>
       <c r="L2" s="3"/>
@@ -4783,7 +4780,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="50"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="43"/>
       <c r="K3" s="15"/>
       <c r="L3" s="3"/>
@@ -4803,7 +4800,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="50"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="15"/>
       <c r="L4" s="3"/>
@@ -4823,7 +4820,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="50"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="43"/>
       <c r="K5" s="15"/>
       <c r="L5" s="3"/>
@@ -4841,7 +4838,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="50"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="43"/>
       <c r="K6" s="15"/>
       <c r="L6" s="3"/>
@@ -4859,7 +4856,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="15"/>
       <c r="L7" s="3"/>
@@ -4877,7 +4874,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="43"/>
       <c r="K8" s="15"/>
       <c r="L8" s="3"/>
@@ -4895,7 +4892,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="43"/>
       <c r="K9" s="15"/>
       <c r="L9" s="3"/>
@@ -4913,7 +4910,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="15"/>
       <c r="L10" s="3"/>
@@ -4931,7 +4928,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="43"/>
       <c r="K11" s="15"/>
       <c r="L11" s="3"/>
@@ -4949,7 +4946,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="15"/>
       <c r="L12" s="3"/>
@@ -4967,7 +4964,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="15"/>
       <c r="L13" s="3"/>
@@ -4985,7 +4982,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="15"/>
       <c r="L14" s="3"/>
@@ -5003,7 +5000,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="15"/>
       <c r="L15" s="3"/>
@@ -5021,7 +5018,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="50"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="15"/>
       <c r="L16" s="3"/>
@@ -5039,7 +5036,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="15"/>
       <c r="L17" s="3"/>
@@ -5053,7 +5050,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="3"/>
@@ -5067,7 +5064,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="52"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="35"/>
@@ -5083,7 +5080,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="53"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
       <c r="L20" s="6"/>
@@ -5099,7 +5096,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="53"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="L21" s="6"/>
@@ -5129,7 +5126,7 @@
       <c r="H22" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="51" t="s">
         <v>1321</v>
       </c>
       <c r="J22" s="48" t="s">
@@ -5155,15 +5152,15 @@
       <c r="D23" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" t="s">
         <v>1057</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="33"/>
-      <c r="H23" s="29" t="s">
+      <c r="H23" t="s">
         <v>922</v>
       </c>
-      <c r="I23" s="55"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
@@ -5183,17 +5180,17 @@
       <c r="D24" s="31" t="s">
         <v>655</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" t="s">
         <v>1058</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" t="s">
         <v>923</v>
       </c>
-      <c r="I24" s="55"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32" t="s">
@@ -5213,17 +5210,17 @@
       <c r="D25" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" t="s">
         <v>1059</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" t="s">
         <v>924</v>
       </c>
-      <c r="I25" s="55"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
@@ -5250,10 +5247,10 @@
       <c r="G26" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" t="s">
         <v>925</v>
       </c>
-      <c r="I26" s="55"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
@@ -5280,10 +5277,10 @@
       <c r="G27" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" t="s">
         <v>926</v>
       </c>
-      <c r="I27" s="55"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
@@ -5308,10 +5305,10 @@
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="29" t="s">
+      <c r="H28" t="s">
         <v>927</v>
       </c>
-      <c r="I28" s="55"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32" t="s">
@@ -5338,10 +5335,10 @@
       <c r="G29" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" t="s">
         <v>928</v>
       </c>
-      <c r="I29" s="55"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32" t="s">
@@ -5368,10 +5365,10 @@
       <c r="G30" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" t="s">
         <v>929</v>
       </c>
-      <c r="I30" s="55"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32" t="s">
@@ -5398,10 +5395,10 @@
       <c r="G31" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" t="s">
         <v>930</v>
       </c>
-      <c r="I31" s="55"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32" t="s">
@@ -5428,10 +5425,10 @@
       <c r="G32" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" t="s">
         <v>931</v>
       </c>
-      <c r="I32" s="55"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32" t="s">
@@ -5456,10 +5453,10 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="29" t="s">
+      <c r="H33" t="s">
         <v>932</v>
       </c>
-      <c r="I33" s="55"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32" t="s">
@@ -5486,10 +5483,10 @@
       <c r="G34" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" t="s">
         <v>933</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="32"/>
       <c r="K34" s="32"/>
       <c r="L34" s="32" t="s">
@@ -5516,10 +5513,10 @@
       <c r="G35" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" t="s">
         <v>934</v>
       </c>
-      <c r="I35" s="55"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="32"/>
       <c r="K35" s="32"/>
       <c r="L35" s="32" t="s">
@@ -5546,10 +5543,10 @@
       <c r="G36" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" t="s">
         <v>935</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="32"/>
       <c r="K36" s="32"/>
       <c r="L36" s="32" t="s">
@@ -5576,10 +5573,10 @@
       <c r="G37" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" t="s">
         <v>936</v>
       </c>
-      <c r="I37" s="55"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="32"/>
       <c r="K37" s="32"/>
       <c r="L37" s="32" t="s">
@@ -5606,10 +5603,10 @@
       <c r="G38" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" t="s">
         <v>937</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="32"/>
       <c r="K38" s="32"/>
       <c r="L38" s="32" t="s">
@@ -5636,10 +5633,10 @@
       <c r="G39" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" t="s">
         <v>938</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
       <c r="L39" s="32" t="s">
@@ -5666,10 +5663,10 @@
       <c r="G40" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" t="s">
         <v>939</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="32"/>
       <c r="K40" s="32"/>
       <c r="L40" s="32" t="s">
@@ -5696,10 +5693,10 @@
       <c r="G41" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" t="s">
         <v>940</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="29"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32"/>
       <c r="L41" s="32" t="s">
@@ -5726,10 +5723,10 @@
       <c r="G42" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" t="s">
         <v>941</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="29"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32" t="s">
@@ -5756,10 +5753,10 @@
       <c r="G43" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" t="s">
         <v>942</v>
       </c>
-      <c r="I43" s="55"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
       <c r="L43" s="32" t="s">
@@ -5786,10 +5783,10 @@
       <c r="G44" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" t="s">
         <v>943</v>
       </c>
-      <c r="I44" s="55"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32" t="s">
@@ -5816,10 +5813,10 @@
       <c r="G45" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" t="s">
         <v>944</v>
       </c>
-      <c r="I45" s="55"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32" t="s">
@@ -5846,10 +5843,10 @@
       <c r="G46" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" t="s">
         <v>945</v>
       </c>
-      <c r="I46" s="55"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32" t="s">
@@ -5876,10 +5873,10 @@
       <c r="G47" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" t="s">
         <v>946</v>
       </c>
-      <c r="I47" s="55"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
       <c r="L47" s="32" t="s">
@@ -5906,10 +5903,10 @@
       <c r="G48" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" t="s">
         <v>947</v>
       </c>
-      <c r="I48" s="55"/>
+      <c r="I48" s="29"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
       <c r="L48" s="32" t="s">
@@ -5936,10 +5933,10 @@
       <c r="G49" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" t="s">
         <v>948</v>
       </c>
-      <c r="I49" s="55"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="32"/>
       <c r="K49" s="32"/>
       <c r="L49" s="32" t="s">
@@ -5964,10 +5961,10 @@
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="33"/>
-      <c r="H50" s="29" t="s">
+      <c r="H50" t="s">
         <v>949</v>
       </c>
-      <c r="I50" s="55"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32" t="s">
@@ -5994,10 +5991,10 @@
       <c r="G51" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" t="s">
         <v>950</v>
       </c>
-      <c r="I51" s="55"/>
+      <c r="I51" s="29"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32" t="s">
@@ -6017,7 +6014,7 @@
       <c r="D52" s="31" t="s">
         <v>692</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" t="s">
         <v>1097</v>
       </c>
       <c r="F52" s="12" t="s">
@@ -6026,10 +6023,10 @@
       <c r="G52" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" t="s">
         <v>952</v>
       </c>
-      <c r="I52" s="55" t="s">
+      <c r="I52" s="29" t="s">
         <v>823</v>
       </c>
       <c r="J52" s="32"/>
@@ -6060,10 +6057,10 @@
       <c r="G53" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" t="s">
         <v>953</v>
       </c>
-      <c r="I53" s="55" t="s">
+      <c r="I53" s="29" t="s">
         <v>823</v>
       </c>
       <c r="J53" s="32"/>
@@ -6092,10 +6089,10 @@
       <c r="G54" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" t="s">
         <v>954</v>
       </c>
-      <c r="I54" s="55"/>
+      <c r="I54" s="29"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
       <c r="L54" s="32" t="s">
@@ -6122,10 +6119,10 @@
       <c r="G55" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" t="s">
         <v>955</v>
       </c>
-      <c r="I55" s="55"/>
+      <c r="I55" s="29"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
       <c r="L55" s="32" t="s">
@@ -6152,10 +6149,10 @@
       <c r="G56" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" t="s">
         <v>956</v>
       </c>
-      <c r="I56" s="55"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
       <c r="L56" s="32" t="s">
@@ -6180,10 +6177,10 @@
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="32"/>
-      <c r="H57" s="29" t="s">
+      <c r="H57" t="s">
         <v>957</v>
       </c>
-      <c r="I57" s="55"/>
+      <c r="I57" s="29"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
       <c r="L57" s="32" t="s">
@@ -6210,10 +6207,10 @@
       <c r="G58" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" t="s">
         <v>958</v>
       </c>
-      <c r="I58" s="55"/>
+      <c r="I58" s="29"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
       <c r="L58" s="32" t="s">
@@ -6240,10 +6237,10 @@
       <c r="G59" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" t="s">
         <v>959</v>
       </c>
-      <c r="I59" s="55"/>
+      <c r="I59" s="29"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
       <c r="L59" s="32" t="s">
@@ -6270,10 +6267,10 @@
       <c r="G60" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="55"/>
+      <c r="I60" s="29"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
       <c r="L60" s="32" t="s">
@@ -6302,10 +6299,10 @@
       <c r="G61" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" t="s">
         <v>961</v>
       </c>
-      <c r="I61" s="55"/>
+      <c r="I61" s="29"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
       <c r="L61" s="32" t="s">
@@ -6334,10 +6331,10 @@
       <c r="G62" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" t="s">
         <v>962</v>
       </c>
-      <c r="I62" s="55"/>
+      <c r="I62" s="29"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
       <c r="L62" s="32" t="s">
@@ -6364,10 +6361,10 @@
       <c r="G63" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" t="s">
         <v>963</v>
       </c>
-      <c r="I63" s="55"/>
+      <c r="I63" s="29"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
       <c r="L63" s="32" t="s">
@@ -6394,10 +6391,10 @@
       <c r="G64" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" t="s">
         <v>964</v>
       </c>
-      <c r="I64" s="55"/>
+      <c r="I64" s="29"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
       <c r="L64" s="32" t="s">
@@ -6426,10 +6423,10 @@
       <c r="G65" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" t="s">
         <v>965</v>
       </c>
-      <c r="I65" s="55"/>
+      <c r="I65" s="29"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
       <c r="L65" s="32" t="s">
@@ -6458,10 +6455,10 @@
       <c r="G66" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" t="s">
         <v>966</v>
       </c>
-      <c r="I66" s="55"/>
+      <c r="I66" s="29"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32"/>
       <c r="L66" s="32" t="s">
@@ -6488,10 +6485,10 @@
       <c r="G67" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" t="s">
         <v>967</v>
       </c>
-      <c r="I67" s="55"/>
+      <c r="I67" s="29"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32"/>
       <c r="L67" s="32" t="s">
@@ -6518,10 +6515,10 @@
       <c r="G68" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" t="s">
         <v>968</v>
       </c>
-      <c r="I68" s="55"/>
+      <c r="I68" s="29"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32" t="s">
@@ -6548,10 +6545,10 @@
       <c r="G69" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" t="s">
         <v>969</v>
       </c>
-      <c r="I69" s="55"/>
+      <c r="I69" s="29"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
       <c r="L69" s="32" t="s">
@@ -6578,10 +6575,10 @@
       <c r="G70" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="H70" t="s">
         <v>970</v>
       </c>
-      <c r="I70" s="55"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
       <c r="L70" s="32" t="s">
@@ -6608,10 +6605,10 @@
       <c r="G71" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" t="s">
         <v>971</v>
       </c>
-      <c r="I71" s="55"/>
+      <c r="I71" s="29"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
       <c r="L71" s="32" t="s">
@@ -6636,10 +6633,10 @@
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="32"/>
-      <c r="H72" s="29" t="s">
+      <c r="H72" t="s">
         <v>972</v>
       </c>
-      <c r="I72" s="55"/>
+      <c r="I72" s="29"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32" t="s">
@@ -6666,10 +6663,10 @@
       <c r="G73" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" t="s">
         <v>973</v>
       </c>
-      <c r="I73" s="55"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="32"/>
       <c r="K73" s="32"/>
       <c r="L73" s="32" t="s">
@@ -6698,10 +6695,10 @@
       <c r="G74" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" t="s">
         <v>975</v>
       </c>
-      <c r="I74" s="55" t="s">
+      <c r="I74" s="29" t="s">
         <v>846</v>
       </c>
       <c r="J74" s="32"/>
@@ -6732,10 +6729,10 @@
       <c r="G75" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" t="s">
         <v>976</v>
       </c>
-      <c r="I75" s="55" t="s">
+      <c r="I75" s="29" t="s">
         <v>846</v>
       </c>
       <c r="J75" s="32"/>
@@ -6764,10 +6761,10 @@
       <c r="G76" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" t="s">
         <v>977</v>
       </c>
-      <c r="I76" s="55"/>
+      <c r="I76" s="29"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
       <c r="L76" s="32" t="s">
@@ -6794,10 +6791,10 @@
       <c r="G77" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H77" s="29" t="s">
+      <c r="H77" t="s">
         <v>978</v>
       </c>
-      <c r="I77" s="55"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
       <c r="L77" s="32" t="s">
@@ -6824,10 +6821,10 @@
       <c r="G78" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H78" s="29" t="s">
+      <c r="H78" t="s">
         <v>979</v>
       </c>
-      <c r="I78" s="55"/>
+      <c r="I78" s="29"/>
       <c r="J78" s="32"/>
       <c r="K78" s="32"/>
       <c r="L78" s="32" t="s">
@@ -6854,10 +6851,10 @@
       <c r="G79" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H79" s="29" t="s">
+      <c r="H79" t="s">
         <v>980</v>
       </c>
-      <c r="I79" s="55"/>
+      <c r="I79" s="29"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32"/>
       <c r="L79" s="32" t="s">
@@ -6886,10 +6883,10 @@
       <c r="G80" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H80" s="29" t="s">
+      <c r="H80" t="s">
         <v>981</v>
       </c>
-      <c r="I80" s="55"/>
+      <c r="I80" s="29"/>
       <c r="J80" s="32"/>
       <c r="K80" s="32"/>
       <c r="L80" s="32" t="s">
@@ -6918,10 +6915,10 @@
       <c r="G81" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H81" t="s">
         <v>982</v>
       </c>
-      <c r="I81" s="55"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="32"/>
       <c r="K81" s="32"/>
       <c r="L81" s="32" t="s">
@@ -6948,10 +6945,10 @@
       <c r="G82" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H82" t="s">
         <v>983</v>
       </c>
-      <c r="I82" s="55"/>
+      <c r="I82" s="29"/>
       <c r="J82" s="32"/>
       <c r="K82" s="32"/>
       <c r="L82" s="32" t="s">
@@ -6980,7 +6977,7 @@
       <c r="G83" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H83" s="29" t="s">
+      <c r="H83" t="s">
         <v>985</v>
       </c>
       <c r="I83" s="12" t="s">
@@ -7014,7 +7011,7 @@
       <c r="G84" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" t="s">
         <v>986</v>
       </c>
       <c r="I84" s="12" t="s">
@@ -7048,10 +7045,10 @@
       <c r="G85" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H85" s="29" t="s">
+      <c r="H85" t="s">
         <v>987</v>
       </c>
-      <c r="I85" s="55"/>
+      <c r="I85" s="29"/>
       <c r="J85" s="32"/>
       <c r="K85" s="32"/>
       <c r="L85" s="32" t="s">
@@ -7078,10 +7075,10 @@
       <c r="G86" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H86" s="29" t="s">
+      <c r="H86" t="s">
         <v>988</v>
       </c>
-      <c r="I86" s="55"/>
+      <c r="I86" s="29"/>
       <c r="J86" s="32"/>
       <c r="K86" s="32"/>
       <c r="L86" s="32" t="s">
@@ -7110,10 +7107,10 @@
       <c r="G87" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H87" s="29" t="s">
+      <c r="H87" t="s">
         <v>989</v>
       </c>
-      <c r="I87" s="55"/>
+      <c r="I87" s="29"/>
       <c r="J87" s="32"/>
       <c r="K87" s="32"/>
       <c r="L87" s="32" t="s">
@@ -7142,10 +7139,10 @@
       <c r="G88" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H88" t="s">
         <v>990</v>
       </c>
-      <c r="I88" s="55"/>
+      <c r="I88" s="29"/>
       <c r="J88" s="32"/>
       <c r="K88" s="32"/>
       <c r="L88" s="32" t="s">
@@ -7174,10 +7171,10 @@
       <c r="G89" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H89" s="29" t="s">
+      <c r="H89" t="s">
         <v>991</v>
       </c>
-      <c r="I89" s="55"/>
+      <c r="I89" s="29"/>
       <c r="J89" s="32"/>
       <c r="K89" s="32"/>
       <c r="L89" s="32" t="s">
@@ -7206,10 +7203,10 @@
       <c r="G90" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H90" t="s">
         <v>992</v>
       </c>
-      <c r="I90" s="55"/>
+      <c r="I90" s="29"/>
       <c r="J90" s="32"/>
       <c r="K90" s="32"/>
       <c r="L90" s="32" t="s">
@@ -7238,10 +7235,10 @@
       <c r="G91" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H91" s="29" t="s">
+      <c r="H91" t="s">
         <v>993</v>
       </c>
-      <c r="I91" s="55"/>
+      <c r="I91" s="29"/>
       <c r="J91" s="32"/>
       <c r="K91" s="32"/>
       <c r="L91" s="32" t="s">
@@ -7270,10 +7267,10 @@
       <c r="G92" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H92" s="29" t="s">
+      <c r="H92" t="s">
         <v>994</v>
       </c>
-      <c r="I92" s="55"/>
+      <c r="I92" s="29"/>
       <c r="J92" s="32"/>
       <c r="K92" s="32"/>
       <c r="L92" s="32" t="s">
@@ -7302,10 +7299,10 @@
       <c r="G93" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H93" s="29" t="s">
+      <c r="H93" t="s">
         <v>995</v>
       </c>
-      <c r="I93" s="55"/>
+      <c r="I93" s="29"/>
       <c r="J93" s="32"/>
       <c r="K93" s="32"/>
       <c r="L93" s="32" t="s">
@@ -7334,10 +7331,10 @@
       <c r="G94" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H94" s="29" t="s">
+      <c r="H94" t="s">
         <v>996</v>
       </c>
-      <c r="I94" s="55"/>
+      <c r="I94" s="29"/>
       <c r="J94" s="32"/>
       <c r="K94" s="32"/>
       <c r="L94" s="32" t="s">
@@ -7366,7 +7363,7 @@
       <c r="G95" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H95" s="29" t="s">
+      <c r="H95" t="s">
         <v>998</v>
       </c>
       <c r="I95" s="12" t="s">
@@ -7400,7 +7397,7 @@
       <c r="G96" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H96" s="29" t="s">
+      <c r="H96" t="s">
         <v>999</v>
       </c>
       <c r="I96" s="12" t="s">
@@ -7432,10 +7429,10 @@
       <c r="G97" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H97" s="29" t="s">
+      <c r="H97" t="s">
         <v>1000</v>
       </c>
-      <c r="I97" s="55"/>
+      <c r="I97" s="29"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32"/>
       <c r="L97" s="32" t="s">
@@ -7464,10 +7461,10 @@
       <c r="G98" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" t="s">
         <v>1001</v>
       </c>
-      <c r="I98" s="55"/>
+      <c r="I98" s="29"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32"/>
       <c r="L98" s="32" t="s">
@@ -7496,10 +7493,10 @@
       <c r="G99" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H99" s="29" t="s">
+      <c r="H99" t="s">
         <v>1002</v>
       </c>
-      <c r="I99" s="55"/>
+      <c r="I99" s="29"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32"/>
       <c r="L99" s="32" t="s">
@@ -7528,10 +7525,10 @@
       <c r="G100" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H100" s="29" t="s">
+      <c r="H100" t="s">
         <v>1003</v>
       </c>
-      <c r="I100" s="55"/>
+      <c r="I100" s="29"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32"/>
       <c r="L100" s="32" t="s">
@@ -7560,10 +7557,10 @@
       <c r="G101" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H101" s="29" t="s">
+      <c r="H101" t="s">
         <v>1004</v>
       </c>
-      <c r="I101" s="55"/>
+      <c r="I101" s="29"/>
       <c r="J101" s="29"/>
       <c r="K101" s="32"/>
       <c r="L101" s="32" t="s">
@@ -7592,10 +7589,10 @@
       <c r="G102" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="H102" t="s">
         <v>1005</v>
       </c>
-      <c r="I102" s="55"/>
+      <c r="I102" s="29"/>
       <c r="J102" s="32"/>
       <c r="K102" s="32"/>
       <c r="L102" s="32" t="s">
@@ -7620,10 +7617,10 @@
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="32"/>
-      <c r="H103" s="29" t="s">
+      <c r="H103" t="s">
         <v>1006</v>
       </c>
-      <c r="I103" s="55"/>
+      <c r="I103" s="29"/>
       <c r="J103" s="32"/>
       <c r="K103" s="32"/>
       <c r="L103" s="32" t="s">
@@ -7650,10 +7647,10 @@
       <c r="G104" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="H104" s="29" t="s">
+      <c r="H104" t="s">
         <v>1007</v>
       </c>
-      <c r="I104" s="55"/>
+      <c r="I104" s="29"/>
       <c r="J104" s="32"/>
       <c r="K104" s="32"/>
       <c r="L104" s="32" t="s">
@@ -7680,10 +7677,10 @@
       <c r="G105" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" t="s">
         <v>1008</v>
       </c>
-      <c r="I105" s="55"/>
+      <c r="I105" s="29"/>
       <c r="J105" s="32"/>
       <c r="K105" s="32"/>
       <c r="L105" s="32" t="s">
@@ -7708,10 +7705,10 @@
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="32"/>
-      <c r="H106" s="29" t="s">
+      <c r="H106" t="s">
         <v>1009</v>
       </c>
-      <c r="I106" s="55"/>
+      <c r="I106" s="29"/>
       <c r="J106" s="32"/>
       <c r="K106" s="32"/>
       <c r="L106" s="32" t="s">
@@ -7738,10 +7735,10 @@
       <c r="G107" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H107" s="29" t="s">
+      <c r="H107" t="s">
         <v>1010</v>
       </c>
-      <c r="I107" s="55"/>
+      <c r="I107" s="29"/>
       <c r="J107" s="32"/>
       <c r="K107" s="32"/>
       <c r="L107" s="32" t="s">
@@ -7770,10 +7767,10 @@
       <c r="G108" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H108" s="29" t="s">
+      <c r="H108" t="s">
         <v>1011</v>
       </c>
-      <c r="I108" s="55"/>
+      <c r="I108" s="29"/>
       <c r="J108" s="32"/>
       <c r="K108" s="32"/>
       <c r="L108" s="32" t="s">
@@ -7802,10 +7799,10 @@
       <c r="G109" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H109" s="29" t="s">
+      <c r="H109" t="s">
         <v>1012</v>
       </c>
-      <c r="I109" s="55"/>
+      <c r="I109" s="29"/>
       <c r="J109" s="32"/>
       <c r="K109" s="32"/>
       <c r="L109" s="32" t="s">
@@ -7834,10 +7831,10 @@
       <c r="G110" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" t="s">
         <v>1013</v>
       </c>
-      <c r="I110" s="55"/>
+      <c r="I110" s="29"/>
       <c r="J110" s="32"/>
       <c r="K110" s="32"/>
       <c r="L110" s="32" t="s">
@@ -7866,10 +7863,10 @@
       <c r="G111" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H111" t="s">
         <v>1014</v>
       </c>
-      <c r="I111" s="55"/>
+      <c r="I111" s="29"/>
       <c r="J111" s="32"/>
       <c r="K111" s="32"/>
       <c r="L111" s="32" t="s">
@@ -7896,10 +7893,10 @@
       <c r="G112" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H112" s="29" t="s">
+      <c r="H112" t="s">
         <v>1015</v>
       </c>
-      <c r="I112" s="55"/>
+      <c r="I112" s="29"/>
       <c r="J112" s="32"/>
       <c r="K112" s="32"/>
       <c r="L112" s="32" t="s">
@@ -7928,10 +7925,10 @@
       <c r="G113" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H113" s="29" t="s">
+      <c r="H113" t="s">
         <v>1016</v>
       </c>
-      <c r="I113" s="55"/>
+      <c r="I113" s="29"/>
       <c r="J113" s="32"/>
       <c r="K113" s="32"/>
       <c r="L113" s="32" t="s">
@@ -7960,10 +7957,10 @@
       <c r="G114" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H114" s="29" t="s">
+      <c r="H114" t="s">
         <v>1017</v>
       </c>
-      <c r="I114" s="55"/>
+      <c r="I114" s="29"/>
       <c r="J114" s="32"/>
       <c r="K114" s="32"/>
       <c r="L114" s="32" t="s">
@@ -7990,10 +7987,10 @@
       <c r="G115" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H115" s="29" t="s">
+      <c r="H115" t="s">
         <v>1018</v>
       </c>
-      <c r="I115" s="55"/>
+      <c r="I115" s="29"/>
       <c r="J115" s="32"/>
       <c r="K115" s="32"/>
       <c r="L115" s="32" t="s">
@@ -8022,10 +8019,10 @@
       <c r="G116" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H116" s="29" t="s">
+      <c r="H116" t="s">
         <v>1019</v>
       </c>
-      <c r="I116" s="55"/>
+      <c r="I116" s="29"/>
       <c r="J116" s="32"/>
       <c r="K116" s="32"/>
       <c r="L116" s="32" t="s">
@@ -8054,7 +8051,7 @@
       <c r="G117" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H117" s="29" t="s">
+      <c r="H117" t="s">
         <v>1021</v>
       </c>
       <c r="I117" s="12" t="s">
@@ -8088,7 +8085,7 @@
       <c r="G118" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H118" s="29" t="s">
+      <c r="H118" t="s">
         <v>1022</v>
       </c>
       <c r="I118" s="12" t="s">
@@ -8120,10 +8117,10 @@
       <c r="G119" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H119" s="29" t="s">
+      <c r="H119" t="s">
         <v>1023</v>
       </c>
-      <c r="I119" s="55"/>
+      <c r="I119" s="29"/>
       <c r="J119" s="32"/>
       <c r="K119" s="32"/>
       <c r="L119" s="32" t="s">
@@ -8150,10 +8147,10 @@
       <c r="G120" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H120" s="29" t="s">
+      <c r="H120" t="s">
         <v>1024</v>
       </c>
-      <c r="I120" s="55"/>
+      <c r="I120" s="29"/>
       <c r="J120" s="32"/>
       <c r="K120" s="32"/>
       <c r="L120" s="32" t="s">
@@ -8182,10 +8179,10 @@
       <c r="G121" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H121" s="29" t="s">
+      <c r="H121" t="s">
         <v>1025</v>
       </c>
-      <c r="I121" s="55"/>
+      <c r="I121" s="29"/>
       <c r="J121" s="32"/>
       <c r="K121" s="32"/>
       <c r="L121" s="32" t="s">
@@ -8214,10 +8211,10 @@
       <c r="G122" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H122" s="29" t="s">
+      <c r="H122" t="s">
         <v>1026</v>
       </c>
-      <c r="I122" s="55"/>
+      <c r="I122" s="29"/>
       <c r="J122" s="32"/>
       <c r="K122" s="32"/>
       <c r="L122" s="32" t="s">
@@ -8244,10 +8241,10 @@
       <c r="G123" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H123" s="29" t="s">
+      <c r="H123" t="s">
         <v>1027</v>
       </c>
-      <c r="I123" s="55"/>
+      <c r="I123" s="29"/>
       <c r="J123" s="32"/>
       <c r="K123" s="32"/>
       <c r="L123" s="32" t="s">
@@ -8274,10 +8271,10 @@
       <c r="G124" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" t="s">
         <v>1028</v>
       </c>
-      <c r="I124" s="55"/>
+      <c r="I124" s="29"/>
       <c r="J124" s="32"/>
       <c r="K124" s="32"/>
       <c r="L124" s="32" t="s">
@@ -8304,10 +8301,10 @@
       <c r="G125" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H125" s="29" t="s">
+      <c r="H125" t="s">
         <v>1029</v>
       </c>
-      <c r="I125" s="55"/>
+      <c r="I125" s="29"/>
       <c r="J125" s="32"/>
       <c r="K125" s="32"/>
       <c r="L125" s="32" t="s">
@@ -8334,10 +8331,10 @@
       <c r="G126" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H126" s="29" t="s">
+      <c r="H126" t="s">
         <v>1030</v>
       </c>
-      <c r="I126" s="55"/>
+      <c r="I126" s="29"/>
       <c r="J126" s="32"/>
       <c r="K126" s="32"/>
       <c r="L126" s="32" t="s">
@@ -8364,10 +8361,10 @@
       <c r="G127" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H127" s="29" t="s">
+      <c r="H127" t="s">
         <v>1031</v>
       </c>
-      <c r="I127" s="55"/>
+      <c r="I127" s="29"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32"/>
       <c r="L127" s="32" t="s">
@@ -8394,10 +8391,10 @@
       <c r="G128" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H128" s="29" t="s">
+      <c r="H128" t="s">
         <v>1032</v>
       </c>
-      <c r="I128" s="55"/>
+      <c r="I128" s="29"/>
       <c r="J128" s="32"/>
       <c r="K128" s="32"/>
       <c r="L128" s="32" t="s">
@@ -8426,10 +8423,10 @@
       <c r="G129" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H129" s="29" t="s">
+      <c r="H129" t="s">
         <v>1033</v>
       </c>
-      <c r="I129" s="55"/>
+      <c r="I129" s="29"/>
       <c r="J129" s="32"/>
       <c r="K129" s="32"/>
       <c r="L129" s="32" t="s">
@@ -8458,10 +8455,10 @@
       <c r="G130" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H130" s="29" t="s">
+      <c r="H130" t="s">
         <v>1034</v>
       </c>
-      <c r="I130" s="55"/>
+      <c r="I130" s="29"/>
       <c r="J130" s="32"/>
       <c r="K130" s="32"/>
       <c r="L130" s="32" t="s">
@@ -8490,10 +8487,10 @@
       <c r="G131" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H131" s="29" t="s">
+      <c r="H131" t="s">
         <v>1035</v>
       </c>
-      <c r="I131" s="55"/>
+      <c r="I131" s="29"/>
       <c r="J131" s="32"/>
       <c r="K131" s="32"/>
       <c r="L131" s="32" t="s">
@@ -8522,10 +8519,10 @@
       <c r="G132" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H132" s="29" t="s">
+      <c r="H132" t="s">
         <v>1036</v>
       </c>
-      <c r="I132" s="55"/>
+      <c r="I132" s="29"/>
       <c r="J132" s="32"/>
       <c r="K132" s="32"/>
       <c r="L132" s="32" t="s">
@@ -8554,10 +8551,10 @@
       <c r="G133" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H133" s="29" t="s">
+      <c r="H133" t="s">
         <v>1037</v>
       </c>
-      <c r="I133" s="55"/>
+      <c r="I133" s="29"/>
       <c r="J133" s="32"/>
       <c r="K133" s="32"/>
       <c r="L133" s="32" t="s">
@@ -8586,10 +8583,10 @@
       <c r="G134" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H134" s="29" t="s">
+      <c r="H134" t="s">
         <v>1038</v>
       </c>
-      <c r="I134" s="55"/>
+      <c r="I134" s="29"/>
       <c r="J134" s="32"/>
       <c r="K134" s="32"/>
       <c r="L134" s="32" t="s">
@@ -8618,10 +8615,10 @@
       <c r="G135" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H135" s="29" t="s">
+      <c r="H135" t="s">
         <v>1039</v>
       </c>
-      <c r="I135" s="55"/>
+      <c r="I135" s="29"/>
       <c r="J135" s="32"/>
       <c r="K135" s="32"/>
       <c r="L135" s="32" t="s">
@@ -8650,10 +8647,10 @@
       <c r="G136" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H136" s="29" t="s">
+      <c r="H136" t="s">
         <v>1040</v>
       </c>
-      <c r="I136" s="55"/>
+      <c r="I136" s="29"/>
       <c r="J136" s="32"/>
       <c r="K136" s="32"/>
       <c r="L136" s="32" t="s">
@@ -8682,10 +8679,10 @@
       <c r="G137" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H137" s="29" t="s">
+      <c r="H137" t="s">
         <v>1041</v>
       </c>
-      <c r="I137" s="55"/>
+      <c r="I137" s="29"/>
       <c r="J137" s="32"/>
       <c r="K137" s="32"/>
       <c r="L137" s="32" t="s">
@@ -8714,10 +8711,10 @@
       <c r="G138" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H138" s="29" t="s">
+      <c r="H138" t="s">
         <v>1042</v>
       </c>
-      <c r="I138" s="55"/>
+      <c r="I138" s="29"/>
       <c r="J138" s="32"/>
       <c r="K138" s="32"/>
       <c r="L138" s="32" t="s">
@@ -8744,10 +8741,10 @@
       <c r="G139" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H139" s="29" t="s">
+      <c r="H139" t="s">
         <v>1043</v>
       </c>
-      <c r="I139" s="55"/>
+      <c r="I139" s="29"/>
       <c r="J139" s="32"/>
       <c r="K139" s="32"/>
       <c r="L139" s="32" t="s">
@@ -8776,10 +8773,10 @@
       <c r="G140" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H140" s="29" t="s">
+      <c r="H140" t="s">
         <v>1044</v>
       </c>
-      <c r="I140" s="55"/>
+      <c r="I140" s="29"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32"/>
       <c r="L140" s="32" t="s">
@@ -8808,10 +8805,10 @@
       <c r="G141" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H141" s="29" t="s">
+      <c r="H141" t="s">
         <v>1045</v>
       </c>
-      <c r="I141" s="55"/>
+      <c r="I141" s="29"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32"/>
       <c r="L141" s="32" t="s">
@@ -8838,10 +8835,10 @@
       <c r="G142" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H142" s="29" t="s">
+      <c r="H142" t="s">
         <v>1046</v>
       </c>
-      <c r="I142" s="55"/>
+      <c r="I142" s="29"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32"/>
       <c r="L142" s="32" t="s">
@@ -8870,10 +8867,10 @@
       <c r="G143" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H143" s="29" t="s">
+      <c r="H143" t="s">
         <v>1047</v>
       </c>
-      <c r="I143" s="55"/>
+      <c r="I143" s="29"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32"/>
       <c r="L143" s="32" t="s">
@@ -8902,10 +8899,10 @@
       <c r="G144" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H144" s="29" t="s">
+      <c r="H144" t="s">
         <v>1048</v>
       </c>
-      <c r="I144" s="55"/>
+      <c r="I144" s="29"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32"/>
       <c r="L144" s="32" t="s">
@@ -8934,10 +8931,10 @@
       <c r="G145" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="H145" s="29" t="s">
+      <c r="H145" t="s">
         <v>1049</v>
       </c>
-      <c r="I145" s="55"/>
+      <c r="I145" s="29"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32"/>
       <c r="L145" s="32" t="s">
@@ -8965,7 +8962,7 @@
       <c r="H146" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="I146" s="56"/>
+      <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32"/>
       <c r="L146" s="27" t="s">
@@ -8995,7 +8992,7 @@
       <c r="H147" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="I147" s="56"/>
+      <c r="I147" s="32"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32"/>
       <c r="L147" s="27" t="s">
@@ -9025,7 +9022,7 @@
       <c r="H148" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="I148" s="56"/>
+      <c r="I148" s="32"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32"/>
       <c r="L148" s="27" t="s">
@@ -9055,7 +9052,7 @@
       <c r="H149" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="I149" s="56"/>
+      <c r="I149" s="32"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32"/>
       <c r="L149" s="27" t="s">
@@ -9087,7 +9084,7 @@
       <c r="H150" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="I150" s="56"/>
+      <c r="I150" s="32"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32"/>
       <c r="L150" s="27" t="s">
@@ -9119,7 +9116,7 @@
       <c r="H151" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="I151" s="56"/>
+      <c r="I151" s="32"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32"/>
       <c r="L151" s="27" t="s">
@@ -9151,7 +9148,7 @@
       <c r="H152" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="I152" s="56"/>
+      <c r="I152" s="32"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32"/>
       <c r="L152" s="27" t="s">
@@ -9183,7 +9180,7 @@
       <c r="H153" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="I153" s="56"/>
+      <c r="I153" s="32"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32"/>
       <c r="L153" s="27" t="s">
@@ -9213,7 +9210,7 @@
       <c r="H154" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="I154" s="56"/>
+      <c r="I154" s="32"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32"/>
       <c r="L154" s="27" t="s">
@@ -9243,7 +9240,7 @@
       <c r="H155" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="I155" s="56"/>
+      <c r="I155" s="32"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32"/>
       <c r="L155" s="27" t="s">
@@ -9271,7 +9268,7 @@
       <c r="H156" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="I156" s="56"/>
+      <c r="I156" s="32"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32"/>
       <c r="L156" s="27" t="s">
@@ -9301,7 +9298,7 @@
       <c r="H157" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="I157" s="56"/>
+      <c r="I157" s="32"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32"/>
       <c r="L157" s="27" t="s">
@@ -9331,7 +9328,7 @@
       <c r="H158" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="I158" s="56"/>
+      <c r="I158" s="32"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32"/>
       <c r="L158" s="27" t="s">
@@ -9359,7 +9356,7 @@
       <c r="H159" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="I159" s="56"/>
+      <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32"/>
       <c r="L159" s="27" t="s">
@@ -9389,7 +9386,7 @@
       <c r="H160" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="I160" s="56"/>
+      <c r="I160" s="32"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32"/>
       <c r="L160" s="27" t="s">
@@ -9419,7 +9416,7 @@
       <c r="H161" t="s">
         <v>523</v>
       </c>
-      <c r="I161" s="57"/>
+      <c r="I161" s="12"/>
       <c r="J161" s="12"/>
       <c r="K161" s="32"/>
       <c r="L161" s="27" t="s">
@@ -9449,7 +9446,7 @@
       <c r="H162" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I162" s="56"/>
+      <c r="I162" s="32"/>
       <c r="J162" s="32"/>
       <c r="K162" s="32"/>
       <c r="L162" s="27" t="s">
@@ -9479,7 +9476,7 @@
       <c r="H163" t="s">
         <v>525</v>
       </c>
-      <c r="I163" s="57"/>
+      <c r="I163" s="12"/>
       <c r="J163" s="12"/>
       <c r="K163" s="32"/>
       <c r="L163" s="27" t="s">
@@ -9509,7 +9506,7 @@
       <c r="H164" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="I164" s="56"/>
+      <c r="I164" s="32"/>
       <c r="J164" s="32"/>
       <c r="K164" s="32"/>
       <c r="L164" s="27" t="s">
@@ -9539,7 +9536,7 @@
       <c r="H165" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="I165" s="56"/>
+      <c r="I165" s="32"/>
       <c r="J165" s="32"/>
       <c r="K165" s="32"/>
       <c r="L165" s="27" t="s">
@@ -9567,7 +9564,7 @@
       <c r="H166" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="I166" s="56"/>
+      <c r="I166" s="32"/>
       <c r="J166" s="32"/>
       <c r="K166" s="32"/>
       <c r="L166" s="27" t="s">
@@ -9597,7 +9594,7 @@
       <c r="H167" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="I167" s="56"/>
+      <c r="I167" s="32"/>
       <c r="J167" s="32"/>
       <c r="K167" s="32"/>
       <c r="L167" s="27" t="s">
@@ -9627,7 +9624,7 @@
       <c r="H168" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="I168" s="56"/>
+      <c r="I168" s="32"/>
       <c r="J168" s="32"/>
       <c r="K168" s="32"/>
       <c r="L168" s="27" t="s">
@@ -9657,7 +9654,7 @@
       <c r="H169" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="I169" s="56"/>
+      <c r="I169" s="32"/>
       <c r="J169" s="32"/>
       <c r="K169" s="32"/>
       <c r="L169" s="27" t="s">
@@ -9687,7 +9684,7 @@
       <c r="H170" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="I170" s="56"/>
+      <c r="I170" s="32"/>
       <c r="J170" s="32"/>
       <c r="K170" s="32"/>
       <c r="L170" s="27" t="s">
@@ -9719,7 +9716,7 @@
       <c r="H171" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="I171" s="56"/>
+      <c r="I171" s="32"/>
       <c r="J171" s="32"/>
       <c r="K171" s="32"/>
       <c r="L171" s="27" t="s">
@@ -9751,7 +9748,7 @@
       <c r="H172" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="I172" s="56"/>
+      <c r="I172" s="32"/>
       <c r="J172" s="32"/>
       <c r="K172" s="32"/>
       <c r="L172" s="27" t="s">
@@ -9779,7 +9776,7 @@
       <c r="H173" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="I173" s="56"/>
+      <c r="I173" s="32"/>
       <c r="J173" s="32"/>
       <c r="K173" s="32"/>
       <c r="L173" s="27" t="s">
@@ -9809,7 +9806,7 @@
       <c r="H174" s="27" t="s">
         <v>536</v>
       </c>
-      <c r="I174" s="56"/>
+      <c r="I174" s="32"/>
       <c r="J174" s="32"/>
       <c r="K174" s="32"/>
       <c r="L174" s="27" t="s">
@@ -9839,7 +9836,7 @@
       <c r="H175" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="I175" s="56"/>
+      <c r="I175" s="32"/>
       <c r="J175" s="32"/>
       <c r="K175" s="32"/>
       <c r="L175" s="27" t="s">
@@ -9869,7 +9866,7 @@
       <c r="H176" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="I176" s="56"/>
+      <c r="I176" s="32"/>
       <c r="J176" s="32"/>
       <c r="K176" s="32"/>
       <c r="L176" s="27" t="s">
@@ -9899,7 +9896,7 @@
       <c r="H177" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="I177" s="56"/>
+      <c r="I177" s="32"/>
       <c r="J177" s="32"/>
       <c r="K177" s="32"/>
       <c r="L177" s="27" t="s">
@@ -9929,7 +9926,7 @@
       <c r="H178" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="I178" s="56"/>
+      <c r="I178" s="32"/>
       <c r="J178" s="32"/>
       <c r="K178" s="32"/>
       <c r="L178" s="27" t="s">
@@ -9959,7 +9956,7 @@
       <c r="H179" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="I179" s="56"/>
+      <c r="I179" s="32"/>
       <c r="J179" s="32"/>
       <c r="K179" s="32"/>
       <c r="L179" s="27" t="s">
@@ -9989,7 +9986,7 @@
       <c r="H180" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="I180" s="56"/>
+      <c r="I180" s="32"/>
       <c r="J180" s="32"/>
       <c r="K180" s="32"/>
       <c r="L180" s="27" t="s">
@@ -10019,7 +10016,7 @@
       <c r="H181" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="I181" s="56"/>
+      <c r="I181" s="32"/>
       <c r="J181" s="32"/>
       <c r="K181" s="32"/>
       <c r="L181" s="27" t="s">
@@ -10049,7 +10046,7 @@
       <c r="H182" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="I182" s="56"/>
+      <c r="I182" s="32"/>
       <c r="J182" s="32"/>
       <c r="K182" s="32"/>
       <c r="L182" s="27" t="s">
@@ -10081,7 +10078,7 @@
       <c r="H183" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J183" s="32"/>
@@ -10115,7 +10112,7 @@
       <c r="H184" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J184" s="32"/>
@@ -10147,7 +10144,7 @@
       <c r="H185" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="I185" s="56"/>
+      <c r="I185" s="32"/>
       <c r="J185" s="32"/>
       <c r="K185" s="32"/>
       <c r="L185" s="27" t="s">
@@ -10177,7 +10174,7 @@
       <c r="H186" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="I186" s="56"/>
+      <c r="I186" s="32"/>
       <c r="J186" s="32"/>
       <c r="K186" s="32"/>
       <c r="L186" s="27" t="s">
@@ -10207,7 +10204,7 @@
       <c r="H187" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="I187" s="56"/>
+      <c r="I187" s="32"/>
       <c r="J187" s="32"/>
       <c r="K187" s="32"/>
       <c r="L187" s="27" t="s">
@@ -10237,7 +10234,7 @@
       <c r="H188" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="I188" s="56"/>
+      <c r="I188" s="32"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32"/>
       <c r="L188" s="27" t="s">
@@ -10267,7 +10264,7 @@
       <c r="H189" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="I189" s="56"/>
+      <c r="I189" s="32"/>
       <c r="J189" s="32"/>
       <c r="K189" s="32"/>
       <c r="L189" s="27" t="s">
@@ -10299,7 +10296,7 @@
       <c r="H190" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="12" t="s">
         <v>148</v>
       </c>
       <c r="J190" s="32"/>
@@ -10333,7 +10330,7 @@
       <c r="H191" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="12" t="s">
         <v>148</v>
       </c>
       <c r="J191" s="32"/>
@@ -10365,7 +10362,7 @@
       <c r="H192" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="I192" s="56"/>
+      <c r="I192" s="32"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32"/>
       <c r="L192" s="27" t="s">
@@ -10397,7 +10394,7 @@
       <c r="H193" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J193" s="32"/>
@@ -10431,7 +10428,7 @@
       <c r="H194" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J194" s="32"/>
@@ -10463,7 +10460,7 @@
       <c r="H195" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="I195" s="56"/>
+      <c r="I195" s="32"/>
       <c r="J195" s="32"/>
       <c r="K195" s="32"/>
       <c r="L195" s="27" t="s">
@@ -10491,7 +10488,7 @@
       <c r="H196" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="I196" s="56"/>
+      <c r="I196" s="32"/>
       <c r="J196" s="32"/>
       <c r="K196" s="32"/>
       <c r="L196" s="27" t="s">
@@ -10521,7 +10518,7 @@
       <c r="H197" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="I197" s="56"/>
+      <c r="I197" s="32"/>
       <c r="J197" s="32"/>
       <c r="K197" s="32"/>
       <c r="L197" s="27" t="s">
@@ -10551,7 +10548,7 @@
       <c r="H198" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="I198" s="56"/>
+      <c r="I198" s="32"/>
       <c r="J198" s="32"/>
       <c r="K198" s="32"/>
       <c r="L198" s="27" t="s">
@@ -10581,7 +10578,7 @@
       <c r="H199" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="I199" s="56"/>
+      <c r="I199" s="32"/>
       <c r="J199" s="32"/>
       <c r="K199" s="32"/>
       <c r="L199" s="27" t="s">
@@ -10611,7 +10608,7 @@
       <c r="H200" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="I200" s="56"/>
+      <c r="I200" s="32"/>
       <c r="J200" s="32"/>
       <c r="K200" s="32"/>
       <c r="L200" s="27" t="s">
@@ -10641,7 +10638,7 @@
       <c r="H201" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="I201" s="56"/>
+      <c r="I201" s="32"/>
       <c r="J201" s="32"/>
       <c r="K201" s="32"/>
       <c r="L201" s="27" t="s">
@@ -10671,7 +10668,7 @@
       <c r="H202" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="I202" s="56"/>
+      <c r="I202" s="32"/>
       <c r="J202" s="32"/>
       <c r="K202" s="32"/>
       <c r="L202" s="27" t="s">
@@ -10701,7 +10698,7 @@
       <c r="H203" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="I203" s="56"/>
+      <c r="I203" s="32"/>
       <c r="J203" s="32"/>
       <c r="K203" s="32"/>
       <c r="L203" s="27" t="s">
@@ -10731,7 +10728,7 @@
       <c r="H204" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="I204" s="56"/>
+      <c r="I204" s="32"/>
       <c r="J204" s="32"/>
       <c r="K204" s="32"/>
       <c r="L204" s="27" t="s">
@@ -10761,7 +10758,7 @@
       <c r="H205" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="I205" s="56"/>
+      <c r="I205" s="32"/>
       <c r="J205" s="32"/>
       <c r="K205" s="32"/>
       <c r="L205" s="27" t="s">
@@ -10791,7 +10788,7 @@
       <c r="H206" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="I206" s="56"/>
+      <c r="I206" s="32"/>
       <c r="J206" s="32"/>
       <c r="K206" s="32"/>
       <c r="L206" s="27" t="s">
@@ -10821,7 +10818,7 @@
       <c r="H207" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="I207" s="56"/>
+      <c r="I207" s="32"/>
       <c r="J207" s="32"/>
       <c r="K207" s="32"/>
       <c r="L207" s="27" t="s">
@@ -10851,7 +10848,7 @@
       <c r="H208" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="I208" s="56"/>
+      <c r="I208" s="32"/>
       <c r="J208" s="32"/>
       <c r="K208" s="32"/>
       <c r="L208" s="27" t="s">
@@ -10881,7 +10878,7 @@
       <c r="H209" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="I209" s="56"/>
+      <c r="I209" s="32"/>
       <c r="J209" s="32"/>
       <c r="K209" s="32"/>
       <c r="L209" s="27" t="s">
@@ -10911,7 +10908,7 @@
       <c r="H210" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="I210" s="56"/>
+      <c r="I210" s="32"/>
       <c r="J210" s="32"/>
       <c r="K210" s="32"/>
       <c r="L210" s="27" t="s">
@@ -10941,7 +10938,7 @@
       <c r="H211" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="I211" s="56"/>
+      <c r="I211" s="32"/>
       <c r="J211" s="32"/>
       <c r="K211" s="32"/>
       <c r="L211" s="27" t="s">
@@ -10971,7 +10968,7 @@
       <c r="H212" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="I212" s="56"/>
+      <c r="I212" s="32"/>
       <c r="J212" s="32"/>
       <c r="K212" s="32"/>
       <c r="L212" s="27" t="s">
@@ -11001,7 +10998,7 @@
       <c r="H213" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="I213" s="56"/>
+      <c r="I213" s="32"/>
       <c r="J213" s="32"/>
       <c r="K213" s="32"/>
       <c r="L213" s="27" t="s">
@@ -11031,7 +11028,7 @@
       <c r="H214" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="I214" s="56"/>
+      <c r="I214" s="32"/>
       <c r="J214" s="32"/>
       <c r="K214" s="32"/>
       <c r="L214" s="27" t="s">
@@ -11061,7 +11058,7 @@
       <c r="H215" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="I215" s="56"/>
+      <c r="I215" s="32"/>
       <c r="J215" s="32"/>
       <c r="K215" s="32"/>
       <c r="L215" s="27" t="s">
@@ -11091,7 +11088,7 @@
       <c r="H216" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="I216" s="56"/>
+      <c r="I216" s="32"/>
       <c r="J216" s="32"/>
       <c r="K216" s="32"/>
       <c r="L216" s="27" t="s">
@@ -11121,7 +11118,7 @@
       <c r="H217" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I217" s="56"/>
+      <c r="I217" s="32"/>
       <c r="J217" s="32"/>
       <c r="K217" s="32"/>
       <c r="L217" s="27" t="s">
@@ -11151,7 +11148,7 @@
       <c r="H218" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="I218" s="56"/>
+      <c r="I218" s="32"/>
       <c r="J218" s="32"/>
       <c r="K218" s="32"/>
       <c r="L218" s="27" t="s">
@@ -11181,7 +11178,7 @@
       <c r="H219" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="I219" s="56"/>
+      <c r="I219" s="32"/>
       <c r="J219" s="32"/>
       <c r="K219" s="32"/>
       <c r="L219" s="27" t="s">
@@ -11211,7 +11208,7 @@
       <c r="H220" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="I220" s="56"/>
+      <c r="I220" s="32"/>
       <c r="J220" s="32"/>
       <c r="K220" s="32"/>
       <c r="L220" s="27" t="s">
@@ -11241,7 +11238,7 @@
       <c r="H221" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="I221" s="56"/>
+      <c r="I221" s="32"/>
       <c r="J221" s="32"/>
       <c r="K221" s="32"/>
       <c r="L221" s="27" t="s">
@@ -11271,7 +11268,7 @@
       <c r="H222" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I222" s="56"/>
+      <c r="I222" s="32"/>
       <c r="J222" s="32"/>
       <c r="K222" s="32"/>
       <c r="L222" s="27" t="s">
@@ -11301,7 +11298,7 @@
       <c r="H223" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="I223" s="56"/>
+      <c r="I223" s="32"/>
       <c r="J223" s="32"/>
       <c r="K223" s="32"/>
       <c r="L223" s="27" t="s">
@@ -11331,7 +11328,7 @@
       <c r="H224" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="I224" s="56"/>
+      <c r="I224" s="32"/>
       <c r="J224" s="32"/>
       <c r="K224" s="32"/>
       <c r="L224" s="27" t="s">
@@ -11361,7 +11358,7 @@
       <c r="H225" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="I225" s="56"/>
+      <c r="I225" s="32"/>
       <c r="J225" s="32"/>
       <c r="K225" s="32"/>
       <c r="L225" s="27" t="s">
@@ -11389,7 +11386,7 @@
       <c r="H226" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="I226" s="56"/>
+      <c r="I226" s="32"/>
       <c r="J226" s="32"/>
       <c r="K226" s="32"/>
       <c r="L226" s="27" t="s">
@@ -11419,7 +11416,7 @@
       <c r="H227" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="I227" s="56"/>
+      <c r="I227" s="32"/>
       <c r="J227" s="32"/>
       <c r="K227" s="32"/>
       <c r="L227" s="27" t="s">
@@ -11449,7 +11446,7 @@
       <c r="H228" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I228" s="56"/>
+      <c r="I228" s="32"/>
       <c r="J228" s="32"/>
       <c r="K228" s="32"/>
       <c r="L228" s="27" t="s">
@@ -11479,7 +11476,7 @@
       <c r="H229" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="I229" s="56"/>
+      <c r="I229" s="32"/>
       <c r="J229" s="32"/>
       <c r="K229" s="32"/>
       <c r="L229" s="27" t="s">
@@ -11509,7 +11506,7 @@
       <c r="H230" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="I230" s="56"/>
+      <c r="I230" s="32"/>
       <c r="J230" s="32"/>
       <c r="K230" s="32"/>
       <c r="L230" s="27" t="s">
@@ -11537,7 +11534,7 @@
       <c r="H231" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I231" s="56"/>
+      <c r="I231" s="32"/>
       <c r="J231" s="32"/>
       <c r="K231" s="32"/>
       <c r="L231" s="27" t="s">
@@ -11567,7 +11564,7 @@
       <c r="H232" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="I232" s="56"/>
+      <c r="I232" s="32"/>
       <c r="J232" s="32"/>
       <c r="K232" s="32"/>
       <c r="L232" s="27" t="s">
@@ -11597,7 +11594,7 @@
       <c r="H233" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="I233" s="56"/>
+      <c r="I233" s="32"/>
       <c r="J233" s="32"/>
       <c r="K233" s="32"/>
       <c r="L233" s="27" t="s">
@@ -11627,7 +11624,7 @@
       <c r="H234" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="I234" s="56"/>
+      <c r="I234" s="32"/>
       <c r="J234" s="32"/>
       <c r="K234" s="32"/>
       <c r="L234" s="32" t="s">
@@ -11657,7 +11654,7 @@
       <c r="H235" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="I235" s="56"/>
+      <c r="I235" s="32"/>
       <c r="J235" s="32"/>
       <c r="K235" s="32"/>
       <c r="L235" s="32" t="s">
@@ -11687,7 +11684,7 @@
       <c r="H236" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="I236" s="56"/>
+      <c r="I236" s="32"/>
       <c r="J236" s="32"/>
       <c r="K236" s="32"/>
       <c r="L236" s="32" t="s">
@@ -11715,7 +11712,7 @@
       <c r="H237" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="I237" s="56"/>
+      <c r="I237" s="32"/>
       <c r="J237" s="32"/>
       <c r="K237" s="32"/>
       <c r="L237" s="32" t="s">
@@ -11745,7 +11742,7 @@
       <c r="H238" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="I238" s="56"/>
+      <c r="I238" s="32"/>
       <c r="J238" s="32"/>
       <c r="K238" s="32"/>
       <c r="L238" s="32" t="s">
@@ -11775,7 +11772,7 @@
       <c r="H239" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="I239" s="56"/>
+      <c r="I239" s="32"/>
       <c r="J239" s="32"/>
       <c r="K239" s="32"/>
       <c r="L239" s="32" t="s">
@@ -11805,7 +11802,7 @@
       <c r="H240" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="I240" s="56"/>
+      <c r="I240" s="32"/>
       <c r="J240" s="32"/>
       <c r="K240" s="32"/>
       <c r="L240" s="32" t="s">
@@ -11835,7 +11832,7 @@
       <c r="H241" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="I241" s="56"/>
+      <c r="I241" s="32"/>
       <c r="J241" s="32"/>
       <c r="K241" s="32"/>
       <c r="L241" s="32" t="s">
@@ -11865,7 +11862,7 @@
       <c r="H242" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="I242" s="56"/>
+      <c r="I242" s="32"/>
       <c r="J242" s="32"/>
       <c r="K242" s="32"/>
       <c r="L242" s="32" t="s">
@@ -11895,7 +11892,7 @@
       <c r="H243" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="I243" s="56"/>
+      <c r="I243" s="32"/>
       <c r="J243" s="32"/>
       <c r="K243" s="32"/>
       <c r="L243" s="32" t="s">
@@ -11927,7 +11924,7 @@
       <c r="H244" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="I244" s="56"/>
+      <c r="I244" s="32"/>
       <c r="J244" s="32"/>
       <c r="K244" s="32"/>
       <c r="L244" s="32" t="s">
@@ -11959,7 +11956,7 @@
       <c r="H245" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="I245" s="56"/>
+      <c r="I245" s="32"/>
       <c r="J245" s="32"/>
       <c r="K245" s="32"/>
       <c r="L245" s="32" t="s">
@@ -11989,7 +11986,7 @@
       <c r="H246" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="I246" s="56"/>
+      <c r="I246" s="32"/>
       <c r="J246" s="32"/>
       <c r="K246" s="32"/>
       <c r="L246" s="32" t="s">
@@ -12017,7 +12014,7 @@
       <c r="H247" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="I247" s="56"/>
+      <c r="I247" s="32"/>
       <c r="J247" s="32"/>
       <c r="K247" s="32"/>
       <c r="L247" s="32" t="s">
@@ -12047,7 +12044,7 @@
       <c r="H248" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="I248" s="56"/>
+      <c r="I248" s="32"/>
       <c r="J248" s="32"/>
       <c r="K248" s="32"/>
       <c r="L248" s="32" t="s">
@@ -12077,7 +12074,7 @@
       <c r="H249" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="I249" s="56"/>
+      <c r="I249" s="32"/>
       <c r="J249" s="32"/>
       <c r="K249" s="32"/>
       <c r="L249" s="32" t="s">
@@ -12109,7 +12106,7 @@
       <c r="H250" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="I250" s="56"/>
+      <c r="I250" s="32"/>
       <c r="J250" s="32"/>
       <c r="K250" s="32"/>
       <c r="L250" s="32" t="s">
@@ -12141,7 +12138,7 @@
       <c r="H251" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="I251" s="56"/>
+      <c r="I251" s="32"/>
       <c r="J251" s="32"/>
       <c r="K251" s="32"/>
       <c r="L251" s="32" t="s">
@@ -12171,7 +12168,7 @@
       <c r="H252" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="I252" s="56"/>
+      <c r="I252" s="32"/>
       <c r="J252" s="32"/>
       <c r="K252" s="32"/>
       <c r="L252" s="32" t="s">
@@ -12201,7 +12198,7 @@
       <c r="H253" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="I253" s="56"/>
+      <c r="I253" s="32"/>
       <c r="J253" s="32"/>
       <c r="K253" s="32"/>
       <c r="L253" s="32" t="s">
@@ -12229,7 +12226,7 @@
       <c r="H254" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="I254" s="56"/>
+      <c r="I254" s="32"/>
       <c r="J254" s="32"/>
       <c r="K254" s="32"/>
       <c r="L254" s="32" t="s">
@@ -12259,7 +12256,7 @@
       <c r="H255" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="I255" s="56"/>
+      <c r="I255" s="32"/>
       <c r="J255" s="32"/>
       <c r="K255" s="32"/>
       <c r="L255" s="32" t="s">
@@ -12289,7 +12286,7 @@
       <c r="H256" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="I256" s="56"/>
+      <c r="I256" s="32"/>
       <c r="J256" s="32"/>
       <c r="K256" s="32"/>
       <c r="L256" s="32" t="s">
@@ -12319,7 +12316,7 @@
       <c r="H257" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="I257" s="56"/>
+      <c r="I257" s="32"/>
       <c r="J257" s="32"/>
       <c r="K257" s="32"/>
       <c r="L257" s="32" t="s">
@@ -12349,7 +12346,7 @@
       <c r="H258" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="I258" s="56"/>
+      <c r="I258" s="32"/>
       <c r="J258" s="32"/>
       <c r="K258" s="32"/>
       <c r="L258" s="32" t="s">
@@ -12379,7 +12376,7 @@
       <c r="H259" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="I259" s="56"/>
+      <c r="I259" s="32"/>
       <c r="J259" s="32"/>
       <c r="K259" s="32"/>
       <c r="L259" s="32" t="s">
@@ -12409,7 +12406,7 @@
       <c r="H260" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="I260" s="56"/>
+      <c r="I260" s="32"/>
       <c r="J260" s="32"/>
       <c r="K260" s="32"/>
       <c r="L260" s="32" t="s">
@@ -12439,7 +12436,7 @@
       <c r="H261" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="I261" s="56"/>
+      <c r="I261" s="32"/>
       <c r="J261" s="32"/>
       <c r="K261" s="32"/>
       <c r="L261" s="32" t="s">
@@ -12469,7 +12466,7 @@
       <c r="H262" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="I262" s="56"/>
+      <c r="I262" s="32"/>
       <c r="J262" s="32"/>
       <c r="K262" s="32"/>
       <c r="L262" s="32" t="s">
@@ -12499,7 +12496,7 @@
       <c r="H263" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="I263" s="56"/>
+      <c r="I263" s="32"/>
       <c r="J263" s="32"/>
       <c r="K263" s="32"/>
       <c r="L263" s="32" t="s">
@@ -12529,7 +12526,7 @@
       <c r="H264" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="I264" s="56"/>
+      <c r="I264" s="32"/>
       <c r="J264" s="32"/>
       <c r="K264" s="32"/>
       <c r="L264" s="32" t="s">
@@ -12559,7 +12556,7 @@
       <c r="H265" s="32" t="s">
         <v>630</v>
       </c>
-      <c r="I265" s="56"/>
+      <c r="I265" s="32"/>
       <c r="J265" s="32"/>
       <c r="K265" s="32"/>
       <c r="L265" s="32" t="s">
@@ -12589,7 +12586,7 @@
       <c r="H266" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="I266" s="56"/>
+      <c r="I266" s="32"/>
       <c r="J266" s="32"/>
       <c r="K266" s="32"/>
       <c r="L266" s="32" t="s">
@@ -12597,107 +12594,106 @@
       </c>
     </row>
     <row r="267" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I267" s="58"/>
+      <c r="I267" s="16"/>
       <c r="J267" s="16"/>
       <c r="K267" s="16"/>
     </row>
     <row r="268" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I268" s="58"/>
+      <c r="I268" s="16"/>
       <c r="J268" s="16"/>
       <c r="K268" s="16"/>
     </row>
     <row r="269" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I269" s="58"/>
+      <c r="I269" s="16"/>
       <c r="J269" s="16"/>
       <c r="K269" s="16"/>
     </row>
     <row r="270" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I270" s="58"/>
+      <c r="I270" s="16"/>
       <c r="J270" s="16"/>
       <c r="K270" s="16"/>
     </row>
     <row r="271" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I271" s="58"/>
+      <c r="I271" s="16"/>
       <c r="J271" s="16"/>
       <c r="K271" s="16"/>
     </row>
     <row r="272" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I272" s="58"/>
+      <c r="I272" s="16"/>
       <c r="J272" s="16"/>
       <c r="K272" s="16"/>
     </row>
     <row r="273" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I273" s="58"/>
+      <c r="I273" s="16"/>
       <c r="J273" s="16"/>
       <c r="K273" s="16"/>
     </row>
     <row r="274" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I274" s="58"/>
+      <c r="I274" s="16"/>
       <c r="J274" s="16"/>
       <c r="K274" s="16"/>
     </row>
     <row r="275" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I275" s="58"/>
+      <c r="I275" s="16"/>
       <c r="J275" s="16"/>
       <c r="K275" s="16"/>
     </row>
     <row r="276" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I276" s="58"/>
+      <c r="I276" s="16"/>
       <c r="J276" s="16"/>
       <c r="K276" s="16"/>
     </row>
     <row r="277" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I277" s="58"/>
+      <c r="I277" s="16"/>
       <c r="J277" s="16"/>
       <c r="K277" s="16"/>
     </row>
     <row r="278" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I278" s="58"/>
+      <c r="I278" s="16"/>
       <c r="J278" s="16"/>
       <c r="K278" s="16"/>
     </row>
     <row r="279" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I279" s="58"/>
+      <c r="I279" s="16"/>
       <c r="J279" s="16"/>
       <c r="K279" s="16"/>
     </row>
     <row r="280" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I280" s="58"/>
+      <c r="I280" s="16"/>
       <c r="J280" s="16"/>
       <c r="K280" s="16"/>
     </row>
     <row r="281" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I281" s="58"/>
+      <c r="I281" s="16"/>
       <c r="J281" s="16"/>
       <c r="K281" s="16"/>
     </row>
     <row r="282" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I282" s="58"/>
+      <c r="I282" s="16"/>
       <c r="J282" s="16"/>
       <c r="K282" s="16"/>
     </row>
     <row r="283" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I283" s="58"/>
+      <c r="I283" s="16"/>
       <c r="J283" s="16"/>
       <c r="K283" s="16"/>
     </row>
     <row r="284" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I284" s="58"/>
+      <c r="I284" s="16"/>
       <c r="J284" s="16"/>
       <c r="K284" s="16"/>
     </row>
-    <row r="310" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="16"/>
       <c r="E310" s="16"/>
       <c r="G310" s="16"/>
-      <c r="I310" s="51"/>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" s="11"/>
     </row>
     <row r="432" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B432" s="4"/>
-      <c r="I432" s="57"/>
+      <c r="I432" s="12"/>
       <c r="J432" s="12"/>
       <c r="K432" s="12"/>
     </row>
@@ -12707,19 +12703,19 @@
     <row r="438" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="4"/>
-      <c r="I438" s="57"/>
+      <c r="I438" s="12"/>
       <c r="J438" s="12"/>
       <c r="K438" s="12"/>
     </row>
     <row r="442" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B442" s="4"/>
-      <c r="I442" s="57"/>
+      <c r="I442" s="12"/>
       <c r="J442" s="12"/>
       <c r="K442" s="12"/>
     </row>
     <row r="455" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B455" s="4"/>
-      <c r="I455" s="57"/>
+      <c r="I455" s="12"/>
       <c r="J455" s="12"/>
       <c r="K455" s="12"/>
     </row>
@@ -12730,7 +12726,7 @@
       <c r="E466" s="5"/>
       <c r="G466" s="10"/>
       <c r="H466" s="2"/>
-      <c r="I466" s="59"/>
+      <c r="I466" s="47"/>
       <c r="J466" s="47"/>
     </row>
   </sheetData>
@@ -12741,148 +12737,21 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{97D0FE00-0703-48CF-A3AC-F8C02E75A146}"/>
     <hyperlink ref="C3" r:id="rId2" display="http://registry.it.csiro.au/sandbox/soil/scma/" xr:uid="{BB921B57-84FB-4D0B-B401-C316ED0CBD5E}"/>
     <hyperlink ref="B1" r:id="rId3" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{E5A211B5-32F4-4D0B-A082-A3D428E2FB08}"/>
-    <hyperlink ref="H101" r:id="rId4" xr:uid="{EEBDE4B1-0DD6-4612-88C0-B735090E9501}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{E133B0A9-2102-4B70-B4D3-0F005238F1C8}"/>
-    <hyperlink ref="H23" r:id="rId6" xr:uid="{C2FF9382-F0D3-4DDB-B13B-B680CE4F0723}"/>
-    <hyperlink ref="H25" r:id="rId7" xr:uid="{F73CDF40-F07F-4C3C-8600-0E2CE348D63A}"/>
-    <hyperlink ref="H24" r:id="rId8" xr:uid="{B3044B37-ED38-4021-92EB-D5409748A694}"/>
-    <hyperlink ref="H26" r:id="rId9" xr:uid="{8997AEED-3870-4186-BF93-F48113F0D8E2}"/>
-    <hyperlink ref="H27" r:id="rId10" xr:uid="{B79223AD-2790-44F4-91D4-35C54B10AD8E}"/>
-    <hyperlink ref="H28" r:id="rId11" xr:uid="{09CDD2EF-A9EF-41FA-B745-024C44575924}"/>
-    <hyperlink ref="H29" r:id="rId12" xr:uid="{71C26BA7-A3A0-4FB1-BD33-D87CFD1A2BB3}"/>
-    <hyperlink ref="H30" r:id="rId13" xr:uid="{E985A4E3-76D0-41F8-9319-ACC232F7EE1A}"/>
-    <hyperlink ref="H31" r:id="rId14" xr:uid="{CE1D834B-B724-4DFD-BA7C-1FA4257ABB7E}"/>
-    <hyperlink ref="H32" r:id="rId15" xr:uid="{8C269AF2-7601-4D77-B12D-28FE7FFE4146}"/>
-    <hyperlink ref="H33" r:id="rId16" xr:uid="{CE60EF66-59B6-426A-9306-596394EF599E}"/>
-    <hyperlink ref="H34" r:id="rId17" xr:uid="{D8A52B5D-8C0A-4294-A7C4-385DEBBFFD24}"/>
-    <hyperlink ref="H35" r:id="rId18" xr:uid="{10791093-B6E3-45E2-BC5B-4A23CB11FE86}"/>
-    <hyperlink ref="H36" r:id="rId19" xr:uid="{5EA5C958-0A5F-4349-8E0D-38609AD667FE}"/>
-    <hyperlink ref="H37" r:id="rId20" xr:uid="{607CA16D-3BE3-4653-AD09-8C01148B682D}"/>
-    <hyperlink ref="H38" r:id="rId21" xr:uid="{96842548-73F0-4924-A365-FC9BA3AAE53A}"/>
-    <hyperlink ref="H39" r:id="rId22" xr:uid="{1FE1F2AE-CAFE-4688-B320-EE7E89A56AFA}"/>
-    <hyperlink ref="H40" r:id="rId23" xr:uid="{C65F495D-F94C-4EBC-9E2F-763351E275E7}"/>
-    <hyperlink ref="H41" r:id="rId24" xr:uid="{ADBFE709-CE02-4E12-B45F-A028BE110B0E}"/>
-    <hyperlink ref="H42" r:id="rId25" xr:uid="{6E814CC4-041C-433E-A919-723D6918818E}"/>
-    <hyperlink ref="H43" r:id="rId26" xr:uid="{44766BEC-D242-42B2-A3F0-50602E9C9163}"/>
-    <hyperlink ref="H44" r:id="rId27" xr:uid="{B2873706-02CF-4F46-91DC-384D793A1FEF}"/>
-    <hyperlink ref="H45" r:id="rId28" xr:uid="{2303AFE4-1D1D-482A-A37B-01A52ADC2441}"/>
-    <hyperlink ref="H46" r:id="rId29" xr:uid="{04F8FA96-26FC-4079-BAB2-D55AA7397AC7}"/>
-    <hyperlink ref="H47" r:id="rId30" xr:uid="{D3DEE526-CB71-4FEF-A11E-40954F2107F6}"/>
-    <hyperlink ref="H48" r:id="rId31" xr:uid="{54D59568-0F44-41A5-975C-711B2A3549B3}"/>
-    <hyperlink ref="H49" r:id="rId32" xr:uid="{3F4304AA-4E49-4C6E-9627-4C8C82B02BE2}"/>
-    <hyperlink ref="H50" r:id="rId33" xr:uid="{B264FF7C-4973-486A-B973-8E3161271E08}"/>
-    <hyperlink ref="H51" r:id="rId34" xr:uid="{EB5059B7-8C44-4ABB-B98F-212A33536EBF}"/>
-    <hyperlink ref="H52" r:id="rId35" xr:uid="{B2A6B984-85FF-4C96-8406-5AC849CDDB9C}"/>
-    <hyperlink ref="H53" r:id="rId36" xr:uid="{6CF8706A-04DD-4B16-88E9-65A2A0B1D0AA}"/>
-    <hyperlink ref="H54" r:id="rId37" xr:uid="{038A3AAD-3A3B-49CC-A9BB-BAF2C1292607}"/>
-    <hyperlink ref="H55" r:id="rId38" xr:uid="{24B9D37D-3528-4DC3-82A0-67DEAB43E87A}"/>
-    <hyperlink ref="H56" r:id="rId39" xr:uid="{8F3A0BF3-1793-473C-A867-AE7143113DFC}"/>
-    <hyperlink ref="H57" r:id="rId40" xr:uid="{7043C69B-A9AB-4C10-963D-828A275A8424}"/>
-    <hyperlink ref="H58" r:id="rId41" xr:uid="{4C15D622-DF99-4B13-8BEF-C5B34BFC6851}"/>
-    <hyperlink ref="H59" r:id="rId42" xr:uid="{42F785DE-2239-4E07-8FAB-40176C25F1C3}"/>
-    <hyperlink ref="H60" r:id="rId43" xr:uid="{C30D4EC9-3218-4DE4-9644-2988889BBB2E}"/>
-    <hyperlink ref="H61" r:id="rId44" xr:uid="{94260C5C-5F50-4F21-A00A-FAB6260015CE}"/>
-    <hyperlink ref="H62" r:id="rId45" xr:uid="{A7307C21-0183-40E0-8537-CAF4F18FF646}"/>
-    <hyperlink ref="H63" r:id="rId46" xr:uid="{9935A569-9D2F-45D5-873A-0263A0D3DCE5}"/>
-    <hyperlink ref="H64" r:id="rId47" xr:uid="{E3B4AFFD-324D-4C1A-91E9-480094454DA2}"/>
-    <hyperlink ref="H65" r:id="rId48" xr:uid="{458B00C9-1AFB-4D7D-8FB7-F31A861DF330}"/>
-    <hyperlink ref="H66" r:id="rId49" xr:uid="{444BA33D-FF27-433A-9C32-F84DDC01660A}"/>
-    <hyperlink ref="H67" r:id="rId50" xr:uid="{116DBB23-7695-4C54-ACE3-D987EFFDA3F7}"/>
-    <hyperlink ref="H68" r:id="rId51" xr:uid="{042E0840-517B-4791-8E90-B4EC578C9D2B}"/>
-    <hyperlink ref="H69" r:id="rId52" xr:uid="{5A2356E0-DDBF-4C86-BB51-2DF3688CD7CD}"/>
-    <hyperlink ref="H70" r:id="rId53" xr:uid="{2A47DD12-8BEF-4761-9969-C6CF791EC71B}"/>
-    <hyperlink ref="H71" r:id="rId54" xr:uid="{0ABD807B-FB28-42A3-8AD5-48E60EC44EEB}"/>
-    <hyperlink ref="H72" r:id="rId55" xr:uid="{EEFA4777-BED3-4643-942F-41E7F54C32B1}"/>
-    <hyperlink ref="H73" r:id="rId56" xr:uid="{E822234A-986A-4939-B122-A149DEDBC268}"/>
-    <hyperlink ref="H74" r:id="rId57" xr:uid="{451F1084-2FCD-4185-A956-8E9AFFD90F00}"/>
-    <hyperlink ref="H75" r:id="rId58" xr:uid="{38EBFBBC-A5AE-444F-A6E0-8094325F08C6}"/>
-    <hyperlink ref="H76" r:id="rId59" xr:uid="{B3DDE945-C4A2-4876-A6F4-7690FD056664}"/>
-    <hyperlink ref="H77" r:id="rId60" xr:uid="{EA9D952B-89F0-431C-8E90-8BC4175D81AE}"/>
-    <hyperlink ref="H78" r:id="rId61" xr:uid="{108CFA1C-EC87-47D1-8A03-32DBA9B15B08}"/>
-    <hyperlink ref="H79" r:id="rId62" xr:uid="{F8048E0A-7160-48A8-B2B3-6BA24D9B860D}"/>
-    <hyperlink ref="H80" r:id="rId63" xr:uid="{55A87BE5-2918-44C4-9C1D-633C8666456F}"/>
-    <hyperlink ref="H81" r:id="rId64" xr:uid="{68DF4544-4FBF-4EAC-A003-959218309527}"/>
-    <hyperlink ref="H82" r:id="rId65" xr:uid="{93059364-826C-46F4-AD7C-7F72871B9A94}"/>
-    <hyperlink ref="H83" r:id="rId66" xr:uid="{0B087EA7-F120-4727-99C2-F329428C5435}"/>
-    <hyperlink ref="H84" r:id="rId67" xr:uid="{1FB457D2-DD9E-42A8-8DFE-0797C3D82568}"/>
-    <hyperlink ref="H85" r:id="rId68" xr:uid="{463B4599-81E9-464E-B383-E8D1DE9F834A}"/>
-    <hyperlink ref="H86" r:id="rId69" xr:uid="{B17D9BB6-ED29-49D3-9160-7F2EDC4B0B4D}"/>
-    <hyperlink ref="H87" r:id="rId70" xr:uid="{544FD381-53BE-4494-B61C-EB2C61CDC6AE}"/>
-    <hyperlink ref="H88" r:id="rId71" xr:uid="{245FEDB8-5B56-4FF2-B4E2-BECA49BF3710}"/>
-    <hyperlink ref="H89" r:id="rId72" xr:uid="{814E7FC5-CD6E-46C2-B12D-35DF747BF53E}"/>
-    <hyperlink ref="H90" r:id="rId73" xr:uid="{D4F99BF0-B056-496F-B5CA-0470C51FF42B}"/>
-    <hyperlink ref="H91" r:id="rId74" xr:uid="{8C035E70-5FF8-44A6-91DD-9B7FB9F0AF5D}"/>
-    <hyperlink ref="H92" r:id="rId75" xr:uid="{D9CE653B-BC2C-44F3-80B4-3A6244080E3E}"/>
-    <hyperlink ref="H93" r:id="rId76" xr:uid="{A690E846-0D18-4F97-8041-105C312E70FE}"/>
-    <hyperlink ref="H94" r:id="rId77" xr:uid="{7B01169F-DA34-47A8-B2CC-FBE48266B2D4}"/>
-    <hyperlink ref="H95" r:id="rId78" xr:uid="{0B1BC9AC-32CE-4F96-B446-197ADDA8A5B1}"/>
-    <hyperlink ref="H96" r:id="rId79" xr:uid="{E61EEF15-15EB-4C02-8D15-8A250FA7E5E1}"/>
-    <hyperlink ref="H97" r:id="rId80" xr:uid="{753C633E-C956-4C3C-8E6C-2AE5A5C39A0E}"/>
-    <hyperlink ref="H98" r:id="rId81" xr:uid="{8D215B3E-B892-4E2E-BC17-20CE9F50A903}"/>
-    <hyperlink ref="H99" r:id="rId82" xr:uid="{318DD0A0-606D-41AC-B2EC-38FE7726D6EF}"/>
-    <hyperlink ref="H100" r:id="rId83" xr:uid="{11C268A6-DA0F-493A-B6B6-4B0BFFAAE71F}"/>
-    <hyperlink ref="H102" r:id="rId84" xr:uid="{3A372577-521E-4B46-B4F1-69260DE1429F}"/>
-    <hyperlink ref="H103" r:id="rId85" xr:uid="{E5CB64B0-1B45-40CB-9C9A-20D145A8B06F}"/>
-    <hyperlink ref="H104" r:id="rId86" xr:uid="{A8799EC5-46CC-45EE-BCB5-0D3839045BDD}"/>
-    <hyperlink ref="H105" r:id="rId87" xr:uid="{70B1BCA6-2CFC-488C-A306-B33F8C170AA1}"/>
-    <hyperlink ref="H106" r:id="rId88" xr:uid="{83D7F4A1-CFAD-42F4-9AFE-3D7EE7E10745}"/>
-    <hyperlink ref="H107" r:id="rId89" xr:uid="{DB9F0621-69E1-46DA-942E-7A6B8AF59231}"/>
-    <hyperlink ref="H108" r:id="rId90" xr:uid="{9D86A04A-8188-4D0C-BCCA-043EB534F089}"/>
-    <hyperlink ref="H109" r:id="rId91" xr:uid="{7300CCDE-F443-46E6-BF59-C7F681DBEE39}"/>
-    <hyperlink ref="H110" r:id="rId92" xr:uid="{0F7255B3-D7CF-4071-8ACF-7344D457499B}"/>
-    <hyperlink ref="H111" r:id="rId93" xr:uid="{0FE87BA5-41A8-4ACE-A4C0-25845C66BE57}"/>
-    <hyperlink ref="H112" r:id="rId94" xr:uid="{9C95D233-A896-4C34-8F48-86AA2B467DE0}"/>
-    <hyperlink ref="H113" r:id="rId95" xr:uid="{22352B93-55D0-4FF5-A74F-C04A1ECB24A1}"/>
-    <hyperlink ref="H114" r:id="rId96" xr:uid="{AC9C7D61-1D6E-4BF5-A2C9-6C61A4010947}"/>
-    <hyperlink ref="H115" r:id="rId97" xr:uid="{A354F55D-0159-4659-A46F-D0D1ABDB00AA}"/>
-    <hyperlink ref="H116" r:id="rId98" xr:uid="{D18CD574-13FE-4462-8C46-0E8A7361801D}"/>
-    <hyperlink ref="H117" r:id="rId99" xr:uid="{14FEF371-A2B0-4E5D-8CBA-B8935EE0FA43}"/>
-    <hyperlink ref="H118" r:id="rId100" xr:uid="{0DC0011E-7B57-48E0-97C0-EC87042D4BC3}"/>
-    <hyperlink ref="H119" r:id="rId101" xr:uid="{77C7F458-0DC9-4AAD-822D-B5DEB37AAA1A}"/>
-    <hyperlink ref="H120" r:id="rId102" xr:uid="{BDB1EF2F-239F-44B1-90D5-0F31382C2C5E}"/>
-    <hyperlink ref="H121" r:id="rId103" xr:uid="{DF57E2A8-5E54-474E-967C-B71348024A3D}"/>
-    <hyperlink ref="H122" r:id="rId104" xr:uid="{8B909111-A6E0-4895-BA45-1861FF9AB4A0}"/>
-    <hyperlink ref="H123" r:id="rId105" xr:uid="{497AB634-294B-415E-B9C0-74C6565BD18A}"/>
-    <hyperlink ref="H124" r:id="rId106" xr:uid="{794E010E-1D95-4D67-82EB-FED4A712915F}"/>
-    <hyperlink ref="H125" r:id="rId107" xr:uid="{6CDCCAB4-2D3A-49B7-BA79-3F7121CAE9D6}"/>
-    <hyperlink ref="H126" r:id="rId108" xr:uid="{B80AAE6C-6F23-4FB4-88C0-654D8CA9DB1D}"/>
-    <hyperlink ref="H127" r:id="rId109" xr:uid="{82B6819A-FDFF-48D1-A356-A855FDBFAFE6}"/>
-    <hyperlink ref="H128" r:id="rId110" xr:uid="{44A4A353-763A-4764-B978-D1E959D382A4}"/>
-    <hyperlink ref="H129" r:id="rId111" xr:uid="{353019F8-E544-4554-A9A3-DCCF7BCC3550}"/>
-    <hyperlink ref="H130" r:id="rId112" xr:uid="{F2FFD126-78E7-4B32-A41A-A6A03C758AEC}"/>
-    <hyperlink ref="H131" r:id="rId113" xr:uid="{B8356D80-7202-440D-BD55-BF053E7FEDF5}"/>
-    <hyperlink ref="H132" r:id="rId114" xr:uid="{44C2998E-83BF-4F52-9B74-8B4E5708DC99}"/>
-    <hyperlink ref="H133" r:id="rId115" xr:uid="{E2F2AF34-C274-48C4-93F7-546C4A5C2A68}"/>
-    <hyperlink ref="H134" r:id="rId116" xr:uid="{38585B5E-42D6-457F-B99F-9CFB272FA431}"/>
-    <hyperlink ref="H135" r:id="rId117" xr:uid="{31C01C94-99C6-48B0-B533-BA3B849D6E1D}"/>
-    <hyperlink ref="H136" r:id="rId118" xr:uid="{A7C02DB8-C5FA-4D90-84B1-B2961265ECC6}"/>
-    <hyperlink ref="H137" r:id="rId119" xr:uid="{2B6402E8-1992-40C5-8197-CD2D06F90523}"/>
-    <hyperlink ref="H138" r:id="rId120" xr:uid="{972ED25F-DBCC-4870-8713-F990CC9289D2}"/>
-    <hyperlink ref="H139" r:id="rId121" xr:uid="{68823C12-40A9-4943-9762-6DBA7706B4A5}"/>
-    <hyperlink ref="H140" r:id="rId122" xr:uid="{1AB29C94-6B5B-4779-A8EE-DA6B21A53EA3}"/>
-    <hyperlink ref="H141" r:id="rId123" xr:uid="{4710DB72-3D5A-4B8A-A6EC-B3A840101DE8}"/>
-    <hyperlink ref="H142" r:id="rId124" xr:uid="{28A137D9-595A-4906-8CF8-8BA5E7FE9C87}"/>
-    <hyperlink ref="H143" r:id="rId125" xr:uid="{7D53ADEA-415E-43FD-BB10-12F0D9780AB3}"/>
-    <hyperlink ref="H144" r:id="rId126" xr:uid="{513446C8-4482-4AFA-A151-9D4A04937B76}"/>
-    <hyperlink ref="H145" r:id="rId127" xr:uid="{BB8908F5-DC6A-4B75-A058-7A243E84224E}"/>
-    <hyperlink ref="E23" r:id="rId128" xr:uid="{D8EC1A48-443B-49CD-8D26-7CC2AA23D135}"/>
-    <hyperlink ref="E24" r:id="rId129" xr:uid="{91C75FD7-25DF-42C8-AD4B-B2402A824327}"/>
-    <hyperlink ref="E25" r:id="rId130" xr:uid="{99A72291-0FF9-459A-85D7-36F2B3051B7B}"/>
-    <hyperlink ref="B16" r:id="rId131" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{7F51B6B3-1B6F-4778-BCFF-9D0D8B93E835}"/>
-    <hyperlink ref="E52" r:id="rId132" xr:uid="{0B886457-8AB9-4712-BE77-451FB95C6F9F}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E133B0A9-2102-4B70-B4D3-0F005238F1C8}"/>
+    <hyperlink ref="B16" r:id="rId5" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{7F51B6B3-1B6F-4778-BCFF-9D0D8B93E835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId133"/>
-  <legacyDrawing r:id="rId134"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25E589-C762-47F7-A5B5-46A66BE90C97}">
-  <dimension ref="A1:L461"/>
+  <dimension ref="A1:K461"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12896,12 +12765,12 @@
     <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="39.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="57.5703125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12916,10 +12785,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="43"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12936,10 +12804,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="43"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -12956,10 +12823,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="43"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -12976,10 +12842,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="43"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -12996,10 +12861,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="43"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>640</v>
       </c>
@@ -13014,10 +12878,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="43"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>641</v>
       </c>
@@ -13032,10 +12895,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="43"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>638</v>
       </c>
@@ -13050,10 +12912,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="43"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>642</v>
       </c>
@@ -13068,10 +12929,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="43"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>643</v>
       </c>
@@ -13086,10 +12946,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="43"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>644</v>
       </c>
@@ -13104,10 +12963,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="43"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>644</v>
       </c>
@@ -13122,10 +12980,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="43"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>645</v>
       </c>
@@ -13140,10 +12997,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="43"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>646</v>
       </c>
@@ -13158,10 +13014,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="43"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13176,10 +13031,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="43"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>649</v>
       </c>
@@ -13194,10 +13048,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="43"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -13208,10 +13061,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -13222,10 +13074,9 @@
       <c r="H18" s="35"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>637</v>
       </c>
@@ -13238,10 +13089,9 @@
       <c r="H19" s="6"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -13254,10 +13104,9 @@
       <c r="H20" s="6"/>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
@@ -13286,16 +13135,13 @@
         <v>1316</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="42" t="s">
         <v>1318</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="K21" s="21" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>785</v>
       </c>
@@ -13317,12 +13163,11 @@
       <c r="J22" s="32" t="s">
         <v>1312</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="26" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>786</v>
       </c>
@@ -13335,7 +13180,7 @@
       <c r="D23" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="50" t="s">
         <v>1319</v>
       </c>
       <c r="F23" s="12"/>
@@ -13351,12 +13196,11 @@
       <c r="J23" s="32" t="s">
         <v>1313</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>787</v>
       </c>
@@ -13369,7 +13213,7 @@
       <c r="D24" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="50" t="s">
         <v>1319</v>
       </c>
       <c r="F24" s="12"/>
@@ -13385,12 +13229,11 @@
       <c r="J24" s="32" t="s">
         <v>1314</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>788</v>
       </c>
@@ -13403,14 +13246,14 @@
       <c r="D25" s="31" t="s">
         <v>792</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="50" t="s">
         <v>1319</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" t="s">
         <v>1056</v>
       </c>
       <c r="I25" s="15" t="s">
@@ -13419,12 +13262,11 @@
       <c r="J25" s="32" t="s">
         <v>1315</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>794</v>
       </c>
@@ -13445,12 +13287,11 @@
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>795</v>
       </c>
@@ -13473,12 +13314,11 @@
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>796</v>
       </c>
@@ -13501,12 +13341,11 @@
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>797</v>
       </c>
@@ -13529,12 +13368,11 @@
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>798</v>
       </c>
@@ -13557,12 +13395,11 @@
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>799</v>
       </c>
@@ -13583,12 +13420,11 @@
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>800</v>
       </c>
@@ -13611,12 +13447,11 @@
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>801</v>
       </c>
@@ -13639,12 +13474,11 @@
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>802</v>
       </c>
@@ -13667,12 +13501,11 @@
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>803</v>
       </c>
@@ -13695,12 +13528,11 @@
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>804</v>
       </c>
@@ -13721,12 +13553,11 @@
       </c>
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>805</v>
       </c>
@@ -13749,12 +13580,11 @@
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>806</v>
       </c>
@@ -13777,12 +13607,11 @@
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>807</v>
       </c>
@@ -13805,12 +13634,11 @@
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K39" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>808</v>
       </c>
@@ -13833,12 +13661,11 @@
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K40" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>809</v>
       </c>
@@ -13861,12 +13688,11 @@
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K41" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>810</v>
       </c>
@@ -13889,12 +13715,11 @@
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K42" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>811</v>
       </c>
@@ -13917,12 +13742,11 @@
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K43" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>812</v>
       </c>
@@ -13945,12 +13769,11 @@
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K44" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>813</v>
       </c>
@@ -13973,12 +13796,11 @@
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K45" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>814</v>
       </c>
@@ -14001,12 +13823,11 @@
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K46" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>815</v>
       </c>
@@ -14029,12 +13850,11 @@
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K47" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>816</v>
       </c>
@@ -14057,12 +13877,11 @@
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K48" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>817</v>
       </c>
@@ -14085,12 +13904,11 @@
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>818</v>
       </c>
@@ -14113,12 +13931,11 @@
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>819</v>
       </c>
@@ -14141,12 +13958,11 @@
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>820</v>
       </c>
@@ -14169,12 +13985,11 @@
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>821</v>
       </c>
@@ -14195,12 +14010,11 @@
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K53" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>822</v>
       </c>
@@ -14223,12 +14037,11 @@
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>823</v>
       </c>
@@ -14241,7 +14054,7 @@
       <c r="D55" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F55" s="12"/>
@@ -14255,12 +14068,11 @@
         <v>1050</v>
       </c>
       <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K55" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>826</v>
       </c>
@@ -14283,12 +14095,11 @@
       </c>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K56" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>827</v>
       </c>
@@ -14311,12 +14122,11 @@
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>828</v>
       </c>
@@ -14339,12 +14149,11 @@
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>829</v>
       </c>
@@ -14365,12 +14174,11 @@
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>830</v>
       </c>
@@ -14393,12 +14201,11 @@
       </c>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>831</v>
       </c>
@@ -14421,12 +14228,11 @@
       </c>
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>832</v>
       </c>
@@ -14449,12 +14255,11 @@
       </c>
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K62" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>833</v>
       </c>
@@ -14479,12 +14284,11 @@
       </c>
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K63" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>834</v>
       </c>
@@ -14509,12 +14313,11 @@
       </c>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="K64" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>835</v>
       </c>
@@ -14537,12 +14340,11 @@
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K65" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>836</v>
       </c>
@@ -14565,12 +14367,11 @@
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>837</v>
       </c>
@@ -14595,12 +14396,11 @@
       </c>
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>838</v>
       </c>
@@ -14625,12 +14425,11 @@
       </c>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>839</v>
       </c>
@@ -14653,12 +14452,11 @@
       </c>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>840</v>
       </c>
@@ -14681,12 +14479,11 @@
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>841</v>
       </c>
@@ -14709,12 +14506,11 @@
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>842</v>
       </c>
@@ -14737,12 +14533,11 @@
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K72" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>843</v>
       </c>
@@ -14765,12 +14560,11 @@
       </c>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>844</v>
       </c>
@@ -14791,12 +14585,11 @@
       </c>
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K74" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>845</v>
       </c>
@@ -14819,12 +14612,11 @@
       </c>
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K75" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>846</v>
       </c>
@@ -14837,7 +14629,7 @@
       <c r="D76" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="E76" s="60" t="s">
+      <c r="E76" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F76" s="12"/>
@@ -14851,12 +14643,11 @@
         <v>1051</v>
       </c>
       <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K76" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>849</v>
       </c>
@@ -14879,12 +14670,11 @@
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K77" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>850</v>
       </c>
@@ -14907,12 +14697,11 @@
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>851</v>
       </c>
@@ -14935,12 +14724,11 @@
       </c>
       <c r="I79" s="32"/>
       <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>852</v>
       </c>
@@ -14963,12 +14751,11 @@
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>853</v>
       </c>
@@ -14993,12 +14780,11 @@
       </c>
       <c r="I81" s="32"/>
       <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>854</v>
       </c>
@@ -15023,12 +14809,11 @@
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>855</v>
       </c>
@@ -15051,12 +14836,11 @@
       </c>
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K83" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>856</v>
       </c>
@@ -15069,7 +14853,7 @@
       <c r="D84" s="31" t="s">
         <v>722</v>
       </c>
-      <c r="E84" s="60" t="s">
+      <c r="E84" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F84" s="12" t="s">
@@ -15085,12 +14869,11 @@
         <v>1052</v>
       </c>
       <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>859</v>
       </c>
@@ -15115,12 +14898,11 @@
       </c>
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>860</v>
       </c>
@@ -15143,12 +14925,11 @@
       </c>
       <c r="I86" s="32"/>
       <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K86" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>861</v>
       </c>
@@ -15173,12 +14954,11 @@
       </c>
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>862</v>
       </c>
@@ -15203,12 +14983,11 @@
       </c>
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>863</v>
       </c>
@@ -15233,12 +15012,11 @@
       </c>
       <c r="I89" s="32"/>
       <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K89" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>864</v>
       </c>
@@ -15263,12 +15041,11 @@
       </c>
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K90" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>865</v>
       </c>
@@ -15293,12 +15070,11 @@
       </c>
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K91" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>866</v>
       </c>
@@ -15323,12 +15099,11 @@
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K92" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>867</v>
       </c>
@@ -15353,12 +15128,11 @@
       </c>
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K93" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>868</v>
       </c>
@@ -15383,12 +15157,11 @@
       </c>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K94" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>869</v>
       </c>
@@ -15401,7 +15174,7 @@
       <c r="D95" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="E95" s="60" t="s">
+      <c r="E95" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F95" s="12"/>
@@ -15415,12 +15188,11 @@
         <v>1053</v>
       </c>
       <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K95" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>872</v>
       </c>
@@ -15443,12 +15215,11 @@
       </c>
       <c r="I96" s="32"/>
       <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K96" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>873</v>
       </c>
@@ -15473,12 +15244,11 @@
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K97" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>874</v>
       </c>
@@ -15503,12 +15273,11 @@
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K98" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>875</v>
       </c>
@@ -15533,12 +15302,11 @@
       </c>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K99" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>876</v>
       </c>
@@ -15563,12 +15331,11 @@
       </c>
       <c r="I100" s="29"/>
       <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K100" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>877</v>
       </c>
@@ -15593,12 +15360,11 @@
       </c>
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K101" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>878</v>
       </c>
@@ -15619,12 +15385,11 @@
       </c>
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K102" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>879</v>
       </c>
@@ -15647,12 +15412,11 @@
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K103" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>880</v>
       </c>
@@ -15675,12 +15439,11 @@
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>881</v>
       </c>
@@ -15701,12 +15464,11 @@
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>882</v>
       </c>
@@ -15729,12 +15491,11 @@
       </c>
       <c r="I106" s="32"/>
       <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K106" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>883</v>
       </c>
@@ -15759,12 +15520,11 @@
       </c>
       <c r="I107" s="32"/>
       <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>884</v>
       </c>
@@ -15789,12 +15549,11 @@
       </c>
       <c r="I108" s="32"/>
       <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K108" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>885</v>
       </c>
@@ -15819,12 +15578,11 @@
       </c>
       <c r="I109" s="32"/>
       <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K109" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>886</v>
       </c>
@@ -15849,12 +15607,11 @@
       </c>
       <c r="I110" s="32"/>
       <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K110" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>887</v>
       </c>
@@ -15877,12 +15634,11 @@
       </c>
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K111" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>888</v>
       </c>
@@ -15907,12 +15663,11 @@
       </c>
       <c r="I112" s="32"/>
       <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K112" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>889</v>
       </c>
@@ -15937,12 +15692,11 @@
       </c>
       <c r="I113" s="32"/>
       <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K113" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>890</v>
       </c>
@@ -15965,12 +15719,11 @@
       </c>
       <c r="I114" s="32"/>
       <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K114" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>891</v>
       </c>
@@ -15995,12 +15748,11 @@
       </c>
       <c r="I115" s="32"/>
       <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K115" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>892</v>
       </c>
@@ -16013,7 +15765,7 @@
       <c r="D116" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="E116" s="60" t="s">
+      <c r="E116" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F116" s="12" t="s">
@@ -16029,12 +15781,11 @@
         <v>1054</v>
       </c>
       <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K116" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
         <v>895</v>
       </c>
@@ -16057,12 +15808,11 @@
       </c>
       <c r="I117" s="32"/>
       <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K117" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>896</v>
       </c>
@@ -16085,12 +15835,11 @@
       </c>
       <c r="I118" s="32"/>
       <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K118" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
         <v>897</v>
       </c>
@@ -16115,12 +15864,11 @@
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K119" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>898</v>
       </c>
@@ -16145,12 +15893,11 @@
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
-      <c r="L120" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K120" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
         <v>899</v>
       </c>
@@ -16173,12 +15920,11 @@
       </c>
       <c r="I121" s="32"/>
       <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K121" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>900</v>
       </c>
@@ -16201,12 +15947,11 @@
       </c>
       <c r="I122" s="32"/>
       <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
-      <c r="L122" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K122" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
         <v>901</v>
       </c>
@@ -16229,12 +15974,11 @@
       </c>
       <c r="I123" s="32"/>
       <c r="J123" s="32"/>
-      <c r="K123" s="32"/>
-      <c r="L123" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K123" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>902</v>
       </c>
@@ -16257,12 +16001,11 @@
       </c>
       <c r="I124" s="32"/>
       <c r="J124" s="32"/>
-      <c r="K124" s="32"/>
-      <c r="L124" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K124" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>903</v>
       </c>
@@ -16285,12 +16028,11 @@
       </c>
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K125" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>904</v>
       </c>
@@ -16313,12 +16055,11 @@
       </c>
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K126" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
         <v>905</v>
       </c>
@@ -16343,12 +16084,11 @@
       </c>
       <c r="I127" s="32"/>
       <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K127" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>906</v>
       </c>
@@ -16373,12 +16113,11 @@
       </c>
       <c r="I128" s="32"/>
       <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K128" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
         <v>907</v>
       </c>
@@ -16403,12 +16142,11 @@
       </c>
       <c r="I129" s="32"/>
       <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K129" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>908</v>
       </c>
@@ -16433,12 +16171,11 @@
       </c>
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
-      <c r="K130" s="32"/>
-      <c r="L130" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K130" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>909</v>
       </c>
@@ -16463,12 +16200,11 @@
       </c>
       <c r="I131" s="32"/>
       <c r="J131" s="32"/>
-      <c r="K131" s="32"/>
-      <c r="L131" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K131" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>910</v>
       </c>
@@ -16493,12 +16229,11 @@
       </c>
       <c r="I132" s="32"/>
       <c r="J132" s="32"/>
-      <c r="K132" s="32"/>
-      <c r="L132" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K132" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>911</v>
       </c>
@@ -16523,12 +16258,11 @@
       </c>
       <c r="I133" s="32"/>
       <c r="J133" s="32"/>
-      <c r="K133" s="32"/>
-      <c r="L133" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K133" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>912</v>
       </c>
@@ -16553,12 +16287,11 @@
       </c>
       <c r="I134" s="32"/>
       <c r="J134" s="32"/>
-      <c r="K134" s="32"/>
-      <c r="L134" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K134" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>913</v>
       </c>
@@ -16583,12 +16316,11 @@
       </c>
       <c r="I135" s="32"/>
       <c r="J135" s="32"/>
-      <c r="K135" s="32"/>
-      <c r="L135" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K135" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>914</v>
       </c>
@@ -16613,12 +16345,11 @@
       </c>
       <c r="I136" s="32"/>
       <c r="J136" s="32"/>
-      <c r="K136" s="32"/>
-      <c r="L136" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K136" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>915</v>
       </c>
@@ -16641,12 +16372,11 @@
       </c>
       <c r="I137" s="32"/>
       <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K137" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>916</v>
       </c>
@@ -16671,12 +16401,11 @@
       </c>
       <c r="I138" s="32"/>
       <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K138" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>917</v>
       </c>
@@ -16701,12 +16430,11 @@
       </c>
       <c r="I139" s="32"/>
       <c r="J139" s="32"/>
-      <c r="K139" s="32"/>
-      <c r="L139" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K139" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>918</v>
       </c>
@@ -16729,12 +16457,11 @@
       </c>
       <c r="I140" s="32"/>
       <c r="J140" s="32"/>
-      <c r="K140" s="32"/>
-      <c r="L140" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K140" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>919</v>
       </c>
@@ -16759,12 +16486,11 @@
       </c>
       <c r="I141" s="32"/>
       <c r="J141" s="32"/>
-      <c r="K141" s="32"/>
-      <c r="L141" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K141" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
         <v>920</v>
       </c>
@@ -16789,12 +16515,11 @@
       </c>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
-      <c r="K142" s="32"/>
-      <c r="L142" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K142" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
         <v>921</v>
       </c>
@@ -16819,12 +16544,11 @@
       </c>
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
-      <c r="K143" s="32"/>
-      <c r="L143" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K143" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>17</v>
       </c>
@@ -16845,12 +16569,11 @@
       </c>
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
-      <c r="K144" s="32"/>
-      <c r="L144" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K144" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
         <v>19</v>
       </c>
@@ -16873,12 +16596,11 @@
       </c>
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
-      <c r="K145" s="32"/>
-      <c r="L145" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K145" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>23</v>
       </c>
@@ -16901,12 +16623,11 @@
       </c>
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
-      <c r="K146" s="32"/>
-      <c r="L146" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K146" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
         <v>26</v>
       </c>
@@ -16929,12 +16650,11 @@
       </c>
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
-      <c r="K147" s="32"/>
-      <c r="L147" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K147" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>29</v>
       </c>
@@ -16959,12 +16679,11 @@
       </c>
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
-      <c r="K148" s="32"/>
-      <c r="L148" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K148" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="24" t="s">
         <v>32</v>
       </c>
@@ -16989,12 +16708,11 @@
       </c>
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
-      <c r="K149" s="32"/>
-      <c r="L149" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K149" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
         <v>35</v>
       </c>
@@ -17019,12 +16737,11 @@
       </c>
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
-      <c r="K150" s="32"/>
-      <c r="L150" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K150" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
         <v>38</v>
       </c>
@@ -17049,12 +16766,11 @@
       </c>
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
-      <c r="K151" s="32"/>
-      <c r="L151" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K151" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
         <v>41</v>
       </c>
@@ -17077,12 +16793,11 @@
       </c>
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
-      <c r="K152" s="32"/>
-      <c r="L152" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K152" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
         <v>44</v>
       </c>
@@ -17105,12 +16820,11 @@
       </c>
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
-      <c r="K153" s="32"/>
-      <c r="L153" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K153" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>47</v>
       </c>
@@ -17131,12 +16845,11 @@
       </c>
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
-      <c r="K154" s="32"/>
-      <c r="L154" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K154" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>49</v>
       </c>
@@ -17159,12 +16872,11 @@
       </c>
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
-      <c r="K155" s="32"/>
-      <c r="L155" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K155" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>52</v>
       </c>
@@ -17187,12 +16899,11 @@
       </c>
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
-      <c r="K156" s="32"/>
-      <c r="L156" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K156" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>55</v>
       </c>
@@ -17213,12 +16924,11 @@
       </c>
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
-      <c r="K157" s="32"/>
-      <c r="L157" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K157" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>57</v>
       </c>
@@ -17241,12 +16951,11 @@
       </c>
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
-      <c r="K158" s="32"/>
-      <c r="L158" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K158" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>60</v>
       </c>
@@ -17269,12 +16978,11 @@
       </c>
       <c r="I159" s="12"/>
       <c r="J159" s="32"/>
-      <c r="K159" s="32"/>
-      <c r="L159" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K159" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>63</v>
       </c>
@@ -17297,12 +17005,11 @@
       </c>
       <c r="I160" s="32"/>
       <c r="J160" s="32"/>
-      <c r="K160" s="32"/>
-      <c r="L160" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K160" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
         <v>66</v>
       </c>
@@ -17325,12 +17032,11 @@
       </c>
       <c r="I161" s="12"/>
       <c r="J161" s="32"/>
-      <c r="K161" s="32"/>
-      <c r="L161" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K161" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>69</v>
       </c>
@@ -17353,12 +17059,11 @@
       </c>
       <c r="I162" s="32"/>
       <c r="J162" s="32"/>
-      <c r="K162" s="32"/>
-      <c r="L162" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K162" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>72</v>
       </c>
@@ -17381,12 +17086,11 @@
       </c>
       <c r="I163" s="32"/>
       <c r="J163" s="32"/>
-      <c r="K163" s="32"/>
-      <c r="L163" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K163" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>75</v>
       </c>
@@ -17407,12 +17111,11 @@
       </c>
       <c r="I164" s="32"/>
       <c r="J164" s="32"/>
-      <c r="K164" s="32"/>
-      <c r="L164" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K164" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>77</v>
       </c>
@@ -17435,12 +17138,11 @@
       </c>
       <c r="I165" s="32"/>
       <c r="J165" s="32"/>
-      <c r="K165" s="32"/>
-      <c r="L165" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K165" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
         <v>80</v>
       </c>
@@ -17463,12 +17165,11 @@
       </c>
       <c r="I166" s="32"/>
       <c r="J166" s="32"/>
-      <c r="K166" s="32"/>
-      <c r="L166" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K166" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
         <v>83</v>
       </c>
@@ -17491,12 +17192,11 @@
       </c>
       <c r="I167" s="32"/>
       <c r="J167" s="32"/>
-      <c r="K167" s="32"/>
-      <c r="L167" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K167" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
         <v>86</v>
       </c>
@@ -17519,12 +17219,11 @@
       </c>
       <c r="I168" s="32"/>
       <c r="J168" s="32"/>
-      <c r="K168" s="32"/>
-      <c r="L168" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K168" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>89</v>
       </c>
@@ -17549,12 +17248,11 @@
       </c>
       <c r="I169" s="32"/>
       <c r="J169" s="32"/>
-      <c r="K169" s="32"/>
-      <c r="L169" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K169" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>92</v>
       </c>
@@ -17579,12 +17277,11 @@
       </c>
       <c r="I170" s="32"/>
       <c r="J170" s="32"/>
-      <c r="K170" s="32"/>
-      <c r="L170" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K170" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
         <v>95</v>
       </c>
@@ -17605,12 +17302,11 @@
       </c>
       <c r="I171" s="32"/>
       <c r="J171" s="32"/>
-      <c r="K171" s="32"/>
-      <c r="L171" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K171" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
         <v>97</v>
       </c>
@@ -17633,12 +17329,11 @@
       </c>
       <c r="I172" s="32"/>
       <c r="J172" s="32"/>
-      <c r="K172" s="32"/>
-      <c r="L172" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K172" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
         <v>100</v>
       </c>
@@ -17661,12 +17356,11 @@
       </c>
       <c r="I173" s="32"/>
       <c r="J173" s="32"/>
-      <c r="K173" s="32"/>
-      <c r="L173" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K173" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
         <v>103</v>
       </c>
@@ -17689,12 +17383,11 @@
       </c>
       <c r="I174" s="32"/>
       <c r="J174" s="32"/>
-      <c r="K174" s="32"/>
-      <c r="L174" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K174" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
         <v>106</v>
       </c>
@@ -17717,12 +17410,11 @@
       </c>
       <c r="I175" s="32"/>
       <c r="J175" s="32"/>
-      <c r="K175" s="32"/>
-      <c r="L175" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K175" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
         <v>109</v>
       </c>
@@ -17745,12 +17437,11 @@
       </c>
       <c r="I176" s="32"/>
       <c r="J176" s="32"/>
-      <c r="K176" s="32"/>
-      <c r="L176" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K176" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>112</v>
       </c>
@@ -17773,12 +17464,11 @@
       </c>
       <c r="I177" s="32"/>
       <c r="J177" s="32"/>
-      <c r="K177" s="32"/>
-      <c r="L177" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K177" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>115</v>
       </c>
@@ -17801,12 +17491,11 @@
       </c>
       <c r="I178" s="32"/>
       <c r="J178" s="32"/>
-      <c r="K178" s="32"/>
-      <c r="L178" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K178" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>118</v>
       </c>
@@ -17829,12 +17518,11 @@
       </c>
       <c r="I179" s="32"/>
       <c r="J179" s="32"/>
-      <c r="K179" s="32"/>
-      <c r="L179" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K179" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
         <v>121</v>
       </c>
@@ -17857,12 +17545,11 @@
       </c>
       <c r="I180" s="32"/>
       <c r="J180" s="32"/>
-      <c r="K180" s="32"/>
-      <c r="L180" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K180" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>124</v>
       </c>
@@ -17875,7 +17562,7 @@
       <c r="D181" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E181" s="60" t="s">
+      <c r="E181" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F181"/>
@@ -17889,12 +17576,11 @@
         <v>651</v>
       </c>
       <c r="J181" s="32"/>
-      <c r="K181" s="32"/>
-      <c r="L181" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K181" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>133</v>
       </c>
@@ -17917,12 +17603,11 @@
       </c>
       <c r="I182" s="32"/>
       <c r="J182" s="32"/>
-      <c r="K182" s="32"/>
-      <c r="L182" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K182" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>136</v>
       </c>
@@ -17945,12 +17630,11 @@
       </c>
       <c r="I183" s="32"/>
       <c r="J183" s="32"/>
-      <c r="K183" s="32"/>
-      <c r="L183" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K183" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>139</v>
       </c>
@@ -17973,12 +17657,11 @@
       </c>
       <c r="I184" s="32"/>
       <c r="J184" s="32"/>
-      <c r="K184" s="32"/>
-      <c r="L184" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K184" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>142</v>
       </c>
@@ -18001,12 +17684,11 @@
       </c>
       <c r="I185" s="32"/>
       <c r="J185" s="32"/>
-      <c r="K185" s="32"/>
-      <c r="L185" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K185" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>145</v>
       </c>
@@ -18029,12 +17711,11 @@
       </c>
       <c r="I186" s="32"/>
       <c r="J186" s="32"/>
-      <c r="K186" s="32"/>
-      <c r="L186" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K186" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>148</v>
       </c>
@@ -18047,7 +17728,7 @@
       <c r="D187" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E187" s="60" t="s">
+      <c r="E187" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F187"/>
@@ -18061,12 +17742,11 @@
         <v>652</v>
       </c>
       <c r="J187" s="32"/>
-      <c r="K187" s="32"/>
-      <c r="L187" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K187" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
         <v>157</v>
       </c>
@@ -18089,12 +17769,11 @@
       </c>
       <c r="I188" s="32"/>
       <c r="J188" s="32"/>
-      <c r="K188" s="32"/>
-      <c r="L188" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K188" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
         <v>160</v>
       </c>
@@ -18107,7 +17786,7 @@
       <c r="D189" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E189" s="60" t="s">
+      <c r="E189" s="50" t="s">
         <v>1320</v>
       </c>
       <c r="F189"/>
@@ -18121,12 +17800,11 @@
         <v>653</v>
       </c>
       <c r="J189" s="32"/>
-      <c r="K189" s="32"/>
-      <c r="L189" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K189" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>169</v>
       </c>
@@ -18149,12 +17827,11 @@
       </c>
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
-      <c r="K190" s="32"/>
-      <c r="L190" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K190" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>172</v>
       </c>
@@ -18175,12 +17852,11 @@
       </c>
       <c r="I191" s="32"/>
       <c r="J191" s="32"/>
-      <c r="K191" s="32"/>
-      <c r="L191" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K191" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>174</v>
       </c>
@@ -18203,12 +17879,11 @@
       </c>
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
-      <c r="K192" s="32"/>
-      <c r="L192" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K192" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
         <v>177</v>
       </c>
@@ -18231,12 +17906,11 @@
       </c>
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
-      <c r="K193" s="32"/>
-      <c r="L193" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K193" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>180</v>
       </c>
@@ -18259,12 +17933,11 @@
       </c>
       <c r="I194" s="32"/>
       <c r="J194" s="32"/>
-      <c r="K194" s="32"/>
-      <c r="L194" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K194" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
         <v>183</v>
       </c>
@@ -18287,12 +17960,11 @@
       </c>
       <c r="I195" s="32"/>
       <c r="J195" s="32"/>
-      <c r="K195" s="32"/>
-      <c r="L195" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K195" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
         <v>186</v>
       </c>
@@ -18315,12 +17987,11 @@
       </c>
       <c r="I196" s="32"/>
       <c r="J196" s="32"/>
-      <c r="K196" s="32"/>
-      <c r="L196" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K196" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>189</v>
       </c>
@@ -18343,12 +18014,11 @@
       </c>
       <c r="I197" s="32"/>
       <c r="J197" s="32"/>
-      <c r="K197" s="32"/>
-      <c r="L197" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K197" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
         <v>192</v>
       </c>
@@ -18371,12 +18041,11 @@
       </c>
       <c r="I198" s="32"/>
       <c r="J198" s="32"/>
-      <c r="K198" s="32"/>
-      <c r="L198" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K198" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
         <v>195</v>
       </c>
@@ -18399,12 +18068,11 @@
       </c>
       <c r="I199" s="32"/>
       <c r="J199" s="32"/>
-      <c r="K199" s="32"/>
-      <c r="L199" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K199" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
         <v>198</v>
       </c>
@@ -18427,12 +18095,11 @@
       </c>
       <c r="I200" s="32"/>
       <c r="J200" s="32"/>
-      <c r="K200" s="32"/>
-      <c r="L200" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K200" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
         <v>201</v>
       </c>
@@ -18455,12 +18122,11 @@
       </c>
       <c r="I201" s="32"/>
       <c r="J201" s="32"/>
-      <c r="K201" s="32"/>
-      <c r="L201" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K201" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
         <v>204</v>
       </c>
@@ -18483,12 +18149,11 @@
       </c>
       <c r="I202" s="32"/>
       <c r="J202" s="32"/>
-      <c r="K202" s="32"/>
-      <c r="L202" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K202" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
         <v>207</v>
       </c>
@@ -18511,12 +18176,11 @@
       </c>
       <c r="I203" s="32"/>
       <c r="J203" s="32"/>
-      <c r="K203" s="32"/>
-      <c r="L203" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K203" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
         <v>210</v>
       </c>
@@ -18539,12 +18203,11 @@
       </c>
       <c r="I204" s="32"/>
       <c r="J204" s="32"/>
-      <c r="K204" s="32"/>
-      <c r="L204" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K204" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
         <v>213</v>
       </c>
@@ -18567,12 +18230,11 @@
       </c>
       <c r="I205" s="32"/>
       <c r="J205" s="32"/>
-      <c r="K205" s="32"/>
-      <c r="L205" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K205" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
         <v>216</v>
       </c>
@@ -18595,12 +18257,11 @@
       </c>
       <c r="I206" s="32"/>
       <c r="J206" s="32"/>
-      <c r="K206" s="32"/>
-      <c r="L206" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K206" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
         <v>219</v>
       </c>
@@ -18623,12 +18284,11 @@
       </c>
       <c r="I207" s="32"/>
       <c r="J207" s="32"/>
-      <c r="K207" s="32"/>
-      <c r="L207" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K207" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
         <v>222</v>
       </c>
@@ -18651,12 +18311,11 @@
       </c>
       <c r="I208" s="32"/>
       <c r="J208" s="32"/>
-      <c r="K208" s="32"/>
-      <c r="L208" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K208" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
         <v>225</v>
       </c>
@@ -18679,12 +18338,11 @@
       </c>
       <c r="I209" s="32"/>
       <c r="J209" s="32"/>
-      <c r="K209" s="32"/>
-      <c r="L209" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K209" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="19" t="s">
         <v>228</v>
       </c>
@@ -18707,12 +18365,11 @@
       </c>
       <c r="I210" s="32"/>
       <c r="J210" s="32"/>
-      <c r="K210" s="32"/>
-      <c r="L210" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K210" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
         <v>231</v>
       </c>
@@ -18735,12 +18392,11 @@
       </c>
       <c r="I211" s="32"/>
       <c r="J211" s="32"/>
-      <c r="K211" s="32"/>
-      <c r="L211" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K211" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
         <v>234</v>
       </c>
@@ -18763,12 +18419,11 @@
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="32"/>
-      <c r="K212" s="32"/>
-      <c r="L212" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K212" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
         <v>237</v>
       </c>
@@ -18791,12 +18446,11 @@
       </c>
       <c r="I213" s="32"/>
       <c r="J213" s="32"/>
-      <c r="K213" s="32"/>
-      <c r="L213" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K213" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
         <v>240</v>
       </c>
@@ -18819,12 +18473,11 @@
       </c>
       <c r="I214" s="32"/>
       <c r="J214" s="32"/>
-      <c r="K214" s="32"/>
-      <c r="L214" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K214" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>243</v>
       </c>
@@ -18847,12 +18500,11 @@
       </c>
       <c r="I215" s="32"/>
       <c r="J215" s="32"/>
-      <c r="K215" s="32"/>
-      <c r="L215" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K215" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>246</v>
       </c>
@@ -18875,12 +18527,11 @@
       </c>
       <c r="I216" s="32"/>
       <c r="J216" s="32"/>
-      <c r="K216" s="32"/>
-      <c r="L216" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K216" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
         <v>249</v>
       </c>
@@ -18903,12 +18554,11 @@
       </c>
       <c r="I217" s="32"/>
       <c r="J217" s="32"/>
-      <c r="K217" s="32"/>
-      <c r="L217" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K217" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
         <v>252</v>
       </c>
@@ -18931,12 +18581,11 @@
       </c>
       <c r="I218" s="32"/>
       <c r="J218" s="32"/>
-      <c r="K218" s="32"/>
-      <c r="L218" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K218" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
         <v>255</v>
       </c>
@@ -18959,12 +18608,11 @@
       </c>
       <c r="I219" s="32"/>
       <c r="J219" s="32"/>
-      <c r="K219" s="32"/>
-      <c r="L219" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K219" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
         <v>258</v>
       </c>
@@ -18987,12 +18635,11 @@
       </c>
       <c r="I220" s="32"/>
       <c r="J220" s="32"/>
-      <c r="K220" s="32"/>
-      <c r="L220" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K220" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
         <v>261</v>
       </c>
@@ -19013,12 +18660,11 @@
       </c>
       <c r="I221" s="32"/>
       <c r="J221" s="32"/>
-      <c r="K221" s="32"/>
-      <c r="L221" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K221" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
         <v>263</v>
       </c>
@@ -19041,12 +18687,11 @@
       </c>
       <c r="I222" s="32"/>
       <c r="J222" s="32"/>
-      <c r="K222" s="32"/>
-      <c r="L222" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K222" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
         <v>266</v>
       </c>
@@ -19069,12 +18714,11 @@
       </c>
       <c r="I223" s="32"/>
       <c r="J223" s="32"/>
-      <c r="K223" s="32"/>
-      <c r="L223" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K223" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
         <v>269</v>
       </c>
@@ -19097,12 +18741,11 @@
       </c>
       <c r="I224" s="32"/>
       <c r="J224" s="32"/>
-      <c r="K224" s="32"/>
-      <c r="L224" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K224" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
         <v>272</v>
       </c>
@@ -19125,12 +18768,11 @@
       </c>
       <c r="I225" s="32"/>
       <c r="J225" s="32"/>
-      <c r="K225" s="32"/>
-      <c r="L225" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K225" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
         <v>275</v>
       </c>
@@ -19151,12 +18793,11 @@
       </c>
       <c r="I226" s="32"/>
       <c r="J226" s="32"/>
-      <c r="K226" s="32"/>
-      <c r="L226" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K226" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
         <v>277</v>
       </c>
@@ -19179,12 +18820,11 @@
       </c>
       <c r="I227" s="32"/>
       <c r="J227" s="32"/>
-      <c r="K227" s="32"/>
-      <c r="L227" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K227" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
         <v>280</v>
       </c>
@@ -19207,12 +18847,11 @@
       </c>
       <c r="I228" s="32"/>
       <c r="J228" s="32"/>
-      <c r="K228" s="32"/>
-      <c r="L228" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K228" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="30" t="s">
         <v>283</v>
       </c>
@@ -19235,12 +18874,11 @@
       </c>
       <c r="I229" s="32"/>
       <c r="J229" s="32"/>
-      <c r="K229" s="32"/>
-      <c r="L229" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="K229" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="30" t="s">
         <v>286</v>
       </c>
@@ -19263,12 +18901,11 @@
       </c>
       <c r="I230" s="32"/>
       <c r="J230" s="32"/>
-      <c r="K230" s="32"/>
-      <c r="L230" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K230" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="30" t="s">
         <v>289</v>
       </c>
@@ -19291,12 +18928,11 @@
       </c>
       <c r="I231" s="32"/>
       <c r="J231" s="32"/>
-      <c r="K231" s="32"/>
-      <c r="L231" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K231" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="30" t="s">
         <v>292</v>
       </c>
@@ -19317,12 +18953,11 @@
       </c>
       <c r="I232" s="32"/>
       <c r="J232" s="32"/>
-      <c r="K232" s="32"/>
-      <c r="L232" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K232" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="30" t="s">
         <v>294</v>
       </c>
@@ -19345,12 +18980,11 @@
       </c>
       <c r="I233" s="32"/>
       <c r="J233" s="32"/>
-      <c r="K233" s="32"/>
-      <c r="L233" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K233" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="30" t="s">
         <v>297</v>
       </c>
@@ -19373,12 +19007,11 @@
       </c>
       <c r="I234" s="32"/>
       <c r="J234" s="32"/>
-      <c r="K234" s="32"/>
-      <c r="L234" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K234" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30" t="s">
         <v>300</v>
       </c>
@@ -19401,12 +19034,11 @@
       </c>
       <c r="I235" s="32"/>
       <c r="J235" s="32"/>
-      <c r="K235" s="32"/>
-      <c r="L235" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K235" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="30" t="s">
         <v>303</v>
       </c>
@@ -19429,12 +19061,11 @@
       </c>
       <c r="I236" s="32"/>
       <c r="J236" s="32"/>
-      <c r="K236" s="32"/>
-      <c r="L236" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K236" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="30" t="s">
         <v>306</v>
       </c>
@@ -19457,12 +19088,11 @@
       </c>
       <c r="I237" s="32"/>
       <c r="J237" s="32"/>
-      <c r="K237" s="32"/>
-      <c r="L237" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K237" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30" t="s">
         <v>309</v>
       </c>
@@ -19485,12 +19115,11 @@
       </c>
       <c r="I238" s="32"/>
       <c r="J238" s="32"/>
-      <c r="K238" s="32"/>
-      <c r="L238" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K238" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="30" t="s">
         <v>312</v>
       </c>
@@ -19515,12 +19144,11 @@
       </c>
       <c r="I239" s="32"/>
       <c r="J239" s="32"/>
-      <c r="K239" s="32"/>
-      <c r="L239" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K239" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30" t="s">
         <v>315</v>
       </c>
@@ -19545,12 +19173,11 @@
       </c>
       <c r="I240" s="32"/>
       <c r="J240" s="32"/>
-      <c r="K240" s="32"/>
-      <c r="L240" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K240" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="30" t="s">
         <v>318</v>
       </c>
@@ -19573,12 +19200,11 @@
       </c>
       <c r="I241" s="32"/>
       <c r="J241" s="32"/>
-      <c r="K241" s="32"/>
-      <c r="L241" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K241" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="30" t="s">
         <v>321</v>
       </c>
@@ -19599,12 +19225,11 @@
       </c>
       <c r="I242" s="32"/>
       <c r="J242" s="32"/>
-      <c r="K242" s="32"/>
-      <c r="L242" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K242" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30" t="s">
         <v>323</v>
       </c>
@@ -19627,12 +19252,11 @@
       </c>
       <c r="I243" s="32"/>
       <c r="J243" s="32"/>
-      <c r="K243" s="32"/>
-      <c r="L243" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K243" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="30" t="s">
         <v>326</v>
       </c>
@@ -19655,12 +19279,11 @@
       </c>
       <c r="I244" s="32"/>
       <c r="J244" s="32"/>
-      <c r="K244" s="32"/>
-      <c r="L244" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K244" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="30" t="s">
         <v>329</v>
       </c>
@@ -19685,12 +19308,11 @@
       </c>
       <c r="I245" s="32"/>
       <c r="J245" s="32"/>
-      <c r="K245" s="32"/>
-      <c r="L245" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K245" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="30" t="s">
         <v>332</v>
       </c>
@@ -19715,12 +19337,11 @@
       </c>
       <c r="I246" s="32"/>
       <c r="J246" s="32"/>
-      <c r="K246" s="32"/>
-      <c r="L246" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K246" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="30" t="s">
         <v>335</v>
       </c>
@@ -19743,12 +19364,11 @@
       </c>
       <c r="I247" s="32"/>
       <c r="J247" s="32"/>
-      <c r="K247" s="32"/>
-      <c r="L247" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K247" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="30" t="s">
         <v>338</v>
       </c>
@@ -19771,12 +19391,11 @@
       </c>
       <c r="I248" s="32"/>
       <c r="J248" s="32"/>
-      <c r="K248" s="32"/>
-      <c r="L248" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K248" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30" t="s">
         <v>345</v>
       </c>
@@ -19797,12 +19416,11 @@
       </c>
       <c r="I249" s="32"/>
       <c r="J249" s="32"/>
-      <c r="K249" s="32"/>
-      <c r="L249" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K249" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="30" t="s">
         <v>347</v>
       </c>
@@ -19825,12 +19443,11 @@
       </c>
       <c r="I250" s="32"/>
       <c r="J250" s="32"/>
-      <c r="K250" s="32"/>
-      <c r="L250" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K250" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="30" t="s">
         <v>350</v>
       </c>
@@ -19853,12 +19470,11 @@
       </c>
       <c r="I251" s="32"/>
       <c r="J251" s="32"/>
-      <c r="K251" s="32"/>
-      <c r="L251" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K251" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="30" t="s">
         <v>353</v>
       </c>
@@ -19881,12 +19497,11 @@
       </c>
       <c r="I252" s="32"/>
       <c r="J252" s="32"/>
-      <c r="K252" s="32"/>
-      <c r="L252" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K252" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="30" t="s">
         <v>356</v>
       </c>
@@ -19909,12 +19524,11 @@
       </c>
       <c r="I253" s="32"/>
       <c r="J253" s="32"/>
-      <c r="K253" s="32"/>
-      <c r="L253" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K253" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="30" t="s">
         <v>359</v>
       </c>
@@ -19937,12 +19551,11 @@
       </c>
       <c r="I254" s="32"/>
       <c r="J254" s="32"/>
-      <c r="K254" s="32"/>
-      <c r="L254" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K254" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="30" t="s">
         <v>362</v>
       </c>
@@ -19965,12 +19578,11 @@
       </c>
       <c r="I255" s="32"/>
       <c r="J255" s="32"/>
-      <c r="K255" s="32"/>
-      <c r="L255" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K255" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="30" t="s">
         <v>365</v>
       </c>
@@ -19993,12 +19605,11 @@
       </c>
       <c r="I256" s="32"/>
       <c r="J256" s="32"/>
-      <c r="K256" s="32"/>
-      <c r="L256" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K256" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="30" t="s">
         <v>368</v>
       </c>
@@ -20021,12 +19632,11 @@
       </c>
       <c r="I257" s="32"/>
       <c r="J257" s="32"/>
-      <c r="K257" s="32"/>
-      <c r="L257" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K257" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="30" t="s">
         <v>371</v>
       </c>
@@ -20049,12 +19659,11 @@
       </c>
       <c r="I258" s="32"/>
       <c r="J258" s="32"/>
-      <c r="K258" s="32"/>
-      <c r="L258" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K258" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="30" t="s">
         <v>374</v>
       </c>
@@ -20077,12 +19686,11 @@
       </c>
       <c r="I259" s="32"/>
       <c r="J259" s="32"/>
-      <c r="K259" s="32"/>
-      <c r="L259" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K259" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="30" t="s">
         <v>377</v>
       </c>
@@ -20105,12 +19713,11 @@
       </c>
       <c r="I260" s="32"/>
       <c r="J260" s="32"/>
-      <c r="K260" s="32"/>
-      <c r="L260" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K260" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="30" t="s">
         <v>380</v>
       </c>
@@ -20133,100 +19740,81 @@
       </c>
       <c r="I261" s="32"/>
       <c r="J261" s="32"/>
-      <c r="K261" s="32"/>
-      <c r="L261" s="27" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K261" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I262" s="16"/>
       <c r="J262" s="16"/>
-      <c r="K262" s="16"/>
-    </row>
-    <row r="263" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I263" s="16"/>
       <c r="J263" s="16"/>
-      <c r="K263" s="16"/>
-    </row>
-    <row r="264" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I264" s="16"/>
       <c r="J264" s="16"/>
-      <c r="K264" s="16"/>
-    </row>
-    <row r="265" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I265" s="16"/>
       <c r="J265" s="16"/>
-      <c r="K265" s="16"/>
-    </row>
-    <row r="266" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I266" s="16"/>
       <c r="J266" s="16"/>
-      <c r="K266" s="16"/>
-    </row>
-    <row r="267" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I267" s="16"/>
       <c r="J267" s="16"/>
-      <c r="K267" s="16"/>
-    </row>
-    <row r="268" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I268" s="16"/>
       <c r="J268" s="16"/>
-      <c r="K268" s="16"/>
-    </row>
-    <row r="269" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I269" s="16"/>
       <c r="J269" s="16"/>
-      <c r="K269" s="16"/>
-    </row>
-    <row r="270" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I270" s="16"/>
       <c r="J270" s="16"/>
-      <c r="K270" s="16"/>
-    </row>
-    <row r="271" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I271" s="16"/>
       <c r="J271" s="16"/>
-      <c r="K271" s="16"/>
-    </row>
-    <row r="272" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I272" s="16"/>
       <c r="J272" s="16"/>
-      <c r="K272" s="16"/>
-    </row>
-    <row r="273" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I273" s="16"/>
       <c r="J273" s="16"/>
-      <c r="K273" s="16"/>
-    </row>
-    <row r="274" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I274" s="16"/>
       <c r="J274" s="16"/>
-      <c r="K274" s="16"/>
-    </row>
-    <row r="275" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I275" s="16"/>
       <c r="J275" s="16"/>
-      <c r="K275" s="16"/>
-    </row>
-    <row r="276" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I276" s="16"/>
       <c r="J276" s="16"/>
-      <c r="K276" s="16"/>
-    </row>
-    <row r="277" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I277" s="16"/>
       <c r="J277" s="16"/>
-      <c r="K277" s="16"/>
-    </row>
-    <row r="278" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I278" s="16"/>
       <c r="J278" s="16"/>
-      <c r="K278" s="16"/>
-    </row>
-    <row r="279" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I279" s="16"/>
       <c r="J279" s="16"/>
-      <c r="K279" s="16"/>
     </row>
     <row r="305" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="16"/>
@@ -20236,35 +19824,31 @@
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" s="11"/>
     </row>
-    <row r="427" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B427" s="4"/>
       <c r="I427" s="12"/>
       <c r="J427" s="12"/>
-      <c r="K427" s="12"/>
-    </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E428" s="17"/>
     </row>
-    <row r="433" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="4"/>
       <c r="I433" s="12"/>
       <c r="J433" s="12"/>
-      <c r="K433" s="12"/>
-    </row>
-    <row r="437" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B437" s="4"/>
       <c r="I437" s="12"/>
       <c r="J437" s="12"/>
-      <c r="K437" s="12"/>
-    </row>
-    <row r="450" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B450" s="4"/>
       <c r="I450" s="12"/>
       <c r="J450" s="12"/>
-      <c r="K450" s="12"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
@@ -20401,20 +19985,21 @@
     <hyperlink ref="H142" r:id="rId123" xr:uid="{CA2367C7-96E0-4B08-B377-0B6C11127A36}"/>
     <hyperlink ref="H143" r:id="rId124" xr:uid="{64C0568B-C756-41CE-9DD6-D0379BB06519}"/>
     <hyperlink ref="H24" r:id="rId125" xr:uid="{633A92AC-C216-489C-8E44-C64A7AD123A1}"/>
-    <hyperlink ref="H25" r:id="rId126" xr:uid="{4EE159A3-7A1E-4BC7-8995-C198701C450A}"/>
-    <hyperlink ref="B15" r:id="rId127" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{0752AF16-E9C0-4D0F-9949-1FCC5DC37060}"/>
-    <hyperlink ref="L22" r:id="rId128" xr:uid="{874440BF-61E1-45FF-A38A-42FECFC40089}"/>
+    <hyperlink ref="B15" r:id="rId126" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{0752AF16-E9C0-4D0F-9949-1FCC5DC37060}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId129"/>
-  <legacyDrawing r:id="rId130"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId127"/>
+  <legacyDrawing r:id="rId128"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20629,19 +20214,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20666,9 +20247,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrwong\OneDrive - Federation University Australia\Documents\GitHub\def-au-scma\rdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E1B1-BB36-47D1-A82B-188A55C4FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF0682E-58CF-4885-B5DB-FBE57AEC8FD8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L466"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,7 +4976,7 @@
       <c r="A14" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="26" t="s">
         <v>636</v>
       </c>
       <c r="C14" s="4"/>
@@ -5303,7 +5303,7 @@
       <c r="D28" s="31" t="s">
         <v>659</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="26" t="s">
         <v>1073</v>
       </c>
       <c r="F28" s="12"/>
@@ -12740,7 +12740,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{97D0FE00-0703-48CF-A3AC-F8C02E75A146}"/>
     <hyperlink ref="C3" r:id="rId2" display="http://registry.it.csiro.au/sandbox/soil/scma/" xr:uid="{BB921B57-84FB-4D0B-B401-C316ED0CBD5E}"/>
-    <hyperlink ref="B1" r:id="rId3" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{E5A211B5-32F4-4D0B-A082-A3D428E2FB08}"/>
+    <hyperlink ref="B1" r:id="rId3" xr:uid="{E5A211B5-32F4-4D0B-A082-A3D428E2FB08}"/>
     <hyperlink ref="H101" r:id="rId4" xr:uid="{EEBDE4B1-0DD6-4612-88C0-B735090E9501}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{E133B0A9-2102-4B70-B4D3-0F005238F1C8}"/>
     <hyperlink ref="H23" r:id="rId6" xr:uid="{C2FF9382-F0D3-4DDB-B13B-B680CE4F0723}"/>
@@ -12870,10 +12870,12 @@
     <hyperlink ref="E25" r:id="rId130" xr:uid="{99A72291-0FF9-459A-85D7-36F2B3051B7B}"/>
     <hyperlink ref="B16" r:id="rId131" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{7F51B6B3-1B6F-4778-BCFF-9D0D8B93E835}"/>
     <hyperlink ref="E52" r:id="rId132" xr:uid="{0B886457-8AB9-4712-BE77-451FB95C6F9F}"/>
+    <hyperlink ref="E28" r:id="rId133" xr:uid="{9B1B8DB9-DF2A-4D3C-8C85-2322F1EA4B4E}"/>
+    <hyperlink ref="B14" r:id="rId134" xr:uid="{0B261E0C-9123-4445-954A-9D8C9B658D44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId133"/>
-  <legacyDrawing r:id="rId134"/>
+  <pageSetup orientation="portrait" r:id="rId135"/>
+  <legacyDrawing r:id="rId136"/>
 </worksheet>
 </file>
 
@@ -12881,8 +12883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25E589-C762-47F7-A5B5-46A66BE90C97}">
   <dimension ref="A1:L461"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D193" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13474,7 +13476,7 @@
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="26" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -17882,7 +17884,7 @@
       <c r="G181" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H181" s="27" t="s">
+      <c r="H181" s="26" t="s">
         <v>545</v>
       </c>
       <c r="I181" s="31" t="s">
@@ -18054,7 +18056,7 @@
       <c r="G187" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H187" s="27" t="s">
+      <c r="H187" s="26" t="s">
         <v>553</v>
       </c>
       <c r="I187" s="32" t="s">
@@ -18114,7 +18116,7 @@
       <c r="G189" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H189" s="27" t="s">
+      <c r="H189" s="26" t="s">
         <v>557</v>
       </c>
       <c r="I189" s="32" t="s">
@@ -20404,17 +20406,24 @@
     <hyperlink ref="H25" r:id="rId126" xr:uid="{4EE159A3-7A1E-4BC7-8995-C198701C450A}"/>
     <hyperlink ref="B15" r:id="rId127" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{0752AF16-E9C0-4D0F-9949-1FCC5DC37060}"/>
     <hyperlink ref="L22" r:id="rId128" xr:uid="{874440BF-61E1-45FF-A38A-42FECFC40089}"/>
+    <hyperlink ref="L27" r:id="rId129" xr:uid="{25A8B64A-BE90-40D0-8502-828D5F39398F}"/>
+    <hyperlink ref="H181" r:id="rId130" xr:uid="{6D993A81-16D3-40C7-8F81-833913097AA8}"/>
+    <hyperlink ref="H187" r:id="rId131" xr:uid="{56A43D80-5339-4B76-9391-49A025D9212B}"/>
+    <hyperlink ref="H189" r:id="rId132" xr:uid="{6315BB13-4B74-464B-9553-A415FD28F07F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId129"/>
-  <legacyDrawing r:id="rId130"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId133"/>
+  <legacyDrawing r:id="rId134"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20629,19 +20638,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20666,9 +20671,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C40AEA-3B28-4B0D-9CD0-F9FC023FA3E3}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A11F39-ACFB-4257-99DF-725D20F55020}"/>
   <bookViews>
-    <workbookView xWindow="27315" yWindow="0" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <author>tc={32F972B1-29B2-447A-822E-0D87B91183AF}</author>
   </authors>
   <commentList>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{32F972B1-29B2-447A-822E-0D87B91183AF}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{32F972B1-29B2-447A-822E-0D87B91183AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1348">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -4138,44 +4138,62 @@
     <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/01Preface%20and%20acknowledgements.html</t>
   </si>
   <si>
-    <t>&lt;p&gt;This Concept Scheme is a machine-readable representation of the classifiers described in &lt;a href='https://catalogue.nla.gov.au/Record/4854518'&gt;Soil Chemical Methods  Australasia&lt;/a&gt; 1. (2011), by George E Rayment and David J Lyons. These comprise the laboratory and field chemical tests relevant to Australasia and beyond. &lt;/p&gt; &lt;p&gt;Supersedes &lt;a href='https://catalogue.nla.gov.au/Record/685915'&gt;Australian Laboratory Handbook of Soil and Water Chemical Methods&lt;/a&gt; (Rayment and Higginson 1992). This register includes the chapters and the procedures from Rayment and Higginson (1992) that were made either redundant or superseded by new procedures in George E Rayment and David J Lyons (2011).&lt;/p&gt; 
+    <t>David J. Lyons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George E.Raymont </t>
+  </si>
+  <si>
+    <t>dcterms:funder</t>
+  </si>
+  <si>
+    <t>Queensland Department of Environment and Resource Management</t>
+  </si>
+  <si>
+    <t>https://ror.org/030c92375</t>
+  </si>
+  <si>
+    <t>Bruce Shelly</t>
+  </si>
+  <si>
+    <t>suppporter</t>
+  </si>
+  <si>
+    <t>Australian Collaborative Land Evaluation Program (ACLEP)</t>
+  </si>
+  <si>
+    <t>Australian Soil and Plant Analysis Council (ASPAC)</t>
+  </si>
+  <si>
+    <t>dcterm:rightsHolder</t>
+  </si>
+  <si>
+    <t>dcterm:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:RightsStatement</t>
+  </si>
+  <si>
+    <t>Rayment, G.E.</t>
+  </si>
+  <si>
+    <t>Higginson, F.R. (Francis Ross)</t>
+  </si>
+  <si>
+    <t>dcterm:isPartOf</t>
+  </si>
+  <si>
+    <t>Melbourne : Inkata Press</t>
+  </si>
+  <si>
+    <t>Inkata Press, 1992</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This the Concept Scheme of &lt;a href='https://catalogue.nla.gov.au/Record/4854518'&gt;Soil Chemical Methods  Australasia&lt;/a&gt;  (2011), George E Rayment and David J Lyons. These comprise the laboratory and field chemical tests relevant to Australasia and beyond. &lt;/p&gt;
 &lt;/p&gt;&lt;a href="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/01Preface%20and%20acknowledgements.html"&gt;Preface and Acknowledgements&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>David J. Lyons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George E.Raymont </t>
-  </si>
-  <si>
-    <t>dcterms:funder</t>
-  </si>
-  <si>
-    <t>Queensland Department of Environment and Resource Management</t>
-  </si>
-  <si>
-    <t>https://ror.org/030c92375</t>
-  </si>
-  <si>
-    <t>Bruce Shelly</t>
-  </si>
-  <si>
-    <t>suppporter</t>
-  </si>
-  <si>
-    <t>Australian Collaborative Land Evaluation Program (ACLEP)</t>
-  </si>
-  <si>
-    <t>Australian Soil and Plant Analysis Council (ASPAC)</t>
-  </si>
-  <si>
-    <t>dcterm:rightsHolder</t>
-  </si>
-  <si>
-    <t>dcterm:publisher</t>
-  </si>
-  <si>
-    <t>dcterms:RightsStatement</t>
+    <t>Australian soil and land survey handbooks ; v. 3.</t>
   </si>
 </sst>
 </file>
@@ -4282,13 +4300,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color rgb="FF392529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4313,13 +4331,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4328,7 +4361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -4454,6 +4487,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4821,7 +4858,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F21" dT="2021-04-26T01:42:21.46" personId="{74AF7186-62D8-498B-BD29-BBBCF0E53A82}" id="{32F972B1-29B2-447A-822E-0D87B91183AF}">
+  <threadedComment ref="F26" dT="2021-04-26T01:42:21.46" personId="{74AF7186-62D8-498B-BD29-BBBCF0E53A82}" id="{32F972B1-29B2-447A-822E-0D87B91183AF}">
     <text>don't need both broader and narrower columns - they are generated by SKOS-Play! post-processing - https://skos-play.sparna.fr/play/convert#post-processings</text>
   </threadedComment>
 </ThreadedComments>
@@ -4831,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4979,7 +5016,7 @@
         <v>641</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>1329</v>
+        <v>1346</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5016,7 +5053,7 @@
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>1321</v>
@@ -5035,7 +5072,7 @@
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>1322</v>
@@ -5054,7 +5091,7 @@
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>1322</v>
@@ -5076,7 +5113,7 @@
         <v>1323</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -5095,7 +5132,7 @@
         <v>1323</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5225,10 +5262,10 @@
     </row>
     <row r="20" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>1332</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>1333</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5244,10 +5281,10 @@
     </row>
     <row r="21" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -5266,7 +5303,7 @@
         <v>644</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -5281,11 +5318,11 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1336</v>
+      <c r="A23" s="50" t="s">
+        <v>1335</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5301,10 +5338,10 @@
     </row>
     <row r="24" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -14244,10 +14281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25E589-C762-47F7-A5B5-46A66BE90C97}">
-  <dimension ref="A1:L461"/>
+  <dimension ref="A1:L466"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14456,10 +14493,10 @@
     </row>
     <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>634</v>
+        <v>1338</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>1345</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -14474,10 +14511,10 @@
     </row>
     <row r="12" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>635</v>
+        <v>1343</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>1347</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -14490,12 +14527,12 @@
       <c r="K12" s="15"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>636</v>
+        <v>1339</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>1344</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -14510,10 +14547,10 @@
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>1068</v>
+        <v>1323</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>1341</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14528,10 +14565,10 @@
     </row>
     <row r="15" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>1065</v>
+        <v>1323</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>1342</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -14546,10 +14583,10 @@
     </row>
     <row r="16" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>1060</v>
+        <v>644</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>634</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -14563,388 +14600,340 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="35"/>
+      <c r="A18" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>637</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H26" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I26" s="48" t="s">
         <v>1315</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K26" s="42" t="s">
         <v>1317</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L26" s="21" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D27" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J27" s="32" t="s">
         <v>1311</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="26" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>793</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>1312</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="27" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>1313</v>
-      </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="27" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>1314</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="27" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="29" t="s">
-        <v>922</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="27" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>923</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
       <c r="K27" s="32"/>
       <c r="L27" s="26" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="E28" s="26"/>
+        <v>790</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>1318</v>
+      </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="30" t="s">
-        <v>794</v>
+      <c r="G28" s="25" t="s">
+        <v>785</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>924</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
+        <v>793</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>1312</v>
+      </c>
       <c r="K28" s="32"/>
       <c r="L28" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="E29"/>
+        <v>791</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>1318</v>
+      </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="30" t="s">
-        <v>794</v>
+      <c r="G29" s="25" t="s">
+        <v>785</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>925</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+        <v>1055</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>1313</v>
+      </c>
       <c r="K29" s="32"/>
       <c r="L29" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>658</v>
-      </c>
-      <c r="E30"/>
+        <v>792</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>1318</v>
+      </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="30" t="s">
-        <v>794</v>
+      <c r="G30" s="25" t="s">
+        <v>785</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>926</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
+        <v>1056</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>1314</v>
+      </c>
       <c r="K30" s="32"/>
       <c r="L30" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="E31"/>
+        <v>669</v>
+      </c>
+      <c r="E31" s="26"/>
       <c r="F31" s="12"/>
       <c r="G31" s="33"/>
       <c r="H31" s="29" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -14953,54 +14942,54 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="E32"/>
+        <v>655</v>
+      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="12"/>
       <c r="G32" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
-      <c r="L32" s="27" t="s">
+      <c r="L32" s="26" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="E33"/>
+        <v>656</v>
+      </c>
+      <c r="E33" s="26"/>
       <c r="F33" s="12"/>
       <c r="G33" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -15011,24 +15000,24 @@
     </row>
     <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E34"/>
       <c r="F34" s="12"/>
       <c r="G34" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -15039,24 +15028,24 @@
     </row>
     <row r="35" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="12"/>
       <c r="G35" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -15067,22 +15056,22 @@
     </row>
     <row r="36" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E36"/>
       <c r="F36" s="12"/>
       <c r="G36" s="33"/>
       <c r="H36" s="29" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
@@ -15091,26 +15080,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E37"/>
       <c r="F37" s="12"/>
       <c r="G37" s="30" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -15119,26 +15108,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="12"/>
       <c r="G38" s="30" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -15147,26 +15136,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="E39"/>
       <c r="F39" s="12"/>
       <c r="G39" s="30" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -15175,26 +15164,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E40"/>
       <c r="F40" s="12"/>
       <c r="G40" s="30" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -15203,26 +15192,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="E41"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="30" t="s">
-        <v>804</v>
-      </c>
+      <c r="G41" s="33"/>
       <c r="H41" s="29" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -15231,18 +15218,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="E42"/>
       <c r="F42" s="12"/>
@@ -15250,7 +15237,7 @@
         <v>804</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -15259,18 +15246,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="E43"/>
       <c r="F43" s="12"/>
@@ -15278,7 +15265,7 @@
         <v>804</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -15287,18 +15274,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E44"/>
       <c r="F44" s="12"/>
@@ -15306,7 +15293,7 @@
         <v>804</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -15315,18 +15302,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="12"/>
@@ -15334,7 +15321,7 @@
         <v>804</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -15343,18 +15330,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="12"/>
@@ -15362,7 +15349,7 @@
         <v>804</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -15371,18 +15358,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="12"/>
@@ -15390,7 +15377,7 @@
         <v>804</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -15401,16 +15388,16 @@
     </row>
     <row r="48" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="12"/>
@@ -15418,7 +15405,7 @@
         <v>804</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -15429,16 +15416,16 @@
     </row>
     <row r="49" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E49"/>
       <c r="F49" s="12"/>
@@ -15446,7 +15433,7 @@
         <v>804</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
@@ -15455,18 +15442,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="12"/>
@@ -15474,7 +15461,7 @@
         <v>804</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -15483,18 +15470,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E51"/>
       <c r="F51" s="12"/>
@@ -15502,7 +15489,7 @@
         <v>804</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -15511,18 +15498,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E52"/>
       <c r="F52" s="12"/>
@@ -15530,7 +15517,7 @@
         <v>804</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -15539,24 +15526,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="E53"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="33"/>
+      <c r="G53" s="30" t="s">
+        <v>804</v>
+      </c>
       <c r="H53" s="29" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -15567,24 +15556,24 @@
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E54"/>
       <c r="F54" s="12"/>
       <c r="G54" s="30" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -15595,56 +15584,52 @@
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="E55" s="60" t="s">
-        <v>1319</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="E55"/>
       <c r="F55" s="12"/>
       <c r="G55" s="30" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>951</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
+        <v>946</v>
+      </c>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
       <c r="L55" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="12"/>
       <c r="G56" s="30" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
@@ -15653,26 +15638,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="12"/>
       <c r="G57" s="30" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
@@ -15683,24 +15668,22 @@
     </row>
     <row r="58" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="30" t="s">
-        <v>821</v>
-      </c>
+      <c r="G58" s="33"/>
       <c r="H58" s="29" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
@@ -15709,24 +15692,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="32"/>
+      <c r="G59" s="30" t="s">
+        <v>821</v>
+      </c>
       <c r="H59" s="29" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
@@ -15737,52 +15722,56 @@
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="E60"/>
+        <v>691</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>1319</v>
+      </c>
       <c r="F60" s="12"/>
       <c r="G60" s="30" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>958</v>
-      </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
+        <v>951</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
       <c r="L60" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="12"/>
       <c r="G61" s="30" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
@@ -15791,26 +15780,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="12"/>
       <c r="G62" s="30" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
@@ -15819,28 +15808,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E63"/>
-      <c r="F63" s="12" t="s">
-        <v>832</v>
-      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="30" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
@@ -15849,28 +15836,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="E64"/>
-      <c r="F64" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>829</v>
-      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="29" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
@@ -15879,18 +15862,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="12"/>
@@ -15898,7 +15881,7 @@
         <v>829</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
@@ -15907,18 +15890,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="12"/>
@@ -15926,7 +15909,7 @@
         <v>829</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
@@ -15937,26 +15920,24 @@
     </row>
     <row r="67" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E67"/>
-      <c r="F67" s="12" t="s">
-        <v>836</v>
-      </c>
+      <c r="F67" s="12"/>
       <c r="G67" s="30" t="s">
         <v>829</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
@@ -15965,28 +15946,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G68" s="30" t="s">
         <v>829</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
@@ -15995,26 +15976,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E69"/>
-      <c r="F69" s="12"/>
+      <c r="F69" s="12" t="s">
+        <v>832</v>
+      </c>
       <c r="G69" s="30" t="s">
         <v>829</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
@@ -16023,18 +16006,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="12"/>
@@ -16042,7 +16025,7 @@
         <v>829</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
@@ -16051,18 +16034,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="12"/>
@@ -16070,7 +16053,7 @@
         <v>829</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
@@ -16081,24 +16064,26 @@
     </row>
     <row r="72" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E72"/>
-      <c r="F72" s="12"/>
+      <c r="F72" s="12" t="s">
+        <v>836</v>
+      </c>
       <c r="G72" s="30" t="s">
         <v>829</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
@@ -16107,26 +16092,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E73"/>
-      <c r="F73" s="12"/>
+      <c r="F73" s="12" t="s">
+        <v>836</v>
+      </c>
       <c r="G73" s="30" t="s">
         <v>829</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
@@ -16137,22 +16124,24 @@
     </row>
     <row r="74" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="32"/>
+      <c r="G74" s="30" t="s">
+        <v>829</v>
+      </c>
       <c r="H74" s="29" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
@@ -16163,24 +16152,24 @@
     </row>
     <row r="75" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="12"/>
       <c r="G75" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
@@ -16189,58 +16178,54 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="E76" s="60" t="s">
-        <v>1319</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="E76"/>
       <c r="F76" s="12"/>
       <c r="G76" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>974</v>
-      </c>
-      <c r="I76" s="32" t="s">
-        <v>1051</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="I76" s="32"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
       <c r="L76" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E77"/>
       <c r="F77" s="12"/>
       <c r="G77" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
@@ -16251,24 +16236,24 @@
     </row>
     <row r="78" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E78"/>
       <c r="F78" s="12"/>
       <c r="G78" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
@@ -16279,24 +16264,22 @@
     </row>
     <row r="79" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>717</v>
+        <v>672</v>
       </c>
       <c r="E79"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="30" t="s">
-        <v>844</v>
-      </c>
+      <c r="G79" s="32"/>
       <c r="H79" s="29" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="I79" s="32"/>
       <c r="J79" s="32"/>
@@ -16307,16 +16290,16 @@
     </row>
     <row r="80" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E80"/>
       <c r="F80" s="12"/>
@@ -16324,7 +16307,7 @@
         <v>844</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
@@ -16333,58 +16316,58 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>719</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81" s="12" t="s">
-        <v>852</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="E81" s="60" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>981</v>
-      </c>
-      <c r="I81" s="32"/>
+        <v>974</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>1051</v>
+      </c>
       <c r="J81" s="32"/>
       <c r="K81" s="32"/>
       <c r="L81" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E82"/>
-      <c r="F82" s="12" t="s">
-        <v>852</v>
-      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
@@ -16393,18 +16376,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E83"/>
       <c r="F83" s="12"/>
@@ -16412,7 +16395,7 @@
         <v>844</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
@@ -16421,34 +16404,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E84" s="60" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>855</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" s="12"/>
       <c r="G84" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>984</v>
-      </c>
-      <c r="I84" s="32" t="s">
-        <v>1052</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="I84" s="32"/>
       <c r="J84" s="32"/>
       <c r="K84" s="32"/>
       <c r="L84" s="27" t="s">
@@ -16457,26 +16434,24 @@
     </row>
     <row r="85" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E85"/>
-      <c r="F85" s="12" t="s">
-        <v>855</v>
-      </c>
+      <c r="F85" s="12"/>
       <c r="G85" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
@@ -16487,24 +16462,26 @@
     </row>
     <row r="86" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E86"/>
-      <c r="F86" s="12"/>
+      <c r="F86" s="12" t="s">
+        <v>852</v>
+      </c>
       <c r="G86" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="I86" s="32"/>
       <c r="J86" s="32"/>
@@ -16513,28 +16490,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E87"/>
       <c r="F87" s="12" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G87" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
@@ -16545,26 +16522,24 @@
     </row>
     <row r="88" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E88"/>
-      <c r="F88" s="12" t="s">
-        <v>860</v>
-      </c>
+      <c r="F88" s="12"/>
       <c r="G88" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
@@ -16573,58 +16548,62 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>729</v>
-      </c>
-      <c r="E89"/>
+        <v>722</v>
+      </c>
+      <c r="E89" s="60" t="s">
+        <v>1319</v>
+      </c>
       <c r="F89" s="12" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G89" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>991</v>
-      </c>
-      <c r="I89" s="32"/>
+        <v>984</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>1052</v>
+      </c>
       <c r="J89" s="32"/>
       <c r="K89" s="32"/>
       <c r="L89" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E90"/>
       <c r="F90" s="12" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G90" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
@@ -16635,26 +16614,24 @@
     </row>
     <row r="91" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E91"/>
-      <c r="F91" s="12" t="s">
-        <v>860</v>
-      </c>
+      <c r="F91" s="12"/>
       <c r="G91" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H91" s="29" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
@@ -16663,18 +16640,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E92"/>
       <c r="F92" s="12" t="s">
@@ -16684,7 +16661,7 @@
         <v>844</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
@@ -16693,18 +16670,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E93"/>
       <c r="F93" s="12" t="s">
@@ -16714,7 +16691,7 @@
         <v>844</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
@@ -16725,16 +16702,16 @@
     </row>
     <row r="94" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E94"/>
       <c r="F94" s="12" t="s">
@@ -16744,7 +16721,7 @@
         <v>844</v>
       </c>
       <c r="H94" s="29" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
@@ -16755,30 +16732,28 @@
     </row>
     <row r="95" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>735</v>
-      </c>
-      <c r="E95" s="60" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F95" s="12"/>
+        <v>730</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" s="12" t="s">
+        <v>860</v>
+      </c>
       <c r="G95" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H95" s="29" t="s">
-        <v>997</v>
-      </c>
-      <c r="I95" s="32" t="s">
-        <v>1053</v>
-      </c>
+        <v>992</v>
+      </c>
+      <c r="I95" s="32"/>
       <c r="J95" s="32"/>
       <c r="K95" s="32"/>
       <c r="L95" s="27" t="s">
@@ -16787,24 +16762,26 @@
     </row>
     <row r="96" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E96"/>
-      <c r="F96" s="12"/>
+      <c r="F96" s="12" t="s">
+        <v>860</v>
+      </c>
       <c r="G96" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H96" s="29" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="I96" s="32"/>
       <c r="J96" s="32"/>
@@ -16813,28 +16790,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E97"/>
       <c r="F97" s="12" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="G97" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
@@ -16845,26 +16822,26 @@
     </row>
     <row r="98" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E98"/>
       <c r="F98" s="12" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="G98" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
@@ -16873,28 +16850,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E99"/>
       <c r="F99" s="12" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="G99" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
@@ -16905,56 +16882,56 @@
     </row>
     <row r="100" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100" s="12" t="s">
-        <v>872</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="E100" s="60" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F100" s="12"/>
       <c r="G100" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I100" s="29"/>
+        <v>997</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>1053</v>
+      </c>
       <c r="J100" s="32"/>
       <c r="K100" s="32"/>
       <c r="L100" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E101"/>
-      <c r="F101" s="12" t="s">
-        <v>872</v>
-      </c>
+      <c r="F101" s="12"/>
       <c r="G101" s="30" t="s">
         <v>844</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
@@ -16963,24 +16940,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>673</v>
+        <v>739</v>
       </c>
       <c r="E102"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="32"/>
+      <c r="F102" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>844</v>
+      </c>
       <c r="H102" s="29" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
@@ -16989,26 +16970,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E103"/>
-      <c r="F103" s="12"/>
+      <c r="F103" s="12" t="s">
+        <v>872</v>
+      </c>
       <c r="G103" s="30" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
@@ -17017,26 +17000,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E104"/>
-      <c r="F104" s="12"/>
+      <c r="F104" s="12" t="s">
+        <v>872</v>
+      </c>
       <c r="G104" s="30" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="32"/>
@@ -17045,52 +17030,58 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>674</v>
+        <v>742</v>
       </c>
       <c r="E105"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="32"/>
+      <c r="F105" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>844</v>
+      </c>
       <c r="H105" s="29" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I105" s="32"/>
+        <v>1004</v>
+      </c>
+      <c r="I105" s="29"/>
       <c r="J105" s="32"/>
       <c r="K105" s="32"/>
       <c r="L105" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E106"/>
-      <c r="F106" s="12"/>
+      <c r="F106" s="12" t="s">
+        <v>872</v>
+      </c>
       <c r="G106" s="30" t="s">
-        <v>881</v>
+        <v>844</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="I106" s="32"/>
       <c r="J106" s="32"/>
@@ -17101,26 +17092,22 @@
     </row>
     <row r="107" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>747</v>
+        <v>673</v>
       </c>
       <c r="E107"/>
-      <c r="F107" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="G107" s="30" t="s">
-        <v>881</v>
-      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="32"/>
       <c r="H107" s="29" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="I107" s="32"/>
       <c r="J107" s="32"/>
@@ -17131,26 +17118,24 @@
     </row>
     <row r="108" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E108"/>
-      <c r="F108" s="12" t="s">
-        <v>882</v>
-      </c>
+      <c r="F108" s="12"/>
       <c r="G108" s="30" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="I108" s="32"/>
       <c r="J108" s="32"/>
@@ -17159,28 +17144,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E109"/>
-      <c r="F109" s="12" t="s">
-        <v>882</v>
-      </c>
+      <c r="F109" s="12"/>
       <c r="G109" s="30" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H109" s="29" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="I109" s="32"/>
       <c r="J109" s="32"/>
@@ -17191,26 +17174,22 @@
     </row>
     <row r="110" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>750</v>
+        <v>674</v>
       </c>
       <c r="E110"/>
-      <c r="F110" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="G110" s="30" t="s">
-        <v>881</v>
-      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="32"/>
       <c r="H110" s="29" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="I110" s="32"/>
       <c r="J110" s="32"/>
@@ -17221,16 +17200,16 @@
     </row>
     <row r="111" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E111"/>
       <c r="F111" s="12"/>
@@ -17238,7 +17217,7 @@
         <v>881</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
@@ -17249,26 +17228,26 @@
     </row>
     <row r="112" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E112"/>
       <c r="F112" s="12" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G112" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H112" s="29" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="I112" s="32"/>
       <c r="J112" s="32"/>
@@ -17277,28 +17256,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E113"/>
       <c r="F113" s="12" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G113" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H113" s="29" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="I113" s="32"/>
       <c r="J113" s="32"/>
@@ -17307,26 +17286,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E114"/>
-      <c r="F114" s="12"/>
+      <c r="F114" s="12" t="s">
+        <v>882</v>
+      </c>
       <c r="G114" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H114" s="29" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="I114" s="32"/>
       <c r="J114" s="32"/>
@@ -17337,26 +17318,26 @@
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E115"/>
       <c r="F115" s="12" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="G115" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="I115" s="32"/>
       <c r="J115" s="32"/>
@@ -17365,34 +17346,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="E116" s="60" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>890</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I116" s="32" t="s">
-        <v>1054</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="I116" s="32"/>
       <c r="J116" s="32"/>
       <c r="K116" s="32"/>
       <c r="L116" s="27" t="s">
@@ -17401,24 +17376,26 @@
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E117"/>
-      <c r="F117" s="12"/>
+      <c r="F117" s="12" t="s">
+        <v>887</v>
+      </c>
       <c r="G117" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="I117" s="32"/>
       <c r="J117" s="32"/>
@@ -17427,26 +17404,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E118"/>
-      <c r="F118" s="12"/>
+      <c r="F118" s="12" t="s">
+        <v>887</v>
+      </c>
       <c r="G118" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="I118" s="32"/>
       <c r="J118" s="32"/>
@@ -17457,26 +17436,24 @@
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="E119"/>
-      <c r="F119" s="12" t="s">
-        <v>896</v>
-      </c>
+      <c r="F119" s="12"/>
       <c r="G119" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H119" s="29" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="32"/>
@@ -17485,28 +17462,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E120"/>
       <c r="F120" s="12" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G120" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="32"/>
@@ -17515,46 +17492,52 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="E121"/>
-      <c r="F121" s="12"/>
+        <v>756</v>
+      </c>
+      <c r="E121" s="60" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>890</v>
+      </c>
       <c r="G121" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H121" s="29" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I121" s="32"/>
+        <v>1020</v>
+      </c>
+      <c r="I121" s="32" t="s">
+        <v>1054</v>
+      </c>
       <c r="J121" s="32"/>
       <c r="K121" s="32"/>
       <c r="L121" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E122"/>
       <c r="F122" s="12"/>
@@ -17562,7 +17545,7 @@
         <v>881</v>
       </c>
       <c r="H122" s="29" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="I122" s="32"/>
       <c r="J122" s="32"/>
@@ -17573,16 +17556,16 @@
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E123"/>
       <c r="F123" s="12"/>
@@ -17590,7 +17573,7 @@
         <v>881</v>
       </c>
       <c r="H123" s="29" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="I123" s="32"/>
       <c r="J123" s="32"/>
@@ -17599,26 +17582,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E124"/>
-      <c r="F124" s="12"/>
+      <c r="F124" s="12" t="s">
+        <v>896</v>
+      </c>
       <c r="G124" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H124" s="29" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="I124" s="32"/>
       <c r="J124" s="32"/>
@@ -17627,26 +17612,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E125"/>
-      <c r="F125" s="12"/>
+      <c r="F125" s="12" t="s">
+        <v>896</v>
+      </c>
       <c r="G125" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
@@ -17655,18 +17642,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E126"/>
       <c r="F126" s="12"/>
@@ -17674,7 +17661,7 @@
         <v>881</v>
       </c>
       <c r="H126" s="29" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
@@ -17683,28 +17670,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E127"/>
-      <c r="F127" s="12" t="s">
-        <v>904</v>
-      </c>
+      <c r="F127" s="12"/>
       <c r="G127" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="I127" s="32"/>
       <c r="J127" s="32"/>
@@ -17713,28 +17698,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E128"/>
-      <c r="F128" s="12" t="s">
-        <v>904</v>
-      </c>
+      <c r="F128" s="12"/>
       <c r="G128" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H128" s="29" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="I128" s="32"/>
       <c r="J128" s="32"/>
@@ -17745,26 +17728,24 @@
     </row>
     <row r="129" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E129"/>
-      <c r="F129" s="12" t="s">
-        <v>904</v>
-      </c>
+      <c r="F129" s="12"/>
       <c r="G129" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="I129" s="32"/>
       <c r="J129" s="32"/>
@@ -17773,28 +17754,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E130"/>
-      <c r="F130" s="12" t="s">
-        <v>904</v>
-      </c>
+      <c r="F130" s="12"/>
       <c r="G130" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H130" s="29" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
@@ -17803,28 +17782,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E131"/>
-      <c r="F131" s="12" t="s">
-        <v>904</v>
-      </c>
+      <c r="F131" s="12"/>
       <c r="G131" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H131" s="29" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="I131" s="32"/>
       <c r="J131" s="32"/>
@@ -17833,18 +17810,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E132"/>
       <c r="F132" s="12" t="s">
@@ -17854,7 +17831,7 @@
         <v>881</v>
       </c>
       <c r="H132" s="29" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="I132" s="32"/>
       <c r="J132" s="32"/>
@@ -17865,16 +17842,16 @@
     </row>
     <row r="133" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E133"/>
       <c r="F133" s="12" t="s">
@@ -17884,7 +17861,7 @@
         <v>881</v>
       </c>
       <c r="H133" s="29" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="I133" s="32"/>
       <c r="J133" s="32"/>
@@ -17895,16 +17872,16 @@
     </row>
     <row r="134" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E134"/>
       <c r="F134" s="12" t="s">
@@ -17914,7 +17891,7 @@
         <v>881</v>
       </c>
       <c r="H134" s="29" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="I134" s="32"/>
       <c r="J134" s="32"/>
@@ -17925,16 +17902,16 @@
     </row>
     <row r="135" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E135"/>
       <c r="F135" s="12" t="s">
@@ -17944,7 +17921,7 @@
         <v>881</v>
       </c>
       <c r="H135" s="29" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="I135" s="32"/>
       <c r="J135" s="32"/>
@@ -17955,16 +17932,16 @@
     </row>
     <row r="136" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E136"/>
       <c r="F136" s="12" t="s">
@@ -17974,7 +17951,7 @@
         <v>881</v>
       </c>
       <c r="H136" s="29" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="I136" s="32"/>
       <c r="J136" s="32"/>
@@ -17983,26 +17960,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>675</v>
+        <v>774</v>
       </c>
       <c r="E137"/>
-      <c r="F137" s="12"/>
+      <c r="F137" s="12" t="s">
+        <v>904</v>
+      </c>
       <c r="G137" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H137" s="29" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="I137" s="32"/>
       <c r="J137" s="32"/>
@@ -18011,28 +17990,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E138"/>
       <c r="F138" s="12" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="G138" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="I138" s="32"/>
       <c r="J138" s="32"/>
@@ -18043,26 +18022,26 @@
     </row>
     <row r="139" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E139"/>
       <c r="F139" s="12" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="G139" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="I139" s="32"/>
       <c r="J139" s="32"/>
@@ -18071,26 +18050,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E140"/>
-      <c r="F140" s="12"/>
+      <c r="F140" s="12" t="s">
+        <v>904</v>
+      </c>
       <c r="G140" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="I140" s="32"/>
       <c r="J140" s="32"/>
@@ -18101,26 +18082,26 @@
     </row>
     <row r="141" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E141"/>
       <c r="F141" s="12" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="G141" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H141" s="29" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="I141" s="32"/>
       <c r="J141" s="32"/>
@@ -18129,28 +18110,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>783</v>
+        <v>675</v>
       </c>
       <c r="E142"/>
-      <c r="F142" s="12" t="s">
-        <v>918</v>
-      </c>
+      <c r="F142" s="12"/>
       <c r="G142" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H142" s="29" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
@@ -18161,26 +18140,26 @@
     </row>
     <row r="143" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E143"/>
       <c r="F143" s="12" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G143" s="30" t="s">
         <v>881</v>
       </c>
       <c r="H143" s="29" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
@@ -18189,24 +18168,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" s="23">
-        <v>10</v>
+    <row r="144" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
+        <v>917</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>780</v>
       </c>
       <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27" t="s">
-        <v>509</v>
+      <c r="F144" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="G144" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="H144" s="29" t="s">
+        <v>1045</v>
       </c>
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
@@ -18216,25 +18199,25 @@
       </c>
     </row>
     <row r="145" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D145" s="23" t="s">
-        <v>22</v>
+      <c r="A145" s="30" t="s">
+        <v>918</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>781</v>
       </c>
       <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" s="27" t="s">
-        <v>510</v>
+      <c r="F145" s="12"/>
+      <c r="G145" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="H145" s="29" t="s">
+        <v>1046</v>
       </c>
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
@@ -18243,26 +18226,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>25</v>
+    <row r="146" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
+        <v>919</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>782</v>
       </c>
       <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" s="27" t="s">
-        <v>511</v>
+      <c r="F146" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="G146" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="H146" s="29" t="s">
+        <v>1047</v>
       </c>
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
@@ -18271,26 +18256,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
-        <v>26</v>
+    <row r="147" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
+        <v>920</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="23" t="s">
-        <v>28</v>
+      <c r="C147" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>783</v>
       </c>
       <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H147" s="27" t="s">
-        <v>512</v>
+      <c r="F147" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="G147" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="H147" s="29" t="s">
+        <v>1048</v>
       </c>
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
@@ -18300,27 +18287,27 @@
       </c>
     </row>
     <row r="148" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>31</v>
+      <c r="A148" s="30" t="s">
+        <v>921</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>784</v>
       </c>
       <c r="E148"/>
-      <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" s="27" t="s">
-        <v>513</v>
+      <c r="F148" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="G148" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="H148" s="29" t="s">
+        <v>1049</v>
       </c>
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
@@ -18329,28 +18316,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="24" t="s">
-        <v>32</v>
+    <row r="149" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="D149" s="23">
+        <v>10</v>
       </c>
       <c r="E149"/>
-      <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="F149"/>
+      <c r="G149" s="27"/>
       <c r="H149" s="27" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
@@ -18361,26 +18344,24 @@
     </row>
     <row r="150" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E150"/>
-      <c r="F150" t="s">
-        <v>26</v>
-      </c>
+      <c r="F150"/>
       <c r="G150" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
@@ -18391,26 +18372,24 @@
     </row>
     <row r="151" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E151"/>
-      <c r="F151" t="s">
-        <v>26</v>
-      </c>
+      <c r="F151"/>
       <c r="G151" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
@@ -18419,18 +18398,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B152" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E152"/>
       <c r="F152"/>
@@ -18438,7 +18417,7 @@
         <v>17</v>
       </c>
       <c r="H152" s="27" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
@@ -18449,24 +18428,26 @@
     </row>
     <row r="153" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E153"/>
-      <c r="F153"/>
+      <c r="F153" t="s">
+        <v>26</v>
+      </c>
       <c r="G153" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
@@ -18475,24 +18456,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="19" t="s">
-        <v>47</v>
+    <row r="154" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" s="23">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154" s="27"/>
+      <c r="F154" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="H154" s="27" t="s">
-        <v>633</v>
+        <v>514</v>
       </c>
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
@@ -18502,25 +18487,27 @@
       </c>
     </row>
     <row r="155" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="19" t="s">
-        <v>49</v>
+      <c r="A155" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E155"/>
-      <c r="F155"/>
+      <c r="F155" t="s">
+        <v>26</v>
+      </c>
       <c r="G155" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
@@ -18530,25 +18517,27 @@
       </c>
     </row>
     <row r="156" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="19" t="s">
-        <v>52</v>
+      <c r="A156" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E156"/>
-      <c r="F156"/>
+      <c r="F156" t="s">
+        <v>26</v>
+      </c>
       <c r="G156" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H156" s="27" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
@@ -18557,24 +18546,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="19" t="s">
-        <v>55</v>
+    <row r="157" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D157" s="23">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="E157"/>
       <c r="F157"/>
-      <c r="G157" s="27"/>
+      <c r="G157" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="H157" s="27" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
@@ -18584,25 +18575,25 @@
       </c>
     </row>
     <row r="158" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
-        <v>57</v>
+      <c r="A158" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158" s="19" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H158" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
@@ -18613,26 +18604,24 @@
     </row>
     <row r="159" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D159" s="23" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="D159" s="23">
+        <v>11</v>
       </c>
       <c r="E159"/>
       <c r="F159"/>
-      <c r="G159" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H159" t="s">
-        <v>523</v>
-      </c>
-      <c r="I159" s="12"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32"/>
       <c r="L159" s="27" t="s">
@@ -18641,24 +18630,24 @@
     </row>
     <row r="160" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H160" s="27" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I160" s="32"/>
       <c r="J160" s="32"/>
@@ -18669,26 +18658,26 @@
     </row>
     <row r="161" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H161" t="s">
-        <v>525</v>
-      </c>
-      <c r="I161" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="H161" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="I161" s="32"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32"/>
       <c r="L161" s="27" t="s">
@@ -18697,24 +18686,22 @@
     </row>
     <row r="162" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="D162" s="23">
+        <v>12</v>
       </c>
       <c r="E162"/>
       <c r="F162"/>
-      <c r="G162" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="G162" s="27"/>
       <c r="H162" s="27" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I162" s="32"/>
       <c r="J162" s="32"/>
@@ -18725,16 +18712,16 @@
     </row>
     <row r="163" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E163"/>
       <c r="F163"/>
@@ -18742,7 +18729,7 @@
         <v>55</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I163" s="32"/>
       <c r="J163" s="32"/>
@@ -18753,50 +18740,52 @@
     </row>
     <row r="164" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D164" s="23">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="E164"/>
       <c r="F164"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="I164" s="32"/>
+      <c r="G164" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H164" t="s">
+        <v>523</v>
+      </c>
+      <c r="I164" s="12"/>
       <c r="J164" s="32"/>
       <c r="K164" s="32"/>
       <c r="L164" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" s="19" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I165" s="32"/>
       <c r="J165" s="32"/>
@@ -18807,26 +18796,26 @@
     </row>
     <row r="166" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H166" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="I166" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="H166" t="s">
+        <v>525</v>
+      </c>
+      <c r="I166" s="12"/>
       <c r="J166" s="32"/>
       <c r="K166" s="32"/>
       <c r="L166" s="27" t="s">
@@ -18835,24 +18824,24 @@
     </row>
     <row r="167" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" s="19" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I167" s="32"/>
       <c r="J167" s="32"/>
@@ -18863,24 +18852,24 @@
     </row>
     <row r="168" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B168" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168" s="19" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H168" s="27" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="I168" s="32"/>
       <c r="J168" s="32"/>
@@ -18891,26 +18880,22 @@
     </row>
     <row r="169" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="D169" s="23">
+        <v>13</v>
       </c>
       <c r="E169"/>
-      <c r="F169" t="s">
-        <v>86</v>
-      </c>
-      <c r="G169" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="F169"/>
+      <c r="G169" s="27"/>
       <c r="H169" s="27" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="I169" s="32"/>
       <c r="J169" s="32"/>
@@ -18919,28 +18904,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E170"/>
-      <c r="F170" t="s">
-        <v>86</v>
-      </c>
+      <c r="F170"/>
       <c r="G170" s="19" t="s">
         <v>75</v>
       </c>
       <c r="H170" s="27" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I170" s="32"/>
       <c r="J170" s="32"/>
@@ -18951,22 +18934,24 @@
     </row>
     <row r="171" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D171" s="23">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="E171"/>
       <c r="F171"/>
-      <c r="G171" s="27"/>
+      <c r="G171" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="H171" s="27" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="I171" s="32"/>
       <c r="J171" s="32"/>
@@ -18977,24 +18962,24 @@
     </row>
     <row r="172" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E172"/>
       <c r="F172"/>
       <c r="G172" s="19" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H172" s="27" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I172" s="32"/>
       <c r="J172" s="32"/>
@@ -19005,24 +18990,24 @@
     </row>
     <row r="173" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B173" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B173" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E173"/>
       <c r="F173"/>
       <c r="G173" s="19" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H173" s="27" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I173" s="32"/>
       <c r="J173" s="32"/>
@@ -19033,24 +19018,26 @@
     </row>
     <row r="174" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E174"/>
-      <c r="F174"/>
+      <c r="F174" t="s">
+        <v>86</v>
+      </c>
       <c r="G174" s="19" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H174" s="27" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I174" s="32"/>
       <c r="J174" s="32"/>
@@ -19061,24 +19048,26 @@
     </row>
     <row r="175" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E175"/>
-      <c r="F175"/>
+      <c r="F175" t="s">
+        <v>86</v>
+      </c>
       <c r="G175" s="19" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H175" s="27" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="I175" s="32"/>
       <c r="J175" s="32"/>
@@ -19089,24 +19078,22 @@
     </row>
     <row r="176" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D176" s="23" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+      <c r="D176" s="23">
+        <v>14</v>
       </c>
       <c r="E176"/>
       <c r="F176"/>
-      <c r="G176" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="G176" s="27"/>
       <c r="H176" s="27" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I176" s="32"/>
       <c r="J176" s="32"/>
@@ -19117,16 +19104,16 @@
     </row>
     <row r="177" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E177"/>
       <c r="F177"/>
@@ -19134,7 +19121,7 @@
         <v>95</v>
       </c>
       <c r="H177" s="27" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I177" s="32"/>
       <c r="J177" s="32"/>
@@ -19143,18 +19130,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="178" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E178"/>
       <c r="F178"/>
@@ -19162,7 +19149,7 @@
         <v>95</v>
       </c>
       <c r="H178" s="27" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I178" s="32"/>
       <c r="J178" s="32"/>
@@ -19171,18 +19158,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="179" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E179"/>
       <c r="F179"/>
@@ -19190,7 +19177,7 @@
         <v>95</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I179" s="32"/>
       <c r="J179" s="32"/>
@@ -19201,16 +19188,16 @@
     </row>
     <row r="180" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E180"/>
       <c r="F180"/>
@@ -19218,7 +19205,7 @@
         <v>95</v>
       </c>
       <c r="H180" s="27" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I180" s="32"/>
       <c r="J180" s="32"/>
@@ -19227,32 +19214,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B181" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B181" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E181" s="60" t="s">
-        <v>1319</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E181"/>
       <c r="F181"/>
       <c r="G181" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H181" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="I181" s="31" t="s">
-        <v>651</v>
-      </c>
+      <c r="H181" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="I181" s="32"/>
       <c r="J181" s="32"/>
       <c r="K181" s="32"/>
       <c r="L181" s="27" t="s">
@@ -19261,16 +19244,16 @@
     </row>
     <row r="182" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E182"/>
       <c r="F182"/>
@@ -19278,7 +19261,7 @@
         <v>95</v>
       </c>
       <c r="H182" s="27" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="I182" s="32"/>
       <c r="J182" s="32"/>
@@ -19287,18 +19270,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E183"/>
       <c r="F183"/>
@@ -19306,7 +19289,7 @@
         <v>95</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I183" s="32"/>
       <c r="J183" s="32"/>
@@ -19315,18 +19298,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E184"/>
       <c r="F184"/>
@@ -19334,7 +19317,7 @@
         <v>95</v>
       </c>
       <c r="H184" s="27" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="I184" s="32"/>
       <c r="J184" s="32"/>
@@ -19345,16 +19328,16 @@
     </row>
     <row r="185" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E185"/>
       <c r="F185"/>
@@ -19362,7 +19345,7 @@
         <v>95</v>
       </c>
       <c r="H185" s="27" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="I185" s="32"/>
       <c r="J185" s="32"/>
@@ -19371,60 +19354,60 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B186" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B186" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E186"/>
+        <v>126</v>
+      </c>
+      <c r="E186" s="60" t="s">
+        <v>1319</v>
+      </c>
       <c r="F186"/>
       <c r="G186" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H186" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="I186" s="32"/>
+      <c r="H186" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="I186" s="31" t="s">
+        <v>651</v>
+      </c>
       <c r="J186" s="32"/>
       <c r="K186" s="32"/>
       <c r="L186" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="187" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B187" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B187" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E187" s="60" t="s">
-        <v>1319</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E187"/>
       <c r="F187"/>
       <c r="G187" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H187" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="I187" s="32" t="s">
-        <v>652</v>
-      </c>
+      <c r="H187" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="I187" s="32"/>
       <c r="J187" s="32"/>
       <c r="K187" s="32"/>
       <c r="L187" s="27" t="s">
@@ -19433,16 +19416,16 @@
     </row>
     <row r="188" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E188"/>
       <c r="F188"/>
@@ -19450,7 +19433,7 @@
         <v>95</v>
       </c>
       <c r="H188" s="27" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I188" s="32"/>
       <c r="J188" s="32"/>
@@ -19459,32 +19442,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="189" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B189" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E189" s="60" t="s">
-        <v>1319</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E189"/>
       <c r="F189"/>
       <c r="G189" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H189" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="I189" s="32" t="s">
-        <v>653</v>
-      </c>
+      <c r="H189" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="I189" s="32"/>
       <c r="J189" s="32"/>
       <c r="K189" s="32"/>
       <c r="L189" s="27" t="s">
@@ -19493,16 +19472,16 @@
     </row>
     <row r="190" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E190"/>
       <c r="F190"/>
@@ -19510,7 +19489,7 @@
         <v>95</v>
       </c>
       <c r="H190" s="27" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
@@ -19521,22 +19500,24 @@
     </row>
     <row r="191" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D191" s="23">
-        <v>15</v>
+        <v>146</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="E191"/>
       <c r="F191"/>
-      <c r="G191" s="27"/>
+      <c r="G191" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="H191" s="27" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="I191" s="32"/>
       <c r="J191" s="32"/>
@@ -19545,54 +19526,58 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="192" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B192" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B192" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E192"/>
+        <v>150</v>
+      </c>
+      <c r="E192" s="60" t="s">
+        <v>1319</v>
+      </c>
       <c r="F192"/>
       <c r="G192" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H192" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="I192" s="32"/>
+        <v>95</v>
+      </c>
+      <c r="H192" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="I192" s="32" t="s">
+        <v>652</v>
+      </c>
       <c r="J192" s="32"/>
       <c r="K192" s="32"/>
       <c r="L192" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B193" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E193"/>
       <c r="F193"/>
       <c r="G193" s="19" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="H193" s="27" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
@@ -19603,52 +19588,56 @@
     </row>
     <row r="194" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B194" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B194" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E194"/>
+        <v>162</v>
+      </c>
+      <c r="E194" s="60" t="s">
+        <v>1319</v>
+      </c>
       <c r="F194"/>
       <c r="G194" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H194" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="I194" s="32"/>
+        <v>95</v>
+      </c>
+      <c r="H194" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="I194" s="32" t="s">
+        <v>653</v>
+      </c>
       <c r="J194" s="32"/>
       <c r="K194" s="32"/>
       <c r="L194" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="195" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E195"/>
       <c r="F195"/>
       <c r="G195" s="19" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I195" s="32"/>
       <c r="J195" s="32"/>
@@ -19657,26 +19646,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="196" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D196" s="23" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="D196" s="23">
+        <v>15</v>
       </c>
       <c r="E196"/>
       <c r="F196"/>
-      <c r="G196" s="19" t="s">
-        <v>172</v>
-      </c>
+      <c r="G196" s="27"/>
       <c r="H196" s="27" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I196" s="32"/>
       <c r="J196" s="32"/>
@@ -19685,18 +19672,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E197"/>
       <c r="F197"/>
@@ -19704,7 +19691,7 @@
         <v>172</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="I197" s="32"/>
       <c r="J197" s="32"/>
@@ -19715,16 +19702,16 @@
     </row>
     <row r="198" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E198"/>
       <c r="F198"/>
@@ -19732,7 +19719,7 @@
         <v>172</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I198" s="32"/>
       <c r="J198" s="32"/>
@@ -19743,16 +19730,16 @@
     </row>
     <row r="199" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E199"/>
       <c r="F199"/>
@@ -19760,7 +19747,7 @@
         <v>172</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I199" s="32"/>
       <c r="J199" s="32"/>
@@ -19769,18 +19756,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E200"/>
       <c r="F200"/>
@@ -19788,7 +19775,7 @@
         <v>172</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I200" s="32"/>
       <c r="J200" s="32"/>
@@ -19797,18 +19784,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E201"/>
       <c r="F201"/>
@@ -19816,7 +19803,7 @@
         <v>172</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="I201" s="32"/>
       <c r="J201" s="32"/>
@@ -19825,18 +19812,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E202"/>
       <c r="F202"/>
@@ -19844,7 +19831,7 @@
         <v>172</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I202" s="32"/>
       <c r="J202" s="32"/>
@@ -19853,18 +19840,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="203" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E203"/>
       <c r="F203"/>
@@ -19872,7 +19859,7 @@
         <v>172</v>
       </c>
       <c r="H203" s="27" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I203" s="32"/>
       <c r="J203" s="32"/>
@@ -19883,16 +19870,16 @@
     </row>
     <row r="204" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E204"/>
       <c r="F204"/>
@@ -19900,7 +19887,7 @@
         <v>172</v>
       </c>
       <c r="H204" s="27" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I204" s="32"/>
       <c r="J204" s="32"/>
@@ -19911,16 +19898,16 @@
     </row>
     <row r="205" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E205"/>
       <c r="F205"/>
@@ -19928,7 +19915,7 @@
         <v>172</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I205" s="32"/>
       <c r="J205" s="32"/>
@@ -19937,18 +19924,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E206"/>
       <c r="F206"/>
@@ -19956,7 +19943,7 @@
         <v>172</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I206" s="32"/>
       <c r="J206" s="32"/>
@@ -19965,18 +19952,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E207"/>
       <c r="F207"/>
@@ -19984,7 +19971,7 @@
         <v>172</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I207" s="32"/>
       <c r="J207" s="32"/>
@@ -19993,18 +19980,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E208"/>
       <c r="F208"/>
@@ -20012,7 +19999,7 @@
         <v>172</v>
       </c>
       <c r="H208" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I208" s="32"/>
       <c r="J208" s="32"/>
@@ -20021,18 +20008,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E209"/>
       <c r="F209"/>
@@ -20040,7 +20027,7 @@
         <v>172</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I209" s="32"/>
       <c r="J209" s="32"/>
@@ -20049,18 +20036,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="19" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E210"/>
       <c r="F210"/>
@@ -20068,7 +20055,7 @@
         <v>172</v>
       </c>
       <c r="H210" s="27" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I210" s="32"/>
       <c r="J210" s="32"/>
@@ -20079,16 +20066,16 @@
     </row>
     <row r="211" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E211"/>
       <c r="F211"/>
@@ -20096,7 +20083,7 @@
         <v>172</v>
       </c>
       <c r="H211" s="27" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I211" s="32"/>
       <c r="J211" s="32"/>
@@ -20105,18 +20092,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E212"/>
       <c r="F212"/>
@@ -20124,7 +20111,7 @@
         <v>172</v>
       </c>
       <c r="H212" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="32"/>
@@ -20133,18 +20120,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E213"/>
       <c r="F213"/>
@@ -20152,7 +20139,7 @@
         <v>172</v>
       </c>
       <c r="H213" s="27" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I213" s="32"/>
       <c r="J213" s="32"/>
@@ -20161,18 +20148,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="214" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E214"/>
       <c r="F214"/>
@@ -20180,7 +20167,7 @@
         <v>172</v>
       </c>
       <c r="H214" s="27" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I214" s="32"/>
       <c r="J214" s="32"/>
@@ -20191,16 +20178,16 @@
     </row>
     <row r="215" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E215"/>
       <c r="F215"/>
@@ -20208,7 +20195,7 @@
         <v>172</v>
       </c>
       <c r="H215" s="27" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I215" s="32"/>
       <c r="J215" s="32"/>
@@ -20217,18 +20204,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E216"/>
       <c r="F216"/>
@@ -20236,7 +20223,7 @@
         <v>172</v>
       </c>
       <c r="H216" s="27" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I216" s="32"/>
       <c r="J216" s="32"/>
@@ -20245,18 +20232,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E217"/>
       <c r="F217"/>
@@ -20264,7 +20251,7 @@
         <v>172</v>
       </c>
       <c r="H217" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I217" s="32"/>
       <c r="J217" s="32"/>
@@ -20273,18 +20260,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="218" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E218"/>
       <c r="F218"/>
@@ -20292,7 +20279,7 @@
         <v>172</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I218" s="32"/>
       <c r="J218" s="32"/>
@@ -20301,18 +20288,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B219" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E219"/>
       <c r="F219"/>
@@ -20320,7 +20307,7 @@
         <v>172</v>
       </c>
       <c r="H219" s="27" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I219" s="32"/>
       <c r="J219" s="32"/>
@@ -20331,16 +20318,16 @@
     </row>
     <row r="220" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E220"/>
       <c r="F220"/>
@@ -20348,7 +20335,7 @@
         <v>172</v>
       </c>
       <c r="H220" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="I220" s="32"/>
       <c r="J220" s="32"/>
@@ -20359,22 +20346,24 @@
     </row>
     <row r="221" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D221" s="23">
-        <v>16</v>
+        <v>247</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="E221"/>
       <c r="F221"/>
-      <c r="G221" s="28"/>
+      <c r="G221" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="H221" s="27" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I221" s="32"/>
       <c r="J221" s="32"/>
@@ -20385,24 +20374,24 @@
     </row>
     <row r="222" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E222"/>
       <c r="F222"/>
       <c r="G222" s="19" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="H222" s="27" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I222" s="32"/>
       <c r="J222" s="32"/>
@@ -20413,24 +20402,24 @@
     </row>
     <row r="223" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E223"/>
       <c r="F223"/>
       <c r="G223" s="19" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I223" s="32"/>
       <c r="J223" s="32"/>
@@ -20441,24 +20430,24 @@
     </row>
     <row r="224" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E224"/>
       <c r="F224"/>
       <c r="G224" s="19" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="H224" s="27" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="I224" s="32"/>
       <c r="J224" s="32"/>
@@ -20469,24 +20458,24 @@
     </row>
     <row r="225" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E225"/>
       <c r="F225"/>
       <c r="G225" s="19" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="H225" s="27" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="I225" s="32"/>
       <c r="J225" s="32"/>
@@ -20497,22 +20486,22 @@
     </row>
     <row r="226" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D226" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226" s="28"/>
       <c r="H226" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I226" s="32"/>
       <c r="J226" s="32"/>
@@ -20521,26 +20510,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E227"/>
       <c r="F227"/>
       <c r="G227" s="19" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H227" s="27" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="I227" s="32"/>
       <c r="J227" s="32"/>
@@ -20549,26 +20538,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E228"/>
       <c r="F228"/>
       <c r="G228" s="19" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H228" s="27" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I228" s="32"/>
       <c r="J228" s="32"/>
@@ -20577,26 +20566,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A229" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="B229" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C229" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D229" s="31" t="s">
-        <v>285</v>
+    <row r="229" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E229"/>
-      <c r="F229" s="12"/>
+      <c r="F229"/>
       <c r="G229" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H229" s="32" t="s">
-        <v>599</v>
+        <v>261</v>
+      </c>
+      <c r="H229" s="27" t="s">
+        <v>594</v>
       </c>
       <c r="I229" s="32"/>
       <c r="J229" s="32"/>
@@ -20605,26 +20594,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A230" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B230" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C230" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D230" s="31" t="s">
-        <v>288</v>
+    <row r="230" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="E230"/>
-      <c r="F230" s="12"/>
+      <c r="F230"/>
       <c r="G230" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H230" s="32" t="s">
-        <v>600</v>
+        <v>261</v>
+      </c>
+      <c r="H230" s="27" t="s">
+        <v>595</v>
       </c>
       <c r="I230" s="32"/>
       <c r="J230" s="32"/>
@@ -20633,26 +20622,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B231" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C231" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D231" s="31" t="s">
-        <v>291</v>
+    <row r="231" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D231" s="23">
+        <v>17</v>
       </c>
       <c r="E231"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H231" s="32" t="s">
-        <v>601</v>
+      <c r="F231"/>
+      <c r="G231" s="28"/>
+      <c r="H231" s="27" t="s">
+        <v>596</v>
       </c>
       <c r="I231" s="32"/>
       <c r="J231" s="32"/>
@@ -20661,24 +20648,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B232" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C232" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D232" s="31">
-        <v>18</v>
+    <row r="232" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D232" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="E232"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="32" t="s">
-        <v>602</v>
+      <c r="F232"/>
+      <c r="G232" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H232" s="27" t="s">
+        <v>597</v>
       </c>
       <c r="I232" s="32"/>
       <c r="J232" s="32"/>
@@ -20687,26 +20676,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B233" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C233" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="D233" s="31" t="s">
-        <v>296</v>
+    <row r="233" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D233" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="E233"/>
-      <c r="F233" s="12"/>
-      <c r="G233" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="H233" s="32" t="s">
-        <v>603</v>
+      <c r="F233"/>
+      <c r="G233" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H233" s="27" t="s">
+        <v>598</v>
       </c>
       <c r="I233" s="32"/>
       <c r="J233" s="32"/>
@@ -20715,26 +20704,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="30" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B234" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E234"/>
       <c r="F234" s="12"/>
-      <c r="G234" s="30" t="s">
-        <v>292</v>
+      <c r="G234" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="H234" s="32" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="I234" s="32"/>
       <c r="J234" s="32"/>
@@ -20743,26 +20732,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="30" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B235" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D235" s="31" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E235"/>
       <c r="F235" s="12"/>
-      <c r="G235" s="30" t="s">
-        <v>292</v>
+      <c r="G235" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="H235" s="32" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I235" s="32"/>
       <c r="J235" s="32"/>
@@ -20771,26 +20760,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="30" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B236" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D236" s="31" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E236"/>
       <c r="F236" s="12"/>
-      <c r="G236" s="30" t="s">
-        <v>292</v>
+      <c r="G236" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="H236" s="32" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="I236" s="32"/>
       <c r="J236" s="32"/>
@@ -20801,24 +20790,22 @@
     </row>
     <row r="237" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="30" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B237" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="D237" s="31" t="s">
-        <v>308</v>
+        <v>293</v>
+      </c>
+      <c r="D237" s="31">
+        <v>18</v>
       </c>
       <c r="E237"/>
       <c r="F237" s="12"/>
-      <c r="G237" s="30" t="s">
-        <v>292</v>
-      </c>
+      <c r="G237" s="33"/>
       <c r="H237" s="32" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I237" s="32"/>
       <c r="J237" s="32"/>
@@ -20829,16 +20816,16 @@
     </row>
     <row r="238" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B238" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E238"/>
       <c r="F238" s="12"/>
@@ -20846,7 +20833,7 @@
         <v>292</v>
       </c>
       <c r="H238" s="32" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I238" s="32"/>
       <c r="J238" s="32"/>
@@ -20855,28 +20842,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="30" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B239" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E239"/>
-      <c r="F239" s="12" t="s">
-        <v>309</v>
-      </c>
+      <c r="F239" s="12"/>
       <c r="G239" s="30" t="s">
         <v>292</v>
       </c>
       <c r="H239" s="32" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="I239" s="32"/>
       <c r="J239" s="32"/>
@@ -20887,26 +20872,24 @@
     </row>
     <row r="240" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B240" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D240" s="31" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E240"/>
-      <c r="F240" s="12" t="s">
-        <v>309</v>
-      </c>
+      <c r="F240" s="12"/>
       <c r="G240" s="30" t="s">
         <v>292</v>
       </c>
       <c r="H240" s="32" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I240" s="32"/>
       <c r="J240" s="32"/>
@@ -20915,18 +20898,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="30" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B241" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D241" s="31" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E241"/>
       <c r="F241" s="12"/>
@@ -20934,7 +20917,7 @@
         <v>292</v>
       </c>
       <c r="H241" s="32" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="I241" s="32"/>
       <c r="J241" s="32"/>
@@ -20945,22 +20928,24 @@
     </row>
     <row r="242" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="30" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B242" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="D242" s="31">
-        <v>19</v>
+        <v>307</v>
+      </c>
+      <c r="D242" s="31" t="s">
+        <v>308</v>
       </c>
       <c r="E242"/>
       <c r="F242" s="12"/>
-      <c r="G242" s="33"/>
+      <c r="G242" s="30" t="s">
+        <v>292</v>
+      </c>
       <c r="H242" s="32" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I242" s="32"/>
       <c r="J242" s="32"/>
@@ -20971,24 +20956,24 @@
     </row>
     <row r="243" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B243" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E243"/>
       <c r="F243" s="12"/>
       <c r="G243" s="30" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="H243" s="32" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="I243" s="32"/>
       <c r="J243" s="32"/>
@@ -20997,26 +20982,28 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="30" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B244" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C244" s="30" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E244"/>
-      <c r="F244" s="12"/>
+      <c r="F244" s="12" t="s">
+        <v>309</v>
+      </c>
       <c r="G244" s="30" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="H244" s="32" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="I244" s="32"/>
       <c r="J244" s="32"/>
@@ -21027,26 +21014,26 @@
     </row>
     <row r="245" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="30" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B245" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D245" s="31" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E245"/>
       <c r="F245" s="12" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="G245" s="30" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="H245" s="32" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="I245" s="32"/>
       <c r="J245" s="32"/>
@@ -21055,28 +21042,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="30" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B246" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C246" s="30" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D246" s="31" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E246"/>
-      <c r="F246" s="12" t="s">
-        <v>326</v>
-      </c>
+      <c r="F246" s="12"/>
       <c r="G246" s="30" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="H246" s="32" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="I246" s="32"/>
       <c r="J246" s="32"/>
@@ -21085,26 +21070,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="30" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B247" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="D247" s="31" t="s">
-        <v>337</v>
+        <v>322</v>
+      </c>
+      <c r="D247" s="31">
+        <v>19</v>
       </c>
       <c r="E247"/>
       <c r="F247" s="12"/>
-      <c r="G247" s="30" t="s">
-        <v>321</v>
-      </c>
+      <c r="G247" s="33"/>
       <c r="H247" s="32" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I247" s="32"/>
       <c r="J247" s="32"/>
@@ -21113,18 +21096,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="30" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B248" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C248" s="30" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E248"/>
       <c r="F248" s="12"/>
@@ -21132,7 +21115,7 @@
         <v>321</v>
       </c>
       <c r="H248" s="32" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I248" s="32"/>
       <c r="J248" s="32"/>
@@ -21143,22 +21126,24 @@
     </row>
     <row r="249" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B249" s="30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C249" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="D249" s="31">
-        <v>20</v>
+        <v>327</v>
+      </c>
+      <c r="D249" s="31" t="s">
+        <v>328</v>
       </c>
       <c r="E249"/>
       <c r="F249" s="12"/>
-      <c r="G249" s="33"/>
+      <c r="G249" s="30" t="s">
+        <v>321</v>
+      </c>
       <c r="H249" s="32" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="I249" s="32"/>
       <c r="J249" s="32"/>
@@ -21169,24 +21154,26 @@
     </row>
     <row r="250" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="30" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B250" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E250"/>
-      <c r="F250" s="12"/>
+      <c r="F250" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="G250" s="30" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="H250" s="32" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="I250" s="32"/>
       <c r="J250" s="32"/>
@@ -21197,24 +21184,26 @@
     </row>
     <row r="251" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="30" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B251" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D251" s="31" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E251"/>
-      <c r="F251" s="12"/>
+      <c r="F251" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="G251" s="30" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="H251" s="32" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="I251" s="32"/>
       <c r="J251" s="32"/>
@@ -21225,24 +21214,24 @@
     </row>
     <row r="252" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="30" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B252" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D252" s="31" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="E252"/>
       <c r="F252" s="12"/>
       <c r="G252" s="30" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="H252" s="32" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I252" s="32"/>
       <c r="J252" s="32"/>
@@ -21251,26 +21240,26 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="253" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="30" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B253" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="E253"/>
       <c r="F253" s="12"/>
       <c r="G253" s="30" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="H253" s="32" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I253" s="32"/>
       <c r="J253" s="32"/>
@@ -21279,26 +21268,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="254" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="30" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B254" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="D254" s="31" t="s">
-        <v>361</v>
+        <v>346</v>
+      </c>
+      <c r="D254" s="31">
+        <v>20</v>
       </c>
       <c r="E254"/>
       <c r="F254" s="12"/>
-      <c r="G254" s="30" t="s">
-        <v>345</v>
-      </c>
+      <c r="G254" s="33"/>
       <c r="H254" s="32" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="I254" s="32"/>
       <c r="J254" s="32"/>
@@ -21309,16 +21296,16 @@
     </row>
     <row r="255" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="30" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B255" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E255"/>
       <c r="F255" s="12"/>
@@ -21326,7 +21313,7 @@
         <v>345</v>
       </c>
       <c r="H255" s="32" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="I255" s="32"/>
       <c r="J255" s="32"/>
@@ -21335,18 +21322,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="256" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="30" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B256" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E256"/>
       <c r="F256" s="12"/>
@@ -21354,7 +21341,7 @@
         <v>345</v>
       </c>
       <c r="H256" s="32" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I256" s="32"/>
       <c r="J256" s="32"/>
@@ -21363,18 +21350,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="257" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="30" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B257" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E257"/>
       <c r="F257" s="12"/>
@@ -21382,7 +21369,7 @@
         <v>345</v>
       </c>
       <c r="H257" s="32" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I257" s="32"/>
       <c r="J257" s="32"/>
@@ -21391,18 +21378,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="258" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="30" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B258" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E258"/>
       <c r="F258" s="12"/>
@@ -21410,7 +21397,7 @@
         <v>345</v>
       </c>
       <c r="H258" s="32" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I258" s="32"/>
       <c r="J258" s="32"/>
@@ -21419,18 +21406,18 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="259" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="30" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B259" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E259"/>
       <c r="F259" s="12"/>
@@ -21438,7 +21425,7 @@
         <v>345</v>
       </c>
       <c r="H259" s="32" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I259" s="32"/>
       <c r="J259" s="32"/>
@@ -21449,16 +21436,16 @@
     </row>
     <row r="260" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="30" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B260" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C260" s="30" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E260"/>
       <c r="F260" s="12"/>
@@ -21466,7 +21453,7 @@
         <v>345</v>
       </c>
       <c r="H260" s="32" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I260" s="32"/>
       <c r="J260" s="32"/>
@@ -21477,16 +21464,16 @@
     </row>
     <row r="261" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="30" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B261" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C261" s="30" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E261"/>
       <c r="F261" s="12"/>
@@ -21494,7 +21481,7 @@
         <v>345</v>
       </c>
       <c r="H261" s="32" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="I261" s="32"/>
       <c r="J261" s="32"/>
@@ -21503,30 +21490,145 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="262" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I262" s="16"/>
-      <c r="J262" s="16"/>
-      <c r="K262" s="16"/>
-    </row>
-    <row r="263" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I263" s="16"/>
-      <c r="J263" s="16"/>
-      <c r="K263" s="16"/>
-    </row>
-    <row r="264" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I264" s="16"/>
-      <c r="J264" s="16"/>
-      <c r="K264" s="16"/>
-    </row>
-    <row r="265" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I265" s="16"/>
-      <c r="J265" s="16"/>
-      <c r="K265" s="16"/>
-    </row>
-    <row r="266" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I266" s="16"/>
-      <c r="J266" s="16"/>
-      <c r="K266" s="16"/>
+    <row r="262" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B262" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D262" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E262"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="H262" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="I262" s="32"/>
+      <c r="J262" s="32"/>
+      <c r="K262" s="32"/>
+      <c r="L262" s="27" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B263" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="D263" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E263"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="H263" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="I263" s="32"/>
+      <c r="J263" s="32"/>
+      <c r="K263" s="32"/>
+      <c r="L263" s="27" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B264" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D264" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E264"/>
+      <c r="F264" s="12"/>
+      <c r="G264" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="H264" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="I264" s="32"/>
+      <c r="J264" s="32"/>
+      <c r="K264" s="32"/>
+      <c r="L264" s="27" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B265" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D265" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E265"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="H265" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="I265" s="32"/>
+      <c r="J265" s="32"/>
+      <c r="K265" s="32"/>
+      <c r="L265" s="27" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B266" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C266" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D266" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E266"/>
+      <c r="F266" s="12"/>
+      <c r="G266" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="H266" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="I266" s="32"/>
+      <c r="J266" s="32"/>
+      <c r="K266" s="32"/>
+      <c r="L266" s="27" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="267" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I267" s="16"/>
@@ -21593,50 +21695,75 @@
       <c r="J279" s="16"/>
       <c r="K279" s="16"/>
     </row>
-    <row r="305" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="16"/>
-      <c r="E305" s="16"/>
-      <c r="G305" s="16"/>
-    </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E331" s="11"/>
-    </row>
-    <row r="427" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="4"/>
-      <c r="I427" s="12"/>
-      <c r="J427" s="12"/>
-      <c r="K427" s="12"/>
-    </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E428" s="17"/>
-    </row>
-    <row r="433" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="12"/>
-      <c r="B433" s="4"/>
-      <c r="I433" s="12"/>
-      <c r="J433" s="12"/>
-      <c r="K433" s="12"/>
-    </row>
-    <row r="437" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="4"/>
-      <c r="I437" s="12"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="12"/>
-    </row>
-    <row r="450" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="4"/>
-      <c r="I450" s="12"/>
-      <c r="J450" s="12"/>
-      <c r="K450" s="12"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="12"/>
-      <c r="C461" s="5"/>
-      <c r="D461" s="5"/>
-      <c r="E461" s="5"/>
-      <c r="G461" s="10"/>
-      <c r="H461" s="2"/>
-      <c r="I461" s="47"/>
+    <row r="280" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I280" s="16"/>
+      <c r="J280" s="16"/>
+      <c r="K280" s="16"/>
+    </row>
+    <row r="281" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I281" s="16"/>
+      <c r="J281" s="16"/>
+      <c r="K281" s="16"/>
+    </row>
+    <row r="282" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
+      <c r="K282" s="16"/>
+    </row>
+    <row r="283" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I283" s="16"/>
+      <c r="J283" s="16"/>
+      <c r="K283" s="16"/>
+    </row>
+    <row r="284" spans="9:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I284" s="16"/>
+      <c r="J284" s="16"/>
+      <c r="K284" s="16"/>
+    </row>
+    <row r="310" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="16"/>
+      <c r="E310" s="16"/>
+      <c r="G310" s="16"/>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="11"/>
+    </row>
+    <row r="432" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="4"/>
+      <c r="I432" s="12"/>
+      <c r="J432" s="12"/>
+      <c r="K432" s="12"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E433" s="17"/>
+    </row>
+    <row r="438" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="12"/>
+      <c r="B438" s="4"/>
+      <c r="I438" s="12"/>
+      <c r="J438" s="12"/>
+      <c r="K438" s="12"/>
+    </row>
+    <row r="442" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="4"/>
+      <c r="I442" s="12"/>
+      <c r="J442" s="12"/>
+      <c r="K442" s="12"/>
+    </row>
+    <row r="455" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="4"/>
+      <c r="I455" s="12"/>
+      <c r="J455" s="12"/>
+      <c r="K455" s="12"/>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A466" s="12"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="G466" s="10"/>
+      <c r="H466" s="2"/>
+      <c r="I466" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -21644,149 +21771,147 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DDFBFA4A-1B14-4D4E-A2BD-12DE76DDF6D0}"/>
     <hyperlink ref="C3" r:id="rId2" display="http://registry.it.csiro.au/sandbox/soil/scma/" xr:uid="{EDF8FFA1-F2F3-4BB1-BF34-39358F567457}"/>
     <hyperlink ref="B1" r:id="rId3" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{06CEEB57-C964-4417-9D98-8525EB7C1644}"/>
-    <hyperlink ref="H100" r:id="rId4" xr:uid="{04389B99-8122-4DEE-9A4E-3C7BCF22DF7B}"/>
+    <hyperlink ref="H105" r:id="rId4" xr:uid="{04389B99-8122-4DEE-9A4E-3C7BCF22DF7B}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{51359A00-70F8-41BF-ABD9-33E2124068E2}"/>
-    <hyperlink ref="H22" r:id="rId6" xr:uid="{7C9D502A-B7C9-4C78-8562-107BC8C370C9}"/>
-    <hyperlink ref="H23" r:id="rId7" xr:uid="{B31A34BC-5109-4122-88E8-F3AA1FC65FEE}"/>
-    <hyperlink ref="H26" r:id="rId8" xr:uid="{0BDDF274-FC03-4236-BA6A-35B560C69D69}"/>
-    <hyperlink ref="H28" r:id="rId9" xr:uid="{680AD952-B267-47D2-B2B2-1312ADB983A3}"/>
-    <hyperlink ref="H27" r:id="rId10" xr:uid="{D6FDB2E9-864E-49EE-8512-BBD3D79CB4C0}"/>
-    <hyperlink ref="H29" r:id="rId11" xr:uid="{DFB40533-A6E5-4182-A8F1-B2B967B34813}"/>
-    <hyperlink ref="H30" r:id="rId12" xr:uid="{A0780BBE-862A-4EE4-99D8-AFCEBC6C4C73}"/>
-    <hyperlink ref="H31" r:id="rId13" xr:uid="{8414785B-D68B-435F-B9DF-49CD23CFF167}"/>
-    <hyperlink ref="H32" r:id="rId14" xr:uid="{B9477D3D-B0A7-4700-85EF-8F078E1D97E8}"/>
-    <hyperlink ref="H33" r:id="rId15" xr:uid="{727B738B-9FAF-4CFA-8E48-172688D3B350}"/>
-    <hyperlink ref="H34" r:id="rId16" xr:uid="{D49CFC63-B4C3-4960-B722-025B8F33B694}"/>
-    <hyperlink ref="H35" r:id="rId17" xr:uid="{9E8F795F-8534-4C78-8254-6F58FA12AEE2}"/>
-    <hyperlink ref="H36" r:id="rId18" xr:uid="{4D989784-1C96-4CCE-8C10-6614A007893A}"/>
-    <hyperlink ref="H37" r:id="rId19" xr:uid="{16D709F7-846E-4157-92CF-F5D0D46FF76B}"/>
-    <hyperlink ref="H38" r:id="rId20" xr:uid="{DDDF3191-F482-4253-944B-EEBA836C213C}"/>
-    <hyperlink ref="H39" r:id="rId21" xr:uid="{4699E890-B05F-40BA-873A-7355EFB6DE4C}"/>
-    <hyperlink ref="H40" r:id="rId22" xr:uid="{C8B1D63F-645D-4A2F-9422-BA460B6F6F0F}"/>
-    <hyperlink ref="H41" r:id="rId23" xr:uid="{49E5E3B3-DEB4-41BD-84E4-701A617DD446}"/>
-    <hyperlink ref="H42" r:id="rId24" xr:uid="{53DA36BF-3F4D-435B-B697-6CF9A57D0B81}"/>
-    <hyperlink ref="H43" r:id="rId25" xr:uid="{CA32A9A4-E929-4684-9633-35FCCAEC087D}"/>
-    <hyperlink ref="H44" r:id="rId26" xr:uid="{E62330E3-5593-49B9-81CB-E159303374C7}"/>
-    <hyperlink ref="H45" r:id="rId27" xr:uid="{D0BDB254-E074-4F0E-94A0-52FC5E3AFC54}"/>
-    <hyperlink ref="H46" r:id="rId28" xr:uid="{5B73A6AE-33CA-4F5F-8600-8D95EA3F8563}"/>
-    <hyperlink ref="H47" r:id="rId29" xr:uid="{447F4B18-28B3-4B26-9DF4-75D7D0B32F70}"/>
-    <hyperlink ref="H48" r:id="rId30" xr:uid="{C5C26964-3253-4A40-B899-3EE163F55F78}"/>
-    <hyperlink ref="H49" r:id="rId31" xr:uid="{6C8FC952-B97B-498A-8DFA-32309BD8FC8D}"/>
-    <hyperlink ref="H50" r:id="rId32" xr:uid="{68AB3C7A-C086-4C33-855D-BB541218F01A}"/>
-    <hyperlink ref="H51" r:id="rId33" xr:uid="{229D1826-5EEE-4570-AAB9-23AB4C699148}"/>
-    <hyperlink ref="H52" r:id="rId34" xr:uid="{71C82536-E027-4804-9A4C-AB32ABC1AF0E}"/>
-    <hyperlink ref="H53" r:id="rId35" xr:uid="{AF4B2639-A6B7-48E3-8DD9-828F2DFBE3E6}"/>
-    <hyperlink ref="H54" r:id="rId36" xr:uid="{90C4F43A-6DCB-4225-8027-3FEB975585A5}"/>
-    <hyperlink ref="H55" r:id="rId37" xr:uid="{C30C184B-D925-45A3-AAC7-D2E3EF5E9916}"/>
-    <hyperlink ref="H56" r:id="rId38" xr:uid="{C0EDDB47-1638-4134-B8CE-532082E39DBA}"/>
-    <hyperlink ref="H57" r:id="rId39" xr:uid="{4C5C58A8-D6A5-4789-9851-008B413A73FE}"/>
-    <hyperlink ref="H58" r:id="rId40" xr:uid="{36867311-BA0C-4994-BE1E-B100F1E37B93}"/>
-    <hyperlink ref="H59" r:id="rId41" xr:uid="{5EB91B11-FE11-4E6D-AC5B-35A490BBF682}"/>
-    <hyperlink ref="H60" r:id="rId42" xr:uid="{126EED0C-96B4-4C99-A4EA-91EA9FFAAF78}"/>
-    <hyperlink ref="H61" r:id="rId43" xr:uid="{EF0470B0-012A-498D-BFC2-B96F1ED797C1}"/>
-    <hyperlink ref="H62" r:id="rId44" xr:uid="{334FE30E-E5AC-42A8-99F8-129373BD210C}"/>
-    <hyperlink ref="H63" r:id="rId45" xr:uid="{26E1670E-74D0-47EA-8061-57513B695006}"/>
-    <hyperlink ref="H64" r:id="rId46" xr:uid="{00358D6B-33A5-44B7-964D-5FFC3BA80450}"/>
-    <hyperlink ref="H65" r:id="rId47" xr:uid="{5B260DCE-B871-4F21-9043-32B71C639DAC}"/>
-    <hyperlink ref="H66" r:id="rId48" xr:uid="{AFEAF530-9D8E-4B69-AE82-954064B799B4}"/>
-    <hyperlink ref="H67" r:id="rId49" xr:uid="{9A90C5E7-69E9-41BF-9EF3-C27336C8E54B}"/>
-    <hyperlink ref="H68" r:id="rId50" xr:uid="{81E8776A-919F-4515-B533-0680049F7395}"/>
-    <hyperlink ref="H69" r:id="rId51" xr:uid="{30BF7559-D2D5-4894-8824-AAD0024FBA9C}"/>
-    <hyperlink ref="H70" r:id="rId52" xr:uid="{A336143A-1054-472F-A562-B4E207B4691C}"/>
-    <hyperlink ref="H71" r:id="rId53" xr:uid="{DD4ED75E-7960-4EB1-8129-689447740E0D}"/>
-    <hyperlink ref="H72" r:id="rId54" xr:uid="{9C6612DB-CB59-4325-957D-117F50A0989D}"/>
-    <hyperlink ref="H73" r:id="rId55" xr:uid="{2E9EC693-6F83-485B-BD5E-34CCEFE1DF73}"/>
-    <hyperlink ref="H74" r:id="rId56" xr:uid="{E7D2D5A8-0395-483D-9EE0-9892C112A1FB}"/>
-    <hyperlink ref="H75" r:id="rId57" xr:uid="{D1165B00-0268-48B1-A0DB-CB8688C4E5E7}"/>
-    <hyperlink ref="H76" r:id="rId58" xr:uid="{45922515-2EF5-4E31-873B-7E9264D3BBF7}"/>
-    <hyperlink ref="H77" r:id="rId59" xr:uid="{D708AFC4-3D52-4E08-AACF-F0C2AE327492}"/>
-    <hyperlink ref="H78" r:id="rId60" xr:uid="{CFB0206C-B3C7-42D1-A0AA-0F624D78363A}"/>
-    <hyperlink ref="H79" r:id="rId61" xr:uid="{463CDA62-1B6A-447B-AF69-69FFEA1E986F}"/>
-    <hyperlink ref="H80" r:id="rId62" xr:uid="{2523597C-B7F1-4868-B8EC-4564E423B910}"/>
-    <hyperlink ref="H81" r:id="rId63" xr:uid="{F246F349-2EB8-4286-90C5-4B503B530DED}"/>
-    <hyperlink ref="H82" r:id="rId64" xr:uid="{882D9A57-7F60-4B33-B247-FFC1D00CB91B}"/>
-    <hyperlink ref="H83" r:id="rId65" xr:uid="{54DEF71E-2B80-47E1-82C5-E65319CE1680}"/>
-    <hyperlink ref="H84" r:id="rId66" xr:uid="{18FE343E-A1FC-4664-991F-D712A159D7C3}"/>
-    <hyperlink ref="H85" r:id="rId67" xr:uid="{286FC728-E047-459F-878D-5585E062837A}"/>
-    <hyperlink ref="H86" r:id="rId68" xr:uid="{1071DA0E-25C2-432F-B40B-6294923E5CD5}"/>
-    <hyperlink ref="H87" r:id="rId69" xr:uid="{491E8922-A322-485C-9535-C08DB484537B}"/>
-    <hyperlink ref="H88" r:id="rId70" xr:uid="{06836D12-6812-49EA-974F-B496D778991B}"/>
-    <hyperlink ref="H89" r:id="rId71" xr:uid="{627B8FED-FA72-488B-995A-48087F67953B}"/>
-    <hyperlink ref="H90" r:id="rId72" xr:uid="{7217B294-F235-459D-A3B2-598691684FC0}"/>
-    <hyperlink ref="H91" r:id="rId73" xr:uid="{4E6FC73A-0889-4D9A-92D8-D6B93A1893E1}"/>
-    <hyperlink ref="H92" r:id="rId74" xr:uid="{F4129A15-8153-4F14-800D-67AFCC90E00D}"/>
-    <hyperlink ref="H93" r:id="rId75" xr:uid="{F6C69751-0811-44AE-978F-E1288696554B}"/>
-    <hyperlink ref="H94" r:id="rId76" xr:uid="{A334697D-E22D-4845-8769-5E57ED2F0869}"/>
-    <hyperlink ref="H95" r:id="rId77" xr:uid="{F99934EB-AB13-4239-AC07-ECB7A75636B1}"/>
-    <hyperlink ref="H96" r:id="rId78" xr:uid="{E729BB76-0796-436D-9EBF-9B8F1B286960}"/>
-    <hyperlink ref="H97" r:id="rId79" xr:uid="{04DC5FE7-9F39-493C-B07E-23F7697EB93E}"/>
-    <hyperlink ref="H98" r:id="rId80" xr:uid="{E3E89199-A3FD-41BC-8766-61D1C314A537}"/>
-    <hyperlink ref="H99" r:id="rId81" xr:uid="{70FE1D23-DEAA-4853-8869-F0E5C7E5A376}"/>
-    <hyperlink ref="H101" r:id="rId82" xr:uid="{5193F1C4-41AE-41EE-909F-16D5BCE18173}"/>
-    <hyperlink ref="H102" r:id="rId83" xr:uid="{5E792878-6269-4DD7-8633-B34FA7259321}"/>
-    <hyperlink ref="H103" r:id="rId84" xr:uid="{EE8F4E82-C621-47D1-AAD3-B189C702C820}"/>
-    <hyperlink ref="H104" r:id="rId85" xr:uid="{8DA55018-C808-4148-83DB-AC771C006036}"/>
-    <hyperlink ref="H105" r:id="rId86" xr:uid="{90746D86-1385-4A1A-9A8D-BAAE499E8A57}"/>
-    <hyperlink ref="H106" r:id="rId87" xr:uid="{C6487D62-FDC6-43E3-BAE0-0EF6B164D4A1}"/>
-    <hyperlink ref="H107" r:id="rId88" xr:uid="{CEB4429C-2194-4119-8D66-EF47992003AF}"/>
-    <hyperlink ref="H108" r:id="rId89" xr:uid="{B8907F42-9324-421C-AC6C-5D313A5A1558}"/>
-    <hyperlink ref="H109" r:id="rId90" xr:uid="{86EB4A1B-F33C-494A-9533-097CD7577D7F}"/>
-    <hyperlink ref="H110" r:id="rId91" xr:uid="{900B6B7A-F0F9-4218-AE5A-7AB4EB0415F9}"/>
-    <hyperlink ref="H111" r:id="rId92" xr:uid="{95552209-0545-48CE-89A7-1BF6F94F622D}"/>
-    <hyperlink ref="H112" r:id="rId93" xr:uid="{4967E94F-5612-414B-B17A-1DFD728358A7}"/>
-    <hyperlink ref="H113" r:id="rId94" xr:uid="{48336AA3-5D3A-46E4-BCDE-D794013F2A31}"/>
-    <hyperlink ref="H114" r:id="rId95" xr:uid="{ADBE26BB-254E-4BA5-8B4A-4B0E24376055}"/>
-    <hyperlink ref="H115" r:id="rId96" xr:uid="{9585DE44-B577-41B6-BBCA-2E7FA52DFE6D}"/>
-    <hyperlink ref="H116" r:id="rId97" xr:uid="{EF522939-F783-4DE8-8664-D82A2CEC32C8}"/>
-    <hyperlink ref="H117" r:id="rId98" xr:uid="{19EE301C-7EF2-41DC-9AB3-57DADF340B7A}"/>
-    <hyperlink ref="H118" r:id="rId99" xr:uid="{54CA666C-D8A1-4E8D-8E0B-A1A9DF02C261}"/>
-    <hyperlink ref="H119" r:id="rId100" xr:uid="{AF56F9B2-BBBE-4F25-A40B-C8ACE3375645}"/>
-    <hyperlink ref="H120" r:id="rId101" xr:uid="{3EF792CA-DB70-4471-87D6-0B3BB98EA884}"/>
-    <hyperlink ref="H121" r:id="rId102" xr:uid="{2CE6E647-5286-4530-9E58-70A2B4FB3505}"/>
-    <hyperlink ref="H122" r:id="rId103" xr:uid="{4488E2FC-C041-4736-A685-04BF333489B7}"/>
-    <hyperlink ref="H123" r:id="rId104" xr:uid="{939BFE51-2075-4CCA-93DC-6806313F3C27}"/>
-    <hyperlink ref="H124" r:id="rId105" xr:uid="{CD3AEB10-3E17-4DD4-A551-3FA93A7F9585}"/>
-    <hyperlink ref="H125" r:id="rId106" xr:uid="{192E9C4C-A841-4787-B5CE-15C77BF5A907}"/>
-    <hyperlink ref="H126" r:id="rId107" xr:uid="{180B641D-0597-4D93-B215-74A8805D9274}"/>
-    <hyperlink ref="H127" r:id="rId108" xr:uid="{92DAF121-4F54-4CCB-996E-B3D39390887D}"/>
-    <hyperlink ref="H128" r:id="rId109" xr:uid="{2AAE128A-858B-4F4E-81AD-A7C43E7E692B}"/>
-    <hyperlink ref="H129" r:id="rId110" xr:uid="{595375B3-5A0D-4736-A266-111D644E581A}"/>
-    <hyperlink ref="H130" r:id="rId111" xr:uid="{74E7FFC6-97C2-4476-9D84-FE8179AE9272}"/>
-    <hyperlink ref="H131" r:id="rId112" xr:uid="{B028B2E6-371D-4E34-8AC0-98964ABAF2EC}"/>
-    <hyperlink ref="H132" r:id="rId113" xr:uid="{72419C91-8028-4E09-8B0B-DCAC2A8F2070}"/>
-    <hyperlink ref="H133" r:id="rId114" xr:uid="{68A1537B-2EC0-4256-BB3B-22AE1162CA49}"/>
-    <hyperlink ref="H134" r:id="rId115" xr:uid="{FE522D8D-9360-4F3E-8490-306F5954C401}"/>
-    <hyperlink ref="H135" r:id="rId116" xr:uid="{9CF1EA03-9930-4178-B7FC-7678B81E07C7}"/>
-    <hyperlink ref="H136" r:id="rId117" xr:uid="{4EAAF107-48D7-45B1-8A6E-9C626FC42AE4}"/>
-    <hyperlink ref="H137" r:id="rId118" xr:uid="{8B354D57-1F7F-44CC-B3D7-39E5A811E238}"/>
-    <hyperlink ref="H138" r:id="rId119" xr:uid="{38BCED38-FD33-4098-A5E6-2D1D055A7E93}"/>
-    <hyperlink ref="H139" r:id="rId120" xr:uid="{1F23FC8D-2E6D-4758-9AFD-1A55D8967444}"/>
-    <hyperlink ref="H140" r:id="rId121" xr:uid="{AB1509CF-227B-4F8B-A3F4-AED67A842298}"/>
-    <hyperlink ref="H141" r:id="rId122" xr:uid="{469E6441-86F2-4513-AAA5-70F3B7255A32}"/>
-    <hyperlink ref="H142" r:id="rId123" xr:uid="{CA2367C7-96E0-4B08-B377-0B6C11127A36}"/>
-    <hyperlink ref="H143" r:id="rId124" xr:uid="{64C0568B-C756-41CE-9DD6-D0379BB06519}"/>
-    <hyperlink ref="H24" r:id="rId125" xr:uid="{633A92AC-C216-489C-8E44-C64A7AD123A1}"/>
-    <hyperlink ref="H25" r:id="rId126" xr:uid="{4EE159A3-7A1E-4BC7-8995-C198701C450A}"/>
-    <hyperlink ref="B15" r:id="rId127" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{0752AF16-E9C0-4D0F-9949-1FCC5DC37060}"/>
-    <hyperlink ref="L22" r:id="rId128" xr:uid="{874440BF-61E1-45FF-A38A-42FECFC40089}"/>
-    <hyperlink ref="L27" r:id="rId129" xr:uid="{25A8B64A-BE90-40D0-8502-828D5F39398F}"/>
-    <hyperlink ref="H181" r:id="rId130" xr:uid="{6D993A81-16D3-40C7-8F81-833913097AA8}"/>
-    <hyperlink ref="H187" r:id="rId131" xr:uid="{56A43D80-5339-4B76-9391-49A025D9212B}"/>
-    <hyperlink ref="H189" r:id="rId132" xr:uid="{6315BB13-4B74-464B-9553-A415FD28F07F}"/>
+    <hyperlink ref="H27" r:id="rId6" xr:uid="{7C9D502A-B7C9-4C78-8562-107BC8C370C9}"/>
+    <hyperlink ref="H28" r:id="rId7" xr:uid="{B31A34BC-5109-4122-88E8-F3AA1FC65FEE}"/>
+    <hyperlink ref="H31" r:id="rId8" xr:uid="{0BDDF274-FC03-4236-BA6A-35B560C69D69}"/>
+    <hyperlink ref="H33" r:id="rId9" xr:uid="{680AD952-B267-47D2-B2B2-1312ADB983A3}"/>
+    <hyperlink ref="H32" r:id="rId10" xr:uid="{D6FDB2E9-864E-49EE-8512-BBD3D79CB4C0}"/>
+    <hyperlink ref="H34" r:id="rId11" xr:uid="{DFB40533-A6E5-4182-A8F1-B2B967B34813}"/>
+    <hyperlink ref="H35" r:id="rId12" xr:uid="{A0780BBE-862A-4EE4-99D8-AFCEBC6C4C73}"/>
+    <hyperlink ref="H36" r:id="rId13" xr:uid="{8414785B-D68B-435F-B9DF-49CD23CFF167}"/>
+    <hyperlink ref="H37" r:id="rId14" xr:uid="{B9477D3D-B0A7-4700-85EF-8F078E1D97E8}"/>
+    <hyperlink ref="H38" r:id="rId15" xr:uid="{727B738B-9FAF-4CFA-8E48-172688D3B350}"/>
+    <hyperlink ref="H39" r:id="rId16" xr:uid="{D49CFC63-B4C3-4960-B722-025B8F33B694}"/>
+    <hyperlink ref="H40" r:id="rId17" xr:uid="{9E8F795F-8534-4C78-8254-6F58FA12AEE2}"/>
+    <hyperlink ref="H41" r:id="rId18" xr:uid="{4D989784-1C96-4CCE-8C10-6614A007893A}"/>
+    <hyperlink ref="H42" r:id="rId19" xr:uid="{16D709F7-846E-4157-92CF-F5D0D46FF76B}"/>
+    <hyperlink ref="H43" r:id="rId20" xr:uid="{DDDF3191-F482-4253-944B-EEBA836C213C}"/>
+    <hyperlink ref="H44" r:id="rId21" xr:uid="{4699E890-B05F-40BA-873A-7355EFB6DE4C}"/>
+    <hyperlink ref="H45" r:id="rId22" xr:uid="{C8B1D63F-645D-4A2F-9422-BA460B6F6F0F}"/>
+    <hyperlink ref="H46" r:id="rId23" xr:uid="{49E5E3B3-DEB4-41BD-84E4-701A617DD446}"/>
+    <hyperlink ref="H47" r:id="rId24" xr:uid="{53DA36BF-3F4D-435B-B697-6CF9A57D0B81}"/>
+    <hyperlink ref="H48" r:id="rId25" xr:uid="{CA32A9A4-E929-4684-9633-35FCCAEC087D}"/>
+    <hyperlink ref="H49" r:id="rId26" xr:uid="{E62330E3-5593-49B9-81CB-E159303374C7}"/>
+    <hyperlink ref="H50" r:id="rId27" xr:uid="{D0BDB254-E074-4F0E-94A0-52FC5E3AFC54}"/>
+    <hyperlink ref="H51" r:id="rId28" xr:uid="{5B73A6AE-33CA-4F5F-8600-8D95EA3F8563}"/>
+    <hyperlink ref="H52" r:id="rId29" xr:uid="{447F4B18-28B3-4B26-9DF4-75D7D0B32F70}"/>
+    <hyperlink ref="H53" r:id="rId30" xr:uid="{C5C26964-3253-4A40-B899-3EE163F55F78}"/>
+    <hyperlink ref="H54" r:id="rId31" xr:uid="{6C8FC952-B97B-498A-8DFA-32309BD8FC8D}"/>
+    <hyperlink ref="H55" r:id="rId32" xr:uid="{68AB3C7A-C086-4C33-855D-BB541218F01A}"/>
+    <hyperlink ref="H56" r:id="rId33" xr:uid="{229D1826-5EEE-4570-AAB9-23AB4C699148}"/>
+    <hyperlink ref="H57" r:id="rId34" xr:uid="{71C82536-E027-4804-9A4C-AB32ABC1AF0E}"/>
+    <hyperlink ref="H58" r:id="rId35" xr:uid="{AF4B2639-A6B7-48E3-8DD9-828F2DFBE3E6}"/>
+    <hyperlink ref="H59" r:id="rId36" xr:uid="{90C4F43A-6DCB-4225-8027-3FEB975585A5}"/>
+    <hyperlink ref="H60" r:id="rId37" xr:uid="{C30C184B-D925-45A3-AAC7-D2E3EF5E9916}"/>
+    <hyperlink ref="H61" r:id="rId38" xr:uid="{C0EDDB47-1638-4134-B8CE-532082E39DBA}"/>
+    <hyperlink ref="H62" r:id="rId39" xr:uid="{4C5C58A8-D6A5-4789-9851-008B413A73FE}"/>
+    <hyperlink ref="H63" r:id="rId40" xr:uid="{36867311-BA0C-4994-BE1E-B100F1E37B93}"/>
+    <hyperlink ref="H64" r:id="rId41" xr:uid="{5EB91B11-FE11-4E6D-AC5B-35A490BBF682}"/>
+    <hyperlink ref="H65" r:id="rId42" xr:uid="{126EED0C-96B4-4C99-A4EA-91EA9FFAAF78}"/>
+    <hyperlink ref="H66" r:id="rId43" xr:uid="{EF0470B0-012A-498D-BFC2-B96F1ED797C1}"/>
+    <hyperlink ref="H67" r:id="rId44" xr:uid="{334FE30E-E5AC-42A8-99F8-129373BD210C}"/>
+    <hyperlink ref="H68" r:id="rId45" xr:uid="{26E1670E-74D0-47EA-8061-57513B695006}"/>
+    <hyperlink ref="H69" r:id="rId46" xr:uid="{00358D6B-33A5-44B7-964D-5FFC3BA80450}"/>
+    <hyperlink ref="H70" r:id="rId47" xr:uid="{5B260DCE-B871-4F21-9043-32B71C639DAC}"/>
+    <hyperlink ref="H71" r:id="rId48" xr:uid="{AFEAF530-9D8E-4B69-AE82-954064B799B4}"/>
+    <hyperlink ref="H72" r:id="rId49" xr:uid="{9A90C5E7-69E9-41BF-9EF3-C27336C8E54B}"/>
+    <hyperlink ref="H73" r:id="rId50" xr:uid="{81E8776A-919F-4515-B533-0680049F7395}"/>
+    <hyperlink ref="H74" r:id="rId51" xr:uid="{30BF7559-D2D5-4894-8824-AAD0024FBA9C}"/>
+    <hyperlink ref="H75" r:id="rId52" xr:uid="{A336143A-1054-472F-A562-B4E207B4691C}"/>
+    <hyperlink ref="H76" r:id="rId53" xr:uid="{DD4ED75E-7960-4EB1-8129-689447740E0D}"/>
+    <hyperlink ref="H77" r:id="rId54" xr:uid="{9C6612DB-CB59-4325-957D-117F50A0989D}"/>
+    <hyperlink ref="H78" r:id="rId55" xr:uid="{2E9EC693-6F83-485B-BD5E-34CCEFE1DF73}"/>
+    <hyperlink ref="H79" r:id="rId56" xr:uid="{E7D2D5A8-0395-483D-9EE0-9892C112A1FB}"/>
+    <hyperlink ref="H80" r:id="rId57" xr:uid="{D1165B00-0268-48B1-A0DB-CB8688C4E5E7}"/>
+    <hyperlink ref="H81" r:id="rId58" xr:uid="{45922515-2EF5-4E31-873B-7E9264D3BBF7}"/>
+    <hyperlink ref="H82" r:id="rId59" xr:uid="{D708AFC4-3D52-4E08-AACF-F0C2AE327492}"/>
+    <hyperlink ref="H83" r:id="rId60" xr:uid="{CFB0206C-B3C7-42D1-A0AA-0F624D78363A}"/>
+    <hyperlink ref="H84" r:id="rId61" xr:uid="{463CDA62-1B6A-447B-AF69-69FFEA1E986F}"/>
+    <hyperlink ref="H85" r:id="rId62" xr:uid="{2523597C-B7F1-4868-B8EC-4564E423B910}"/>
+    <hyperlink ref="H86" r:id="rId63" xr:uid="{F246F349-2EB8-4286-90C5-4B503B530DED}"/>
+    <hyperlink ref="H87" r:id="rId64" xr:uid="{882D9A57-7F60-4B33-B247-FFC1D00CB91B}"/>
+    <hyperlink ref="H88" r:id="rId65" xr:uid="{54DEF71E-2B80-47E1-82C5-E65319CE1680}"/>
+    <hyperlink ref="H89" r:id="rId66" xr:uid="{18FE343E-A1FC-4664-991F-D712A159D7C3}"/>
+    <hyperlink ref="H90" r:id="rId67" xr:uid="{286FC728-E047-459F-878D-5585E062837A}"/>
+    <hyperlink ref="H91" r:id="rId68" xr:uid="{1071DA0E-25C2-432F-B40B-6294923E5CD5}"/>
+    <hyperlink ref="H92" r:id="rId69" xr:uid="{491E8922-A322-485C-9535-C08DB484537B}"/>
+    <hyperlink ref="H93" r:id="rId70" xr:uid="{06836D12-6812-49EA-974F-B496D778991B}"/>
+    <hyperlink ref="H94" r:id="rId71" xr:uid="{627B8FED-FA72-488B-995A-48087F67953B}"/>
+    <hyperlink ref="H95" r:id="rId72" xr:uid="{7217B294-F235-459D-A3B2-598691684FC0}"/>
+    <hyperlink ref="H96" r:id="rId73" xr:uid="{4E6FC73A-0889-4D9A-92D8-D6B93A1893E1}"/>
+    <hyperlink ref="H97" r:id="rId74" xr:uid="{F4129A15-8153-4F14-800D-67AFCC90E00D}"/>
+    <hyperlink ref="H98" r:id="rId75" xr:uid="{F6C69751-0811-44AE-978F-E1288696554B}"/>
+    <hyperlink ref="H99" r:id="rId76" xr:uid="{A334697D-E22D-4845-8769-5E57ED2F0869}"/>
+    <hyperlink ref="H100" r:id="rId77" xr:uid="{F99934EB-AB13-4239-AC07-ECB7A75636B1}"/>
+    <hyperlink ref="H101" r:id="rId78" xr:uid="{E729BB76-0796-436D-9EBF-9B8F1B286960}"/>
+    <hyperlink ref="H102" r:id="rId79" xr:uid="{04DC5FE7-9F39-493C-B07E-23F7697EB93E}"/>
+    <hyperlink ref="H103" r:id="rId80" xr:uid="{E3E89199-A3FD-41BC-8766-61D1C314A537}"/>
+    <hyperlink ref="H104" r:id="rId81" xr:uid="{70FE1D23-DEAA-4853-8869-F0E5C7E5A376}"/>
+    <hyperlink ref="H106" r:id="rId82" xr:uid="{5193F1C4-41AE-41EE-909F-16D5BCE18173}"/>
+    <hyperlink ref="H107" r:id="rId83" xr:uid="{5E792878-6269-4DD7-8633-B34FA7259321}"/>
+    <hyperlink ref="H108" r:id="rId84" xr:uid="{EE8F4E82-C621-47D1-AAD3-B189C702C820}"/>
+    <hyperlink ref="H109" r:id="rId85" xr:uid="{8DA55018-C808-4148-83DB-AC771C006036}"/>
+    <hyperlink ref="H110" r:id="rId86" xr:uid="{90746D86-1385-4A1A-9A8D-BAAE499E8A57}"/>
+    <hyperlink ref="H111" r:id="rId87" xr:uid="{C6487D62-FDC6-43E3-BAE0-0EF6B164D4A1}"/>
+    <hyperlink ref="H112" r:id="rId88" xr:uid="{CEB4429C-2194-4119-8D66-EF47992003AF}"/>
+    <hyperlink ref="H113" r:id="rId89" xr:uid="{B8907F42-9324-421C-AC6C-5D313A5A1558}"/>
+    <hyperlink ref="H114" r:id="rId90" xr:uid="{86EB4A1B-F33C-494A-9533-097CD7577D7F}"/>
+    <hyperlink ref="H115" r:id="rId91" xr:uid="{900B6B7A-F0F9-4218-AE5A-7AB4EB0415F9}"/>
+    <hyperlink ref="H116" r:id="rId92" xr:uid="{95552209-0545-48CE-89A7-1BF6F94F622D}"/>
+    <hyperlink ref="H117" r:id="rId93" xr:uid="{4967E94F-5612-414B-B17A-1DFD728358A7}"/>
+    <hyperlink ref="H118" r:id="rId94" xr:uid="{48336AA3-5D3A-46E4-BCDE-D794013F2A31}"/>
+    <hyperlink ref="H119" r:id="rId95" xr:uid="{ADBE26BB-254E-4BA5-8B4A-4B0E24376055}"/>
+    <hyperlink ref="H120" r:id="rId96" xr:uid="{9585DE44-B577-41B6-BBCA-2E7FA52DFE6D}"/>
+    <hyperlink ref="H121" r:id="rId97" xr:uid="{EF522939-F783-4DE8-8664-D82A2CEC32C8}"/>
+    <hyperlink ref="H122" r:id="rId98" xr:uid="{19EE301C-7EF2-41DC-9AB3-57DADF340B7A}"/>
+    <hyperlink ref="H123" r:id="rId99" xr:uid="{54CA666C-D8A1-4E8D-8E0B-A1A9DF02C261}"/>
+    <hyperlink ref="H124" r:id="rId100" xr:uid="{AF56F9B2-BBBE-4F25-A40B-C8ACE3375645}"/>
+    <hyperlink ref="H125" r:id="rId101" xr:uid="{3EF792CA-DB70-4471-87D6-0B3BB98EA884}"/>
+    <hyperlink ref="H126" r:id="rId102" xr:uid="{2CE6E647-5286-4530-9E58-70A2B4FB3505}"/>
+    <hyperlink ref="H127" r:id="rId103" xr:uid="{4488E2FC-C041-4736-A685-04BF333489B7}"/>
+    <hyperlink ref="H128" r:id="rId104" xr:uid="{939BFE51-2075-4CCA-93DC-6806313F3C27}"/>
+    <hyperlink ref="H129" r:id="rId105" xr:uid="{CD3AEB10-3E17-4DD4-A551-3FA93A7F9585}"/>
+    <hyperlink ref="H130" r:id="rId106" xr:uid="{192E9C4C-A841-4787-B5CE-15C77BF5A907}"/>
+    <hyperlink ref="H131" r:id="rId107" xr:uid="{180B641D-0597-4D93-B215-74A8805D9274}"/>
+    <hyperlink ref="H132" r:id="rId108" xr:uid="{92DAF121-4F54-4CCB-996E-B3D39390887D}"/>
+    <hyperlink ref="H133" r:id="rId109" xr:uid="{2AAE128A-858B-4F4E-81AD-A7C43E7E692B}"/>
+    <hyperlink ref="H134" r:id="rId110" xr:uid="{595375B3-5A0D-4736-A266-111D644E581A}"/>
+    <hyperlink ref="H135" r:id="rId111" xr:uid="{74E7FFC6-97C2-4476-9D84-FE8179AE9272}"/>
+    <hyperlink ref="H136" r:id="rId112" xr:uid="{B028B2E6-371D-4E34-8AC0-98964ABAF2EC}"/>
+    <hyperlink ref="H137" r:id="rId113" xr:uid="{72419C91-8028-4E09-8B0B-DCAC2A8F2070}"/>
+    <hyperlink ref="H138" r:id="rId114" xr:uid="{68A1537B-2EC0-4256-BB3B-22AE1162CA49}"/>
+    <hyperlink ref="H139" r:id="rId115" xr:uid="{FE522D8D-9360-4F3E-8490-306F5954C401}"/>
+    <hyperlink ref="H140" r:id="rId116" xr:uid="{9CF1EA03-9930-4178-B7FC-7678B81E07C7}"/>
+    <hyperlink ref="H141" r:id="rId117" xr:uid="{4EAAF107-48D7-45B1-8A6E-9C626FC42AE4}"/>
+    <hyperlink ref="H142" r:id="rId118" xr:uid="{8B354D57-1F7F-44CC-B3D7-39E5A811E238}"/>
+    <hyperlink ref="H143" r:id="rId119" xr:uid="{38BCED38-FD33-4098-A5E6-2D1D055A7E93}"/>
+    <hyperlink ref="H144" r:id="rId120" xr:uid="{1F23FC8D-2E6D-4758-9AFD-1A55D8967444}"/>
+    <hyperlink ref="H145" r:id="rId121" xr:uid="{AB1509CF-227B-4F8B-A3F4-AED67A842298}"/>
+    <hyperlink ref="H146" r:id="rId122" xr:uid="{469E6441-86F2-4513-AAA5-70F3B7255A32}"/>
+    <hyperlink ref="H147" r:id="rId123" xr:uid="{CA2367C7-96E0-4B08-B377-0B6C11127A36}"/>
+    <hyperlink ref="H148" r:id="rId124" xr:uid="{64C0568B-C756-41CE-9DD6-D0379BB06519}"/>
+    <hyperlink ref="H29" r:id="rId125" xr:uid="{633A92AC-C216-489C-8E44-C64A7AD123A1}"/>
+    <hyperlink ref="H30" r:id="rId126" xr:uid="{4EE159A3-7A1E-4BC7-8995-C198701C450A}"/>
+    <hyperlink ref="B20" r:id="rId127" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{0752AF16-E9C0-4D0F-9949-1FCC5DC37060}"/>
+    <hyperlink ref="L27" r:id="rId128" xr:uid="{874440BF-61E1-45FF-A38A-42FECFC40089}"/>
+    <hyperlink ref="L32" r:id="rId129" xr:uid="{25A8B64A-BE90-40D0-8502-828D5F39398F}"/>
+    <hyperlink ref="H186" r:id="rId130" xr:uid="{6D993A81-16D3-40C7-8F81-833913097AA8}"/>
+    <hyperlink ref="H192" r:id="rId131" xr:uid="{56A43D80-5339-4B76-9391-49A025D9212B}"/>
+    <hyperlink ref="H194" r:id="rId132" xr:uid="{6315BB13-4B74-464B-9553-A415FD28F07F}"/>
+    <hyperlink ref="B19" r:id="rId133" xr:uid="{5A650F16-2CB3-4CB1-820F-ED911B41CBB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId133"/>
-  <legacyDrawing r:id="rId134"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId134"/>
+  <legacyDrawing r:id="rId135"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22001,15 +22126,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22034,10 +22163,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A11F39-ACFB-4257-99DF-725D20F55020}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D711240B-6556-4268-AD2D-63F73FFC9EB8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="-120" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="1349">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -4194,6 +4194,9 @@
   </si>
   <si>
     <t>Australian soil and land survey handbooks ; v. 3.</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
   </si>
 </sst>
 </file>
@@ -4868,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M477"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="I24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5559,7 +5562,9 @@
       </c>
       <c r="I34" s="55"/>
       <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="K34" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L34" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5592,7 +5597,9 @@
       </c>
       <c r="I35" s="55"/>
       <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="K35" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L35" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5625,7 +5632,9 @@
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="K36" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L36" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5658,7 +5667,9 @@
       </c>
       <c r="I37" s="55"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="K37" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L37" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5691,7 +5702,9 @@
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+      <c r="K38" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L38" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5722,7 +5735,9 @@
       </c>
       <c r="I39" s="55"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
+      <c r="K39" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L39" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5755,7 +5770,9 @@
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="K40" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L40" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5788,7 +5805,9 @@
       </c>
       <c r="I41" s="55"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="K41" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L41" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5821,7 +5840,9 @@
       </c>
       <c r="I42" s="55"/>
       <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
+      <c r="K42" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L42" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5854,7 +5875,9 @@
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="K43" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L43" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5885,7 +5908,9 @@
       </c>
       <c r="I44" s="55"/>
       <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
+      <c r="K44" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L44" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5918,7 +5943,9 @@
       </c>
       <c r="I45" s="55"/>
       <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="K45" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L45" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5951,7 +5978,9 @@
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
+      <c r="K46" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L46" s="29" t="s">
         <v>1327</v>
       </c>
@@ -5984,7 +6013,9 @@
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
+      <c r="K47" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L47" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6017,7 +6048,9 @@
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
+      <c r="K48" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L48" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6050,7 +6083,9 @@
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="K49" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L49" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6083,7 +6118,9 @@
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
+      <c r="K50" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L50" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6116,7 +6153,9 @@
       </c>
       <c r="I51" s="55"/>
       <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="K51" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L51" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6149,7 +6188,9 @@
       </c>
       <c r="I52" s="55"/>
       <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="K52" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L52" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6182,7 +6223,9 @@
       </c>
       <c r="I53" s="55"/>
       <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="K53" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L53" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6215,7 +6258,9 @@
       </c>
       <c r="I54" s="55"/>
       <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
+      <c r="K54" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L54" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6248,7 +6293,9 @@
       </c>
       <c r="I55" s="55"/>
       <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
+      <c r="K55" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L55" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6281,7 +6328,9 @@
       </c>
       <c r="I56" s="55"/>
       <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
+      <c r="K56" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L56" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6314,7 +6363,9 @@
       </c>
       <c r="I57" s="55"/>
       <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
+      <c r="K57" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L57" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6347,7 +6398,9 @@
       </c>
       <c r="I58" s="55"/>
       <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
+      <c r="K58" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L58" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6380,7 +6433,9 @@
       </c>
       <c r="I59" s="55"/>
       <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
+      <c r="K59" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L59" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6413,7 +6468,9 @@
       </c>
       <c r="I60" s="55"/>
       <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
+      <c r="K60" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L60" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6444,7 +6501,9 @@
       </c>
       <c r="I61" s="55"/>
       <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
+      <c r="K61" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L61" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6477,7 +6536,9 @@
       </c>
       <c r="I62" s="55"/>
       <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
+      <c r="K62" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L62" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6514,7 +6575,9 @@
         <v>823</v>
       </c>
       <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
+      <c r="K63" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L63" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6551,7 +6614,9 @@
         <v>823</v>
       </c>
       <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
+      <c r="K64" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L64" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6584,7 +6649,9 @@
       </c>
       <c r="I65" s="55"/>
       <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
+      <c r="K65" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L65" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6617,7 +6684,9 @@
       </c>
       <c r="I66" s="55"/>
       <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
+      <c r="K66" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L66" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6650,7 +6719,9 @@
       </c>
       <c r="I67" s="55"/>
       <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
+      <c r="K67" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L67" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6681,7 +6752,9 @@
       </c>
       <c r="I68" s="55"/>
       <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
+      <c r="K68" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L68" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6714,7 +6787,9 @@
       </c>
       <c r="I69" s="55"/>
       <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
+      <c r="K69" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L69" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6747,7 +6822,9 @@
       </c>
       <c r="I70" s="55"/>
       <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
+      <c r="K70" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L70" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6780,7 +6857,9 @@
       </c>
       <c r="I71" s="55"/>
       <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
+      <c r="K71" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L71" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6815,7 +6894,9 @@
       </c>
       <c r="I72" s="55"/>
       <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
+      <c r="K72" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L72" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6850,7 +6931,9 @@
       </c>
       <c r="I73" s="55"/>
       <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
+      <c r="K73" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L73" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6883,7 +6966,9 @@
       </c>
       <c r="I74" s="55"/>
       <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
+      <c r="K74" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L74" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6916,7 +7001,9 @@
       </c>
       <c r="I75" s="55"/>
       <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
+      <c r="K75" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L75" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6951,7 +7038,9 @@
       </c>
       <c r="I76" s="55"/>
       <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
+      <c r="K76" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L76" s="29" t="s">
         <v>1327</v>
       </c>
@@ -6986,7 +7075,9 @@
       </c>
       <c r="I77" s="55"/>
       <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
+      <c r="K77" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L77" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7019,7 +7110,9 @@
       </c>
       <c r="I78" s="55"/>
       <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
+      <c r="K78" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L78" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7052,7 +7145,9 @@
       </c>
       <c r="I79" s="55"/>
       <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
+      <c r="K79" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L79" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7085,7 +7180,9 @@
       </c>
       <c r="I80" s="55"/>
       <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
+      <c r="K80" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L80" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7118,7 +7215,9 @@
       </c>
       <c r="I81" s="55"/>
       <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
+      <c r="K81" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L81" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7151,7 +7250,9 @@
       </c>
       <c r="I82" s="55"/>
       <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
+      <c r="K82" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L82" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7182,7 +7283,9 @@
       </c>
       <c r="I83" s="55"/>
       <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
+      <c r="K83" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L83" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7215,7 +7318,9 @@
       </c>
       <c r="I84" s="55"/>
       <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
+      <c r="K84" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L84" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7252,7 +7357,9 @@
         <v>846</v>
       </c>
       <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
+      <c r="K85" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L85" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7289,7 +7396,9 @@
         <v>846</v>
       </c>
       <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
+      <c r="K86" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L86" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7322,7 +7431,9 @@
       </c>
       <c r="I87" s="55"/>
       <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
+      <c r="K87" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L87" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7355,7 +7466,9 @@
       </c>
       <c r="I88" s="55"/>
       <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
+      <c r="K88" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L88" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7388,7 +7501,9 @@
       </c>
       <c r="I89" s="55"/>
       <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
+      <c r="K89" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L89" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7421,7 +7536,9 @@
       </c>
       <c r="I90" s="55"/>
       <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
+      <c r="K90" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L90" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7456,7 +7573,9 @@
       </c>
       <c r="I91" s="55"/>
       <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
+      <c r="K91" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L91" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7491,7 +7610,9 @@
       </c>
       <c r="I92" s="55"/>
       <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
+      <c r="K92" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L92" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7524,7 +7645,9 @@
       </c>
       <c r="I93" s="55"/>
       <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
+      <c r="K93" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L93" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7561,7 +7684,9 @@
         <v>856</v>
       </c>
       <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
+      <c r="K94" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L94" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7598,7 +7723,9 @@
         <v>856</v>
       </c>
       <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
+      <c r="K95" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L95" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7633,7 +7760,9 @@
       </c>
       <c r="I96" s="55"/>
       <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
+      <c r="K96" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L96" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7666,7 +7795,9 @@
       </c>
       <c r="I97" s="55"/>
       <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
+      <c r="K97" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L97" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7701,7 +7832,9 @@
       </c>
       <c r="I98" s="55"/>
       <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
+      <c r="K98" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L98" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7736,7 +7869,9 @@
       </c>
       <c r="I99" s="55"/>
       <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
+      <c r="K99" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L99" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7771,7 +7906,9 @@
       </c>
       <c r="I100" s="55"/>
       <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
+      <c r="K100" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L100" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7806,7 +7943,9 @@
       </c>
       <c r="I101" s="55"/>
       <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
+      <c r="K101" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L101" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7841,7 +7980,9 @@
       </c>
       <c r="I102" s="55"/>
       <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
+      <c r="K102" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L102" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7876,7 +8017,9 @@
       </c>
       <c r="I103" s="55"/>
       <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
+      <c r="K103" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L103" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7911,7 +8054,9 @@
       </c>
       <c r="I104" s="55"/>
       <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
+      <c r="K104" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L104" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7946,7 +8091,9 @@
       </c>
       <c r="I105" s="55"/>
       <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
+      <c r="K105" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L105" s="29" t="s">
         <v>1327</v>
       </c>
@@ -7983,7 +8130,9 @@
         <v>869</v>
       </c>
       <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
+      <c r="K106" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L106" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8020,7 +8169,9 @@
         <v>869</v>
       </c>
       <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
+      <c r="K107" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L107" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8053,7 +8204,9 @@
       </c>
       <c r="I108" s="55"/>
       <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
+      <c r="K108" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L108" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8088,7 +8241,9 @@
       </c>
       <c r="I109" s="55"/>
       <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
+      <c r="K109" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L109" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8123,7 +8278,9 @@
       </c>
       <c r="I110" s="55"/>
       <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
+      <c r="K110" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L110" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8158,7 +8315,9 @@
       </c>
       <c r="I111" s="55"/>
       <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
+      <c r="K111" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L111" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8193,7 +8352,9 @@
       </c>
       <c r="I112" s="55"/>
       <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
+      <c r="K112" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L112" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8228,7 +8389,9 @@
       </c>
       <c r="I113" s="55"/>
       <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
+      <c r="K113" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L113" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8259,7 +8422,9 @@
       </c>
       <c r="I114" s="55"/>
       <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
+      <c r="K114" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L114" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8292,7 +8457,9 @@
       </c>
       <c r="I115" s="55"/>
       <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
+      <c r="K115" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L115" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8325,7 +8492,9 @@
       </c>
       <c r="I116" s="55"/>
       <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
+      <c r="K116" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L116" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8356,7 +8525,9 @@
       </c>
       <c r="I117" s="55"/>
       <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
+      <c r="K117" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L117" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8389,7 +8560,9 @@
       </c>
       <c r="I118" s="55"/>
       <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
+      <c r="K118" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L118" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8424,7 +8597,9 @@
       </c>
       <c r="I119" s="55"/>
       <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
+      <c r="K119" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L119" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8459,7 +8634,9 @@
       </c>
       <c r="I120" s="55"/>
       <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
+      <c r="K120" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L120" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8494,7 +8671,9 @@
       </c>
       <c r="I121" s="55"/>
       <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
+      <c r="K121" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L121" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8529,7 +8708,9 @@
       </c>
       <c r="I122" s="55"/>
       <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
+      <c r="K122" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L122" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8562,7 +8743,9 @@
       </c>
       <c r="I123" s="55"/>
       <c r="J123" s="32"/>
-      <c r="K123" s="32"/>
+      <c r="K123" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L123" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8597,7 +8780,9 @@
       </c>
       <c r="I124" s="55"/>
       <c r="J124" s="32"/>
-      <c r="K124" s="32"/>
+      <c r="K124" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L124" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8632,7 +8817,9 @@
       </c>
       <c r="I125" s="55"/>
       <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
+      <c r="K125" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L125" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8665,7 +8852,9 @@
       </c>
       <c r="I126" s="55"/>
       <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
+      <c r="K126" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L126" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8700,7 +8889,9 @@
       </c>
       <c r="I127" s="55"/>
       <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
+      <c r="K127" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L127" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8737,7 +8928,9 @@
         <v>892</v>
       </c>
       <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
+      <c r="K128" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L128" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8774,7 +8967,9 @@
         <v>892</v>
       </c>
       <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
+      <c r="K129" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L129" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8807,7 +9002,9 @@
       </c>
       <c r="I130" s="55"/>
       <c r="J130" s="32"/>
-      <c r="K130" s="32"/>
+      <c r="K130" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L130" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8840,7 +9037,9 @@
       </c>
       <c r="I131" s="55"/>
       <c r="J131" s="32"/>
-      <c r="K131" s="32"/>
+      <c r="K131" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L131" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8875,7 +9074,9 @@
       </c>
       <c r="I132" s="55"/>
       <c r="J132" s="32"/>
-      <c r="K132" s="32"/>
+      <c r="K132" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L132" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8910,7 +9111,9 @@
       </c>
       <c r="I133" s="55"/>
       <c r="J133" s="32"/>
-      <c r="K133" s="32"/>
+      <c r="K133" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L133" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8943,7 +9146,9 @@
       </c>
       <c r="I134" s="55"/>
       <c r="J134" s="32"/>
-      <c r="K134" s="32"/>
+      <c r="K134" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L134" s="29" t="s">
         <v>1327</v>
       </c>
@@ -8976,7 +9181,9 @@
       </c>
       <c r="I135" s="55"/>
       <c r="J135" s="32"/>
-      <c r="K135" s="32"/>
+      <c r="K135" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L135" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9009,7 +9216,9 @@
       </c>
       <c r="I136" s="55"/>
       <c r="J136" s="32"/>
-      <c r="K136" s="32"/>
+      <c r="K136" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L136" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9042,7 +9251,9 @@
       </c>
       <c r="I137" s="55"/>
       <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
+      <c r="K137" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L137" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9075,7 +9286,9 @@
       </c>
       <c r="I138" s="55"/>
       <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
+      <c r="K138" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L138" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9108,7 +9321,9 @@
       </c>
       <c r="I139" s="55"/>
       <c r="J139" s="32"/>
-      <c r="K139" s="32"/>
+      <c r="K139" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L139" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9143,7 +9358,9 @@
       </c>
       <c r="I140" s="55"/>
       <c r="J140" s="32"/>
-      <c r="K140" s="32"/>
+      <c r="K140" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L140" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9178,7 +9395,9 @@
       </c>
       <c r="I141" s="55"/>
       <c r="J141" s="32"/>
-      <c r="K141" s="32"/>
+      <c r="K141" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L141" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9213,7 +9432,9 @@
       </c>
       <c r="I142" s="55"/>
       <c r="J142" s="32"/>
-      <c r="K142" s="32"/>
+      <c r="K142" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L142" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9248,7 +9469,9 @@
       </c>
       <c r="I143" s="55"/>
       <c r="J143" s="32"/>
-      <c r="K143" s="32"/>
+      <c r="K143" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L143" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9283,7 +9506,9 @@
       </c>
       <c r="I144" s="55"/>
       <c r="J144" s="32"/>
-      <c r="K144" s="32"/>
+      <c r="K144" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L144" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9318,7 +9543,9 @@
       </c>
       <c r="I145" s="55"/>
       <c r="J145" s="32"/>
-      <c r="K145" s="32"/>
+      <c r="K145" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L145" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9353,7 +9580,9 @@
       </c>
       <c r="I146" s="55"/>
       <c r="J146" s="32"/>
-      <c r="K146" s="32"/>
+      <c r="K146" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L146" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9388,7 +9617,9 @@
       </c>
       <c r="I147" s="55"/>
       <c r="J147" s="32"/>
-      <c r="K147" s="32"/>
+      <c r="K147" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L147" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9423,7 +9654,9 @@
       </c>
       <c r="I148" s="55"/>
       <c r="J148" s="32"/>
-      <c r="K148" s="32"/>
+      <c r="K148" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L148" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9458,7 +9691,9 @@
       </c>
       <c r="I149" s="55"/>
       <c r="J149" s="32"/>
-      <c r="K149" s="32"/>
+      <c r="K149" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L149" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9491,7 +9726,9 @@
       </c>
       <c r="I150" s="55"/>
       <c r="J150" s="32"/>
-      <c r="K150" s="32"/>
+      <c r="K150" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L150" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9526,7 +9763,9 @@
       </c>
       <c r="I151" s="55"/>
       <c r="J151" s="32"/>
-      <c r="K151" s="32"/>
+      <c r="K151" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L151" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9561,7 +9800,9 @@
       </c>
       <c r="I152" s="55"/>
       <c r="J152" s="32"/>
-      <c r="K152" s="32"/>
+      <c r="K152" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L152" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9594,7 +9835,9 @@
       </c>
       <c r="I153" s="55"/>
       <c r="J153" s="32"/>
-      <c r="K153" s="32"/>
+      <c r="K153" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L153" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9629,7 +9872,9 @@
       </c>
       <c r="I154" s="55"/>
       <c r="J154" s="32"/>
-      <c r="K154" s="32"/>
+      <c r="K154" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L154" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9664,7 +9909,9 @@
       </c>
       <c r="I155" s="55"/>
       <c r="J155" s="32"/>
-      <c r="K155" s="32"/>
+      <c r="K155" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L155" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9699,7 +9946,9 @@
       </c>
       <c r="I156" s="55"/>
       <c r="J156" s="32"/>
-      <c r="K156" s="32"/>
+      <c r="K156" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L156" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9730,7 +9979,9 @@
       </c>
       <c r="I157" s="56"/>
       <c r="J157" s="32"/>
-      <c r="K157" s="32"/>
+      <c r="K157" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L157" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9763,7 +10014,9 @@
       </c>
       <c r="I158" s="56"/>
       <c r="J158" s="32"/>
-      <c r="K158" s="32"/>
+      <c r="K158" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L158" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9796,7 +10049,9 @@
       </c>
       <c r="I159" s="56"/>
       <c r="J159" s="32"/>
-      <c r="K159" s="32"/>
+      <c r="K159" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L159" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9829,7 +10084,9 @@
       </c>
       <c r="I160" s="56"/>
       <c r="J160" s="32"/>
-      <c r="K160" s="32"/>
+      <c r="K160" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L160" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9864,7 +10121,9 @@
       </c>
       <c r="I161" s="56"/>
       <c r="J161" s="32"/>
-      <c r="K161" s="32"/>
+      <c r="K161" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L161" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9899,7 +10158,9 @@
       </c>
       <c r="I162" s="56"/>
       <c r="J162" s="32"/>
-      <c r="K162" s="32"/>
+      <c r="K162" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L162" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9934,7 +10195,9 @@
       </c>
       <c r="I163" s="56"/>
       <c r="J163" s="32"/>
-      <c r="K163" s="32"/>
+      <c r="K163" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L163" s="29" t="s">
         <v>1327</v>
       </c>
@@ -9969,7 +10232,9 @@
       </c>
       <c r="I164" s="56"/>
       <c r="J164" s="32"/>
-      <c r="K164" s="32"/>
+      <c r="K164" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L164" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10002,7 +10267,9 @@
       </c>
       <c r="I165" s="56"/>
       <c r="J165" s="32"/>
-      <c r="K165" s="32"/>
+      <c r="K165" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L165" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10035,7 +10302,9 @@
       </c>
       <c r="I166" s="56"/>
       <c r="J166" s="32"/>
-      <c r="K166" s="32"/>
+      <c r="K166" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L166" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10066,7 +10335,9 @@
       </c>
       <c r="I167" s="56"/>
       <c r="J167" s="32"/>
-      <c r="K167" s="32"/>
+      <c r="K167" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L167" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10099,7 +10370,9 @@
       </c>
       <c r="I168" s="56"/>
       <c r="J168" s="32"/>
-      <c r="K168" s="32"/>
+      <c r="K168" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L168" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10132,7 +10405,9 @@
       </c>
       <c r="I169" s="56"/>
       <c r="J169" s="32"/>
-      <c r="K169" s="32"/>
+      <c r="K169" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L169" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10163,7 +10438,9 @@
       </c>
       <c r="I170" s="56"/>
       <c r="J170" s="32"/>
-      <c r="K170" s="32"/>
+      <c r="K170" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L170" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10196,7 +10473,9 @@
       </c>
       <c r="I171" s="56"/>
       <c r="J171" s="32"/>
-      <c r="K171" s="32"/>
+      <c r="K171" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L171" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10229,7 +10508,9 @@
       </c>
       <c r="I172" s="57"/>
       <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
+      <c r="K172" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L172" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10262,7 +10543,9 @@
       </c>
       <c r="I173" s="56"/>
       <c r="J173" s="32"/>
-      <c r="K173" s="32"/>
+      <c r="K173" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L173" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10295,7 +10578,9 @@
       </c>
       <c r="I174" s="57"/>
       <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
+      <c r="K174" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L174" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10328,7 +10613,9 @@
       </c>
       <c r="I175" s="56"/>
       <c r="J175" s="32"/>
-      <c r="K175" s="32"/>
+      <c r="K175" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L175" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10361,7 +10648,9 @@
       </c>
       <c r="I176" s="56"/>
       <c r="J176" s="32"/>
-      <c r="K176" s="32"/>
+      <c r="K176" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L176" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10392,7 +10681,9 @@
       </c>
       <c r="I177" s="56"/>
       <c r="J177" s="32"/>
-      <c r="K177" s="32"/>
+      <c r="K177" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L177" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10425,7 +10716,9 @@
       </c>
       <c r="I178" s="56"/>
       <c r="J178" s="32"/>
-      <c r="K178" s="32"/>
+      <c r="K178" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L178" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10458,7 +10751,9 @@
       </c>
       <c r="I179" s="56"/>
       <c r="J179" s="32"/>
-      <c r="K179" s="32"/>
+      <c r="K179" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L179" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10491,7 +10786,9 @@
       </c>
       <c r="I180" s="56"/>
       <c r="J180" s="32"/>
-      <c r="K180" s="32"/>
+      <c r="K180" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L180" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10524,7 +10821,9 @@
       </c>
       <c r="I181" s="56"/>
       <c r="J181" s="32"/>
-      <c r="K181" s="32"/>
+      <c r="K181" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L181" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10559,7 +10858,9 @@
       </c>
       <c r="I182" s="56"/>
       <c r="J182" s="32"/>
-      <c r="K182" s="32"/>
+      <c r="K182" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L182" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10594,7 +10895,9 @@
       </c>
       <c r="I183" s="56"/>
       <c r="J183" s="32"/>
-      <c r="K183" s="32"/>
+      <c r="K183" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L183" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10625,7 +10928,9 @@
       </c>
       <c r="I184" s="56"/>
       <c r="J184" s="32"/>
-      <c r="K184" s="32"/>
+      <c r="K184" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L184" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10658,7 +10963,9 @@
       </c>
       <c r="I185" s="56"/>
       <c r="J185" s="32"/>
-      <c r="K185" s="32"/>
+      <c r="K185" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L185" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10691,7 +10998,9 @@
       </c>
       <c r="I186" s="56"/>
       <c r="J186" s="32"/>
-      <c r="K186" s="32"/>
+      <c r="K186" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L186" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10724,7 +11033,9 @@
       </c>
       <c r="I187" s="56"/>
       <c r="J187" s="32"/>
-      <c r="K187" s="32"/>
+      <c r="K187" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L187" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10757,7 +11068,9 @@
       </c>
       <c r="I188" s="56"/>
       <c r="J188" s="32"/>
-      <c r="K188" s="32"/>
+      <c r="K188" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L188" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10790,7 +11103,9 @@
       </c>
       <c r="I189" s="56"/>
       <c r="J189" s="32"/>
-      <c r="K189" s="32"/>
+      <c r="K189" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L189" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10823,7 +11138,9 @@
       </c>
       <c r="I190" s="56"/>
       <c r="J190" s="32"/>
-      <c r="K190" s="32"/>
+      <c r="K190" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L190" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10856,7 +11173,9 @@
       </c>
       <c r="I191" s="56"/>
       <c r="J191" s="32"/>
-      <c r="K191" s="32"/>
+      <c r="K191" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L191" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10889,7 +11208,9 @@
       </c>
       <c r="I192" s="56"/>
       <c r="J192" s="32"/>
-      <c r="K192" s="32"/>
+      <c r="K192" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L192" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10922,7 +11243,9 @@
       </c>
       <c r="I193" s="56"/>
       <c r="J193" s="32"/>
-      <c r="K193" s="32"/>
+      <c r="K193" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L193" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10959,7 +11282,9 @@
         <v>124</v>
       </c>
       <c r="J194" s="32"/>
-      <c r="K194" s="32"/>
+      <c r="K194" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L194" s="29" t="s">
         <v>1327</v>
       </c>
@@ -10996,7 +11321,9 @@
         <v>124</v>
       </c>
       <c r="J195" s="32"/>
-      <c r="K195" s="32"/>
+      <c r="K195" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L195" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11029,7 +11356,9 @@
       </c>
       <c r="I196" s="56"/>
       <c r="J196" s="32"/>
-      <c r="K196" s="32"/>
+      <c r="K196" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L196" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11062,7 +11391,9 @@
       </c>
       <c r="I197" s="56"/>
       <c r="J197" s="32"/>
-      <c r="K197" s="32"/>
+      <c r="K197" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L197" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11095,7 +11426,9 @@
       </c>
       <c r="I198" s="56"/>
       <c r="J198" s="32"/>
-      <c r="K198" s="32"/>
+      <c r="K198" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L198" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11128,7 +11461,9 @@
       </c>
       <c r="I199" s="56"/>
       <c r="J199" s="32"/>
-      <c r="K199" s="32"/>
+      <c r="K199" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L199" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11161,7 +11496,9 @@
       </c>
       <c r="I200" s="56"/>
       <c r="J200" s="32"/>
-      <c r="K200" s="32"/>
+      <c r="K200" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L200" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11198,7 +11535,9 @@
         <v>148</v>
       </c>
       <c r="J201" s="32"/>
-      <c r="K201" s="32"/>
+      <c r="K201" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L201" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11235,7 +11574,9 @@
         <v>148</v>
       </c>
       <c r="J202" s="32"/>
-      <c r="K202" s="32"/>
+      <c r="K202" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L202" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11268,7 +11609,9 @@
       </c>
       <c r="I203" s="56"/>
       <c r="J203" s="32"/>
-      <c r="K203" s="32"/>
+      <c r="K203" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L203" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11305,7 +11648,9 @@
         <v>160</v>
       </c>
       <c r="J204" s="32"/>
-      <c r="K204" s="32"/>
+      <c r="K204" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L204" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11342,7 +11687,9 @@
         <v>160</v>
       </c>
       <c r="J205" s="32"/>
-      <c r="K205" s="32"/>
+      <c r="K205" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L205" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11375,7 +11722,9 @@
       </c>
       <c r="I206" s="56"/>
       <c r="J206" s="32"/>
-      <c r="K206" s="32"/>
+      <c r="K206" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L206" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11406,7 +11755,9 @@
       </c>
       <c r="I207" s="56"/>
       <c r="J207" s="32"/>
-      <c r="K207" s="32"/>
+      <c r="K207" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L207" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11439,7 +11790,9 @@
       </c>
       <c r="I208" s="56"/>
       <c r="J208" s="32"/>
-      <c r="K208" s="32"/>
+      <c r="K208" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L208" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11472,7 +11825,9 @@
       </c>
       <c r="I209" s="56"/>
       <c r="J209" s="32"/>
-      <c r="K209" s="32"/>
+      <c r="K209" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L209" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11505,7 +11860,9 @@
       </c>
       <c r="I210" s="56"/>
       <c r="J210" s="32"/>
-      <c r="K210" s="32"/>
+      <c r="K210" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L210" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11538,7 +11895,9 @@
       </c>
       <c r="I211" s="56"/>
       <c r="J211" s="32"/>
-      <c r="K211" s="32"/>
+      <c r="K211" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L211" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11571,7 +11930,9 @@
       </c>
       <c r="I212" s="56"/>
       <c r="J212" s="32"/>
-      <c r="K212" s="32"/>
+      <c r="K212" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L212" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11604,7 +11965,9 @@
       </c>
       <c r="I213" s="56"/>
       <c r="J213" s="32"/>
-      <c r="K213" s="32"/>
+      <c r="K213" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L213" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11637,7 +12000,9 @@
       </c>
       <c r="I214" s="56"/>
       <c r="J214" s="32"/>
-      <c r="K214" s="32"/>
+      <c r="K214" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L214" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11670,7 +12035,9 @@
       </c>
       <c r="I215" s="56"/>
       <c r="J215" s="32"/>
-      <c r="K215" s="32"/>
+      <c r="K215" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L215" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11703,7 +12070,9 @@
       </c>
       <c r="I216" s="56"/>
       <c r="J216" s="32"/>
-      <c r="K216" s="32"/>
+      <c r="K216" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L216" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11736,7 +12105,9 @@
       </c>
       <c r="I217" s="56"/>
       <c r="J217" s="32"/>
-      <c r="K217" s="32"/>
+      <c r="K217" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L217" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11769,7 +12140,9 @@
       </c>
       <c r="I218" s="56"/>
       <c r="J218" s="32"/>
-      <c r="K218" s="32"/>
+      <c r="K218" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L218" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11802,7 +12175,9 @@
       </c>
       <c r="I219" s="56"/>
       <c r="J219" s="32"/>
-      <c r="K219" s="32"/>
+      <c r="K219" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L219" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11835,7 +12210,9 @@
       </c>
       <c r="I220" s="56"/>
       <c r="J220" s="32"/>
-      <c r="K220" s="32"/>
+      <c r="K220" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L220" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11868,7 +12245,9 @@
       </c>
       <c r="I221" s="56"/>
       <c r="J221" s="32"/>
-      <c r="K221" s="32"/>
+      <c r="K221" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L221" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11901,7 +12280,9 @@
       </c>
       <c r="I222" s="56"/>
       <c r="J222" s="32"/>
-      <c r="K222" s="32"/>
+      <c r="K222" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L222" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11934,7 +12315,9 @@
       </c>
       <c r="I223" s="56"/>
       <c r="J223" s="32"/>
-      <c r="K223" s="32"/>
+      <c r="K223" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L223" s="29" t="s">
         <v>1327</v>
       </c>
@@ -11967,7 +12350,9 @@
       </c>
       <c r="I224" s="56"/>
       <c r="J224" s="32"/>
-      <c r="K224" s="32"/>
+      <c r="K224" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L224" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12000,7 +12385,9 @@
       </c>
       <c r="I225" s="56"/>
       <c r="J225" s="32"/>
-      <c r="K225" s="32"/>
+      <c r="K225" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L225" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12033,7 +12420,9 @@
       </c>
       <c r="I226" s="56"/>
       <c r="J226" s="32"/>
-      <c r="K226" s="32"/>
+      <c r="K226" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L226" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12066,7 +12455,9 @@
       </c>
       <c r="I227" s="56"/>
       <c r="J227" s="32"/>
-      <c r="K227" s="32"/>
+      <c r="K227" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L227" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12099,7 +12490,9 @@
       </c>
       <c r="I228" s="56"/>
       <c r="J228" s="32"/>
-      <c r="K228" s="32"/>
+      <c r="K228" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L228" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12132,7 +12525,9 @@
       </c>
       <c r="I229" s="56"/>
       <c r="J229" s="32"/>
-      <c r="K229" s="32"/>
+      <c r="K229" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L229" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12165,7 +12560,9 @@
       </c>
       <c r="I230" s="56"/>
       <c r="J230" s="32"/>
-      <c r="K230" s="32"/>
+      <c r="K230" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L230" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12198,7 +12595,9 @@
       </c>
       <c r="I231" s="56"/>
       <c r="J231" s="32"/>
-      <c r="K231" s="32"/>
+      <c r="K231" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L231" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12231,7 +12630,9 @@
       </c>
       <c r="I232" s="56"/>
       <c r="J232" s="32"/>
-      <c r="K232" s="32"/>
+      <c r="K232" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L232" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12264,7 +12665,9 @@
       </c>
       <c r="I233" s="56"/>
       <c r="J233" s="32"/>
-      <c r="K233" s="32"/>
+      <c r="K233" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L233" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12297,7 +12700,9 @@
       </c>
       <c r="I234" s="56"/>
       <c r="J234" s="32"/>
-      <c r="K234" s="32"/>
+      <c r="K234" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L234" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12330,7 +12735,9 @@
       </c>
       <c r="I235" s="56"/>
       <c r="J235" s="32"/>
-      <c r="K235" s="32"/>
+      <c r="K235" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L235" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12363,7 +12770,9 @@
       </c>
       <c r="I236" s="56"/>
       <c r="J236" s="32"/>
-      <c r="K236" s="32"/>
+      <c r="K236" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L236" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12394,7 +12803,9 @@
       </c>
       <c r="I237" s="56"/>
       <c r="J237" s="32"/>
-      <c r="K237" s="32"/>
+      <c r="K237" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L237" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12427,7 +12838,9 @@
       </c>
       <c r="I238" s="56"/>
       <c r="J238" s="32"/>
-      <c r="K238" s="32"/>
+      <c r="K238" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L238" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12460,7 +12873,9 @@
       </c>
       <c r="I239" s="56"/>
       <c r="J239" s="32"/>
-      <c r="K239" s="32"/>
+      <c r="K239" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L239" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12493,7 +12908,9 @@
       </c>
       <c r="I240" s="56"/>
       <c r="J240" s="32"/>
-      <c r="K240" s="32"/>
+      <c r="K240" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L240" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12526,7 +12943,9 @@
       </c>
       <c r="I241" s="56"/>
       <c r="J241" s="32"/>
-      <c r="K241" s="32"/>
+      <c r="K241" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L241" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12557,7 +12976,9 @@
       </c>
       <c r="I242" s="56"/>
       <c r="J242" s="32"/>
-      <c r="K242" s="32"/>
+      <c r="K242" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L242" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12590,7 +13011,9 @@
       </c>
       <c r="I243" s="56"/>
       <c r="J243" s="32"/>
-      <c r="K243" s="32"/>
+      <c r="K243" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L243" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12623,7 +13046,9 @@
       </c>
       <c r="I244" s="56"/>
       <c r="J244" s="32"/>
-      <c r="K244" s="32"/>
+      <c r="K244" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L244" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12656,7 +13081,9 @@
       </c>
       <c r="I245" s="56"/>
       <c r="J245" s="32"/>
-      <c r="K245" s="32"/>
+      <c r="K245" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L245" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12689,7 +13116,9 @@
       </c>
       <c r="I246" s="56"/>
       <c r="J246" s="32"/>
-      <c r="K246" s="32"/>
+      <c r="K246" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L246" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12722,7 +13151,9 @@
       </c>
       <c r="I247" s="56"/>
       <c r="J247" s="32"/>
-      <c r="K247" s="32"/>
+      <c r="K247" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L247" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12753,7 +13184,9 @@
       </c>
       <c r="I248" s="56"/>
       <c r="J248" s="32"/>
-      <c r="K248" s="32"/>
+      <c r="K248" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L248" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12786,7 +13219,9 @@
       </c>
       <c r="I249" s="56"/>
       <c r="J249" s="32"/>
-      <c r="K249" s="32"/>
+      <c r="K249" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L249" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12819,7 +13254,9 @@
       </c>
       <c r="I250" s="56"/>
       <c r="J250" s="32"/>
-      <c r="K250" s="32"/>
+      <c r="K250" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L250" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12852,7 +13289,9 @@
       </c>
       <c r="I251" s="56"/>
       <c r="J251" s="32"/>
-      <c r="K251" s="32"/>
+      <c r="K251" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L251" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12885,7 +13324,9 @@
       </c>
       <c r="I252" s="56"/>
       <c r="J252" s="32"/>
-      <c r="K252" s="32"/>
+      <c r="K252" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L252" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12918,7 +13359,9 @@
       </c>
       <c r="I253" s="56"/>
       <c r="J253" s="32"/>
-      <c r="K253" s="32"/>
+      <c r="K253" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L253" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12951,7 +13394,9 @@
       </c>
       <c r="I254" s="56"/>
       <c r="J254" s="32"/>
-      <c r="K254" s="32"/>
+      <c r="K254" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L254" s="29" t="s">
         <v>1327</v>
       </c>
@@ -12986,7 +13431,9 @@
       </c>
       <c r="I255" s="56"/>
       <c r="J255" s="32"/>
-      <c r="K255" s="32"/>
+      <c r="K255" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L255" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13021,7 +13468,9 @@
       </c>
       <c r="I256" s="56"/>
       <c r="J256" s="32"/>
-      <c r="K256" s="32"/>
+      <c r="K256" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L256" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13054,7 +13503,9 @@
       </c>
       <c r="I257" s="56"/>
       <c r="J257" s="32"/>
-      <c r="K257" s="32"/>
+      <c r="K257" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L257" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13085,7 +13536,9 @@
       </c>
       <c r="I258" s="56"/>
       <c r="J258" s="32"/>
-      <c r="K258" s="32"/>
+      <c r="K258" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L258" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13118,7 +13571,9 @@
       </c>
       <c r="I259" s="56"/>
       <c r="J259" s="32"/>
-      <c r="K259" s="32"/>
+      <c r="K259" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L259" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13151,7 +13606,9 @@
       </c>
       <c r="I260" s="56"/>
       <c r="J260" s="32"/>
-      <c r="K260" s="32"/>
+      <c r="K260" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L260" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13186,7 +13643,9 @@
       </c>
       <c r="I261" s="56"/>
       <c r="J261" s="32"/>
-      <c r="K261" s="32"/>
+      <c r="K261" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L261" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13221,7 +13680,9 @@
       </c>
       <c r="I262" s="56"/>
       <c r="J262" s="32"/>
-      <c r="K262" s="32"/>
+      <c r="K262" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L262" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13254,7 +13715,9 @@
       </c>
       <c r="I263" s="56"/>
       <c r="J263" s="32"/>
-      <c r="K263" s="32"/>
+      <c r="K263" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L263" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13287,7 +13750,9 @@
       </c>
       <c r="I264" s="56"/>
       <c r="J264" s="32"/>
-      <c r="K264" s="32"/>
+      <c r="K264" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L264" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13318,7 +13783,9 @@
       </c>
       <c r="I265" s="56"/>
       <c r="J265" s="32"/>
-      <c r="K265" s="32"/>
+      <c r="K265" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L265" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13351,7 +13818,9 @@
       </c>
       <c r="I266" s="56"/>
       <c r="J266" s="32"/>
-      <c r="K266" s="32"/>
+      <c r="K266" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L266" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13384,7 +13853,9 @@
       </c>
       <c r="I267" s="56"/>
       <c r="J267" s="32"/>
-      <c r="K267" s="32"/>
+      <c r="K267" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L267" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13417,7 +13888,9 @@
       </c>
       <c r="I268" s="56"/>
       <c r="J268" s="32"/>
-      <c r="K268" s="32"/>
+      <c r="K268" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L268" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13450,7 +13923,9 @@
       </c>
       <c r="I269" s="56"/>
       <c r="J269" s="32"/>
-      <c r="K269" s="32"/>
+      <c r="K269" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L269" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13483,7 +13958,9 @@
       </c>
       <c r="I270" s="56"/>
       <c r="J270" s="32"/>
-      <c r="K270" s="32"/>
+      <c r="K270" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L270" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13516,7 +13993,9 @@
       </c>
       <c r="I271" s="56"/>
       <c r="J271" s="32"/>
-      <c r="K271" s="32"/>
+      <c r="K271" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L271" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13549,7 +14028,9 @@
       </c>
       <c r="I272" s="56"/>
       <c r="J272" s="32"/>
-      <c r="K272" s="32"/>
+      <c r="K272" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L272" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13582,7 +14063,9 @@
       </c>
       <c r="I273" s="56"/>
       <c r="J273" s="32"/>
-      <c r="K273" s="32"/>
+      <c r="K273" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L273" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13615,7 +14098,9 @@
       </c>
       <c r="I274" s="56"/>
       <c r="J274" s="32"/>
-      <c r="K274" s="32"/>
+      <c r="K274" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L274" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13648,7 +14133,9 @@
       </c>
       <c r="I275" s="56"/>
       <c r="J275" s="32"/>
-      <c r="K275" s="32"/>
+      <c r="K275" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L275" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13681,7 +14168,9 @@
       </c>
       <c r="I276" s="56"/>
       <c r="J276" s="32"/>
-      <c r="K276" s="32"/>
+      <c r="K276" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L276" s="29" t="s">
         <v>1327</v>
       </c>
@@ -13714,7 +14203,9 @@
       </c>
       <c r="I277" s="56"/>
       <c r="J277" s="32"/>
-      <c r="K277" s="32"/>
+      <c r="K277" s="32" t="s">
+        <v>1348</v>
+      </c>
       <c r="L277" s="29" t="s">
         <v>1327</v>
       </c>
@@ -14283,8 +14774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25E589-C762-47F7-A5B5-46A66BE90C97}">
   <dimension ref="A1:L466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D711240B-6556-4268-AD2D-63F73FFC9EB8}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649CD134-A3DD-4BBF-9B0C-216EC9F0107F}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="-120" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="1367">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -4196,7 +4196,61 @@
     <t>Australian soil and land survey handbooks ; v. 3.</t>
   </si>
   <si>
-    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/02/02notes.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/02/02refs.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/03/03notes.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/03/03refs.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/04-pH/04references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/05-soluble-Cl/05references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/06-C/06references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://raw.githack.com/ANZSoilData/def-au-scma/master/html/07-N/07references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/08-CN-ratio/08references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/09-P/09refs.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/10-S/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/11-gypsum/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/12-micronutrients/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html,  https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/13-extractable-Fe-Al-Si/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/14-saturation-extracts/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/15-ion-exchange-properties/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/16-lime-requirement/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/17-total-miscellaneous-elements/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/18-miscellaneous-extractable-elements/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/19-alkaline-earth-carbonates/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/20-acid-sulfate-soils/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
   </si>
 </sst>
 </file>
@@ -4871,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5736,7 +5790,7 @@
       <c r="I39" s="55"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="L39" s="29" t="s">
         <v>1327</v>
@@ -5771,7 +5825,7 @@
       <c r="I40" s="55"/>
       <c r="J40" s="32"/>
       <c r="K40" s="32" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="L40" s="29" t="s">
         <v>1327</v>
@@ -5806,7 +5860,7 @@
       <c r="I41" s="55"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="L41" s="29" t="s">
         <v>1327</v>
@@ -5841,7 +5895,7 @@
       <c r="I42" s="55"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="L42" s="29" t="s">
         <v>1327</v>
@@ -5876,7 +5930,7 @@
       <c r="I43" s="55"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="L43" s="29" t="s">
         <v>1327</v>
@@ -5909,7 +5963,7 @@
       <c r="I44" s="55"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L44" s="29" t="s">
         <v>1327</v>
@@ -5944,7 +5998,7 @@
       <c r="I45" s="55"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L45" s="29" t="s">
         <v>1327</v>
@@ -5979,7 +6033,7 @@
       <c r="I46" s="55"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L46" s="29" t="s">
         <v>1327</v>
@@ -6014,7 +6068,7 @@
       <c r="I47" s="55"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L47" s="29" t="s">
         <v>1327</v>
@@ -6049,7 +6103,7 @@
       <c r="I48" s="55"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L48" s="29" t="s">
         <v>1327</v>
@@ -6084,7 +6138,7 @@
       <c r="I49" s="55"/>
       <c r="J49" s="32"/>
       <c r="K49" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L49" s="29" t="s">
         <v>1327</v>
@@ -6119,7 +6173,7 @@
       <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L50" s="29" t="s">
         <v>1327</v>
@@ -6154,7 +6208,7 @@
       <c r="I51" s="55"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L51" s="29" t="s">
         <v>1327</v>
@@ -6189,7 +6243,7 @@
       <c r="I52" s="55"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L52" s="29" t="s">
         <v>1327</v>
@@ -6224,7 +6278,7 @@
       <c r="I53" s="55"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L53" s="29" t="s">
         <v>1327</v>
@@ -6259,7 +6313,7 @@
       <c r="I54" s="55"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L54" s="29" t="s">
         <v>1327</v>
@@ -6294,7 +6348,7 @@
       <c r="I55" s="55"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L55" s="29" t="s">
         <v>1327</v>
@@ -6329,7 +6383,7 @@
       <c r="I56" s="55"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L56" s="29" t="s">
         <v>1327</v>
@@ -6364,7 +6418,7 @@
       <c r="I57" s="55"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>1327</v>
@@ -6399,7 +6453,7 @@
       <c r="I58" s="55"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L58" s="29" t="s">
         <v>1327</v>
@@ -6434,7 +6488,7 @@
       <c r="I59" s="55"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L59" s="29" t="s">
         <v>1327</v>
@@ -6469,7 +6523,7 @@
       <c r="I60" s="55"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L60" s="29" t="s">
         <v>1327</v>
@@ -6502,7 +6556,7 @@
       <c r="I61" s="55"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="L61" s="29" t="s">
         <v>1327</v>
@@ -6537,7 +6591,7 @@
       <c r="I62" s="55"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="L62" s="29" t="s">
         <v>1327</v>
@@ -6576,7 +6630,7 @@
       </c>
       <c r="J63" s="32"/>
       <c r="K63" s="32" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="L63" s="29" t="s">
         <v>1327</v>
@@ -6615,7 +6669,7 @@
       </c>
       <c r="J64" s="32"/>
       <c r="K64" s="32" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="L64" s="29" t="s">
         <v>1327</v>
@@ -6650,7 +6704,7 @@
       <c r="I65" s="55"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="L65" s="29" t="s">
         <v>1327</v>
@@ -6685,7 +6739,7 @@
       <c r="I66" s="55"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="L66" s="29" t="s">
         <v>1327</v>
@@ -6720,7 +6774,7 @@
       <c r="I67" s="55"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="L67" s="29" t="s">
         <v>1327</v>
@@ -6753,7 +6807,7 @@
       <c r="I68" s="55"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L68" s="29" t="s">
         <v>1327</v>
@@ -6788,7 +6842,7 @@
       <c r="I69" s="55"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L69" s="29" t="s">
         <v>1327</v>
@@ -6823,7 +6877,7 @@
       <c r="I70" s="55"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L70" s="29" t="s">
         <v>1327</v>
@@ -6858,7 +6912,7 @@
       <c r="I71" s="55"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L71" s="29" t="s">
         <v>1327</v>
@@ -6895,7 +6949,7 @@
       <c r="I72" s="55"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L72" s="29" t="s">
         <v>1327</v>
@@ -6932,7 +6986,7 @@
       <c r="I73" s="55"/>
       <c r="J73" s="32"/>
       <c r="K73" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L73" s="29" t="s">
         <v>1327</v>
@@ -6967,7 +7021,7 @@
       <c r="I74" s="55"/>
       <c r="J74" s="32"/>
       <c r="K74" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L74" s="29" t="s">
         <v>1327</v>
@@ -7002,7 +7056,7 @@
       <c r="I75" s="55"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L75" s="29" t="s">
         <v>1327</v>
@@ -7039,7 +7093,7 @@
       <c r="I76" s="55"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L76" s="29" t="s">
         <v>1327</v>
@@ -7076,7 +7130,7 @@
       <c r="I77" s="55"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L77" s="29" t="s">
         <v>1327</v>
@@ -7111,7 +7165,7 @@
       <c r="I78" s="55"/>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L78" s="29" t="s">
         <v>1327</v>
@@ -7146,7 +7200,7 @@
       <c r="I79" s="55"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L79" s="29" t="s">
         <v>1327</v>
@@ -7181,7 +7235,7 @@
       <c r="I80" s="55"/>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L80" s="29" t="s">
         <v>1327</v>
@@ -7216,7 +7270,7 @@
       <c r="I81" s="55"/>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L81" s="29" t="s">
         <v>1327</v>
@@ -7251,7 +7305,7 @@
       <c r="I82" s="55"/>
       <c r="J82" s="32"/>
       <c r="K82" s="32" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="L82" s="29" t="s">
         <v>1327</v>
@@ -7284,7 +7338,7 @@
       <c r="I83" s="55"/>
       <c r="J83" s="32"/>
       <c r="K83" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L83" s="29" t="s">
         <v>1327</v>
@@ -7319,7 +7373,7 @@
       <c r="I84" s="55"/>
       <c r="J84" s="32"/>
       <c r="K84" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L84" s="29" t="s">
         <v>1327</v>
@@ -7358,7 +7412,7 @@
       </c>
       <c r="J85" s="32"/>
       <c r="K85" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L85" s="29" t="s">
         <v>1327</v>
@@ -7397,7 +7451,7 @@
       </c>
       <c r="J86" s="32"/>
       <c r="K86" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L86" s="29" t="s">
         <v>1327</v>
@@ -7432,7 +7486,7 @@
       <c r="I87" s="55"/>
       <c r="J87" s="32"/>
       <c r="K87" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L87" s="29" t="s">
         <v>1327</v>
@@ -7467,7 +7521,7 @@
       <c r="I88" s="55"/>
       <c r="J88" s="32"/>
       <c r="K88" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L88" s="29" t="s">
         <v>1327</v>
@@ -7502,7 +7556,7 @@
       <c r="I89" s="55"/>
       <c r="J89" s="32"/>
       <c r="K89" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L89" s="29" t="s">
         <v>1327</v>
@@ -7537,7 +7591,7 @@
       <c r="I90" s="55"/>
       <c r="J90" s="32"/>
       <c r="K90" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L90" s="29" t="s">
         <v>1327</v>
@@ -7574,7 +7628,7 @@
       <c r="I91" s="55"/>
       <c r="J91" s="32"/>
       <c r="K91" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L91" s="29" t="s">
         <v>1327</v>
@@ -7611,7 +7665,7 @@
       <c r="I92" s="55"/>
       <c r="J92" s="32"/>
       <c r="K92" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L92" s="29" t="s">
         <v>1327</v>
@@ -7646,7 +7700,7 @@
       <c r="I93" s="55"/>
       <c r="J93" s="32"/>
       <c r="K93" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L93" s="29" t="s">
         <v>1327</v>
@@ -7685,7 +7739,7 @@
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L94" s="29" t="s">
         <v>1327</v>
@@ -7724,7 +7778,7 @@
       </c>
       <c r="J95" s="32"/>
       <c r="K95" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L95" s="29" t="s">
         <v>1327</v>
@@ -7761,7 +7815,7 @@
       <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L96" s="29" t="s">
         <v>1327</v>
@@ -7796,7 +7850,7 @@
       <c r="I97" s="55"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L97" s="29" t="s">
         <v>1327</v>
@@ -7833,7 +7887,7 @@
       <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L98" s="29" t="s">
         <v>1327</v>
@@ -7870,7 +7924,7 @@
       <c r="I99" s="55"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L99" s="29" t="s">
         <v>1327</v>
@@ -7907,7 +7961,7 @@
       <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L100" s="29" t="s">
         <v>1327</v>
@@ -7944,7 +7998,7 @@
       <c r="I101" s="55"/>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L101" s="29" t="s">
         <v>1327</v>
@@ -7981,7 +8035,7 @@
       <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L102" s="29" t="s">
         <v>1327</v>
@@ -8018,7 +8072,7 @@
       <c r="I103" s="55"/>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L103" s="29" t="s">
         <v>1327</v>
@@ -8055,7 +8109,7 @@
       <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L104" s="29" t="s">
         <v>1327</v>
@@ -8092,7 +8146,7 @@
       <c r="I105" s="55"/>
       <c r="J105" s="32"/>
       <c r="K105" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L105" s="29" t="s">
         <v>1327</v>
@@ -8131,7 +8185,7 @@
       </c>
       <c r="J106" s="32"/>
       <c r="K106" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L106" s="29" t="s">
         <v>1327</v>
@@ -8170,7 +8224,7 @@
       </c>
       <c r="J107" s="32"/>
       <c r="K107" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L107" s="29" t="s">
         <v>1327</v>
@@ -8205,7 +8259,7 @@
       <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L108" s="29" t="s">
         <v>1327</v>
@@ -8242,7 +8296,7 @@
       <c r="I109" s="55"/>
       <c r="J109" s="32"/>
       <c r="K109" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L109" s="29" t="s">
         <v>1327</v>
@@ -8279,7 +8333,7 @@
       <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L110" s="29" t="s">
         <v>1327</v>
@@ -8316,7 +8370,7 @@
       <c r="I111" s="55"/>
       <c r="J111" s="32"/>
       <c r="K111" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L111" s="29" t="s">
         <v>1327</v>
@@ -8353,7 +8407,7 @@
       <c r="I112" s="55"/>
       <c r="J112" s="29"/>
       <c r="K112" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L112" s="29" t="s">
         <v>1327</v>
@@ -8390,7 +8444,7 @@
       <c r="I113" s="55"/>
       <c r="J113" s="32"/>
       <c r="K113" s="32" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="L113" s="29" t="s">
         <v>1327</v>
@@ -8423,7 +8477,7 @@
       <c r="I114" s="55"/>
       <c r="J114" s="32"/>
       <c r="K114" s="32" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="L114" s="29" t="s">
         <v>1327</v>
@@ -8458,7 +8512,7 @@
       <c r="I115" s="55"/>
       <c r="J115" s="32"/>
       <c r="K115" s="32" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="L115" s="29" t="s">
         <v>1327</v>
@@ -8493,7 +8547,7 @@
       <c r="I116" s="55"/>
       <c r="J116" s="32"/>
       <c r="K116" s="32" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="L116" s="29" t="s">
         <v>1327</v>
@@ -8526,7 +8580,7 @@
       <c r="I117" s="55"/>
       <c r="J117" s="32"/>
       <c r="K117" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L117" s="29" t="s">
         <v>1327</v>
@@ -8561,7 +8615,7 @@
       <c r="I118" s="55"/>
       <c r="J118" s="32"/>
       <c r="K118" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L118" s="29" t="s">
         <v>1327</v>
@@ -8598,7 +8652,7 @@
       <c r="I119" s="55"/>
       <c r="J119" s="32"/>
       <c r="K119" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L119" s="29" t="s">
         <v>1327</v>
@@ -8635,7 +8689,7 @@
       <c r="I120" s="55"/>
       <c r="J120" s="32"/>
       <c r="K120" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L120" s="29" t="s">
         <v>1327</v>
@@ -8672,7 +8726,7 @@
       <c r="I121" s="55"/>
       <c r="J121" s="32"/>
       <c r="K121" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L121" s="29" t="s">
         <v>1327</v>
@@ -8709,7 +8763,7 @@
       <c r="I122" s="55"/>
       <c r="J122" s="32"/>
       <c r="K122" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L122" s="29" t="s">
         <v>1327</v>
@@ -8744,7 +8798,7 @@
       <c r="I123" s="55"/>
       <c r="J123" s="32"/>
       <c r="K123" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L123" s="29" t="s">
         <v>1327</v>
@@ -8781,7 +8835,7 @@
       <c r="I124" s="55"/>
       <c r="J124" s="32"/>
       <c r="K124" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L124" s="29" t="s">
         <v>1327</v>
@@ -8818,7 +8872,7 @@
       <c r="I125" s="55"/>
       <c r="J125" s="32"/>
       <c r="K125" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L125" s="29" t="s">
         <v>1327</v>
@@ -8853,7 +8907,7 @@
       <c r="I126" s="55"/>
       <c r="J126" s="32"/>
       <c r="K126" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L126" s="29" t="s">
         <v>1327</v>
@@ -8890,7 +8944,7 @@
       <c r="I127" s="55"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L127" s="29" t="s">
         <v>1327</v>
@@ -8929,7 +8983,7 @@
       </c>
       <c r="J128" s="32"/>
       <c r="K128" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L128" s="29" t="s">
         <v>1327</v>
@@ -8968,7 +9022,7 @@
       </c>
       <c r="J129" s="32"/>
       <c r="K129" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L129" s="29" t="s">
         <v>1327</v>
@@ -9003,7 +9057,7 @@
       <c r="I130" s="55"/>
       <c r="J130" s="32"/>
       <c r="K130" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L130" s="29" t="s">
         <v>1327</v>
@@ -9038,7 +9092,7 @@
       <c r="I131" s="55"/>
       <c r="J131" s="32"/>
       <c r="K131" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L131" s="29" t="s">
         <v>1327</v>
@@ -9075,7 +9129,7 @@
       <c r="I132" s="55"/>
       <c r="J132" s="32"/>
       <c r="K132" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L132" s="29" t="s">
         <v>1327</v>
@@ -9112,7 +9166,7 @@
       <c r="I133" s="55"/>
       <c r="J133" s="32"/>
       <c r="K133" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L133" s="29" t="s">
         <v>1327</v>
@@ -9147,7 +9201,7 @@
       <c r="I134" s="55"/>
       <c r="J134" s="32"/>
       <c r="K134" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L134" s="29" t="s">
         <v>1327</v>
@@ -9182,7 +9236,7 @@
       <c r="I135" s="55"/>
       <c r="J135" s="32"/>
       <c r="K135" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L135" s="29" t="s">
         <v>1327</v>
@@ -9217,7 +9271,7 @@
       <c r="I136" s="55"/>
       <c r="J136" s="32"/>
       <c r="K136" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L136" s="29" t="s">
         <v>1327</v>
@@ -9252,7 +9306,7 @@
       <c r="I137" s="55"/>
       <c r="J137" s="32"/>
       <c r="K137" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L137" s="29" t="s">
         <v>1327</v>
@@ -9287,7 +9341,7 @@
       <c r="I138" s="55"/>
       <c r="J138" s="32"/>
       <c r="K138" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L138" s="29" t="s">
         <v>1327</v>
@@ -9322,7 +9376,7 @@
       <c r="I139" s="55"/>
       <c r="J139" s="32"/>
       <c r="K139" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L139" s="29" t="s">
         <v>1327</v>
@@ -9359,7 +9413,7 @@
       <c r="I140" s="55"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L140" s="29" t="s">
         <v>1327</v>
@@ -9396,7 +9450,7 @@
       <c r="I141" s="55"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L141" s="29" t="s">
         <v>1327</v>
@@ -9433,7 +9487,7 @@
       <c r="I142" s="55"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L142" s="29" t="s">
         <v>1327</v>
@@ -9470,7 +9524,7 @@
       <c r="I143" s="55"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L143" s="29" t="s">
         <v>1327</v>
@@ -9507,7 +9561,7 @@
       <c r="I144" s="55"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L144" s="29" t="s">
         <v>1327</v>
@@ -9544,7 +9598,7 @@
       <c r="I145" s="55"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L145" s="29" t="s">
         <v>1327</v>
@@ -9581,7 +9635,7 @@
       <c r="I146" s="55"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L146" s="29" t="s">
         <v>1327</v>
@@ -9618,7 +9672,7 @@
       <c r="I147" s="55"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L147" s="29" t="s">
         <v>1327</v>
@@ -9655,7 +9709,7 @@
       <c r="I148" s="55"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L148" s="29" t="s">
         <v>1327</v>
@@ -9692,7 +9746,7 @@
       <c r="I149" s="55"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L149" s="29" t="s">
         <v>1327</v>
@@ -9727,7 +9781,7 @@
       <c r="I150" s="55"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L150" s="29" t="s">
         <v>1327</v>
@@ -9764,7 +9818,7 @@
       <c r="I151" s="55"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L151" s="29" t="s">
         <v>1327</v>
@@ -9801,7 +9855,7 @@
       <c r="I152" s="55"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L152" s="29" t="s">
         <v>1327</v>
@@ -9836,7 +9890,7 @@
       <c r="I153" s="55"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L153" s="29" t="s">
         <v>1327</v>
@@ -9873,7 +9927,7 @@
       <c r="I154" s="55"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L154" s="29" t="s">
         <v>1327</v>
@@ -9910,7 +9964,7 @@
       <c r="I155" s="55"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L155" s="29" t="s">
         <v>1327</v>
@@ -9947,7 +10001,7 @@
       <c r="I156" s="55"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="L156" s="29" t="s">
         <v>1327</v>
@@ -9980,7 +10034,7 @@
       <c r="I157" s="56"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L157" s="29" t="s">
         <v>1327</v>
@@ -10015,7 +10069,7 @@
       <c r="I158" s="56"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L158" s="29" t="s">
         <v>1327</v>
@@ -10050,7 +10104,7 @@
       <c r="I159" s="56"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L159" s="29" t="s">
         <v>1327</v>
@@ -10085,7 +10139,7 @@
       <c r="I160" s="56"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L160" s="29" t="s">
         <v>1327</v>
@@ -10122,7 +10176,7 @@
       <c r="I161" s="56"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L161" s="29" t="s">
         <v>1327</v>
@@ -10159,7 +10213,7 @@
       <c r="I162" s="56"/>
       <c r="J162" s="32"/>
       <c r="K162" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L162" s="29" t="s">
         <v>1327</v>
@@ -10196,7 +10250,7 @@
       <c r="I163" s="56"/>
       <c r="J163" s="32"/>
       <c r="K163" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L163" s="29" t="s">
         <v>1327</v>
@@ -10233,7 +10287,7 @@
       <c r="I164" s="56"/>
       <c r="J164" s="32"/>
       <c r="K164" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L164" s="29" t="s">
         <v>1327</v>
@@ -10268,7 +10322,7 @@
       <c r="I165" s="56"/>
       <c r="J165" s="32"/>
       <c r="K165" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L165" s="29" t="s">
         <v>1327</v>
@@ -10303,7 +10357,7 @@
       <c r="I166" s="56"/>
       <c r="J166" s="32"/>
       <c r="K166" s="32" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="L166" s="29" t="s">
         <v>1327</v>
@@ -10336,7 +10390,7 @@
       <c r="I167" s="56"/>
       <c r="J167" s="32"/>
       <c r="K167" s="32" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="L167" s="29" t="s">
         <v>1327</v>
@@ -10371,7 +10425,7 @@
       <c r="I168" s="56"/>
       <c r="J168" s="32"/>
       <c r="K168" s="32" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="L168" s="29" t="s">
         <v>1327</v>
@@ -10406,7 +10460,7 @@
       <c r="I169" s="56"/>
       <c r="J169" s="32"/>
       <c r="K169" s="32" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="L169" s="29" t="s">
         <v>1327</v>
@@ -10439,7 +10493,7 @@
       <c r="I170" s="56"/>
       <c r="J170" s="32"/>
       <c r="K170" s="32" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="L170" s="29" t="s">
         <v>1327</v>
@@ -10474,7 +10528,7 @@
       <c r="I171" s="56"/>
       <c r="J171" s="32"/>
       <c r="K171" s="32" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="L171" s="29" t="s">
         <v>1327</v>
@@ -10509,7 +10563,7 @@
       <c r="I172" s="57"/>
       <c r="J172" s="12"/>
       <c r="K172" s="32" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="L172" s="29" t="s">
         <v>1327</v>
@@ -10544,7 +10598,7 @@
       <c r="I173" s="56"/>
       <c r="J173" s="32"/>
       <c r="K173" s="32" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="L173" s="29" t="s">
         <v>1327</v>
@@ -10579,7 +10633,7 @@
       <c r="I174" s="57"/>
       <c r="J174" s="12"/>
       <c r="K174" s="32" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="L174" s="29" t="s">
         <v>1327</v>
@@ -10614,7 +10668,7 @@
       <c r="I175" s="56"/>
       <c r="J175" s="32"/>
       <c r="K175" s="32" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="L175" s="29" t="s">
         <v>1327</v>
@@ -10649,7 +10703,7 @@
       <c r="I176" s="56"/>
       <c r="J176" s="32"/>
       <c r="K176" s="32" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="L176" s="29" t="s">
         <v>1327</v>
@@ -10682,7 +10736,7 @@
       <c r="I177" s="56"/>
       <c r="J177" s="32"/>
       <c r="K177" s="32" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L177" s="29" t="s">
         <v>1327</v>
@@ -10717,7 +10771,7 @@
       <c r="I178" s="56"/>
       <c r="J178" s="32"/>
       <c r="K178" s="32" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L178" s="29" t="s">
         <v>1327</v>
@@ -10752,7 +10806,7 @@
       <c r="I179" s="56"/>
       <c r="J179" s="32"/>
       <c r="K179" s="32" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L179" s="29" t="s">
         <v>1327</v>
@@ -10787,7 +10841,7 @@
       <c r="I180" s="56"/>
       <c r="J180" s="32"/>
       <c r="K180" s="32" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L180" s="29" t="s">
         <v>1327</v>
@@ -10822,7 +10876,7 @@
       <c r="I181" s="56"/>
       <c r="J181" s="32"/>
       <c r="K181" s="32" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L181" s="29" t="s">
         <v>1327</v>
@@ -10859,7 +10913,7 @@
       <c r="I182" s="56"/>
       <c r="J182" s="32"/>
       <c r="K182" s="32" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L182" s="29" t="s">
         <v>1327</v>
@@ -10896,7 +10950,7 @@
       <c r="I183" s="56"/>
       <c r="J183" s="32"/>
       <c r="K183" s="32" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="L183" s="29" t="s">
         <v>1327</v>
@@ -10929,7 +10983,7 @@
       <c r="I184" s="56"/>
       <c r="J184" s="32"/>
       <c r="K184" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L184" s="29" t="s">
         <v>1327</v>
@@ -10964,7 +11018,7 @@
       <c r="I185" s="56"/>
       <c r="J185" s="32"/>
       <c r="K185" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L185" s="29" t="s">
         <v>1327</v>
@@ -10999,7 +11053,7 @@
       <c r="I186" s="56"/>
       <c r="J186" s="32"/>
       <c r="K186" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L186" s="29" t="s">
         <v>1327</v>
@@ -11034,7 +11088,7 @@
       <c r="I187" s="56"/>
       <c r="J187" s="32"/>
       <c r="K187" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L187" s="29" t="s">
         <v>1327</v>
@@ -11069,7 +11123,7 @@
       <c r="I188" s="56"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L188" s="29" t="s">
         <v>1327</v>
@@ -11104,7 +11158,7 @@
       <c r="I189" s="56"/>
       <c r="J189" s="32"/>
       <c r="K189" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L189" s="29" t="s">
         <v>1327</v>
@@ -11139,7 +11193,7 @@
       <c r="I190" s="56"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L190" s="29" t="s">
         <v>1327</v>
@@ -11174,7 +11228,7 @@
       <c r="I191" s="56"/>
       <c r="J191" s="32"/>
       <c r="K191" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L191" s="29" t="s">
         <v>1327</v>
@@ -11209,7 +11263,7 @@
       <c r="I192" s="56"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L192" s="29" t="s">
         <v>1327</v>
@@ -11244,7 +11298,7 @@
       <c r="I193" s="56"/>
       <c r="J193" s="32"/>
       <c r="K193" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L193" s="29" t="s">
         <v>1327</v>
@@ -11283,7 +11337,7 @@
       </c>
       <c r="J194" s="32"/>
       <c r="K194" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L194" s="29" t="s">
         <v>1327</v>
@@ -11322,7 +11376,7 @@
       </c>
       <c r="J195" s="32"/>
       <c r="K195" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L195" s="29" t="s">
         <v>1327</v>
@@ -11357,7 +11411,7 @@
       <c r="I196" s="56"/>
       <c r="J196" s="32"/>
       <c r="K196" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L196" s="29" t="s">
         <v>1327</v>
@@ -11392,7 +11446,7 @@
       <c r="I197" s="56"/>
       <c r="J197" s="32"/>
       <c r="K197" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L197" s="29" t="s">
         <v>1327</v>
@@ -11427,7 +11481,7 @@
       <c r="I198" s="56"/>
       <c r="J198" s="32"/>
       <c r="K198" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L198" s="29" t="s">
         <v>1327</v>
@@ -11462,7 +11516,7 @@
       <c r="I199" s="56"/>
       <c r="J199" s="32"/>
       <c r="K199" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L199" s="29" t="s">
         <v>1327</v>
@@ -11497,7 +11551,7 @@
       <c r="I200" s="56"/>
       <c r="J200" s="32"/>
       <c r="K200" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L200" s="29" t="s">
         <v>1327</v>
@@ -11536,7 +11590,7 @@
       </c>
       <c r="J201" s="32"/>
       <c r="K201" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L201" s="29" t="s">
         <v>1327</v>
@@ -11575,7 +11629,7 @@
       </c>
       <c r="J202" s="32"/>
       <c r="K202" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L202" s="29" t="s">
         <v>1327</v>
@@ -11610,7 +11664,7 @@
       <c r="I203" s="56"/>
       <c r="J203" s="32"/>
       <c r="K203" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L203" s="29" t="s">
         <v>1327</v>
@@ -11649,7 +11703,7 @@
       </c>
       <c r="J204" s="32"/>
       <c r="K204" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L204" s="29" t="s">
         <v>1327</v>
@@ -11688,7 +11742,7 @@
       </c>
       <c r="J205" s="32"/>
       <c r="K205" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L205" s="29" t="s">
         <v>1327</v>
@@ -11723,7 +11777,7 @@
       <c r="I206" s="56"/>
       <c r="J206" s="32"/>
       <c r="K206" s="32" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="L206" s="29" t="s">
         <v>1327</v>
@@ -11756,7 +11810,7 @@
       <c r="I207" s="56"/>
       <c r="J207" s="32"/>
       <c r="K207" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L207" s="29" t="s">
         <v>1327</v>
@@ -11791,7 +11845,7 @@
       <c r="I208" s="56"/>
       <c r="J208" s="32"/>
       <c r="K208" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L208" s="29" t="s">
         <v>1327</v>
@@ -11826,7 +11880,7 @@
       <c r="I209" s="56"/>
       <c r="J209" s="32"/>
       <c r="K209" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L209" s="29" t="s">
         <v>1327</v>
@@ -11861,7 +11915,7 @@
       <c r="I210" s="56"/>
       <c r="J210" s="32"/>
       <c r="K210" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L210" s="29" t="s">
         <v>1327</v>
@@ -11896,7 +11950,7 @@
       <c r="I211" s="56"/>
       <c r="J211" s="32"/>
       <c r="K211" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L211" s="29" t="s">
         <v>1327</v>
@@ -11931,7 +11985,7 @@
       <c r="I212" s="56"/>
       <c r="J212" s="32"/>
       <c r="K212" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L212" s="29" t="s">
         <v>1327</v>
@@ -11966,7 +12020,7 @@
       <c r="I213" s="56"/>
       <c r="J213" s="32"/>
       <c r="K213" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L213" s="29" t="s">
         <v>1327</v>
@@ -12001,7 +12055,7 @@
       <c r="I214" s="56"/>
       <c r="J214" s="32"/>
       <c r="K214" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L214" s="29" t="s">
         <v>1327</v>
@@ -12036,7 +12090,7 @@
       <c r="I215" s="56"/>
       <c r="J215" s="32"/>
       <c r="K215" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L215" s="29" t="s">
         <v>1327</v>
@@ -12071,7 +12125,7 @@
       <c r="I216" s="56"/>
       <c r="J216" s="32"/>
       <c r="K216" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L216" s="29" t="s">
         <v>1327</v>
@@ -12106,7 +12160,7 @@
       <c r="I217" s="56"/>
       <c r="J217" s="32"/>
       <c r="K217" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L217" s="29" t="s">
         <v>1327</v>
@@ -12141,7 +12195,7 @@
       <c r="I218" s="56"/>
       <c r="J218" s="32"/>
       <c r="K218" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L218" s="29" t="s">
         <v>1327</v>
@@ -12176,7 +12230,7 @@
       <c r="I219" s="56"/>
       <c r="J219" s="32"/>
       <c r="K219" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L219" s="29" t="s">
         <v>1327</v>
@@ -12211,7 +12265,7 @@
       <c r="I220" s="56"/>
       <c r="J220" s="32"/>
       <c r="K220" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L220" s="29" t="s">
         <v>1327</v>
@@ -12246,7 +12300,7 @@
       <c r="I221" s="56"/>
       <c r="J221" s="32"/>
       <c r="K221" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L221" s="29" t="s">
         <v>1327</v>
@@ -12281,7 +12335,7 @@
       <c r="I222" s="56"/>
       <c r="J222" s="32"/>
       <c r="K222" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L222" s="29" t="s">
         <v>1327</v>
@@ -12316,7 +12370,7 @@
       <c r="I223" s="56"/>
       <c r="J223" s="32"/>
       <c r="K223" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L223" s="29" t="s">
         <v>1327</v>
@@ -12351,7 +12405,7 @@
       <c r="I224" s="56"/>
       <c r="J224" s="32"/>
       <c r="K224" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L224" s="29" t="s">
         <v>1327</v>
@@ -12386,7 +12440,7 @@
       <c r="I225" s="56"/>
       <c r="J225" s="32"/>
       <c r="K225" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L225" s="29" t="s">
         <v>1327</v>
@@ -12421,7 +12475,7 @@
       <c r="I226" s="56"/>
       <c r="J226" s="32"/>
       <c r="K226" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L226" s="29" t="s">
         <v>1327</v>
@@ -12456,7 +12510,7 @@
       <c r="I227" s="56"/>
       <c r="J227" s="32"/>
       <c r="K227" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L227" s="29" t="s">
         <v>1327</v>
@@ -12491,7 +12545,7 @@
       <c r="I228" s="56"/>
       <c r="J228" s="32"/>
       <c r="K228" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L228" s="29" t="s">
         <v>1327</v>
@@ -12526,7 +12580,7 @@
       <c r="I229" s="56"/>
       <c r="J229" s="32"/>
       <c r="K229" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L229" s="29" t="s">
         <v>1327</v>
@@ -12561,7 +12615,7 @@
       <c r="I230" s="56"/>
       <c r="J230" s="32"/>
       <c r="K230" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L230" s="29" t="s">
         <v>1327</v>
@@ -12596,7 +12650,7 @@
       <c r="I231" s="56"/>
       <c r="J231" s="32"/>
       <c r="K231" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L231" s="29" t="s">
         <v>1327</v>
@@ -12631,7 +12685,7 @@
       <c r="I232" s="56"/>
       <c r="J232" s="32"/>
       <c r="K232" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L232" s="29" t="s">
         <v>1327</v>
@@ -12666,7 +12720,7 @@
       <c r="I233" s="56"/>
       <c r="J233" s="32"/>
       <c r="K233" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L233" s="29" t="s">
         <v>1327</v>
@@ -12701,7 +12755,7 @@
       <c r="I234" s="56"/>
       <c r="J234" s="32"/>
       <c r="K234" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L234" s="29" t="s">
         <v>1327</v>
@@ -12736,7 +12790,7 @@
       <c r="I235" s="56"/>
       <c r="J235" s="32"/>
       <c r="K235" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L235" s="29" t="s">
         <v>1327</v>
@@ -12771,7 +12825,7 @@
       <c r="I236" s="56"/>
       <c r="J236" s="32"/>
       <c r="K236" s="32" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
       <c r="L236" s="29" t="s">
         <v>1327</v>
@@ -12804,7 +12858,7 @@
       <c r="I237" s="56"/>
       <c r="J237" s="32"/>
       <c r="K237" s="32" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="L237" s="29" t="s">
         <v>1327</v>
@@ -12839,7 +12893,7 @@
       <c r="I238" s="56"/>
       <c r="J238" s="32"/>
       <c r="K238" s="32" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="L238" s="29" t="s">
         <v>1327</v>
@@ -12874,7 +12928,7 @@
       <c r="I239" s="56"/>
       <c r="J239" s="32"/>
       <c r="K239" s="32" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="L239" s="29" t="s">
         <v>1327</v>
@@ -12909,7 +12963,7 @@
       <c r="I240" s="56"/>
       <c r="J240" s="32"/>
       <c r="K240" s="32" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="L240" s="29" t="s">
         <v>1327</v>
@@ -12944,7 +12998,7 @@
       <c r="I241" s="56"/>
       <c r="J241" s="32"/>
       <c r="K241" s="32" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="L241" s="29" t="s">
         <v>1327</v>
@@ -12977,7 +13031,7 @@
       <c r="I242" s="56"/>
       <c r="J242" s="32"/>
       <c r="K242" s="32" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="L242" s="29" t="s">
         <v>1327</v>
@@ -13012,7 +13066,7 @@
       <c r="I243" s="56"/>
       <c r="J243" s="32"/>
       <c r="K243" s="32" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="L243" s="29" t="s">
         <v>1327</v>
@@ -13047,7 +13101,7 @@
       <c r="I244" s="56"/>
       <c r="J244" s="32"/>
       <c r="K244" s="32" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="L244" s="29" t="s">
         <v>1327</v>
@@ -13082,7 +13136,7 @@
       <c r="I245" s="56"/>
       <c r="J245" s="32"/>
       <c r="K245" s="32" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="L245" s="29" t="s">
         <v>1327</v>
@@ -13117,7 +13171,7 @@
       <c r="I246" s="56"/>
       <c r="J246" s="32"/>
       <c r="K246" s="32" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="L246" s="29" t="s">
         <v>1327</v>
@@ -13152,7 +13206,7 @@
       <c r="I247" s="56"/>
       <c r="J247" s="32"/>
       <c r="K247" s="32" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="L247" s="29" t="s">
         <v>1327</v>
@@ -13185,7 +13239,7 @@
       <c r="I248" s="56"/>
       <c r="J248" s="32"/>
       <c r="K248" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L248" s="29" t="s">
         <v>1327</v>
@@ -13220,7 +13274,7 @@
       <c r="I249" s="56"/>
       <c r="J249" s="32"/>
       <c r="K249" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L249" s="29" t="s">
         <v>1327</v>
@@ -13255,7 +13309,7 @@
       <c r="I250" s="56"/>
       <c r="J250" s="32"/>
       <c r="K250" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L250" s="29" t="s">
         <v>1327</v>
@@ -13290,7 +13344,7 @@
       <c r="I251" s="56"/>
       <c r="J251" s="32"/>
       <c r="K251" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L251" s="29" t="s">
         <v>1327</v>
@@ -13325,7 +13379,7 @@
       <c r="I252" s="56"/>
       <c r="J252" s="32"/>
       <c r="K252" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L252" s="29" t="s">
         <v>1327</v>
@@ -13360,7 +13414,7 @@
       <c r="I253" s="56"/>
       <c r="J253" s="32"/>
       <c r="K253" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L253" s="29" t="s">
         <v>1327</v>
@@ -13395,7 +13449,7 @@
       <c r="I254" s="56"/>
       <c r="J254" s="32"/>
       <c r="K254" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L254" s="29" t="s">
         <v>1327</v>
@@ -13432,7 +13486,7 @@
       <c r="I255" s="56"/>
       <c r="J255" s="32"/>
       <c r="K255" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L255" s="29" t="s">
         <v>1327</v>
@@ -13469,7 +13523,7 @@
       <c r="I256" s="56"/>
       <c r="J256" s="32"/>
       <c r="K256" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L256" s="29" t="s">
         <v>1327</v>
@@ -13504,7 +13558,7 @@
       <c r="I257" s="56"/>
       <c r="J257" s="32"/>
       <c r="K257" s="32" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="L257" s="29" t="s">
         <v>1327</v>
@@ -13537,7 +13591,7 @@
       <c r="I258" s="56"/>
       <c r="J258" s="32"/>
       <c r="K258" s="32" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="L258" s="29" t="s">
         <v>1327</v>
@@ -13572,7 +13626,7 @@
       <c r="I259" s="56"/>
       <c r="J259" s="32"/>
       <c r="K259" s="32" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="L259" s="29" t="s">
         <v>1327</v>
@@ -13607,7 +13661,7 @@
       <c r="I260" s="56"/>
       <c r="J260" s="32"/>
       <c r="K260" s="32" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="L260" s="29" t="s">
         <v>1327</v>
@@ -13644,7 +13698,7 @@
       <c r="I261" s="56"/>
       <c r="J261" s="32"/>
       <c r="K261" s="32" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="L261" s="29" t="s">
         <v>1327</v>
@@ -13681,7 +13735,7 @@
       <c r="I262" s="56"/>
       <c r="J262" s="32"/>
       <c r="K262" s="32" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="L262" s="29" t="s">
         <v>1327</v>
@@ -13716,7 +13770,7 @@
       <c r="I263" s="56"/>
       <c r="J263" s="32"/>
       <c r="K263" s="32" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="L263" s="29" t="s">
         <v>1327</v>
@@ -13751,7 +13805,7 @@
       <c r="I264" s="56"/>
       <c r="J264" s="32"/>
       <c r="K264" s="32" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="L264" s="29" t="s">
         <v>1327</v>
@@ -13784,7 +13838,7 @@
       <c r="I265" s="56"/>
       <c r="J265" s="32"/>
       <c r="K265" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L265" s="29" t="s">
         <v>1327</v>
@@ -13819,7 +13873,7 @@
       <c r="I266" s="56"/>
       <c r="J266" s="32"/>
       <c r="K266" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L266" s="29" t="s">
         <v>1327</v>
@@ -13854,7 +13908,7 @@
       <c r="I267" s="56"/>
       <c r="J267" s="32"/>
       <c r="K267" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L267" s="29" t="s">
         <v>1327</v>
@@ -13889,7 +13943,7 @@
       <c r="I268" s="56"/>
       <c r="J268" s="32"/>
       <c r="K268" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L268" s="29" t="s">
         <v>1327</v>
@@ -13924,7 +13978,7 @@
       <c r="I269" s="56"/>
       <c r="J269" s="32"/>
       <c r="K269" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L269" s="29" t="s">
         <v>1327</v>
@@ -13959,7 +14013,7 @@
       <c r="I270" s="56"/>
       <c r="J270" s="32"/>
       <c r="K270" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L270" s="29" t="s">
         <v>1327</v>
@@ -13994,7 +14048,7 @@
       <c r="I271" s="56"/>
       <c r="J271" s="32"/>
       <c r="K271" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L271" s="29" t="s">
         <v>1327</v>
@@ -14029,7 +14083,7 @@
       <c r="I272" s="56"/>
       <c r="J272" s="32"/>
       <c r="K272" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L272" s="29" t="s">
         <v>1327</v>
@@ -14064,7 +14118,7 @@
       <c r="I273" s="56"/>
       <c r="J273" s="32"/>
       <c r="K273" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L273" s="29" t="s">
         <v>1327</v>
@@ -14099,7 +14153,7 @@
       <c r="I274" s="56"/>
       <c r="J274" s="32"/>
       <c r="K274" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L274" s="29" t="s">
         <v>1327</v>
@@ -14134,7 +14188,7 @@
       <c r="I275" s="56"/>
       <c r="J275" s="32"/>
       <c r="K275" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L275" s="29" t="s">
         <v>1327</v>
@@ -14169,7 +14223,7 @@
       <c r="I276" s="56"/>
       <c r="J276" s="32"/>
       <c r="K276" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L276" s="29" t="s">
         <v>1327</v>
@@ -14204,7 +14258,7 @@
       <c r="I277" s="56"/>
       <c r="J277" s="32"/>
       <c r="K277" s="32" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="L277" s="29" t="s">
         <v>1327</v>
@@ -22400,9 +22454,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22617,19 +22674,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22654,9 +22707,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cox075\dev\ENV\anzsoil\def-au-scma\rdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{280EA38A-AAE3-4033-A57D-27CDA991092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649CD134-A3DD-4BBF-9B0C-216EC9F0107F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC01565-73A5-4A6E-AF1D-239FB6028D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40065" yWindow="2730" windowWidth="27795" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4362" uniqueCount="1368">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -4105,12 +4105,6 @@
     <t>skos:historyNote</t>
   </si>
   <si>
-    <t>NEED SOME TEXT HERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEED SOME TEXT HERE </t>
-  </si>
-  <si>
     <t>dcterms:replaces(separator=",")</t>
   </si>
   <si>
@@ -4135,52 +4129,16 @@
     <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/03Abbreviations%20and%20acronyms.html</t>
   </si>
   <si>
-    <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/01Preface%20and%20acknowledgements.html</t>
-  </si>
-  <si>
-    <t>David J. Lyons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George E.Raymont </t>
-  </si>
-  <si>
-    <t>dcterms:funder</t>
-  </si>
-  <si>
     <t>Queensland Department of Environment and Resource Management</t>
   </si>
   <si>
     <t>https://ror.org/030c92375</t>
   </si>
   <si>
-    <t>Bruce Shelly</t>
-  </si>
-  <si>
-    <t>suppporter</t>
-  </si>
-  <si>
-    <t>Australian Collaborative Land Evaluation Program (ACLEP)</t>
-  </si>
-  <si>
-    <t>Australian Soil and Plant Analysis Council (ASPAC)</t>
-  </si>
-  <si>
-    <t>dcterm:rightsHolder</t>
-  </si>
-  <si>
-    <t>dcterm:publisher</t>
-  </si>
-  <si>
-    <t>dcterms:RightsStatement</t>
-  </si>
-  <si>
     <t>Rayment, G.E.</t>
   </si>
   <si>
     <t>Higginson, F.R. (Francis Ross)</t>
-  </si>
-  <si>
-    <t>dcterm:isPartOf</t>
   </si>
   <si>
     <t>Melbourne : Inkata Press</t>
@@ -4251,6 +4209,85 @@
   </si>
   <si>
     <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/20-acid-sulfate-soils/references.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/91results01.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/92accuracyandprecision02.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/93acids03.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/94atomicweights04.html, https://raw.githack.com/ANZSoilData/def-au-scma/master/html/90backmatter/95Unitsr05.html</t>
+  </si>
+  <si>
+    <t>skos:editorialNote</t>
+  </si>
+  <si>
+    <r>
+      <t>The data was converted from a HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7E408A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> representation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> to this 'linked-data' format by  Megan Wong and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7E408A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Simon J D Cox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The data was converted from a HTML representation to this 'linked-data' format by  Megan Wong and Simon J D Cox.</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>https://www.aspac-australasia.com/</t>
+  </si>
+  <si>
+    <t>https://www.clw.csiro.au/aclep/</t>
+  </si>
+  <si>
+    <t>sdo:funder</t>
+  </si>
+  <si>
+    <t>sdo:maintainer</t>
+  </si>
+  <si>
+    <t>dcterms:rightsHolder</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George E Rayment </t>
+  </si>
+  <si>
+    <t>David J Lyons</t>
+  </si>
+  <si>
+    <t>mailto:bruce.shelley@agriculture.vic.gov.au</t>
   </si>
 </sst>
 </file>
@@ -4260,7 +4297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4362,6 +4399,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7E408A"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4418,7 +4469,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -4541,13 +4592,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4925,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4940,7 +4993,8 @@
     <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" style="51" customWidth="1"/>
-    <col min="10" max="11" width="24.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="73.7109375" style="15" customWidth="1"/>
     <col min="12" max="12" width="39.28515625" style="15" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="3"/>
@@ -5068,12 +5122,12 @@
       <c r="L6" s="15"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="16" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5087,16 +5141,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>1065</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>1328</v>
-      </c>
+      <c r="C8" s="61"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -5110,10 +5162,10 @@
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>1321</v>
+        <v>1364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1319</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5129,10 +5181,10 @@
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>1322</v>
+        <v>1361</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1320</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5148,10 +5200,10 @@
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>1322</v>
+        <v>1363</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1320</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5167,10 +5219,10 @@
     </row>
     <row r="12" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>1330</v>
+        <v>1321</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1365</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -5186,10 +5238,10 @@
     </row>
     <row r="13" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>1329</v>
+        <v>1321</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>1366</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5205,10 +5257,10 @@
     </row>
     <row r="14" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>1324</v>
+        <v>1321</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1322</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5246,7 +5298,7 @@
         <v>643</v>
       </c>
       <c r="B16" s="41">
-        <v>44629</v>
+        <v>44643</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -5319,10 +5371,10 @@
     </row>
     <row r="20" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1331</v>
+        <v>1359</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5338,10 +5390,10 @@
     </row>
     <row r="21" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>1333</v>
+        <v>1359</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1327</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -5360,7 +5412,7 @@
         <v>644</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>1334</v>
+        <v>1367</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -5375,11 +5427,11 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>1335</v>
+      <c r="A23" s="1" t="s">
+        <v>1360</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>1337</v>
+        <v>1357</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5395,10 +5447,10 @@
     </row>
     <row r="24" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1331</v>
+        <v>1359</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>1336</v>
+        <v>1358</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5416,7 +5468,7 @@
       <c r="A25" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" t="s">
         <v>636</v>
       </c>
       <c r="C25" s="4"/>
@@ -5454,7 +5506,7 @@
       <c r="A27" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" t="s">
         <v>1066</v>
       </c>
       <c r="C27" s="4"/>
@@ -5489,8 +5541,12 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="43" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>1354</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -5578,16 +5634,16 @@
         <v>638</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J33" s="48" t="s">
         <v>1315</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="M33" s="21" t="s">
         <v>639</v>
@@ -5617,10 +5673,10 @@
       <c r="I34" s="55"/>
       <c r="J34" s="32"/>
       <c r="K34" s="32" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M34" s="32" t="s">
         <v>1062</v>
@@ -5652,10 +5708,10 @@
       <c r="I35" s="55"/>
       <c r="J35" s="32"/>
       <c r="K35" s="32" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M35" s="32" t="s">
         <v>1062</v>
@@ -5687,10 +5743,10 @@
       <c r="I36" s="55"/>
       <c r="J36" s="32"/>
       <c r="K36" s="32" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M36" s="32" t="s">
         <v>1062</v>
@@ -5722,10 +5778,10 @@
       <c r="I37" s="55"/>
       <c r="J37" s="32"/>
       <c r="K37" s="32" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M37" s="32" t="s">
         <v>1062</v>
@@ -5757,10 +5813,10 @@
       <c r="I38" s="55"/>
       <c r="J38" s="32"/>
       <c r="K38" s="32" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M38" s="32" t="s">
         <v>1062</v>
@@ -5790,10 +5846,10 @@
       <c r="I39" s="55"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M39" s="32" t="s">
         <v>1062</v>
@@ -5825,10 +5881,10 @@
       <c r="I40" s="55"/>
       <c r="J40" s="32"/>
       <c r="K40" s="32" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="L40" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M40" s="32" t="s">
         <v>1062</v>
@@ -5860,10 +5916,10 @@
       <c r="I41" s="55"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>1062</v>
@@ -5895,10 +5951,10 @@
       <c r="I42" s="55"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M42" s="32" t="s">
         <v>1062</v>
@@ -5930,10 +5986,10 @@
       <c r="I43" s="55"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="L43" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M43" s="32" t="s">
         <v>1062</v>
@@ -5963,10 +6019,10 @@
       <c r="I44" s="55"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M44" s="32" t="s">
         <v>1062</v>
@@ -5998,10 +6054,10 @@
       <c r="I45" s="55"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L45" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M45" s="32" t="s">
         <v>1062</v>
@@ -6033,10 +6089,10 @@
       <c r="I46" s="55"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L46" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M46" s="32" t="s">
         <v>1062</v>
@@ -6068,10 +6124,10 @@
       <c r="I47" s="55"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L47" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M47" s="32" t="s">
         <v>1062</v>
@@ -6103,10 +6159,10 @@
       <c r="I48" s="55"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L48" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M48" s="32" t="s">
         <v>1062</v>
@@ -6138,10 +6194,10 @@
       <c r="I49" s="55"/>
       <c r="J49" s="32"/>
       <c r="K49" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L49" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M49" s="32" t="s">
         <v>1062</v>
@@ -6173,10 +6229,10 @@
       <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L50" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M50" s="32" t="s">
         <v>1062</v>
@@ -6208,10 +6264,10 @@
       <c r="I51" s="55"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L51" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M51" s="32" t="s">
         <v>1062</v>
@@ -6243,10 +6299,10 @@
       <c r="I52" s="55"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L52" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M52" s="32" t="s">
         <v>1062</v>
@@ -6278,10 +6334,10 @@
       <c r="I53" s="55"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L53" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M53" s="32" t="s">
         <v>1062</v>
@@ -6313,10 +6369,10 @@
       <c r="I54" s="55"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L54" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M54" s="32" t="s">
         <v>1062</v>
@@ -6348,10 +6404,10 @@
       <c r="I55" s="55"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L55" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M55" s="32" t="s">
         <v>1062</v>
@@ -6383,10 +6439,10 @@
       <c r="I56" s="55"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L56" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M56" s="32" t="s">
         <v>1062</v>
@@ -6418,10 +6474,10 @@
       <c r="I57" s="55"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L57" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M57" s="32" t="s">
         <v>1062</v>
@@ -6453,10 +6509,10 @@
       <c r="I58" s="55"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L58" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M58" s="32" t="s">
         <v>1062</v>
@@ -6488,10 +6544,10 @@
       <c r="I59" s="55"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L59" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M59" s="32" t="s">
         <v>1062</v>
@@ -6523,10 +6579,10 @@
       <c r="I60" s="55"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="L60" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M60" s="32" t="s">
         <v>1062</v>
@@ -6556,10 +6612,10 @@
       <c r="I61" s="55"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="L61" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M61" s="32" t="s">
         <v>1062</v>
@@ -6591,10 +6647,10 @@
       <c r="I62" s="55"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="L62" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M62" s="32" t="s">
         <v>1062</v>
@@ -6630,10 +6686,10 @@
       </c>
       <c r="J63" s="32"/>
       <c r="K63" s="32" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="L63" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M63" s="32" t="s">
         <v>1062</v>
@@ -6669,10 +6725,10 @@
       </c>
       <c r="J64" s="32"/>
       <c r="K64" s="32" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="L64" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M64" s="32" t="s">
         <v>1062</v>
@@ -6704,10 +6760,10 @@
       <c r="I65" s="55"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="L65" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>1062</v>
@@ -6739,10 +6795,10 @@
       <c r="I66" s="55"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="L66" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M66" s="32" t="s">
         <v>1062</v>
@@ -6774,10 +6830,10 @@
       <c r="I67" s="55"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M67" s="32" t="s">
         <v>1062</v>
@@ -6807,10 +6863,10 @@
       <c r="I68" s="55"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L68" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M68" s="32" t="s">
         <v>1062</v>
@@ -6842,10 +6898,10 @@
       <c r="I69" s="55"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L69" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M69" s="32" t="s">
         <v>1062</v>
@@ -6877,10 +6933,10 @@
       <c r="I70" s="55"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L70" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M70" s="32" t="s">
         <v>1062</v>
@@ -6912,10 +6968,10 @@
       <c r="I71" s="55"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L71" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M71" s="32" t="s">
         <v>1062</v>
@@ -6949,10 +7005,10 @@
       <c r="I72" s="55"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L72" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M72" s="32" t="s">
         <v>1062</v>
@@ -6986,10 +7042,10 @@
       <c r="I73" s="55"/>
       <c r="J73" s="32"/>
       <c r="K73" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L73" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M73" s="32" t="s">
         <v>1062</v>
@@ -7021,10 +7077,10 @@
       <c r="I74" s="55"/>
       <c r="J74" s="32"/>
       <c r="K74" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L74" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M74" s="32" t="s">
         <v>1062</v>
@@ -7056,10 +7112,10 @@
       <c r="I75" s="55"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L75" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M75" s="32" t="s">
         <v>1062</v>
@@ -7093,10 +7149,10 @@
       <c r="I76" s="55"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L76" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M76" s="32" t="s">
         <v>1062</v>
@@ -7130,10 +7186,10 @@
       <c r="I77" s="55"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L77" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M77" s="32" t="s">
         <v>1062</v>
@@ -7165,10 +7221,10 @@
       <c r="I78" s="55"/>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L78" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M78" s="32" t="s">
         <v>1062</v>
@@ -7200,10 +7256,10 @@
       <c r="I79" s="55"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L79" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M79" s="32" t="s">
         <v>1062</v>
@@ -7235,10 +7291,10 @@
       <c r="I80" s="55"/>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L80" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M80" s="32" t="s">
         <v>1062</v>
@@ -7270,10 +7326,10 @@
       <c r="I81" s="55"/>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L81" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M81" s="32" t="s">
         <v>1062</v>
@@ -7305,10 +7361,10 @@
       <c r="I82" s="55"/>
       <c r="J82" s="32"/>
       <c r="K82" s="32" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="L82" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M82" s="32" t="s">
         <v>1062</v>
@@ -7338,10 +7394,10 @@
       <c r="I83" s="55"/>
       <c r="J83" s="32"/>
       <c r="K83" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L83" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M83" s="32" t="s">
         <v>1062</v>
@@ -7373,10 +7429,10 @@
       <c r="I84" s="55"/>
       <c r="J84" s="32"/>
       <c r="K84" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L84" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M84" s="32" t="s">
         <v>1062</v>
@@ -7412,10 +7468,10 @@
       </c>
       <c r="J85" s="32"/>
       <c r="K85" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L85" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M85" s="32" t="s">
         <v>1062</v>
@@ -7451,10 +7507,10 @@
       </c>
       <c r="J86" s="32"/>
       <c r="K86" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L86" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M86" s="32" t="s">
         <v>1062</v>
@@ -7486,10 +7542,10 @@
       <c r="I87" s="55"/>
       <c r="J87" s="32"/>
       <c r="K87" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L87" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M87" s="32" t="s">
         <v>1062</v>
@@ -7521,10 +7577,10 @@
       <c r="I88" s="55"/>
       <c r="J88" s="32"/>
       <c r="K88" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L88" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M88" s="32" t="s">
         <v>1062</v>
@@ -7556,10 +7612,10 @@
       <c r="I89" s="55"/>
       <c r="J89" s="32"/>
       <c r="K89" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L89" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M89" s="32" t="s">
         <v>1062</v>
@@ -7591,10 +7647,10 @@
       <c r="I90" s="55"/>
       <c r="J90" s="32"/>
       <c r="K90" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L90" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M90" s="32" t="s">
         <v>1062</v>
@@ -7628,10 +7684,10 @@
       <c r="I91" s="55"/>
       <c r="J91" s="32"/>
       <c r="K91" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L91" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M91" s="32" t="s">
         <v>1062</v>
@@ -7665,10 +7721,10 @@
       <c r="I92" s="55"/>
       <c r="J92" s="32"/>
       <c r="K92" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L92" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M92" s="32" t="s">
         <v>1062</v>
@@ -7700,10 +7756,10 @@
       <c r="I93" s="55"/>
       <c r="J93" s="32"/>
       <c r="K93" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L93" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M93" s="32" t="s">
         <v>1062</v>
@@ -7739,10 +7795,10 @@
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L94" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M94" s="32" t="s">
         <v>1062</v>
@@ -7778,10 +7834,10 @@
       </c>
       <c r="J95" s="32"/>
       <c r="K95" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L95" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M95" s="32" t="s">
         <v>1062</v>
@@ -7815,10 +7871,10 @@
       <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L96" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M96" s="32" t="s">
         <v>1062</v>
@@ -7850,10 +7906,10 @@
       <c r="I97" s="55"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L97" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M97" s="32" t="s">
         <v>1062</v>
@@ -7887,10 +7943,10 @@
       <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L98" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M98" s="32" t="s">
         <v>1062</v>
@@ -7924,10 +7980,10 @@
       <c r="I99" s="55"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L99" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M99" s="32" t="s">
         <v>1062</v>
@@ -7961,10 +8017,10 @@
       <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L100" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M100" s="32" t="s">
         <v>1062</v>
@@ -7998,10 +8054,10 @@
       <c r="I101" s="55"/>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L101" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M101" s="32" t="s">
         <v>1062</v>
@@ -8035,10 +8091,10 @@
       <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L102" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M102" s="32" t="s">
         <v>1062</v>
@@ -8072,10 +8128,10 @@
       <c r="I103" s="55"/>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L103" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M103" s="32" t="s">
         <v>1062</v>
@@ -8109,10 +8165,10 @@
       <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L104" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M104" s="32" t="s">
         <v>1062</v>
@@ -8146,10 +8202,10 @@
       <c r="I105" s="55"/>
       <c r="J105" s="32"/>
       <c r="K105" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L105" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M105" s="32" t="s">
         <v>1062</v>
@@ -8185,10 +8241,10 @@
       </c>
       <c r="J106" s="32"/>
       <c r="K106" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L106" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M106" s="32" t="s">
         <v>1062</v>
@@ -8224,10 +8280,10 @@
       </c>
       <c r="J107" s="32"/>
       <c r="K107" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L107" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M107" s="32" t="s">
         <v>1062</v>
@@ -8259,10 +8315,10 @@
       <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L108" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M108" s="32" t="s">
         <v>1062</v>
@@ -8296,10 +8352,10 @@
       <c r="I109" s="55"/>
       <c r="J109" s="32"/>
       <c r="K109" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L109" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M109" s="32" t="s">
         <v>1062</v>
@@ -8333,10 +8389,10 @@
       <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L110" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M110" s="32" t="s">
         <v>1062</v>
@@ -8370,10 +8426,10 @@
       <c r="I111" s="55"/>
       <c r="J111" s="32"/>
       <c r="K111" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L111" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M111" s="32" t="s">
         <v>1062</v>
@@ -8407,10 +8463,10 @@
       <c r="I112" s="55"/>
       <c r="J112" s="29"/>
       <c r="K112" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L112" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M112" s="32" t="s">
         <v>1062</v>
@@ -8444,10 +8500,10 @@
       <c r="I113" s="55"/>
       <c r="J113" s="32"/>
       <c r="K113" s="32" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="L113" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M113" s="32" t="s">
         <v>1062</v>
@@ -8477,10 +8533,10 @@
       <c r="I114" s="55"/>
       <c r="J114" s="32"/>
       <c r="K114" s="32" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="L114" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M114" s="32" t="s">
         <v>1062</v>
@@ -8512,10 +8568,10 @@
       <c r="I115" s="55"/>
       <c r="J115" s="32"/>
       <c r="K115" s="32" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="L115" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M115" s="32" t="s">
         <v>1062</v>
@@ -8547,10 +8603,10 @@
       <c r="I116" s="55"/>
       <c r="J116" s="32"/>
       <c r="K116" s="32" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="L116" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M116" s="32" t="s">
         <v>1062</v>
@@ -8580,10 +8636,10 @@
       <c r="I117" s="55"/>
       <c r="J117" s="32"/>
       <c r="K117" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L117" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M117" s="32" t="s">
         <v>1062</v>
@@ -8615,10 +8671,10 @@
       <c r="I118" s="55"/>
       <c r="J118" s="32"/>
       <c r="K118" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L118" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M118" s="32" t="s">
         <v>1062</v>
@@ -8652,10 +8708,10 @@
       <c r="I119" s="55"/>
       <c r="J119" s="32"/>
       <c r="K119" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L119" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M119" s="32" t="s">
         <v>1062</v>
@@ -8689,10 +8745,10 @@
       <c r="I120" s="55"/>
       <c r="J120" s="32"/>
       <c r="K120" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L120" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M120" s="32" t="s">
         <v>1062</v>
@@ -8726,10 +8782,10 @@
       <c r="I121" s="55"/>
       <c r="J121" s="32"/>
       <c r="K121" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L121" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M121" s="32" t="s">
         <v>1062</v>
@@ -8763,10 +8819,10 @@
       <c r="I122" s="55"/>
       <c r="J122" s="32"/>
       <c r="K122" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L122" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M122" s="32" t="s">
         <v>1062</v>
@@ -8798,10 +8854,10 @@
       <c r="I123" s="55"/>
       <c r="J123" s="32"/>
       <c r="K123" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L123" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M123" s="32" t="s">
         <v>1062</v>
@@ -8835,10 +8891,10 @@
       <c r="I124" s="55"/>
       <c r="J124" s="32"/>
       <c r="K124" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L124" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M124" s="32" t="s">
         <v>1062</v>
@@ -8872,10 +8928,10 @@
       <c r="I125" s="55"/>
       <c r="J125" s="32"/>
       <c r="K125" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L125" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M125" s="32" t="s">
         <v>1062</v>
@@ -8907,10 +8963,10 @@
       <c r="I126" s="55"/>
       <c r="J126" s="32"/>
       <c r="K126" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L126" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M126" s="32" t="s">
         <v>1062</v>
@@ -8944,10 +9000,10 @@
       <c r="I127" s="55"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L127" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M127" s="32" t="s">
         <v>1062</v>
@@ -8983,10 +9039,10 @@
       </c>
       <c r="J128" s="32"/>
       <c r="K128" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L128" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M128" s="32" t="s">
         <v>1062</v>
@@ -9022,10 +9078,10 @@
       </c>
       <c r="J129" s="32"/>
       <c r="K129" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L129" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M129" s="32" t="s">
         <v>1062</v>
@@ -9057,10 +9113,10 @@
       <c r="I130" s="55"/>
       <c r="J130" s="32"/>
       <c r="K130" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L130" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M130" s="32" t="s">
         <v>1062</v>
@@ -9092,10 +9148,10 @@
       <c r="I131" s="55"/>
       <c r="J131" s="32"/>
       <c r="K131" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L131" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M131" s="32" t="s">
         <v>1062</v>
@@ -9129,10 +9185,10 @@
       <c r="I132" s="55"/>
       <c r="J132" s="32"/>
       <c r="K132" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L132" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M132" s="32" t="s">
         <v>1062</v>
@@ -9166,10 +9222,10 @@
       <c r="I133" s="55"/>
       <c r="J133" s="32"/>
       <c r="K133" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L133" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M133" s="32" t="s">
         <v>1062</v>
@@ -9201,10 +9257,10 @@
       <c r="I134" s="55"/>
       <c r="J134" s="32"/>
       <c r="K134" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L134" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M134" s="32" t="s">
         <v>1062</v>
@@ -9236,10 +9292,10 @@
       <c r="I135" s="55"/>
       <c r="J135" s="32"/>
       <c r="K135" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L135" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M135" s="32" t="s">
         <v>1062</v>
@@ -9271,10 +9327,10 @@
       <c r="I136" s="55"/>
       <c r="J136" s="32"/>
       <c r="K136" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L136" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M136" s="32" t="s">
         <v>1062</v>
@@ -9306,10 +9362,10 @@
       <c r="I137" s="55"/>
       <c r="J137" s="32"/>
       <c r="K137" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L137" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M137" s="32" t="s">
         <v>1062</v>
@@ -9341,10 +9397,10 @@
       <c r="I138" s="55"/>
       <c r="J138" s="32"/>
       <c r="K138" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L138" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M138" s="32" t="s">
         <v>1062</v>
@@ -9376,10 +9432,10 @@
       <c r="I139" s="55"/>
       <c r="J139" s="32"/>
       <c r="K139" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L139" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M139" s="32" t="s">
         <v>1062</v>
@@ -9413,10 +9469,10 @@
       <c r="I140" s="55"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L140" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M140" s="32" t="s">
         <v>1062</v>
@@ -9450,10 +9506,10 @@
       <c r="I141" s="55"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L141" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M141" s="32" t="s">
         <v>1062</v>
@@ -9487,10 +9543,10 @@
       <c r="I142" s="55"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L142" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M142" s="32" t="s">
         <v>1062</v>
@@ -9524,10 +9580,10 @@
       <c r="I143" s="55"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L143" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M143" s="32" t="s">
         <v>1062</v>
@@ -9561,10 +9617,10 @@
       <c r="I144" s="55"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L144" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M144" s="32" t="s">
         <v>1062</v>
@@ -9598,10 +9654,10 @@
       <c r="I145" s="55"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L145" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M145" s="32" t="s">
         <v>1062</v>
@@ -9635,10 +9691,10 @@
       <c r="I146" s="55"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L146" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M146" s="32" t="s">
         <v>1062</v>
@@ -9672,10 +9728,10 @@
       <c r="I147" s="55"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L147" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M147" s="32" t="s">
         <v>1062</v>
@@ -9709,10 +9765,10 @@
       <c r="I148" s="55"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L148" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M148" s="32" t="s">
         <v>1062</v>
@@ -9746,10 +9802,10 @@
       <c r="I149" s="55"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L149" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M149" s="32" t="s">
         <v>1062</v>
@@ -9781,10 +9837,10 @@
       <c r="I150" s="55"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L150" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M150" s="32" t="s">
         <v>1062</v>
@@ -9818,10 +9874,10 @@
       <c r="I151" s="55"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L151" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M151" s="32" t="s">
         <v>1062</v>
@@ -9855,10 +9911,10 @@
       <c r="I152" s="55"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L152" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M152" s="32" t="s">
         <v>1062</v>
@@ -9890,10 +9946,10 @@
       <c r="I153" s="55"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L153" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M153" s="32" t="s">
         <v>1062</v>
@@ -9927,10 +9983,10 @@
       <c r="I154" s="55"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L154" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M154" s="32" t="s">
         <v>1062</v>
@@ -9964,10 +10020,10 @@
       <c r="I155" s="55"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L155" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M155" s="32" t="s">
         <v>1062</v>
@@ -10001,10 +10057,10 @@
       <c r="I156" s="55"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="L156" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M156" s="32" t="s">
         <v>1062</v>
@@ -10034,10 +10090,10 @@
       <c r="I157" s="56"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L157" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M157" s="27" t="s">
         <v>1062</v>
@@ -10069,10 +10125,10 @@
       <c r="I158" s="56"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L158" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M158" s="27" t="s">
         <v>1062</v>
@@ -10104,10 +10160,10 @@
       <c r="I159" s="56"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L159" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M159" s="27" t="s">
         <v>1062</v>
@@ -10139,10 +10195,10 @@
       <c r="I160" s="56"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L160" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M160" s="27" t="s">
         <v>1062</v>
@@ -10176,10 +10232,10 @@
       <c r="I161" s="56"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L161" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M161" s="27" t="s">
         <v>1062</v>
@@ -10213,10 +10269,10 @@
       <c r="I162" s="56"/>
       <c r="J162" s="32"/>
       <c r="K162" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L162" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M162" s="27" t="s">
         <v>1062</v>
@@ -10250,10 +10306,10 @@
       <c r="I163" s="56"/>
       <c r="J163" s="32"/>
       <c r="K163" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L163" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M163" s="27" t="s">
         <v>1062</v>
@@ -10287,10 +10343,10 @@
       <c r="I164" s="56"/>
       <c r="J164" s="32"/>
       <c r="K164" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L164" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M164" s="27" t="s">
         <v>1062</v>
@@ -10322,10 +10378,10 @@
       <c r="I165" s="56"/>
       <c r="J165" s="32"/>
       <c r="K165" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L165" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>1062</v>
@@ -10357,10 +10413,10 @@
       <c r="I166" s="56"/>
       <c r="J166" s="32"/>
       <c r="K166" s="32" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="L166" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M166" s="27" t="s">
         <v>1062</v>
@@ -10390,10 +10446,10 @@
       <c r="I167" s="56"/>
       <c r="J167" s="32"/>
       <c r="K167" s="32" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="L167" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M167" s="27" t="s">
         <v>1062</v>
@@ -10425,10 +10481,10 @@
       <c r="I168" s="56"/>
       <c r="J168" s="32"/>
       <c r="K168" s="32" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="L168" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M168" s="27" t="s">
         <v>1062</v>
@@ -10460,10 +10516,10 @@
       <c r="I169" s="56"/>
       <c r="J169" s="32"/>
       <c r="K169" s="32" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="L169" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M169" s="27" t="s">
         <v>1062</v>
@@ -10493,10 +10549,10 @@
       <c r="I170" s="56"/>
       <c r="J170" s="32"/>
       <c r="K170" s="32" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="L170" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M170" s="27" t="s">
         <v>1062</v>
@@ -10528,10 +10584,10 @@
       <c r="I171" s="56"/>
       <c r="J171" s="32"/>
       <c r="K171" s="32" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="L171" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M171" s="27" t="s">
         <v>1062</v>
@@ -10563,10 +10619,10 @@
       <c r="I172" s="57"/>
       <c r="J172" s="12"/>
       <c r="K172" s="32" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="L172" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M172" s="27" t="s">
         <v>1062</v>
@@ -10598,10 +10654,10 @@
       <c r="I173" s="56"/>
       <c r="J173" s="32"/>
       <c r="K173" s="32" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="L173" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M173" s="27" t="s">
         <v>1062</v>
@@ -10633,10 +10689,10 @@
       <c r="I174" s="57"/>
       <c r="J174" s="12"/>
       <c r="K174" s="32" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="L174" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M174" s="27" t="s">
         <v>1062</v>
@@ -10668,10 +10724,10 @@
       <c r="I175" s="56"/>
       <c r="J175" s="32"/>
       <c r="K175" s="32" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="L175" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M175" s="27" t="s">
         <v>1062</v>
@@ -10703,10 +10759,10 @@
       <c r="I176" s="56"/>
       <c r="J176" s="32"/>
       <c r="K176" s="32" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="L176" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M176" s="27" t="s">
         <v>1062</v>
@@ -10736,10 +10792,10 @@
       <c r="I177" s="56"/>
       <c r="J177" s="32"/>
       <c r="K177" s="32" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="L177" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M177" s="27" t="s">
         <v>1062</v>
@@ -10771,10 +10827,10 @@
       <c r="I178" s="56"/>
       <c r="J178" s="32"/>
       <c r="K178" s="32" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="L178" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M178" s="27" t="s">
         <v>1062</v>
@@ -10806,10 +10862,10 @@
       <c r="I179" s="56"/>
       <c r="J179" s="32"/>
       <c r="K179" s="32" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="L179" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M179" s="27" t="s">
         <v>1062</v>
@@ -10841,10 +10897,10 @@
       <c r="I180" s="56"/>
       <c r="J180" s="32"/>
       <c r="K180" s="32" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="L180" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M180" s="27" t="s">
         <v>1062</v>
@@ -10876,10 +10932,10 @@
       <c r="I181" s="56"/>
       <c r="J181" s="32"/>
       <c r="K181" s="32" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="L181" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M181" s="27" t="s">
         <v>1062</v>
@@ -10913,10 +10969,10 @@
       <c r="I182" s="56"/>
       <c r="J182" s="32"/>
       <c r="K182" s="32" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="L182" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M182" s="27" t="s">
         <v>1062</v>
@@ -10950,10 +11006,10 @@
       <c r="I183" s="56"/>
       <c r="J183" s="32"/>
       <c r="K183" s="32" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="L183" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M183" s="27" t="s">
         <v>1062</v>
@@ -10983,10 +11039,10 @@
       <c r="I184" s="56"/>
       <c r="J184" s="32"/>
       <c r="K184" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L184" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M184" s="27" t="s">
         <v>1062</v>
@@ -11018,10 +11074,10 @@
       <c r="I185" s="56"/>
       <c r="J185" s="32"/>
       <c r="K185" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L185" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M185" s="27" t="s">
         <v>1062</v>
@@ -11053,10 +11109,10 @@
       <c r="I186" s="56"/>
       <c r="J186" s="32"/>
       <c r="K186" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L186" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M186" s="27" t="s">
         <v>1062</v>
@@ -11088,10 +11144,10 @@
       <c r="I187" s="56"/>
       <c r="J187" s="32"/>
       <c r="K187" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L187" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M187" s="27" t="s">
         <v>1062</v>
@@ -11123,10 +11179,10 @@
       <c r="I188" s="56"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L188" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M188" s="27" t="s">
         <v>1062</v>
@@ -11158,10 +11214,10 @@
       <c r="I189" s="56"/>
       <c r="J189" s="32"/>
       <c r="K189" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L189" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M189" s="27" t="s">
         <v>1062</v>
@@ -11193,10 +11249,10 @@
       <c r="I190" s="56"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L190" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M190" s="27" t="s">
         <v>1062</v>
@@ -11228,10 +11284,10 @@
       <c r="I191" s="56"/>
       <c r="J191" s="32"/>
       <c r="K191" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L191" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M191" s="27" t="s">
         <v>1062</v>
@@ -11263,10 +11319,10 @@
       <c r="I192" s="56"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L192" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M192" s="27" t="s">
         <v>1062</v>
@@ -11298,10 +11354,10 @@
       <c r="I193" s="56"/>
       <c r="J193" s="32"/>
       <c r="K193" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L193" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M193" s="27" t="s">
         <v>1062</v>
@@ -11337,10 +11393,10 @@
       </c>
       <c r="J194" s="32"/>
       <c r="K194" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L194" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M194" s="27" t="s">
         <v>1062</v>
@@ -11376,10 +11432,10 @@
       </c>
       <c r="J195" s="32"/>
       <c r="K195" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L195" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M195" s="27" t="s">
         <v>1062</v>
@@ -11411,10 +11467,10 @@
       <c r="I196" s="56"/>
       <c r="J196" s="32"/>
       <c r="K196" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L196" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M196" s="27" t="s">
         <v>1062</v>
@@ -11446,10 +11502,10 @@
       <c r="I197" s="56"/>
       <c r="J197" s="32"/>
       <c r="K197" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L197" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M197" s="27" t="s">
         <v>1062</v>
@@ -11481,10 +11537,10 @@
       <c r="I198" s="56"/>
       <c r="J198" s="32"/>
       <c r="K198" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L198" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M198" s="27" t="s">
         <v>1062</v>
@@ -11516,10 +11572,10 @@
       <c r="I199" s="56"/>
       <c r="J199" s="32"/>
       <c r="K199" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L199" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M199" s="27" t="s">
         <v>1062</v>
@@ -11551,10 +11607,10 @@
       <c r="I200" s="56"/>
       <c r="J200" s="32"/>
       <c r="K200" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L200" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M200" s="27" t="s">
         <v>1062</v>
@@ -11590,10 +11646,10 @@
       </c>
       <c r="J201" s="32"/>
       <c r="K201" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L201" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M201" s="27" t="s">
         <v>1062</v>
@@ -11629,10 +11685,10 @@
       </c>
       <c r="J202" s="32"/>
       <c r="K202" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L202" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M202" s="27" t="s">
         <v>1062</v>
@@ -11664,10 +11720,10 @@
       <c r="I203" s="56"/>
       <c r="J203" s="32"/>
       <c r="K203" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L203" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M203" s="27" t="s">
         <v>1062</v>
@@ -11703,10 +11759,10 @@
       </c>
       <c r="J204" s="32"/>
       <c r="K204" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L204" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M204" s="27" t="s">
         <v>1062</v>
@@ -11742,10 +11798,10 @@
       </c>
       <c r="J205" s="32"/>
       <c r="K205" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L205" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M205" s="27" t="s">
         <v>1062</v>
@@ -11777,10 +11833,10 @@
       <c r="I206" s="56"/>
       <c r="J206" s="32"/>
       <c r="K206" s="32" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="L206" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M206" s="27" t="s">
         <v>1062</v>
@@ -11810,10 +11866,10 @@
       <c r="I207" s="56"/>
       <c r="J207" s="32"/>
       <c r="K207" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L207" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M207" s="27" t="s">
         <v>1062</v>
@@ -11845,10 +11901,10 @@
       <c r="I208" s="56"/>
       <c r="J208" s="32"/>
       <c r="K208" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L208" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M208" s="27" t="s">
         <v>1062</v>
@@ -11880,10 +11936,10 @@
       <c r="I209" s="56"/>
       <c r="J209" s="32"/>
       <c r="K209" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L209" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M209" s="27" t="s">
         <v>1062</v>
@@ -11915,10 +11971,10 @@
       <c r="I210" s="56"/>
       <c r="J210" s="32"/>
       <c r="K210" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L210" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M210" s="27" t="s">
         <v>1062</v>
@@ -11950,10 +12006,10 @@
       <c r="I211" s="56"/>
       <c r="J211" s="32"/>
       <c r="K211" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L211" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M211" s="27" t="s">
         <v>1062</v>
@@ -11985,10 +12041,10 @@
       <c r="I212" s="56"/>
       <c r="J212" s="32"/>
       <c r="K212" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L212" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M212" s="27" t="s">
         <v>1062</v>
@@ -12020,10 +12076,10 @@
       <c r="I213" s="56"/>
       <c r="J213" s="32"/>
       <c r="K213" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L213" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M213" s="27" t="s">
         <v>1062</v>
@@ -12055,10 +12111,10 @@
       <c r="I214" s="56"/>
       <c r="J214" s="32"/>
       <c r="K214" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L214" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M214" s="27" t="s">
         <v>1062</v>
@@ -12090,10 +12146,10 @@
       <c r="I215" s="56"/>
       <c r="J215" s="32"/>
       <c r="K215" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L215" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M215" s="27" t="s">
         <v>1062</v>
@@ -12125,10 +12181,10 @@
       <c r="I216" s="56"/>
       <c r="J216" s="32"/>
       <c r="K216" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L216" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M216" s="27" t="s">
         <v>1062</v>
@@ -12160,10 +12216,10 @@
       <c r="I217" s="56"/>
       <c r="J217" s="32"/>
       <c r="K217" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L217" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M217" s="27" t="s">
         <v>1062</v>
@@ -12195,10 +12251,10 @@
       <c r="I218" s="56"/>
       <c r="J218" s="32"/>
       <c r="K218" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L218" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M218" s="27" t="s">
         <v>1062</v>
@@ -12230,10 +12286,10 @@
       <c r="I219" s="56"/>
       <c r="J219" s="32"/>
       <c r="K219" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L219" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M219" s="27" t="s">
         <v>1062</v>
@@ -12265,10 +12321,10 @@
       <c r="I220" s="56"/>
       <c r="J220" s="32"/>
       <c r="K220" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L220" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M220" s="27" t="s">
         <v>1062</v>
@@ -12300,10 +12356,10 @@
       <c r="I221" s="56"/>
       <c r="J221" s="32"/>
       <c r="K221" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L221" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M221" s="27" t="s">
         <v>1062</v>
@@ -12335,10 +12391,10 @@
       <c r="I222" s="56"/>
       <c r="J222" s="32"/>
       <c r="K222" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L222" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M222" s="27" t="s">
         <v>1062</v>
@@ -12370,10 +12426,10 @@
       <c r="I223" s="56"/>
       <c r="J223" s="32"/>
       <c r="K223" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L223" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M223" s="27" t="s">
         <v>1062</v>
@@ -12405,10 +12461,10 @@
       <c r="I224" s="56"/>
       <c r="J224" s="32"/>
       <c r="K224" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L224" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M224" s="27" t="s">
         <v>1062</v>
@@ -12440,10 +12496,10 @@
       <c r="I225" s="56"/>
       <c r="J225" s="32"/>
       <c r="K225" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L225" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M225" s="27" t="s">
         <v>1062</v>
@@ -12475,10 +12531,10 @@
       <c r="I226" s="56"/>
       <c r="J226" s="32"/>
       <c r="K226" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L226" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M226" s="27" t="s">
         <v>1062</v>
@@ -12510,10 +12566,10 @@
       <c r="I227" s="56"/>
       <c r="J227" s="32"/>
       <c r="K227" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L227" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M227" s="27" t="s">
         <v>1062</v>
@@ -12545,10 +12601,10 @@
       <c r="I228" s="56"/>
       <c r="J228" s="32"/>
       <c r="K228" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L228" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M228" s="27" t="s">
         <v>1062</v>
@@ -12580,10 +12636,10 @@
       <c r="I229" s="56"/>
       <c r="J229" s="32"/>
       <c r="K229" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L229" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M229" s="27" t="s">
         <v>1062</v>
@@ -12615,10 +12671,10 @@
       <c r="I230" s="56"/>
       <c r="J230" s="32"/>
       <c r="K230" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L230" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M230" s="27" t="s">
         <v>1062</v>
@@ -12650,10 +12706,10 @@
       <c r="I231" s="56"/>
       <c r="J231" s="32"/>
       <c r="K231" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L231" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M231" s="27" t="s">
         <v>1062</v>
@@ -12685,10 +12741,10 @@
       <c r="I232" s="56"/>
       <c r="J232" s="32"/>
       <c r="K232" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L232" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M232" s="27" t="s">
         <v>1062</v>
@@ -12720,10 +12776,10 @@
       <c r="I233" s="56"/>
       <c r="J233" s="32"/>
       <c r="K233" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L233" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M233" s="27" t="s">
         <v>1062</v>
@@ -12755,10 +12811,10 @@
       <c r="I234" s="56"/>
       <c r="J234" s="32"/>
       <c r="K234" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L234" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M234" s="27" t="s">
         <v>1062</v>
@@ -12790,10 +12846,10 @@
       <c r="I235" s="56"/>
       <c r="J235" s="32"/>
       <c r="K235" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L235" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M235" s="27" t="s">
         <v>1062</v>
@@ -12825,10 +12881,10 @@
       <c r="I236" s="56"/>
       <c r="J236" s="32"/>
       <c r="K236" s="32" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="L236" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M236" s="27" t="s">
         <v>1062</v>
@@ -12858,10 +12914,10 @@
       <c r="I237" s="56"/>
       <c r="J237" s="32"/>
       <c r="K237" s="32" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="L237" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M237" s="27" t="s">
         <v>1062</v>
@@ -12893,10 +12949,10 @@
       <c r="I238" s="56"/>
       <c r="J238" s="32"/>
       <c r="K238" s="32" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="L238" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M238" s="27" t="s">
         <v>1062</v>
@@ -12928,10 +12984,10 @@
       <c r="I239" s="56"/>
       <c r="J239" s="32"/>
       <c r="K239" s="32" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="L239" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M239" s="27" t="s">
         <v>1062</v>
@@ -12963,10 +13019,10 @@
       <c r="I240" s="56"/>
       <c r="J240" s="32"/>
       <c r="K240" s="32" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="L240" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M240" s="27" t="s">
         <v>1062</v>
@@ -12998,10 +13054,10 @@
       <c r="I241" s="56"/>
       <c r="J241" s="32"/>
       <c r="K241" s="32" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="L241" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M241" s="27" t="s">
         <v>1062</v>
@@ -13031,10 +13087,10 @@
       <c r="I242" s="56"/>
       <c r="J242" s="32"/>
       <c r="K242" s="32" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="L242" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M242" s="27" t="s">
         <v>1062</v>
@@ -13066,10 +13122,10 @@
       <c r="I243" s="56"/>
       <c r="J243" s="32"/>
       <c r="K243" s="32" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="L243" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M243" s="27" t="s">
         <v>1062</v>
@@ -13101,10 +13157,10 @@
       <c r="I244" s="56"/>
       <c r="J244" s="32"/>
       <c r="K244" s="32" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="L244" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M244" s="27" t="s">
         <v>1062</v>
@@ -13136,10 +13192,10 @@
       <c r="I245" s="56"/>
       <c r="J245" s="32"/>
       <c r="K245" s="32" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="L245" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M245" s="32" t="s">
         <v>1062</v>
@@ -13171,10 +13227,10 @@
       <c r="I246" s="56"/>
       <c r="J246" s="32"/>
       <c r="K246" s="32" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="L246" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M246" s="32" t="s">
         <v>1062</v>
@@ -13206,10 +13262,10 @@
       <c r="I247" s="56"/>
       <c r="J247" s="32"/>
       <c r="K247" s="32" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="L247" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M247" s="32" t="s">
         <v>1062</v>
@@ -13239,10 +13295,10 @@
       <c r="I248" s="56"/>
       <c r="J248" s="32"/>
       <c r="K248" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L248" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M248" s="32" t="s">
         <v>1062</v>
@@ -13274,10 +13330,10 @@
       <c r="I249" s="56"/>
       <c r="J249" s="32"/>
       <c r="K249" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L249" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M249" s="32" t="s">
         <v>1062</v>
@@ -13309,10 +13365,10 @@
       <c r="I250" s="56"/>
       <c r="J250" s="32"/>
       <c r="K250" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L250" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M250" s="32" t="s">
         <v>1062</v>
@@ -13344,10 +13400,10 @@
       <c r="I251" s="56"/>
       <c r="J251" s="32"/>
       <c r="K251" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L251" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M251" s="32" t="s">
         <v>1062</v>
@@ -13379,10 +13435,10 @@
       <c r="I252" s="56"/>
       <c r="J252" s="32"/>
       <c r="K252" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L252" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M252" s="32" t="s">
         <v>1062</v>
@@ -13414,10 +13470,10 @@
       <c r="I253" s="56"/>
       <c r="J253" s="32"/>
       <c r="K253" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L253" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M253" s="32" t="s">
         <v>1062</v>
@@ -13449,10 +13505,10 @@
       <c r="I254" s="56"/>
       <c r="J254" s="32"/>
       <c r="K254" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L254" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M254" s="32" t="s">
         <v>1062</v>
@@ -13486,10 +13542,10 @@
       <c r="I255" s="56"/>
       <c r="J255" s="32"/>
       <c r="K255" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L255" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M255" s="32" t="s">
         <v>1062</v>
@@ -13523,10 +13579,10 @@
       <c r="I256" s="56"/>
       <c r="J256" s="32"/>
       <c r="K256" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L256" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M256" s="32" t="s">
         <v>1062</v>
@@ -13558,10 +13614,10 @@
       <c r="I257" s="56"/>
       <c r="J257" s="32"/>
       <c r="K257" s="32" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="L257" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M257" s="32" t="s">
         <v>1062</v>
@@ -13591,10 +13647,10 @@
       <c r="I258" s="56"/>
       <c r="J258" s="32"/>
       <c r="K258" s="32" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="L258" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M258" s="32" t="s">
         <v>1062</v>
@@ -13626,10 +13682,10 @@
       <c r="I259" s="56"/>
       <c r="J259" s="32"/>
       <c r="K259" s="32" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="L259" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M259" s="32" t="s">
         <v>1062</v>
@@ -13661,10 +13717,10 @@
       <c r="I260" s="56"/>
       <c r="J260" s="32"/>
       <c r="K260" s="32" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="L260" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M260" s="32" t="s">
         <v>1062</v>
@@ -13698,10 +13754,10 @@
       <c r="I261" s="56"/>
       <c r="J261" s="32"/>
       <c r="K261" s="32" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="L261" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M261" s="32" t="s">
         <v>1062</v>
@@ -13735,10 +13791,10 @@
       <c r="I262" s="56"/>
       <c r="J262" s="32"/>
       <c r="K262" s="32" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="L262" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M262" s="32" t="s">
         <v>1062</v>
@@ -13770,10 +13826,10 @@
       <c r="I263" s="56"/>
       <c r="J263" s="32"/>
       <c r="K263" s="32" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="L263" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M263" s="32" t="s">
         <v>1062</v>
@@ -13805,10 +13861,10 @@
       <c r="I264" s="56"/>
       <c r="J264" s="32"/>
       <c r="K264" s="32" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="L264" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M264" s="32" t="s">
         <v>1062</v>
@@ -13838,10 +13894,10 @@
       <c r="I265" s="56"/>
       <c r="J265" s="32"/>
       <c r="K265" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L265" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M265" s="32" t="s">
         <v>1062</v>
@@ -13873,10 +13929,10 @@
       <c r="I266" s="56"/>
       <c r="J266" s="32"/>
       <c r="K266" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L266" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M266" s="32" t="s">
         <v>1062</v>
@@ -13908,10 +13964,10 @@
       <c r="I267" s="56"/>
       <c r="J267" s="32"/>
       <c r="K267" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L267" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M267" s="32" t="s">
         <v>1062</v>
@@ -13943,10 +13999,10 @@
       <c r="I268" s="56"/>
       <c r="J268" s="32"/>
       <c r="K268" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L268" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M268" s="32" t="s">
         <v>1062</v>
@@ -13978,10 +14034,10 @@
       <c r="I269" s="56"/>
       <c r="J269" s="32"/>
       <c r="K269" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L269" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M269" s="32" t="s">
         <v>1062</v>
@@ -14013,10 +14069,10 @@
       <c r="I270" s="56"/>
       <c r="J270" s="32"/>
       <c r="K270" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L270" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M270" s="32" t="s">
         <v>1062</v>
@@ -14048,10 +14104,10 @@
       <c r="I271" s="56"/>
       <c r="J271" s="32"/>
       <c r="K271" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L271" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M271" s="32" t="s">
         <v>1062</v>
@@ -14083,10 +14139,10 @@
       <c r="I272" s="56"/>
       <c r="J272" s="32"/>
       <c r="K272" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L272" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M272" s="32" t="s">
         <v>1062</v>
@@ -14118,10 +14174,10 @@
       <c r="I273" s="56"/>
       <c r="J273" s="32"/>
       <c r="K273" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L273" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M273" s="32" t="s">
         <v>1062</v>
@@ -14153,10 +14209,10 @@
       <c r="I274" s="56"/>
       <c r="J274" s="32"/>
       <c r="K274" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L274" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M274" s="32" t="s">
         <v>1062</v>
@@ -14188,10 +14244,10 @@
       <c r="I275" s="56"/>
       <c r="J275" s="32"/>
       <c r="K275" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L275" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M275" s="32" t="s">
         <v>1062</v>
@@ -14223,10 +14279,10 @@
       <c r="I276" s="56"/>
       <c r="J276" s="32"/>
       <c r="K276" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L276" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M276" s="32" t="s">
         <v>1062</v>
@@ -14258,10 +14314,10 @@
       <c r="I277" s="56"/>
       <c r="J277" s="32"/>
       <c r="K277" s="32" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="L277" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M277" s="32" t="s">
         <v>1062</v>
@@ -14562,274 +14618,265 @@
     <hyperlink ref="E34" r:id="rId128" xr:uid="{D8EC1A48-443B-49CD-8D26-7CC2AA23D135}"/>
     <hyperlink ref="E35" r:id="rId129" xr:uid="{91C75FD7-25DF-42C8-AD4B-B2402A824327}"/>
     <hyperlink ref="E36" r:id="rId130" xr:uid="{99A72291-0FF9-459A-85D7-36F2B3051B7B}"/>
-    <hyperlink ref="B27" r:id="rId131" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{7F51B6B3-1B6F-4778-BCFF-9D0D8B93E835}"/>
-    <hyperlink ref="E63" r:id="rId132" xr:uid="{0B886457-8AB9-4712-BE77-451FB95C6F9F}"/>
-    <hyperlink ref="E39" r:id="rId133" xr:uid="{9B1B8DB9-DF2A-4D3C-8C85-2322F1EA4B4E}"/>
-    <hyperlink ref="B25" r:id="rId134" xr:uid="{0B261E0C-9123-4445-954A-9D8C9B658D44}"/>
-    <hyperlink ref="C8" r:id="rId135" xr:uid="{8DBB0E3C-12E0-4ECD-8E5A-8FF6E1D63DC7}"/>
-    <hyperlink ref="B9" r:id="rId136" xr:uid="{9049C9D3-59FC-4186-9849-EE18D595D102}"/>
-    <hyperlink ref="B10" r:id="rId137" xr:uid="{D03C08EE-FAD9-451A-B164-33EDB0DB69AC}"/>
-    <hyperlink ref="B12" r:id="rId138" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/02About%20the%20authors.html" xr:uid="{9DB91834-4105-4172-ADA0-7AAD7C473A32}"/>
-    <hyperlink ref="L34" r:id="rId139" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CB3E79BD-6394-47FD-AC9A-691D757C8EEC}"/>
-    <hyperlink ref="L35" r:id="rId140" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F5F615A3-C1F0-4FEC-916E-AFF4A5EACA64}"/>
-    <hyperlink ref="L36" r:id="rId141" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{278EBF9A-2216-40FB-827E-74BA612AD8BE}"/>
-    <hyperlink ref="L37" r:id="rId142" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E42C7D67-C252-40CC-93E1-3374C60542A5}"/>
-    <hyperlink ref="L38" r:id="rId143" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A69D3E3B-ABE6-46AF-9CA2-426AF8E885C7}"/>
-    <hyperlink ref="L42" r:id="rId144" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C5881908-AD6B-449F-88F5-CC8F544AA5E3}"/>
-    <hyperlink ref="L46" r:id="rId145" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BB05B484-C5E4-46CF-89B7-98D1661D001D}"/>
-    <hyperlink ref="L50" r:id="rId146" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C2E65B7B-B331-4507-8D52-5A93FDE8DA79}"/>
-    <hyperlink ref="L54" r:id="rId147" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{384AA51D-A5DC-4119-AF0A-4BD44BC68C19}"/>
-    <hyperlink ref="L58" r:id="rId148" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A6951591-8A3B-448F-9043-B02DB820C883}"/>
-    <hyperlink ref="L62" r:id="rId149" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A6B9C716-A31D-49FD-8E69-FEE42AACF1DF}"/>
-    <hyperlink ref="L66" r:id="rId150" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4B48E133-5738-4DF2-B5CD-0CA87CE52D70}"/>
-    <hyperlink ref="L70" r:id="rId151" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E9020B38-A1EA-48E4-8340-9B4FCDC63BB6}"/>
-    <hyperlink ref="L74" r:id="rId152" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B49851C0-0DB5-4DB6-8DFD-C051A230FD34}"/>
-    <hyperlink ref="L78" r:id="rId153" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{271EE2F2-89F0-4999-B130-94B0C0A0B716}"/>
-    <hyperlink ref="L82" r:id="rId154" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5C525A2B-15E6-4F9A-9183-8DD9535B9618}"/>
-    <hyperlink ref="L86" r:id="rId155" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6C8F404E-6D7F-4948-9754-DD620C6B6146}"/>
-    <hyperlink ref="L90" r:id="rId156" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DB279ACA-6062-4BE4-BBCC-40FDEED21C25}"/>
-    <hyperlink ref="L94" r:id="rId157" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4E90C937-CA16-45AB-99F3-C2AEAC1CB7F8}"/>
-    <hyperlink ref="L98" r:id="rId158" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{04BCE300-1F7C-47F7-9A88-4E6F5A1C60C9}"/>
-    <hyperlink ref="L102" r:id="rId159" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D0F07E63-373A-436D-AF9B-83E05CAE7CCC}"/>
-    <hyperlink ref="L106" r:id="rId160" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{45D8A7B9-CF8B-425F-8D7D-9A64A370C498}"/>
-    <hyperlink ref="L110" r:id="rId161" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{407BEDCD-8BAB-438A-9F87-53E7F72B8E83}"/>
-    <hyperlink ref="L114" r:id="rId162" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2B3411EC-5AD3-42DE-A4AA-B892EC4CFF4A}"/>
-    <hyperlink ref="L118" r:id="rId163" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A933C6C5-ECF5-4273-8C29-D01DC233BB51}"/>
-    <hyperlink ref="L122" r:id="rId164" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6BFDF12A-9865-48D2-B544-8F2C5034E456}"/>
-    <hyperlink ref="L126" r:id="rId165" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E0DAF296-E5A7-4CA1-B8E2-1E4DB801A2F3}"/>
-    <hyperlink ref="L130" r:id="rId166" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{88F2EB19-37BA-464D-80A9-F40863778A56}"/>
-    <hyperlink ref="L134" r:id="rId167" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EE925EA2-0FB1-46EB-B24B-F824122A44E6}"/>
-    <hyperlink ref="L138" r:id="rId168" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{15CD14B3-3B9B-4915-A5B0-3AEBF5B8865A}"/>
-    <hyperlink ref="L142" r:id="rId169" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{000F8552-2647-4F96-8E73-FF190E4B3907}"/>
-    <hyperlink ref="L146" r:id="rId170" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{3DA4F56B-50A1-4981-AD0D-C71A88912DBD}"/>
-    <hyperlink ref="L150" r:id="rId171" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7FDD363C-A3BB-4CAE-AE96-A7EA6697BE87}"/>
-    <hyperlink ref="L154" r:id="rId172" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D28C0CC4-2DE7-4AC5-931A-4E92B082AE7B}"/>
-    <hyperlink ref="L158" r:id="rId173" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2ECA1824-002D-44DA-8AF0-0D43308E8569}"/>
-    <hyperlink ref="L162" r:id="rId174" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4B19B385-78E8-4DC7-A9B1-941F2EA86EE2}"/>
-    <hyperlink ref="L166" r:id="rId175" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4CD045CF-019E-4D4F-8F46-7BA1A3F46A2E}"/>
-    <hyperlink ref="L170" r:id="rId176" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2545A8C8-5423-4375-89F7-EA905B36ADF8}"/>
-    <hyperlink ref="L174" r:id="rId177" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CB2E050F-4D4E-4FEA-BF7E-21F66502C924}"/>
-    <hyperlink ref="L178" r:id="rId178" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{56F548EA-D6B6-42BA-BB2E-1F2B231D7C3E}"/>
-    <hyperlink ref="L182" r:id="rId179" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{88877C74-6F97-43C4-815E-E177EBE2EF11}"/>
-    <hyperlink ref="L186" r:id="rId180" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{70078424-DD2C-4847-BCB7-F454A3162FC2}"/>
-    <hyperlink ref="L190" r:id="rId181" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0E6517EB-4855-41DE-987F-143892E2B7C1}"/>
-    <hyperlink ref="L194" r:id="rId182" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{782FDB4D-E6D2-45B9-878C-BE56E11D270A}"/>
-    <hyperlink ref="L198" r:id="rId183" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{86AC3898-4C59-4216-BEF9-29B21713453F}"/>
-    <hyperlink ref="L202" r:id="rId184" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0BF76340-A769-4B5B-8E2B-0FD8405A7844}"/>
-    <hyperlink ref="L206" r:id="rId185" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EF1FD8A3-B6C1-4EA6-AE86-65BE742AC40B}"/>
-    <hyperlink ref="L210" r:id="rId186" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6859DA30-B43E-4C0A-AA9F-2FC8794AFF42}"/>
-    <hyperlink ref="L214" r:id="rId187" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BE4D8A2D-827D-41E5-8A9E-A5CE9D908B42}"/>
-    <hyperlink ref="L218" r:id="rId188" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E3CD281C-17A6-4937-9E6D-9D0E74DC683C}"/>
-    <hyperlink ref="L222" r:id="rId189" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B277ADAB-9569-4012-8E2B-1AE67BF47AE0}"/>
-    <hyperlink ref="L226" r:id="rId190" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{68F9DE8D-DAB9-4472-B057-FC76DB29B45F}"/>
-    <hyperlink ref="L230" r:id="rId191" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{826571F9-51BC-4DDE-A916-A170141BF315}"/>
-    <hyperlink ref="L234" r:id="rId192" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{9C5B3FF8-B36A-4F89-8A77-F8A6E4937D4E}"/>
-    <hyperlink ref="L238" r:id="rId193" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1193A72D-1EF4-4467-9D1B-6815C2DE1470}"/>
-    <hyperlink ref="L242" r:id="rId194" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4E0FF932-A770-46BE-B1B1-C3FFBD0CD661}"/>
-    <hyperlink ref="L246" r:id="rId195" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EB815369-4D6A-4437-A061-E196F51903FA}"/>
-    <hyperlink ref="L250" r:id="rId196" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{318C3648-7B72-4918-B38A-CF1EF4A88545}"/>
-    <hyperlink ref="L254" r:id="rId197" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0BBD7D6B-1DD3-43D6-8258-B44668713C6F}"/>
-    <hyperlink ref="L258" r:id="rId198" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{93F3205E-2B9E-493C-8403-ECA1835F1C9E}"/>
-    <hyperlink ref="L262" r:id="rId199" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0508569E-0D73-4B55-B4E6-D07B44434D59}"/>
-    <hyperlink ref="L266" r:id="rId200" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AE685D0A-D4A5-4F2D-9769-CB5645F2AE8C}"/>
-    <hyperlink ref="L270" r:id="rId201" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0942CB22-9E70-4BB4-8887-BAF6127F6A93}"/>
-    <hyperlink ref="L274" r:id="rId202" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5BF9E46E-15C4-4066-B2E6-78BC95C81C6C}"/>
-    <hyperlink ref="L39" r:id="rId203" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{30A42CBA-DD18-467F-9C31-F6FE20395F12}"/>
-    <hyperlink ref="L43" r:id="rId204" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5A22AFAB-6468-4305-AD73-0CF97A30E89A}"/>
-    <hyperlink ref="L47" r:id="rId205" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A894C31D-B0B3-40F6-BA59-DCF868A0C957}"/>
-    <hyperlink ref="L51" r:id="rId206" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D23DA804-39BD-4AEE-8663-7A6F4D17FEFA}"/>
-    <hyperlink ref="L55" r:id="rId207" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E56FB670-8B05-410B-862D-B206DFE828F1}"/>
-    <hyperlink ref="L59" r:id="rId208" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8D513C73-0385-4B20-91E6-5018B06FB850}"/>
-    <hyperlink ref="L63" r:id="rId209" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5BE35CB8-C72D-4045-BA1A-F17E3F258A20}"/>
-    <hyperlink ref="L67" r:id="rId210" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BB03F070-978E-47EB-BE13-510499AFD277}"/>
-    <hyperlink ref="L71" r:id="rId211" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{73FC3383-83C8-43ED-A91E-628A288D9395}"/>
-    <hyperlink ref="L75" r:id="rId212" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{78E3B867-8170-44BF-827E-6441CA1C2CD0}"/>
-    <hyperlink ref="L79" r:id="rId213" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CC968019-5D38-4E3D-B76A-490EF3E1AF7A}"/>
-    <hyperlink ref="L83" r:id="rId214" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{709FD2AB-D563-4156-B0D3-CBDCE5FC876F}"/>
-    <hyperlink ref="L87" r:id="rId215" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8AFE6D1F-27CD-43CC-A3B7-BE202F7ABB64}"/>
-    <hyperlink ref="L91" r:id="rId216" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A1D6BFA7-BB0A-490A-87DE-3F2989AB6412}"/>
-    <hyperlink ref="L95" r:id="rId217" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{96228920-6203-4418-A1D4-16DFFB530584}"/>
-    <hyperlink ref="L99" r:id="rId218" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FD3B19A9-F2F6-4A0E-9A24-22FFEE18B162}"/>
-    <hyperlink ref="L103" r:id="rId219" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A0F35CCF-773B-4A45-980D-174373464D93}"/>
-    <hyperlink ref="L107" r:id="rId220" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7266C1D8-99A6-4933-AD15-6083CA68C66B}"/>
-    <hyperlink ref="L111" r:id="rId221" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CB081986-B9B5-4D9A-A30B-41E65BAA2B03}"/>
-    <hyperlink ref="L115" r:id="rId222" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{88E02967-8C20-4A8B-820D-1A9B1D2A239D}"/>
-    <hyperlink ref="L119" r:id="rId223" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5032FF67-F514-4AC7-9ED9-86936D11C989}"/>
-    <hyperlink ref="L123" r:id="rId224" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{980ECBA1-CE6C-4F9A-BCCA-498D9933620B}"/>
-    <hyperlink ref="L127" r:id="rId225" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A3D0F967-DB8F-47F4-89BA-4CD45013467C}"/>
-    <hyperlink ref="L131" r:id="rId226" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F9EAD012-17B1-4863-8FFA-DA7FB15B4704}"/>
-    <hyperlink ref="L135" r:id="rId227" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CA95C6AF-B27A-42AF-8CB2-B0C8E4EF8232}"/>
-    <hyperlink ref="L139" r:id="rId228" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4968B8D1-1D97-4C9C-B97D-4334D24C3427}"/>
-    <hyperlink ref="L143" r:id="rId229" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{555B537C-B9B7-4FAD-A13F-DC22ED3EA4FF}"/>
-    <hyperlink ref="L147" r:id="rId230" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{097A3001-1F5F-448D-BE91-B846A20946BF}"/>
-    <hyperlink ref="L151" r:id="rId231" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6B1D3378-752F-4BAC-8DB4-831C610823E4}"/>
-    <hyperlink ref="L155" r:id="rId232" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0C853A69-79FF-4051-BB65-8096116EFE05}"/>
-    <hyperlink ref="L159" r:id="rId233" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BDB03E03-6E05-420B-B6F3-DD509A13AA69}"/>
-    <hyperlink ref="L163" r:id="rId234" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0E593F0C-E94A-4192-B365-6B1BF3D75FE3}"/>
-    <hyperlink ref="L167" r:id="rId235" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4C0A014B-F1BC-4D85-892C-5401BB07C8F9}"/>
-    <hyperlink ref="L171" r:id="rId236" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DACFF655-3EB2-49BA-97BC-7CA8DE3EBAEF}"/>
-    <hyperlink ref="L175" r:id="rId237" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{12E6FF77-73A7-4FB8-A00D-F247483FC12C}"/>
-    <hyperlink ref="L179" r:id="rId238" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AE645C7B-63D5-4015-A28D-908F7BF75F66}"/>
-    <hyperlink ref="L183" r:id="rId239" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{81FFA0EB-02DD-4EA5-8C05-08CACC157220}"/>
-    <hyperlink ref="L187" r:id="rId240" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8464762C-F21A-4CDB-8431-52DBE700EF69}"/>
-    <hyperlink ref="L191" r:id="rId241" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1E6DB17F-AEB3-4A28-958C-C86D718E6D69}"/>
-    <hyperlink ref="L195" r:id="rId242" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AB2B88FF-BA42-4A3E-8988-89AB43174E5E}"/>
-    <hyperlink ref="L199" r:id="rId243" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{98C388BB-DC1C-4589-9234-F0D03FAB986F}"/>
-    <hyperlink ref="L203" r:id="rId244" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F2A8149E-C4D1-4E10-8ED8-C1CA95C38F4E}"/>
-    <hyperlink ref="L207" r:id="rId245" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B27CE42B-FB56-445C-AA4C-CAE253C53384}"/>
-    <hyperlink ref="L211" r:id="rId246" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2F72E7F4-A004-4AA4-A0BC-373CA95B0FC8}"/>
-    <hyperlink ref="L215" r:id="rId247" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{71D97D79-1841-43F8-8E00-29BB9E4F634D}"/>
-    <hyperlink ref="L219" r:id="rId248" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C57BE990-59AC-412B-B718-CBD3A5F98AFF}"/>
-    <hyperlink ref="L223" r:id="rId249" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{252723D2-D506-43E4-AA8E-D1AC81C94F2D}"/>
-    <hyperlink ref="L227" r:id="rId250" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{480F6310-1D87-4C3A-860F-86B3FACDD196}"/>
-    <hyperlink ref="L231" r:id="rId251" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F3793526-865F-4475-9797-A39D3B78171B}"/>
-    <hyperlink ref="L235" r:id="rId252" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D751496D-50FA-40D6-8093-ADC3D3FF8073}"/>
-    <hyperlink ref="L239" r:id="rId253" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8AF0ECE2-B8BE-45DA-B1C0-6F647DDD5E3F}"/>
-    <hyperlink ref="L243" r:id="rId254" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1CC92C21-EC70-434D-8DB7-16DAE06AB483}"/>
-    <hyperlink ref="L247" r:id="rId255" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A820BB9D-32C7-431C-89F9-BA0A82C0EC5C}"/>
-    <hyperlink ref="L251" r:id="rId256" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BA3B7869-E9DF-4EAE-9C15-E9EE4533BE99}"/>
-    <hyperlink ref="L255" r:id="rId257" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{236D1A28-656A-468B-9DE9-23E1519F7951}"/>
-    <hyperlink ref="L259" r:id="rId258" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8EFC5F39-0491-4EB3-9EE0-8D3FD74253A7}"/>
-    <hyperlink ref="L263" r:id="rId259" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FA3A2069-D9DF-45C6-BDAB-8DF6F1F69E05}"/>
-    <hyperlink ref="L267" r:id="rId260" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{42C16B11-14D3-45E3-87FB-C661497704DA}"/>
-    <hyperlink ref="L271" r:id="rId261" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B753BF0E-6479-432B-8FD6-14CD1A990CC9}"/>
-    <hyperlink ref="L275" r:id="rId262" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1B11A110-44A6-4C92-94FC-BF0648BADC68}"/>
-    <hyperlink ref="L40" r:id="rId263" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5CCA99B3-866E-43B6-A611-4011A70232F3}"/>
-    <hyperlink ref="L44" r:id="rId264" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{60163CA2-837F-43E2-A306-DBAD49073A6A}"/>
-    <hyperlink ref="L48" r:id="rId265" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7C035D9F-54E0-43B8-BE0D-31005E151DFD}"/>
-    <hyperlink ref="L52" r:id="rId266" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E5BF080A-7169-457C-9FD9-974AA2A3EA96}"/>
-    <hyperlink ref="L56" r:id="rId267" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C419F04A-C54F-491B-9CAA-EA6CCE9645F3}"/>
-    <hyperlink ref="L60" r:id="rId268" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{676681FE-C4E1-4AE3-9381-18BF4E9A8C07}"/>
-    <hyperlink ref="L64" r:id="rId269" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BA256E0C-40BE-4E65-A385-BF6790B75104}"/>
-    <hyperlink ref="L68" r:id="rId270" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5CE921C2-4E7E-4BC3-AC98-8751264618A2}"/>
-    <hyperlink ref="L72" r:id="rId271" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{68C94CE0-F780-4EFF-A1A8-29A6CD247330}"/>
-    <hyperlink ref="L76" r:id="rId272" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FC129378-D596-4BC1-85FF-225DA48BE830}"/>
-    <hyperlink ref="L80" r:id="rId273" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6F208267-F557-49BB-9BF3-DD87EDDC8358}"/>
-    <hyperlink ref="L84" r:id="rId274" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{29FA809A-27F9-4E8B-8D23-5CA7F7981C7E}"/>
-    <hyperlink ref="L88" r:id="rId275" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5C269D3B-1522-4A46-BC70-FD2C7846FE01}"/>
-    <hyperlink ref="L92" r:id="rId276" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DDBF9AC4-0578-4EA5-91E5-EF400563AFB8}"/>
-    <hyperlink ref="L96" r:id="rId277" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BBBAB2BB-66BC-4907-8FF4-F8F983CA027E}"/>
-    <hyperlink ref="L100" r:id="rId278" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{294A4606-458C-441F-8E41-924881F3B04A}"/>
-    <hyperlink ref="L104" r:id="rId279" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4C91B85F-765B-497E-A795-D052E85F5F55}"/>
-    <hyperlink ref="L108" r:id="rId280" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FF989142-2B51-4C57-9039-6B44F89F2286}"/>
-    <hyperlink ref="L112" r:id="rId281" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{21ACE121-FF7A-4B33-867E-91F244C80EB4}"/>
-    <hyperlink ref="L116" r:id="rId282" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1D0130E9-573E-44D8-AD88-388FECD85C16}"/>
-    <hyperlink ref="L120" r:id="rId283" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{774829A9-46DF-4BDE-99C6-1275D3F2E271}"/>
-    <hyperlink ref="L124" r:id="rId284" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AA566C8D-29BC-4A2C-B261-447942C09FE9}"/>
-    <hyperlink ref="L128" r:id="rId285" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{13B9C285-B467-4AF1-AC33-2F017DA31B03}"/>
-    <hyperlink ref="L132" r:id="rId286" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{70B06375-FA01-4E6D-BD77-6719E0D8DD2A}"/>
-    <hyperlink ref="L136" r:id="rId287" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A24C20C8-DFF5-4CBF-9ADB-CAC93071C843}"/>
-    <hyperlink ref="L140" r:id="rId288" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6A175C0E-3DC9-46EA-BBCF-11C27BF0CAB8}"/>
-    <hyperlink ref="L144" r:id="rId289" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4088B65F-6821-4CC3-95A7-3743BFBA99F7}"/>
-    <hyperlink ref="L148" r:id="rId290" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7FF78193-6C29-41F2-BC58-2619AA6F81DB}"/>
-    <hyperlink ref="L152" r:id="rId291" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6A7D753C-BD96-40F8-B028-22A4193AE97D}"/>
-    <hyperlink ref="L156" r:id="rId292" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DCA6DC69-4135-4519-B98A-FA4E4C9FD6C5}"/>
-    <hyperlink ref="L160" r:id="rId293" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B343BE67-86D0-4FB5-8434-555231AED175}"/>
-    <hyperlink ref="L164" r:id="rId294" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{31DC2E97-749B-4FB0-AC9C-3AA71EE76372}"/>
-    <hyperlink ref="L168" r:id="rId295" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4EAAACC7-D31C-4207-83A9-0642D09F4D8D}"/>
-    <hyperlink ref="L172" r:id="rId296" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{13AF4C94-9498-407A-AFB8-BE3F38237FD2}"/>
-    <hyperlink ref="L176" r:id="rId297" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8F7D3974-22FD-4906-9F5C-5D9EA98DAF04}"/>
-    <hyperlink ref="L180" r:id="rId298" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8EE35985-963D-4B76-91DA-5142551084B8}"/>
-    <hyperlink ref="L184" r:id="rId299" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6A81AD3A-73D5-4B78-8C3C-F7473E5C0A9C}"/>
-    <hyperlink ref="L188" r:id="rId300" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DC984535-9A7B-4AB4-8DA7-CA5DB8609120}"/>
-    <hyperlink ref="L192" r:id="rId301" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{29B6C9A9-646B-430C-8123-3BCE48A33F81}"/>
-    <hyperlink ref="L196" r:id="rId302" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{10D16AE2-36F6-4868-9DB7-C03857B691DB}"/>
-    <hyperlink ref="L200" r:id="rId303" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E9C6F802-D408-4710-90E8-3CFA4233A1CE}"/>
-    <hyperlink ref="L204" r:id="rId304" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B4403BD4-6BD6-44F0-9746-17390040B9DB}"/>
-    <hyperlink ref="L208" r:id="rId305" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{050B8865-C8DE-4160-880A-B5D6524E9CB0}"/>
-    <hyperlink ref="L212" r:id="rId306" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{66C262F9-2897-41D2-A86A-D0D64AD22593}"/>
-    <hyperlink ref="L216" r:id="rId307" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F1B703C3-2898-4AC9-9795-DE7067FC446A}"/>
-    <hyperlink ref="L220" r:id="rId308" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{34AEBBDD-1251-4A9A-AC33-8E55F0780F6A}"/>
-    <hyperlink ref="L224" r:id="rId309" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CF4F3331-D149-497C-9342-B6502D8EE3A0}"/>
-    <hyperlink ref="L228" r:id="rId310" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{55B893E1-1CDE-4E5C-8319-16A24C45FDB5}"/>
-    <hyperlink ref="L232" r:id="rId311" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D698468E-B9B5-4A59-AA9C-59D1906B42FC}"/>
-    <hyperlink ref="L236" r:id="rId312" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6B9A4D10-FD80-4A84-9EE4-4199786D92A6}"/>
-    <hyperlink ref="L240" r:id="rId313" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{16005748-8FFE-42D3-AEDC-33B24C0F45CB}"/>
-    <hyperlink ref="L244" r:id="rId314" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D8F7454F-9017-418C-B0DE-1D1979473AEF}"/>
-    <hyperlink ref="L248" r:id="rId315" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F248501B-D943-4136-B872-7C7BAE5EAC28}"/>
-    <hyperlink ref="L252" r:id="rId316" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{890D5642-432C-4F1B-BDEE-2BDEC871BF0B}"/>
-    <hyperlink ref="L256" r:id="rId317" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D4C728F3-C78C-4F15-8157-2EDE92E30400}"/>
-    <hyperlink ref="L260" r:id="rId318" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EC6EE0FB-897B-47E1-9E59-EAF768DB0B3F}"/>
-    <hyperlink ref="L264" r:id="rId319" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8F7614C2-098F-47E8-83F6-DC495F23DE1F}"/>
-    <hyperlink ref="L268" r:id="rId320" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{3C6C3E25-4480-4ADB-B0E0-5C03855D1CAB}"/>
-    <hyperlink ref="L272" r:id="rId321" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8E6D8811-B7C5-455F-A9EC-71F4128C3FA2}"/>
-    <hyperlink ref="L276" r:id="rId322" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A12DC7B9-C05B-473D-BA94-403F4B43CFD0}"/>
-    <hyperlink ref="L41" r:id="rId323" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4C34C87B-EC3C-4277-8F11-99DE8A31B481}"/>
-    <hyperlink ref="L45" r:id="rId324" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{9958797F-909B-410D-9887-AF4CD4052C30}"/>
-    <hyperlink ref="L49" r:id="rId325" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{63A5D804-F181-41C0-A871-76027504D1EF}"/>
-    <hyperlink ref="L53" r:id="rId326" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1225727E-6B96-4A9E-8DFF-11C981EF3574}"/>
-    <hyperlink ref="L57" r:id="rId327" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{510C5D86-2491-4188-962C-FDCD986F9AC6}"/>
-    <hyperlink ref="L61" r:id="rId328" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EA88ECA0-6159-4BB3-8941-B58BD8250649}"/>
-    <hyperlink ref="L65" r:id="rId329" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1BA0B509-C242-47F3-B704-7DD490BB06EA}"/>
-    <hyperlink ref="L69" r:id="rId330" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{13EC7BBE-E50F-4097-839F-0B5F08D73BA2}"/>
-    <hyperlink ref="L73" r:id="rId331" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{92F410AC-9AD7-45D2-89B9-602368303A30}"/>
-    <hyperlink ref="L77" r:id="rId332" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6ED3F61A-09DB-4BFC-8F86-546CDAC83CEE}"/>
-    <hyperlink ref="L81" r:id="rId333" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{05FB780F-1BB4-47BD-9B6A-45163C6B39C7}"/>
-    <hyperlink ref="L85" r:id="rId334" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4BE30220-2326-414C-9566-3C5F877C0920}"/>
-    <hyperlink ref="L89" r:id="rId335" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{884E7D29-7BAC-4484-9623-2447EF51A30F}"/>
-    <hyperlink ref="L93" r:id="rId336" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{624E867E-DE71-45EC-921D-C40393BF3F19}"/>
-    <hyperlink ref="L97" r:id="rId337" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DABCF2DA-EC71-45B8-AF8A-D3AB272C511F}"/>
-    <hyperlink ref="L101" r:id="rId338" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{048BB512-5DAE-45BA-81B2-4D15200F1FFA}"/>
-    <hyperlink ref="L105" r:id="rId339" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5D137C2A-4433-453E-9AF4-0763C19C93C4}"/>
-    <hyperlink ref="L109" r:id="rId340" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{85E1C986-6C51-472A-8E67-F57C36158757}"/>
-    <hyperlink ref="L113" r:id="rId341" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F05CCB13-3643-497E-9911-5CA7541FBF16}"/>
-    <hyperlink ref="L117" r:id="rId342" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EA40CA1F-B034-48FA-887B-DD4E6A3237CF}"/>
-    <hyperlink ref="L121" r:id="rId343" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6D563724-F769-4141-96DC-4EB7B0325E3A}"/>
-    <hyperlink ref="L125" r:id="rId344" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7D36677D-9CD8-4FC3-90DF-6A29CF366DCC}"/>
-    <hyperlink ref="L129" r:id="rId345" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E0E1B35F-5BDB-42A7-8E53-8AE52FF4A345}"/>
-    <hyperlink ref="L133" r:id="rId346" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DC1FBCE3-81FD-41EA-B586-5F53AC626D35}"/>
-    <hyperlink ref="L137" r:id="rId347" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8219FFBA-DEEE-431F-8187-F28987EA2AC9}"/>
-    <hyperlink ref="L141" r:id="rId348" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{207F744E-2597-400F-B10C-B7E837C02B4D}"/>
-    <hyperlink ref="L145" r:id="rId349" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{42C1865C-75FA-4D0D-8931-6F7BA8096127}"/>
-    <hyperlink ref="L149" r:id="rId350" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{49A50E75-20AA-4128-BA23-A23115C11C43}"/>
-    <hyperlink ref="L153" r:id="rId351" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{9C2839E9-BED5-4FF6-816F-77B57041A619}"/>
-    <hyperlink ref="L157" r:id="rId352" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E23A6699-90A5-4856-BF79-2380091F574E}"/>
-    <hyperlink ref="L161" r:id="rId353" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1A8492DF-94CC-46BC-94FC-8EC8D477843A}"/>
-    <hyperlink ref="L165" r:id="rId354" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7E9EAA15-2255-4AE8-AE67-0CA5DDA5A347}"/>
-    <hyperlink ref="L169" r:id="rId355" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7F580A4E-1F87-4BD7-A93B-17D22EC25FD5}"/>
-    <hyperlink ref="L173" r:id="rId356" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{633DE086-4999-4966-A222-4A1181A3581B}"/>
-    <hyperlink ref="L177" r:id="rId357" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{94047688-8533-4E04-94FF-AD5143093431}"/>
-    <hyperlink ref="L181" r:id="rId358" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{41191E41-D130-4834-8125-0F76E602303B}"/>
-    <hyperlink ref="L185" r:id="rId359" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C4A07BDE-C8E3-40BA-BCCB-DB912E2A1D05}"/>
-    <hyperlink ref="L189" r:id="rId360" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{ACB47CAB-46D8-47F6-A3DF-F8690426B059}"/>
-    <hyperlink ref="L193" r:id="rId361" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C9BBF2B3-E01C-4EE4-9553-7DFE776F7417}"/>
-    <hyperlink ref="L197" r:id="rId362" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A05F62DA-B658-4094-A328-4C524EC432B5}"/>
-    <hyperlink ref="L201" r:id="rId363" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0920E874-3FE7-44A0-8EE0-C1286C5EFC22}"/>
-    <hyperlink ref="L205" r:id="rId364" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{27DFF406-EA84-4411-ADB3-39ABFBC87535}"/>
-    <hyperlink ref="L209" r:id="rId365" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DDA4DCE9-91E2-4EC0-A178-674FABC561A3}"/>
-    <hyperlink ref="L213" r:id="rId366" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{66A75B59-91E0-4F9C-920C-3DE29142830A}"/>
-    <hyperlink ref="L217" r:id="rId367" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{52D1A870-8B50-4756-919C-35BFD51F3F3F}"/>
-    <hyperlink ref="L221" r:id="rId368" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{3048A8A9-D509-4345-BAC0-96AEB03E4DEA}"/>
-    <hyperlink ref="L225" r:id="rId369" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EBB126C0-C649-41AD-89E3-162B26844994}"/>
-    <hyperlink ref="L229" r:id="rId370" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{34498225-638F-41B6-8A4E-2CD449DC92E3}"/>
-    <hyperlink ref="L233" r:id="rId371" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EC1831E6-01E3-4C6F-8864-CB175376670A}"/>
-    <hyperlink ref="L237" r:id="rId372" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F1779216-B8A7-4361-AF1B-567CE04261A6}"/>
-    <hyperlink ref="L241" r:id="rId373" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BB66DE9F-2A57-4A53-81A2-006DA68B66F9}"/>
-    <hyperlink ref="L245" r:id="rId374" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BF202C29-4AF7-41D1-B0AB-B613AA14FBF9}"/>
-    <hyperlink ref="L249" r:id="rId375" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1413E20E-6508-494F-9E8E-8C7A80E26C89}"/>
-    <hyperlink ref="L253" r:id="rId376" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{693BD0DA-7B63-4EE0-856F-ADFFFFEFA1D6}"/>
-    <hyperlink ref="L257" r:id="rId377" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E0D95227-4D9D-462A-B990-0F650B304BA3}"/>
-    <hyperlink ref="L261" r:id="rId378" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F56970D0-CFD9-49B0-AD37-F168BBFA170D}"/>
-    <hyperlink ref="L265" r:id="rId379" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CD0EDD81-5ABB-4A32-BC15-CAEF04183D54}"/>
-    <hyperlink ref="L269" r:id="rId380" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{24A0523D-5DED-4EAA-9F8F-3CC84B792A73}"/>
-    <hyperlink ref="L273" r:id="rId381" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{397DDA1C-2976-4DA9-91C2-1824D9954851}"/>
-    <hyperlink ref="L277" r:id="rId382" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{00677D20-EC96-4609-AFE2-9D7EE399F72C}"/>
-    <hyperlink ref="B14" r:id="rId383" xr:uid="{80495FFC-B63E-410A-B897-FA453FD8FCE3}"/>
-    <hyperlink ref="B21" r:id="rId384" xr:uid="{1AA2FF53-48CF-4684-8DFB-3406A97FB23C}"/>
-    <hyperlink ref="B11" r:id="rId385" xr:uid="{A2763553-1484-4DCB-942F-C7FEE682C30D}"/>
+    <hyperlink ref="E63" r:id="rId131" xr:uid="{0B886457-8AB9-4712-BE77-451FB95C6F9F}"/>
+    <hyperlink ref="E39" r:id="rId132" xr:uid="{9B1B8DB9-DF2A-4D3C-8C85-2322F1EA4B4E}"/>
+    <hyperlink ref="L34" r:id="rId133" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CB3E79BD-6394-47FD-AC9A-691D757C8EEC}"/>
+    <hyperlink ref="L35" r:id="rId134" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F5F615A3-C1F0-4FEC-916E-AFF4A5EACA64}"/>
+    <hyperlink ref="L36" r:id="rId135" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{278EBF9A-2216-40FB-827E-74BA612AD8BE}"/>
+    <hyperlink ref="L37" r:id="rId136" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E42C7D67-C252-40CC-93E1-3374C60542A5}"/>
+    <hyperlink ref="L38" r:id="rId137" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A69D3E3B-ABE6-46AF-9CA2-426AF8E885C7}"/>
+    <hyperlink ref="L42" r:id="rId138" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C5881908-AD6B-449F-88F5-CC8F544AA5E3}"/>
+    <hyperlink ref="L46" r:id="rId139" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BB05B484-C5E4-46CF-89B7-98D1661D001D}"/>
+    <hyperlink ref="L50" r:id="rId140" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C2E65B7B-B331-4507-8D52-5A93FDE8DA79}"/>
+    <hyperlink ref="L54" r:id="rId141" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{384AA51D-A5DC-4119-AF0A-4BD44BC68C19}"/>
+    <hyperlink ref="L58" r:id="rId142" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A6951591-8A3B-448F-9043-B02DB820C883}"/>
+    <hyperlink ref="L62" r:id="rId143" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A6B9C716-A31D-49FD-8E69-FEE42AACF1DF}"/>
+    <hyperlink ref="L66" r:id="rId144" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4B48E133-5738-4DF2-B5CD-0CA87CE52D70}"/>
+    <hyperlink ref="L70" r:id="rId145" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E9020B38-A1EA-48E4-8340-9B4FCDC63BB6}"/>
+    <hyperlink ref="L74" r:id="rId146" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B49851C0-0DB5-4DB6-8DFD-C051A230FD34}"/>
+    <hyperlink ref="L78" r:id="rId147" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{271EE2F2-89F0-4999-B130-94B0C0A0B716}"/>
+    <hyperlink ref="L82" r:id="rId148" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5C525A2B-15E6-4F9A-9183-8DD9535B9618}"/>
+    <hyperlink ref="L86" r:id="rId149" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6C8F404E-6D7F-4948-9754-DD620C6B6146}"/>
+    <hyperlink ref="L90" r:id="rId150" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DB279ACA-6062-4BE4-BBCC-40FDEED21C25}"/>
+    <hyperlink ref="L94" r:id="rId151" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4E90C937-CA16-45AB-99F3-C2AEAC1CB7F8}"/>
+    <hyperlink ref="L98" r:id="rId152" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{04BCE300-1F7C-47F7-9A88-4E6F5A1C60C9}"/>
+    <hyperlink ref="L102" r:id="rId153" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D0F07E63-373A-436D-AF9B-83E05CAE7CCC}"/>
+    <hyperlink ref="L106" r:id="rId154" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{45D8A7B9-CF8B-425F-8D7D-9A64A370C498}"/>
+    <hyperlink ref="L110" r:id="rId155" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{407BEDCD-8BAB-438A-9F87-53E7F72B8E83}"/>
+    <hyperlink ref="L114" r:id="rId156" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2B3411EC-5AD3-42DE-A4AA-B892EC4CFF4A}"/>
+    <hyperlink ref="L118" r:id="rId157" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A933C6C5-ECF5-4273-8C29-D01DC233BB51}"/>
+    <hyperlink ref="L122" r:id="rId158" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6BFDF12A-9865-48D2-B544-8F2C5034E456}"/>
+    <hyperlink ref="L126" r:id="rId159" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E0DAF296-E5A7-4CA1-B8E2-1E4DB801A2F3}"/>
+    <hyperlink ref="L130" r:id="rId160" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{88F2EB19-37BA-464D-80A9-F40863778A56}"/>
+    <hyperlink ref="L134" r:id="rId161" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EE925EA2-0FB1-46EB-B24B-F824122A44E6}"/>
+    <hyperlink ref="L138" r:id="rId162" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{15CD14B3-3B9B-4915-A5B0-3AEBF5B8865A}"/>
+    <hyperlink ref="L142" r:id="rId163" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{000F8552-2647-4F96-8E73-FF190E4B3907}"/>
+    <hyperlink ref="L146" r:id="rId164" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{3DA4F56B-50A1-4981-AD0D-C71A88912DBD}"/>
+    <hyperlink ref="L150" r:id="rId165" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7FDD363C-A3BB-4CAE-AE96-A7EA6697BE87}"/>
+    <hyperlink ref="L154" r:id="rId166" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D28C0CC4-2DE7-4AC5-931A-4E92B082AE7B}"/>
+    <hyperlink ref="L158" r:id="rId167" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2ECA1824-002D-44DA-8AF0-0D43308E8569}"/>
+    <hyperlink ref="L162" r:id="rId168" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4B19B385-78E8-4DC7-A9B1-941F2EA86EE2}"/>
+    <hyperlink ref="L166" r:id="rId169" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4CD045CF-019E-4D4F-8F46-7BA1A3F46A2E}"/>
+    <hyperlink ref="L170" r:id="rId170" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2545A8C8-5423-4375-89F7-EA905B36ADF8}"/>
+    <hyperlink ref="L174" r:id="rId171" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CB2E050F-4D4E-4FEA-BF7E-21F66502C924}"/>
+    <hyperlink ref="L178" r:id="rId172" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{56F548EA-D6B6-42BA-BB2E-1F2B231D7C3E}"/>
+    <hyperlink ref="L182" r:id="rId173" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{88877C74-6F97-43C4-815E-E177EBE2EF11}"/>
+    <hyperlink ref="L186" r:id="rId174" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{70078424-DD2C-4847-BCB7-F454A3162FC2}"/>
+    <hyperlink ref="L190" r:id="rId175" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0E6517EB-4855-41DE-987F-143892E2B7C1}"/>
+    <hyperlink ref="L194" r:id="rId176" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{782FDB4D-E6D2-45B9-878C-BE56E11D270A}"/>
+    <hyperlink ref="L198" r:id="rId177" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{86AC3898-4C59-4216-BEF9-29B21713453F}"/>
+    <hyperlink ref="L202" r:id="rId178" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0BF76340-A769-4B5B-8E2B-0FD8405A7844}"/>
+    <hyperlink ref="L206" r:id="rId179" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EF1FD8A3-B6C1-4EA6-AE86-65BE742AC40B}"/>
+    <hyperlink ref="L210" r:id="rId180" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6859DA30-B43E-4C0A-AA9F-2FC8794AFF42}"/>
+    <hyperlink ref="L214" r:id="rId181" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BE4D8A2D-827D-41E5-8A9E-A5CE9D908B42}"/>
+    <hyperlink ref="L218" r:id="rId182" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E3CD281C-17A6-4937-9E6D-9D0E74DC683C}"/>
+    <hyperlink ref="L222" r:id="rId183" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B277ADAB-9569-4012-8E2B-1AE67BF47AE0}"/>
+    <hyperlink ref="L226" r:id="rId184" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{68F9DE8D-DAB9-4472-B057-FC76DB29B45F}"/>
+    <hyperlink ref="L230" r:id="rId185" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{826571F9-51BC-4DDE-A916-A170141BF315}"/>
+    <hyperlink ref="L234" r:id="rId186" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{9C5B3FF8-B36A-4F89-8A77-F8A6E4937D4E}"/>
+    <hyperlink ref="L238" r:id="rId187" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1193A72D-1EF4-4467-9D1B-6815C2DE1470}"/>
+    <hyperlink ref="L242" r:id="rId188" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4E0FF932-A770-46BE-B1B1-C3FFBD0CD661}"/>
+    <hyperlink ref="L246" r:id="rId189" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EB815369-4D6A-4437-A061-E196F51903FA}"/>
+    <hyperlink ref="L250" r:id="rId190" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{318C3648-7B72-4918-B38A-CF1EF4A88545}"/>
+    <hyperlink ref="L254" r:id="rId191" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0BBD7D6B-1DD3-43D6-8258-B44668713C6F}"/>
+    <hyperlink ref="L258" r:id="rId192" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{93F3205E-2B9E-493C-8403-ECA1835F1C9E}"/>
+    <hyperlink ref="L262" r:id="rId193" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0508569E-0D73-4B55-B4E6-D07B44434D59}"/>
+    <hyperlink ref="L266" r:id="rId194" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AE685D0A-D4A5-4F2D-9769-CB5645F2AE8C}"/>
+    <hyperlink ref="L270" r:id="rId195" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0942CB22-9E70-4BB4-8887-BAF6127F6A93}"/>
+    <hyperlink ref="L274" r:id="rId196" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5BF9E46E-15C4-4066-B2E6-78BC95C81C6C}"/>
+    <hyperlink ref="L39" r:id="rId197" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{30A42CBA-DD18-467F-9C31-F6FE20395F12}"/>
+    <hyperlink ref="L43" r:id="rId198" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5A22AFAB-6468-4305-AD73-0CF97A30E89A}"/>
+    <hyperlink ref="L47" r:id="rId199" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A894C31D-B0B3-40F6-BA59-DCF868A0C957}"/>
+    <hyperlink ref="L51" r:id="rId200" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D23DA804-39BD-4AEE-8663-7A6F4D17FEFA}"/>
+    <hyperlink ref="L55" r:id="rId201" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E56FB670-8B05-410B-862D-B206DFE828F1}"/>
+    <hyperlink ref="L59" r:id="rId202" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8D513C73-0385-4B20-91E6-5018B06FB850}"/>
+    <hyperlink ref="L63" r:id="rId203" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5BE35CB8-C72D-4045-BA1A-F17E3F258A20}"/>
+    <hyperlink ref="L67" r:id="rId204" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BB03F070-978E-47EB-BE13-510499AFD277}"/>
+    <hyperlink ref="L71" r:id="rId205" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{73FC3383-83C8-43ED-A91E-628A288D9395}"/>
+    <hyperlink ref="L75" r:id="rId206" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{78E3B867-8170-44BF-827E-6441CA1C2CD0}"/>
+    <hyperlink ref="L79" r:id="rId207" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CC968019-5D38-4E3D-B76A-490EF3E1AF7A}"/>
+    <hyperlink ref="L83" r:id="rId208" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{709FD2AB-D563-4156-B0D3-CBDCE5FC876F}"/>
+    <hyperlink ref="L87" r:id="rId209" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8AFE6D1F-27CD-43CC-A3B7-BE202F7ABB64}"/>
+    <hyperlink ref="L91" r:id="rId210" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A1D6BFA7-BB0A-490A-87DE-3F2989AB6412}"/>
+    <hyperlink ref="L95" r:id="rId211" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{96228920-6203-4418-A1D4-16DFFB530584}"/>
+    <hyperlink ref="L99" r:id="rId212" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FD3B19A9-F2F6-4A0E-9A24-22FFEE18B162}"/>
+    <hyperlink ref="L103" r:id="rId213" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A0F35CCF-773B-4A45-980D-174373464D93}"/>
+    <hyperlink ref="L107" r:id="rId214" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7266C1D8-99A6-4933-AD15-6083CA68C66B}"/>
+    <hyperlink ref="L111" r:id="rId215" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CB081986-B9B5-4D9A-A30B-41E65BAA2B03}"/>
+    <hyperlink ref="L115" r:id="rId216" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{88E02967-8C20-4A8B-820D-1A9B1D2A239D}"/>
+    <hyperlink ref="L119" r:id="rId217" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5032FF67-F514-4AC7-9ED9-86936D11C989}"/>
+    <hyperlink ref="L123" r:id="rId218" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{980ECBA1-CE6C-4F9A-BCCA-498D9933620B}"/>
+    <hyperlink ref="L127" r:id="rId219" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A3D0F967-DB8F-47F4-89BA-4CD45013467C}"/>
+    <hyperlink ref="L131" r:id="rId220" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F9EAD012-17B1-4863-8FFA-DA7FB15B4704}"/>
+    <hyperlink ref="L135" r:id="rId221" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CA95C6AF-B27A-42AF-8CB2-B0C8E4EF8232}"/>
+    <hyperlink ref="L139" r:id="rId222" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4968B8D1-1D97-4C9C-B97D-4334D24C3427}"/>
+    <hyperlink ref="L143" r:id="rId223" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{555B537C-B9B7-4FAD-A13F-DC22ED3EA4FF}"/>
+    <hyperlink ref="L147" r:id="rId224" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{097A3001-1F5F-448D-BE91-B846A20946BF}"/>
+    <hyperlink ref="L151" r:id="rId225" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6B1D3378-752F-4BAC-8DB4-831C610823E4}"/>
+    <hyperlink ref="L155" r:id="rId226" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0C853A69-79FF-4051-BB65-8096116EFE05}"/>
+    <hyperlink ref="L159" r:id="rId227" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BDB03E03-6E05-420B-B6F3-DD509A13AA69}"/>
+    <hyperlink ref="L163" r:id="rId228" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0E593F0C-E94A-4192-B365-6B1BF3D75FE3}"/>
+    <hyperlink ref="L167" r:id="rId229" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4C0A014B-F1BC-4D85-892C-5401BB07C8F9}"/>
+    <hyperlink ref="L171" r:id="rId230" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DACFF655-3EB2-49BA-97BC-7CA8DE3EBAEF}"/>
+    <hyperlink ref="L175" r:id="rId231" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{12E6FF77-73A7-4FB8-A00D-F247483FC12C}"/>
+    <hyperlink ref="L179" r:id="rId232" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AE645C7B-63D5-4015-A28D-908F7BF75F66}"/>
+    <hyperlink ref="L183" r:id="rId233" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{81FFA0EB-02DD-4EA5-8C05-08CACC157220}"/>
+    <hyperlink ref="L187" r:id="rId234" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8464762C-F21A-4CDB-8431-52DBE700EF69}"/>
+    <hyperlink ref="L191" r:id="rId235" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1E6DB17F-AEB3-4A28-958C-C86D718E6D69}"/>
+    <hyperlink ref="L195" r:id="rId236" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AB2B88FF-BA42-4A3E-8988-89AB43174E5E}"/>
+    <hyperlink ref="L199" r:id="rId237" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{98C388BB-DC1C-4589-9234-F0D03FAB986F}"/>
+    <hyperlink ref="L203" r:id="rId238" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F2A8149E-C4D1-4E10-8ED8-C1CA95C38F4E}"/>
+    <hyperlink ref="L207" r:id="rId239" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B27CE42B-FB56-445C-AA4C-CAE253C53384}"/>
+    <hyperlink ref="L211" r:id="rId240" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{2F72E7F4-A004-4AA4-A0BC-373CA95B0FC8}"/>
+    <hyperlink ref="L215" r:id="rId241" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{71D97D79-1841-43F8-8E00-29BB9E4F634D}"/>
+    <hyperlink ref="L219" r:id="rId242" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C57BE990-59AC-412B-B718-CBD3A5F98AFF}"/>
+    <hyperlink ref="L223" r:id="rId243" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{252723D2-D506-43E4-AA8E-D1AC81C94F2D}"/>
+    <hyperlink ref="L227" r:id="rId244" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{480F6310-1D87-4C3A-860F-86B3FACDD196}"/>
+    <hyperlink ref="L231" r:id="rId245" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F3793526-865F-4475-9797-A39D3B78171B}"/>
+    <hyperlink ref="L235" r:id="rId246" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D751496D-50FA-40D6-8093-ADC3D3FF8073}"/>
+    <hyperlink ref="L239" r:id="rId247" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8AF0ECE2-B8BE-45DA-B1C0-6F647DDD5E3F}"/>
+    <hyperlink ref="L243" r:id="rId248" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1CC92C21-EC70-434D-8DB7-16DAE06AB483}"/>
+    <hyperlink ref="L247" r:id="rId249" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A820BB9D-32C7-431C-89F9-BA0A82C0EC5C}"/>
+    <hyperlink ref="L251" r:id="rId250" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BA3B7869-E9DF-4EAE-9C15-E9EE4533BE99}"/>
+    <hyperlink ref="L255" r:id="rId251" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{236D1A28-656A-468B-9DE9-23E1519F7951}"/>
+    <hyperlink ref="L259" r:id="rId252" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8EFC5F39-0491-4EB3-9EE0-8D3FD74253A7}"/>
+    <hyperlink ref="L263" r:id="rId253" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FA3A2069-D9DF-45C6-BDAB-8DF6F1F69E05}"/>
+    <hyperlink ref="L267" r:id="rId254" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{42C16B11-14D3-45E3-87FB-C661497704DA}"/>
+    <hyperlink ref="L271" r:id="rId255" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B753BF0E-6479-432B-8FD6-14CD1A990CC9}"/>
+    <hyperlink ref="L275" r:id="rId256" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1B11A110-44A6-4C92-94FC-BF0648BADC68}"/>
+    <hyperlink ref="L40" r:id="rId257" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5CCA99B3-866E-43B6-A611-4011A70232F3}"/>
+    <hyperlink ref="L44" r:id="rId258" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{60163CA2-837F-43E2-A306-DBAD49073A6A}"/>
+    <hyperlink ref="L48" r:id="rId259" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7C035D9F-54E0-43B8-BE0D-31005E151DFD}"/>
+    <hyperlink ref="L52" r:id="rId260" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E5BF080A-7169-457C-9FD9-974AA2A3EA96}"/>
+    <hyperlink ref="L56" r:id="rId261" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C419F04A-C54F-491B-9CAA-EA6CCE9645F3}"/>
+    <hyperlink ref="L60" r:id="rId262" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{676681FE-C4E1-4AE3-9381-18BF4E9A8C07}"/>
+    <hyperlink ref="L64" r:id="rId263" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BA256E0C-40BE-4E65-A385-BF6790B75104}"/>
+    <hyperlink ref="L68" r:id="rId264" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5CE921C2-4E7E-4BC3-AC98-8751264618A2}"/>
+    <hyperlink ref="L72" r:id="rId265" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{68C94CE0-F780-4EFF-A1A8-29A6CD247330}"/>
+    <hyperlink ref="L76" r:id="rId266" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FC129378-D596-4BC1-85FF-225DA48BE830}"/>
+    <hyperlink ref="L80" r:id="rId267" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6F208267-F557-49BB-9BF3-DD87EDDC8358}"/>
+    <hyperlink ref="L84" r:id="rId268" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{29FA809A-27F9-4E8B-8D23-5CA7F7981C7E}"/>
+    <hyperlink ref="L88" r:id="rId269" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5C269D3B-1522-4A46-BC70-FD2C7846FE01}"/>
+    <hyperlink ref="L92" r:id="rId270" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DDBF9AC4-0578-4EA5-91E5-EF400563AFB8}"/>
+    <hyperlink ref="L96" r:id="rId271" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BBBAB2BB-66BC-4907-8FF4-F8F983CA027E}"/>
+    <hyperlink ref="L100" r:id="rId272" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{294A4606-458C-441F-8E41-924881F3B04A}"/>
+    <hyperlink ref="L104" r:id="rId273" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4C91B85F-765B-497E-A795-D052E85F5F55}"/>
+    <hyperlink ref="L108" r:id="rId274" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{FF989142-2B51-4C57-9039-6B44F89F2286}"/>
+    <hyperlink ref="L112" r:id="rId275" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{21ACE121-FF7A-4B33-867E-91F244C80EB4}"/>
+    <hyperlink ref="L116" r:id="rId276" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1D0130E9-573E-44D8-AD88-388FECD85C16}"/>
+    <hyperlink ref="L120" r:id="rId277" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{774829A9-46DF-4BDE-99C6-1275D3F2E271}"/>
+    <hyperlink ref="L124" r:id="rId278" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{AA566C8D-29BC-4A2C-B261-447942C09FE9}"/>
+    <hyperlink ref="L128" r:id="rId279" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{13B9C285-B467-4AF1-AC33-2F017DA31B03}"/>
+    <hyperlink ref="L132" r:id="rId280" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{70B06375-FA01-4E6D-BD77-6719E0D8DD2A}"/>
+    <hyperlink ref="L136" r:id="rId281" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A24C20C8-DFF5-4CBF-9ADB-CAC93071C843}"/>
+    <hyperlink ref="L140" r:id="rId282" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6A175C0E-3DC9-46EA-BBCF-11C27BF0CAB8}"/>
+    <hyperlink ref="L144" r:id="rId283" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4088B65F-6821-4CC3-95A7-3743BFBA99F7}"/>
+    <hyperlink ref="L148" r:id="rId284" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7FF78193-6C29-41F2-BC58-2619AA6F81DB}"/>
+    <hyperlink ref="L152" r:id="rId285" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6A7D753C-BD96-40F8-B028-22A4193AE97D}"/>
+    <hyperlink ref="L156" r:id="rId286" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DCA6DC69-4135-4519-B98A-FA4E4C9FD6C5}"/>
+    <hyperlink ref="L160" r:id="rId287" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B343BE67-86D0-4FB5-8434-555231AED175}"/>
+    <hyperlink ref="L164" r:id="rId288" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{31DC2E97-749B-4FB0-AC9C-3AA71EE76372}"/>
+    <hyperlink ref="L168" r:id="rId289" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4EAAACC7-D31C-4207-83A9-0642D09F4D8D}"/>
+    <hyperlink ref="L172" r:id="rId290" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{13AF4C94-9498-407A-AFB8-BE3F38237FD2}"/>
+    <hyperlink ref="L176" r:id="rId291" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8F7D3974-22FD-4906-9F5C-5D9EA98DAF04}"/>
+    <hyperlink ref="L180" r:id="rId292" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8EE35985-963D-4B76-91DA-5142551084B8}"/>
+    <hyperlink ref="L184" r:id="rId293" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6A81AD3A-73D5-4B78-8C3C-F7473E5C0A9C}"/>
+    <hyperlink ref="L188" r:id="rId294" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DC984535-9A7B-4AB4-8DA7-CA5DB8609120}"/>
+    <hyperlink ref="L192" r:id="rId295" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{29B6C9A9-646B-430C-8123-3BCE48A33F81}"/>
+    <hyperlink ref="L196" r:id="rId296" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{10D16AE2-36F6-4868-9DB7-C03857B691DB}"/>
+    <hyperlink ref="L200" r:id="rId297" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E9C6F802-D408-4710-90E8-3CFA4233A1CE}"/>
+    <hyperlink ref="L204" r:id="rId298" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{B4403BD4-6BD6-44F0-9746-17390040B9DB}"/>
+    <hyperlink ref="L208" r:id="rId299" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{050B8865-C8DE-4160-880A-B5D6524E9CB0}"/>
+    <hyperlink ref="L212" r:id="rId300" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{66C262F9-2897-41D2-A86A-D0D64AD22593}"/>
+    <hyperlink ref="L216" r:id="rId301" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F1B703C3-2898-4AC9-9795-DE7067FC446A}"/>
+    <hyperlink ref="L220" r:id="rId302" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{34AEBBDD-1251-4A9A-AC33-8E55F0780F6A}"/>
+    <hyperlink ref="L224" r:id="rId303" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CF4F3331-D149-497C-9342-B6502D8EE3A0}"/>
+    <hyperlink ref="L228" r:id="rId304" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{55B893E1-1CDE-4E5C-8319-16A24C45FDB5}"/>
+    <hyperlink ref="L232" r:id="rId305" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D698468E-B9B5-4A59-AA9C-59D1906B42FC}"/>
+    <hyperlink ref="L236" r:id="rId306" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6B9A4D10-FD80-4A84-9EE4-4199786D92A6}"/>
+    <hyperlink ref="L240" r:id="rId307" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{16005748-8FFE-42D3-AEDC-33B24C0F45CB}"/>
+    <hyperlink ref="L244" r:id="rId308" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D8F7454F-9017-418C-B0DE-1D1979473AEF}"/>
+    <hyperlink ref="L248" r:id="rId309" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F248501B-D943-4136-B872-7C7BAE5EAC28}"/>
+    <hyperlink ref="L252" r:id="rId310" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{890D5642-432C-4F1B-BDEE-2BDEC871BF0B}"/>
+    <hyperlink ref="L256" r:id="rId311" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{D4C728F3-C78C-4F15-8157-2EDE92E30400}"/>
+    <hyperlink ref="L260" r:id="rId312" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EC6EE0FB-897B-47E1-9E59-EAF768DB0B3F}"/>
+    <hyperlink ref="L264" r:id="rId313" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8F7614C2-098F-47E8-83F6-DC495F23DE1F}"/>
+    <hyperlink ref="L268" r:id="rId314" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{3C6C3E25-4480-4ADB-B0E0-5C03855D1CAB}"/>
+    <hyperlink ref="L272" r:id="rId315" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8E6D8811-B7C5-455F-A9EC-71F4128C3FA2}"/>
+    <hyperlink ref="L276" r:id="rId316" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A12DC7B9-C05B-473D-BA94-403F4B43CFD0}"/>
+    <hyperlink ref="L41" r:id="rId317" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4C34C87B-EC3C-4277-8F11-99DE8A31B481}"/>
+    <hyperlink ref="L45" r:id="rId318" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{9958797F-909B-410D-9887-AF4CD4052C30}"/>
+    <hyperlink ref="L49" r:id="rId319" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{63A5D804-F181-41C0-A871-76027504D1EF}"/>
+    <hyperlink ref="L53" r:id="rId320" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1225727E-6B96-4A9E-8DFF-11C981EF3574}"/>
+    <hyperlink ref="L57" r:id="rId321" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{510C5D86-2491-4188-962C-FDCD986F9AC6}"/>
+    <hyperlink ref="L61" r:id="rId322" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EA88ECA0-6159-4BB3-8941-B58BD8250649}"/>
+    <hyperlink ref="L65" r:id="rId323" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1BA0B509-C242-47F3-B704-7DD490BB06EA}"/>
+    <hyperlink ref="L69" r:id="rId324" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{13EC7BBE-E50F-4097-839F-0B5F08D73BA2}"/>
+    <hyperlink ref="L73" r:id="rId325" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{92F410AC-9AD7-45D2-89B9-602368303A30}"/>
+    <hyperlink ref="L77" r:id="rId326" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6ED3F61A-09DB-4BFC-8F86-546CDAC83CEE}"/>
+    <hyperlink ref="L81" r:id="rId327" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{05FB780F-1BB4-47BD-9B6A-45163C6B39C7}"/>
+    <hyperlink ref="L85" r:id="rId328" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{4BE30220-2326-414C-9566-3C5F877C0920}"/>
+    <hyperlink ref="L89" r:id="rId329" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{884E7D29-7BAC-4484-9623-2447EF51A30F}"/>
+    <hyperlink ref="L93" r:id="rId330" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{624E867E-DE71-45EC-921D-C40393BF3F19}"/>
+    <hyperlink ref="L97" r:id="rId331" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DABCF2DA-EC71-45B8-AF8A-D3AB272C511F}"/>
+    <hyperlink ref="L101" r:id="rId332" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{048BB512-5DAE-45BA-81B2-4D15200F1FFA}"/>
+    <hyperlink ref="L105" r:id="rId333" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{5D137C2A-4433-453E-9AF4-0763C19C93C4}"/>
+    <hyperlink ref="L109" r:id="rId334" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{85E1C986-6C51-472A-8E67-F57C36158757}"/>
+    <hyperlink ref="L113" r:id="rId335" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F05CCB13-3643-497E-9911-5CA7541FBF16}"/>
+    <hyperlink ref="L117" r:id="rId336" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EA40CA1F-B034-48FA-887B-DD4E6A3237CF}"/>
+    <hyperlink ref="L121" r:id="rId337" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{6D563724-F769-4141-96DC-4EB7B0325E3A}"/>
+    <hyperlink ref="L125" r:id="rId338" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7D36677D-9CD8-4FC3-90DF-6A29CF366DCC}"/>
+    <hyperlink ref="L129" r:id="rId339" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E0E1B35F-5BDB-42A7-8E53-8AE52FF4A345}"/>
+    <hyperlink ref="L133" r:id="rId340" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DC1FBCE3-81FD-41EA-B586-5F53AC626D35}"/>
+    <hyperlink ref="L137" r:id="rId341" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{8219FFBA-DEEE-431F-8187-F28987EA2AC9}"/>
+    <hyperlink ref="L141" r:id="rId342" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{207F744E-2597-400F-B10C-B7E837C02B4D}"/>
+    <hyperlink ref="L145" r:id="rId343" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{42C1865C-75FA-4D0D-8931-6F7BA8096127}"/>
+    <hyperlink ref="L149" r:id="rId344" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{49A50E75-20AA-4128-BA23-A23115C11C43}"/>
+    <hyperlink ref="L153" r:id="rId345" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{9C2839E9-BED5-4FF6-816F-77B57041A619}"/>
+    <hyperlink ref="L157" r:id="rId346" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E23A6699-90A5-4856-BF79-2380091F574E}"/>
+    <hyperlink ref="L161" r:id="rId347" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1A8492DF-94CC-46BC-94FC-8EC8D477843A}"/>
+    <hyperlink ref="L165" r:id="rId348" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7E9EAA15-2255-4AE8-AE67-0CA5DDA5A347}"/>
+    <hyperlink ref="L169" r:id="rId349" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{7F580A4E-1F87-4BD7-A93B-17D22EC25FD5}"/>
+    <hyperlink ref="L173" r:id="rId350" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{633DE086-4999-4966-A222-4A1181A3581B}"/>
+    <hyperlink ref="L177" r:id="rId351" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{94047688-8533-4E04-94FF-AD5143093431}"/>
+    <hyperlink ref="L181" r:id="rId352" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{41191E41-D130-4834-8125-0F76E602303B}"/>
+    <hyperlink ref="L185" r:id="rId353" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C4A07BDE-C8E3-40BA-BCCB-DB912E2A1D05}"/>
+    <hyperlink ref="L189" r:id="rId354" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{ACB47CAB-46D8-47F6-A3DF-F8690426B059}"/>
+    <hyperlink ref="L193" r:id="rId355" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{C9BBF2B3-E01C-4EE4-9553-7DFE776F7417}"/>
+    <hyperlink ref="L197" r:id="rId356" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{A05F62DA-B658-4094-A328-4C524EC432B5}"/>
+    <hyperlink ref="L201" r:id="rId357" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{0920E874-3FE7-44A0-8EE0-C1286C5EFC22}"/>
+    <hyperlink ref="L205" r:id="rId358" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{27DFF406-EA84-4411-ADB3-39ABFBC87535}"/>
+    <hyperlink ref="L209" r:id="rId359" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{DDA4DCE9-91E2-4EC0-A178-674FABC561A3}"/>
+    <hyperlink ref="L213" r:id="rId360" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{66A75B59-91E0-4F9C-920C-3DE29142830A}"/>
+    <hyperlink ref="L217" r:id="rId361" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{52D1A870-8B50-4756-919C-35BFD51F3F3F}"/>
+    <hyperlink ref="L221" r:id="rId362" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{3048A8A9-D509-4345-BAC0-96AEB03E4DEA}"/>
+    <hyperlink ref="L225" r:id="rId363" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EBB126C0-C649-41AD-89E3-162B26844994}"/>
+    <hyperlink ref="L229" r:id="rId364" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{34498225-638F-41B6-8A4E-2CD449DC92E3}"/>
+    <hyperlink ref="L233" r:id="rId365" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{EC1831E6-01E3-4C6F-8864-CB175376670A}"/>
+    <hyperlink ref="L237" r:id="rId366" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F1779216-B8A7-4361-AF1B-567CE04261A6}"/>
+    <hyperlink ref="L241" r:id="rId367" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BB66DE9F-2A57-4A53-81A2-006DA68B66F9}"/>
+    <hyperlink ref="L245" r:id="rId368" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{BF202C29-4AF7-41D1-B0AB-B613AA14FBF9}"/>
+    <hyperlink ref="L249" r:id="rId369" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{1413E20E-6508-494F-9E8E-8C7A80E26C89}"/>
+    <hyperlink ref="L253" r:id="rId370" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{693BD0DA-7B63-4EE0-856F-ADFFFFEFA1D6}"/>
+    <hyperlink ref="L257" r:id="rId371" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{E0D95227-4D9D-462A-B990-0F650B304BA3}"/>
+    <hyperlink ref="L261" r:id="rId372" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{F56970D0-CFD9-49B0-AD37-F168BBFA170D}"/>
+    <hyperlink ref="L265" r:id="rId373" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{CD0EDD81-5ABB-4A32-BC15-CAEF04183D54}"/>
+    <hyperlink ref="L269" r:id="rId374" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{24A0523D-5DED-4EAA-9F8F-3CC84B792A73}"/>
+    <hyperlink ref="L273" r:id="rId375" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{397DDA1C-2976-4DA9-91C2-1824D9954851}"/>
+    <hyperlink ref="L277" r:id="rId376" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{00677D20-EC96-4609-AFE2-9D7EE399F72C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId386"/>
-  <legacyDrawing r:id="rId387"/>
+  <pageSetup orientation="portrait" r:id="rId377"/>
+  <legacyDrawing r:id="rId378"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25E589-C762-47F7-A5B5-46A66BE90C97}">
-  <dimension ref="A1:L466"/>
+  <dimension ref="A1:M466"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15038,10 +15085,10 @@
     </row>
     <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1338</v>
+        <v>1361</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -15056,10 +15103,10 @@
     </row>
     <row r="12" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>1347</v>
+        <v>1362</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>1333</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -15074,10 +15121,10 @@
     </row>
     <row r="13" spans="1:12" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>1344</v>
+        <v>1363</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>1330</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -15092,10 +15139,10 @@
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -15110,10 +15157,10 @@
     </row>
     <row r="15" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -15144,7 +15191,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>644</v>
       </c>
@@ -15162,7 +15209,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>645</v>
       </c>
@@ -15180,7 +15227,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>646</v>
       </c>
@@ -15198,7 +15245,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1069</v>
       </c>
@@ -15216,7 +15263,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>649</v>
       </c>
@@ -15234,21 +15281,26 @@
       <c r="K21" s="15"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>1355</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="15"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="15"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -15262,7 +15314,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>637</v>
       </c>
@@ -15278,7 +15330,7 @@
       <c r="K24" s="45"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -15294,7 +15346,7 @@
       <c r="K25" s="45"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -15332,7 +15384,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>785</v>
       </c>
@@ -15359,7 +15411,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>786</v>
       </c>
@@ -15373,7 +15425,7 @@
         <v>790</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>1318</v>
+        <v>1356</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="25" t="s">
@@ -15393,7 +15445,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>787</v>
       </c>
@@ -15407,7 +15459,7 @@
         <v>791</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>1318</v>
+        <v>1356</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
@@ -15427,7 +15479,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>788</v>
       </c>
@@ -15441,7 +15493,7 @@
         <v>792</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>1318</v>
+        <v>1356</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="25" t="s">
@@ -15461,7 +15513,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>794</v>
       </c>
@@ -15487,7 +15539,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>795</v>
       </c>
@@ -16279,7 +16331,7 @@
         <v>691</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="30" t="s">
@@ -16875,7 +16927,7 @@
         <v>712</v>
       </c>
       <c r="E81" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="30" t="s">
@@ -17107,7 +17159,7 @@
         <v>722</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>855</v>
@@ -17439,7 +17491,7 @@
         <v>735</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="30" t="s">
@@ -18051,7 +18103,7 @@
         <v>756</v>
       </c>
       <c r="E121" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>890</v>
@@ -19913,7 +19965,7 @@
         <v>126</v>
       </c>
       <c r="E186" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F186"/>
       <c r="G186" s="19" t="s">
@@ -20085,7 +20137,7 @@
         <v>150</v>
       </c>
       <c r="E192" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F192"/>
       <c r="G192" s="19" t="s">
@@ -20145,7 +20197,7 @@
         <v>162</v>
       </c>
       <c r="E194" s="60" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="F194"/>
       <c r="G194" s="19" t="s">
@@ -22454,12 +22506,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22674,15 +22723,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22707,10 +22760,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cox075\dev\ENV\anzsoil\def-au-scma\rdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D05314A-5E7A-4C37-8E03-3E88D70CCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{1D05314A-5E7A-4C37-8E03-3E88D70CCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CCFFB0-9A95-4D94-8728-9E86B477AEAB}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="6705" windowWidth="27375" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1371">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -4294,6 +4294,9 @@
   </si>
   <si>
     <t>Australian Laboratory Handbook of Soil and Water Chemical Methods (Rayment and Higginson 1992)</t>
+  </si>
+  <si>
+    <t>dcterms:isFormatOf</t>
   </si>
 </sst>
 </file>
@@ -4475,7 +4478,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -4606,6 +4609,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4984,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5341,7 +5347,7 @@
       <c r="A18" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="67" t="s">
         <v>634</v>
       </c>
       <c r="C18" s="4"/>
@@ -5360,7 +5366,7 @@
       <c r="A19" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="26" t="s">
         <v>635</v>
       </c>
       <c r="C19" s="4"/>
@@ -14889,10 +14895,12 @@
     <hyperlink ref="L270" r:id="rId374" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{24A0523D-5DED-4EAA-9F8F-3CC84B792A73}"/>
     <hyperlink ref="L274" r:id="rId375" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{397DDA1C-2976-4DA9-91C2-1824D9954851}"/>
     <hyperlink ref="L278" r:id="rId376" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{00677D20-EC96-4609-AFE2-9D7EE399F72C}"/>
+    <hyperlink ref="B18" r:id="rId377" xr:uid="{31571278-A517-460E-AA8B-2538A10AD1BA}"/>
+    <hyperlink ref="B19" r:id="rId378" xr:uid="{386259F1-8A48-45EF-9526-D7EE660E59A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId377"/>
-  <legacyDrawing r:id="rId378"/>
+  <pageSetup orientation="portrait" r:id="rId379"/>
+  <legacyDrawing r:id="rId380"/>
 </worksheet>
 </file>
 
@@ -14901,7 +14909,7 @@
   <dimension ref="A1:M467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15272,7 +15280,7 @@
     </row>
     <row r="20" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>645</v>
+        <v>1370</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>1067</v>
@@ -22549,12 +22557,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22769,15 +22774,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22802,10 +22811,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-2.xlsx
+++ b/rdf/skosplay-scma-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{1D05314A-5E7A-4C37-8E03-3E88D70CCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CCFFB0-9A95-4D94-8728-9E86B477AEAB}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1D05314A-5E7A-4C37-8E03-3E88D70CCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FC585B-D19C-4F44-A81F-F32F5A390E57}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1875" yWindow="1800" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCMA-2011" sheetId="2" r:id="rId1"/>
@@ -35,8 +35,6 @@
   <authors>
     <author>tc={B0E3DF97-B13F-494E-A738-184CA7B7851B}</author>
     <author>tc={67160120-CB63-4486-9227-F88649E9E9C7}</author>
-    <author>tc={0B26873D-FA99-482F-BB2A-F523AECB0A02}</author>
-    <author>tc={D93122F8-B2E7-44D8-B776-19855D9E8B0C}</author>
     <author>tc={18599286-A473-45D7-85E2-C1993234C618}</author>
   </authors>
   <commentList>
@@ -56,23 +54,7 @@
     has split  ROR ID https://ror.org/02wtcj248  https://ror.org/01drzr533</t>
       </text>
     </comment>
-    <comment ref="B21" authorId="2" shapeId="0" xr:uid="{0B26873D-FA99-482F-BB2A-F523AECB0A02}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    DAWE is funding this work, include?</t>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="3" shapeId="0" xr:uid="{D93122F8-B2E7-44D8-B776-19855D9E8B0C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    aknowldged in book. Others were aknowledged from ASPAC</t>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="4" shapeId="0" xr:uid="{18599286-A473-45D7-85E2-C1993234C618}">
+    <comment ref="F34" authorId="2" shapeId="0" xr:uid="{18599286-A473-45D7-85E2-C1993234C618}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -4478,7 +4460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -4558,11 +4540,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4966,12 +4944,6 @@
   <threadedComment ref="B20" dT="2022-03-18T02:11:05.88" personId="{858A8595-1E7F-44A0-A29C-57D42A21D7F8}" id="{67160120-CB63-4486-9227-F88649E9E9C7}">
     <text>has split  ROR ID https://ror.org/02wtcj248  https://ror.org/01drzr533</text>
   </threadedComment>
-  <threadedComment ref="B21" dT="2022-03-18T02:11:47.38" personId="{858A8595-1E7F-44A0-A29C-57D42A21D7F8}" id="{0B26873D-FA99-482F-BB2A-F523AECB0A02}">
-    <text>DAWE is funding this work, include?</text>
-  </threadedComment>
-  <threadedComment ref="B22" dT="2022-03-18T02:10:25.54" personId="{858A8595-1E7F-44A0-A29C-57D42A21D7F8}" id="{D93122F8-B2E7-44D8-B776-19855D9E8B0C}">
-    <text>aknowldged in book. Others were aknowledged from ASPAC</text>
-  </threadedComment>
   <threadedComment ref="F34" dT="2021-04-26T01:42:21.46" personId="{74AF7186-62D8-498B-BD29-BBBCF0E53A82}" id="{18599286-A473-45D7-85E2-C1993234C618}">
     <text>don't need both broader and narrower columns - they are generated by SKOS-Play! post-processing - https://skos-play.sparna.fr/play/convert#post-processings</text>
   </threadedComment>
@@ -4990,7 +4962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -5004,7 +4976,7 @@
     <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="49" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" style="15" customWidth="1"/>
     <col min="11" max="11" width="73.7109375" style="15" customWidth="1"/>
     <col min="12" max="12" width="39.28515625" style="15" customWidth="1"/>
@@ -5025,9 +4997,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="15"/>
       <c r="M1" s="3"/>
     </row>
@@ -5046,9 +5018,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="15"/>
       <c r="M2" s="3"/>
     </row>
@@ -5067,9 +5039,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="15"/>
       <c r="M3" s="3"/>
     </row>
@@ -5088,9 +5060,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="15"/>
       <c r="M4" s="3"/>
     </row>
@@ -5109,9 +5081,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="15"/>
       <c r="M5" s="3"/>
     </row>
@@ -5128,9 +5100,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="15"/>
       <c r="M6" s="3"/>
     </row>
@@ -5147,9 +5119,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="15"/>
       <c r="M7" s="3"/>
     </row>
@@ -5160,15 +5132,15 @@
       <c r="B8" s="36" t="s">
         <v>1064</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="15"/>
       <c r="M8" s="3"/>
     </row>
@@ -5185,9 +5157,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="15"/>
       <c r="M9" s="3"/>
     </row>
@@ -5204,9 +5176,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="15"/>
       <c r="M10" s="3"/>
     </row>
@@ -5223,9 +5195,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="15"/>
       <c r="M11" s="3"/>
     </row>
@@ -5242,9 +5214,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="15"/>
       <c r="M12" s="3"/>
     </row>
@@ -5252,7 +5224,7 @@
       <c r="A13" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>1365</v>
       </c>
       <c r="C13" s="4"/>
@@ -5261,9 +5233,9 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="15"/>
       <c r="M13" s="3"/>
     </row>
@@ -5280,9 +5252,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="15"/>
       <c r="M14" s="3"/>
     </row>
@@ -5290,7 +5262,7 @@
       <c r="A15" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="39">
         <v>44197</v>
       </c>
       <c r="C15" s="4"/>
@@ -5299,9 +5271,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="15"/>
       <c r="M15" s="3"/>
     </row>
@@ -5309,7 +5281,7 @@
       <c r="A16" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="39">
         <v>44643</v>
       </c>
       <c r="C16" s="4"/>
@@ -5318,9 +5290,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="15"/>
       <c r="M16" s="3"/>
     </row>
@@ -5328,7 +5300,7 @@
       <c r="A17" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="C17" s="4"/>
@@ -5337,9 +5309,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="15"/>
       <c r="M17" s="3"/>
     </row>
@@ -5347,7 +5319,7 @@
       <c r="A18" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="65" t="s">
         <v>634</v>
       </c>
       <c r="C18" s="4"/>
@@ -5356,9 +5328,9 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
       <c r="L18" s="15"/>
       <c r="M18" s="3"/>
     </row>
@@ -5375,9 +5347,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="15"/>
       <c r="M19" s="3"/>
     </row>
@@ -5385,7 +5357,7 @@
       <c r="A20" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>1325</v>
       </c>
       <c r="C20" s="4"/>
@@ -5394,9 +5366,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="15"/>
       <c r="M20" s="3"/>
     </row>
@@ -5404,7 +5376,7 @@
       <c r="A21" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="26" t="s">
         <v>1326</v>
       </c>
       <c r="C21" s="4"/>
@@ -5413,9 +5385,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="15"/>
       <c r="M21" s="3"/>
     </row>
@@ -5423,7 +5395,7 @@
       <c r="A22" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>1366</v>
       </c>
       <c r="C22" s="4"/>
@@ -5432,9 +5404,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="15"/>
       <c r="M22" s="3"/>
     </row>
@@ -5442,7 +5414,7 @@
       <c r="A23" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>1356</v>
       </c>
       <c r="C23" s="4"/>
@@ -5451,9 +5423,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
       <c r="L23" s="15"/>
       <c r="M23" s="3"/>
     </row>
@@ -5461,7 +5433,7 @@
       <c r="A24" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>1357</v>
       </c>
       <c r="C24" s="4"/>
@@ -5470,9 +5442,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="15"/>
       <c r="M24" s="3"/>
     </row>
@@ -5489,9 +5461,9 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="15"/>
       <c r="M25" s="3"/>
     </row>
@@ -5508,9 +5480,9 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="15"/>
       <c r="M26" s="3"/>
     </row>
@@ -5518,7 +5490,7 @@
       <c r="A27" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="26" t="s">
         <v>1061</v>
       </c>
       <c r="C27" s="4"/>
@@ -5527,9 +5499,9 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
       <c r="L27" s="15"/>
       <c r="M27" s="3"/>
     </row>
@@ -5546,9 +5518,9 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="15"/>
       <c r="M28" s="3"/>
     </row>
@@ -5565,17 +5537,17 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="15"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="41" t="s">
         <v>1352</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="62" t="s">
         <v>1353</v>
       </c>
       <c r="C30" s="3"/>
@@ -5584,7 +5556,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="51"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -5599,10 +5571,10 @@
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="35"/>
     </row>
     <row r="32" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5616,10 +5588,10 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5633,10 +5605,10 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5664,16 +5636,16 @@
       <c r="H34" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="I34" s="54" t="s">
+      <c r="I34" s="52" t="s">
         <v>1317</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="46" t="s">
         <v>1314</v>
       </c>
-      <c r="K34" s="48" t="s">
+      <c r="K34" s="46" t="s">
         <v>1323</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L34" s="40" t="s">
         <v>1322</v>
       </c>
       <c r="M34" s="21" t="s">
@@ -5701,7 +5673,7 @@
       <c r="H35" s="29" t="s">
         <v>921</v>
       </c>
-      <c r="I35" s="55"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="32"/>
       <c r="K35" s="32" t="s">
         <v>1333</v>
@@ -5736,7 +5708,7 @@
       <c r="H36" s="29" t="s">
         <v>922</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="32"/>
       <c r="K36" s="32" t="s">
         <v>1333</v>
@@ -5771,7 +5743,7 @@
       <c r="H37" s="29" t="s">
         <v>923</v>
       </c>
-      <c r="I37" s="55"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="32"/>
       <c r="K37" s="32" t="s">
         <v>1333</v>
@@ -5806,7 +5778,7 @@
       <c r="H38" s="29" t="s">
         <v>924</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="32"/>
       <c r="K38" s="32" t="s">
         <v>1333</v>
@@ -5841,7 +5813,7 @@
       <c r="H39" s="29" t="s">
         <v>925</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32" t="s">
         <v>1333</v>
@@ -5874,7 +5846,7 @@
       <c r="H40" s="29" t="s">
         <v>926</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="53"/>
       <c r="J40" s="32"/>
       <c r="K40" s="32" t="s">
         <v>1334</v>
@@ -5909,7 +5881,7 @@
       <c r="H41" s="29" t="s">
         <v>927</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
         <v>1334</v>
@@ -5944,7 +5916,7 @@
       <c r="H42" s="29" t="s">
         <v>928</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="53"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32" t="s">
         <v>1334</v>
@@ -5979,7 +5951,7 @@
       <c r="H43" s="29" t="s">
         <v>929</v>
       </c>
-      <c r="I43" s="55"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
         <v>1334</v>
@@ -6014,7 +5986,7 @@
       <c r="H44" s="29" t="s">
         <v>930</v>
       </c>
-      <c r="I44" s="55"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
         <v>1334</v>
@@ -6047,7 +6019,7 @@
       <c r="H45" s="29" t="s">
         <v>931</v>
       </c>
-      <c r="I45" s="55"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32" t="s">
         <v>1335</v>
@@ -6082,7 +6054,7 @@
       <c r="H46" s="29" t="s">
         <v>932</v>
       </c>
-      <c r="I46" s="55"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32" t="s">
         <v>1335</v>
@@ -6117,7 +6089,7 @@
       <c r="H47" s="29" t="s">
         <v>933</v>
       </c>
-      <c r="I47" s="55"/>
+      <c r="I47" s="53"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32" t="s">
         <v>1335</v>
@@ -6152,7 +6124,7 @@
       <c r="H48" s="29" t="s">
         <v>934</v>
       </c>
-      <c r="I48" s="55"/>
+      <c r="I48" s="53"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32" t="s">
         <v>1335</v>
@@ -6187,7 +6159,7 @@
       <c r="H49" s="29" t="s">
         <v>935</v>
       </c>
-      <c r="I49" s="55"/>
+      <c r="I49" s="53"/>
       <c r="J49" s="32"/>
       <c r="K49" s="32" t="s">
         <v>1335</v>
@@ -6222,7 +6194,7 @@
       <c r="H50" s="29" t="s">
         <v>936</v>
       </c>
-      <c r="I50" s="55"/>
+      <c r="I50" s="53"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32" t="s">
         <v>1335</v>
@@ -6257,7 +6229,7 @@
       <c r="H51" s="29" t="s">
         <v>937</v>
       </c>
-      <c r="I51" s="55"/>
+      <c r="I51" s="53"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32" t="s">
         <v>1335</v>
@@ -6292,7 +6264,7 @@
       <c r="H52" s="29" t="s">
         <v>938</v>
       </c>
-      <c r="I52" s="55"/>
+      <c r="I52" s="53"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32" t="s">
         <v>1335</v>
@@ -6327,7 +6299,7 @@
       <c r="H53" s="29" t="s">
         <v>939</v>
       </c>
-      <c r="I53" s="55"/>
+      <c r="I53" s="53"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32" t="s">
         <v>1335</v>
@@ -6362,7 +6334,7 @@
       <c r="H54" s="29" t="s">
         <v>940</v>
       </c>
-      <c r="I54" s="55"/>
+      <c r="I54" s="53"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32" t="s">
         <v>1335</v>
@@ -6397,7 +6369,7 @@
       <c r="H55" s="29" t="s">
         <v>941</v>
       </c>
-      <c r="I55" s="55"/>
+      <c r="I55" s="53"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32" t="s">
         <v>1335</v>
@@ -6432,7 +6404,7 @@
       <c r="H56" s="29" t="s">
         <v>942</v>
       </c>
-      <c r="I56" s="55"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32" t="s">
         <v>1335</v>
@@ -6467,7 +6439,7 @@
       <c r="H57" s="29" t="s">
         <v>943</v>
       </c>
-      <c r="I57" s="55"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32" t="s">
         <v>1335</v>
@@ -6502,7 +6474,7 @@
       <c r="H58" s="29" t="s">
         <v>944</v>
       </c>
-      <c r="I58" s="55"/>
+      <c r="I58" s="53"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
         <v>1335</v>
@@ -6537,7 +6509,7 @@
       <c r="H59" s="29" t="s">
         <v>945</v>
       </c>
-      <c r="I59" s="55"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32" t="s">
         <v>1335</v>
@@ -6572,7 +6544,7 @@
       <c r="H60" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I60" s="55"/>
+      <c r="I60" s="53"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32" t="s">
         <v>1335</v>
@@ -6607,7 +6579,7 @@
       <c r="H61" s="29" t="s">
         <v>947</v>
       </c>
-      <c r="I61" s="55"/>
+      <c r="I61" s="53"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32" t="s">
         <v>1335</v>
@@ -6640,7 +6612,7 @@
       <c r="H62" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I62" s="55"/>
+      <c r="I62" s="53"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32" t="s">
         <v>1336</v>
@@ -6675,7 +6647,7 @@
       <c r="H63" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I63" s="55"/>
+      <c r="I63" s="53"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32" t="s">
         <v>1336</v>
@@ -6712,7 +6684,7 @@
       <c r="H64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="55" t="s">
+      <c r="I64" s="53" t="s">
         <v>822</v>
       </c>
       <c r="J64" s="32"/>
@@ -6751,7 +6723,7 @@
       <c r="H65" s="29" t="s">
         <v>952</v>
       </c>
-      <c r="I65" s="55" t="s">
+      <c r="I65" s="53" t="s">
         <v>822</v>
       </c>
       <c r="J65" s="32"/>
@@ -6788,7 +6760,7 @@
       <c r="H66" s="29" t="s">
         <v>953</v>
       </c>
-      <c r="I66" s="55"/>
+      <c r="I66" s="53"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32" t="s">
         <v>1336</v>
@@ -6823,7 +6795,7 @@
       <c r="H67" s="29" t="s">
         <v>954</v>
       </c>
-      <c r="I67" s="55"/>
+      <c r="I67" s="53"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
         <v>1336</v>
@@ -6858,7 +6830,7 @@
       <c r="H68" s="29" t="s">
         <v>955</v>
       </c>
-      <c r="I68" s="55"/>
+      <c r="I68" s="53"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32" t="s">
         <v>1336</v>
@@ -6891,7 +6863,7 @@
       <c r="H69" s="29" t="s">
         <v>956</v>
       </c>
-      <c r="I69" s="55"/>
+      <c r="I69" s="53"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32" t="s">
         <v>1337</v>
@@ -6926,7 +6898,7 @@
       <c r="H70" s="29" t="s">
         <v>957</v>
       </c>
-      <c r="I70" s="55"/>
+      <c r="I70" s="53"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32" t="s">
         <v>1337</v>
@@ -6961,7 +6933,7 @@
       <c r="H71" s="29" t="s">
         <v>958</v>
       </c>
-      <c r="I71" s="55"/>
+      <c r="I71" s="53"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32" t="s">
         <v>1337</v>
@@ -6996,7 +6968,7 @@
       <c r="H72" s="29" t="s">
         <v>959</v>
       </c>
-      <c r="I72" s="55"/>
+      <c r="I72" s="53"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32" t="s">
         <v>1337</v>
@@ -7033,7 +7005,7 @@
       <c r="H73" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I73" s="55"/>
+      <c r="I73" s="53"/>
       <c r="J73" s="32"/>
       <c r="K73" s="32" t="s">
         <v>1337</v>
@@ -7070,7 +7042,7 @@
       <c r="H74" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="I74" s="55"/>
+      <c r="I74" s="53"/>
       <c r="J74" s="32"/>
       <c r="K74" s="32" t="s">
         <v>1337</v>
@@ -7105,7 +7077,7 @@
       <c r="H75" s="29" t="s">
         <v>962</v>
       </c>
-      <c r="I75" s="55"/>
+      <c r="I75" s="53"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32" t="s">
         <v>1337</v>
@@ -7140,7 +7112,7 @@
       <c r="H76" s="29" t="s">
         <v>963</v>
       </c>
-      <c r="I76" s="55"/>
+      <c r="I76" s="53"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32" t="s">
         <v>1337</v>
@@ -7177,7 +7149,7 @@
       <c r="H77" s="29" t="s">
         <v>964</v>
       </c>
-      <c r="I77" s="55"/>
+      <c r="I77" s="53"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
         <v>1337</v>
@@ -7214,7 +7186,7 @@
       <c r="H78" s="29" t="s">
         <v>965</v>
       </c>
-      <c r="I78" s="55"/>
+      <c r="I78" s="53"/>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
         <v>1337</v>
@@ -7249,7 +7221,7 @@
       <c r="H79" s="29" t="s">
         <v>966</v>
       </c>
-      <c r="I79" s="55"/>
+      <c r="I79" s="53"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
         <v>1337</v>
@@ -7284,7 +7256,7 @@
       <c r="H80" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="I80" s="55"/>
+      <c r="I80" s="53"/>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
         <v>1337</v>
@@ -7319,7 +7291,7 @@
       <c r="H81" s="29" t="s">
         <v>968</v>
       </c>
-      <c r="I81" s="55"/>
+      <c r="I81" s="53"/>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
         <v>1337</v>
@@ -7354,7 +7326,7 @@
       <c r="H82" s="29" t="s">
         <v>969</v>
       </c>
-      <c r="I82" s="55"/>
+      <c r="I82" s="53"/>
       <c r="J82" s="32"/>
       <c r="K82" s="32" t="s">
         <v>1337</v>
@@ -7389,7 +7361,7 @@
       <c r="H83" s="29" t="s">
         <v>970</v>
       </c>
-      <c r="I83" s="55"/>
+      <c r="I83" s="53"/>
       <c r="J83" s="32"/>
       <c r="K83" s="32" t="s">
         <v>1337</v>
@@ -7422,7 +7394,7 @@
       <c r="H84" s="29" t="s">
         <v>971</v>
       </c>
-      <c r="I84" s="55"/>
+      <c r="I84" s="53"/>
       <c r="J84" s="32"/>
       <c r="K84" s="32" t="s">
         <v>1338</v>
@@ -7457,7 +7429,7 @@
       <c r="H85" s="29" t="s">
         <v>972</v>
       </c>
-      <c r="I85" s="55"/>
+      <c r="I85" s="53"/>
       <c r="J85" s="32"/>
       <c r="K85" s="32" t="s">
         <v>1338</v>
@@ -7494,7 +7466,7 @@
       <c r="H86" s="29" t="s">
         <v>974</v>
       </c>
-      <c r="I86" s="55" t="s">
+      <c r="I86" s="53" t="s">
         <v>845</v>
       </c>
       <c r="J86" s="32"/>
@@ -7533,7 +7505,7 @@
       <c r="H87" s="29" t="s">
         <v>975</v>
       </c>
-      <c r="I87" s="55" t="s">
+      <c r="I87" s="53" t="s">
         <v>845</v>
       </c>
       <c r="J87" s="32"/>
@@ -7570,7 +7542,7 @@
       <c r="H88" s="29" t="s">
         <v>976</v>
       </c>
-      <c r="I88" s="55"/>
+      <c r="I88" s="53"/>
       <c r="J88" s="32"/>
       <c r="K88" s="32" t="s">
         <v>1338</v>
@@ -7605,7 +7577,7 @@
       <c r="H89" s="29" t="s">
         <v>977</v>
       </c>
-      <c r="I89" s="55"/>
+      <c r="I89" s="53"/>
       <c r="J89" s="32"/>
       <c r="K89" s="32" t="s">
         <v>1338</v>
@@ -7640,7 +7612,7 @@
       <c r="H90" s="29" t="s">
         <v>978</v>
       </c>
-      <c r="I90" s="55"/>
+      <c r="I90" s="53"/>
       <c r="J90" s="32"/>
       <c r="K90" s="32" t="s">
         <v>1338</v>
@@ -7675,7 +7647,7 @@
       <c r="H91" s="29" t="s">
         <v>979</v>
       </c>
-      <c r="I91" s="55"/>
+      <c r="I91" s="53"/>
       <c r="J91" s="32"/>
       <c r="K91" s="32" t="s">
         <v>1338</v>
@@ -7712,7 +7684,7 @@
       <c r="H92" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="I92" s="55"/>
+      <c r="I92" s="53"/>
       <c r="J92" s="32"/>
       <c r="K92" s="32" t="s">
         <v>1338</v>
@@ -7749,7 +7721,7 @@
       <c r="H93" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="I93" s="55"/>
+      <c r="I93" s="53"/>
       <c r="J93" s="32"/>
       <c r="K93" s="32" t="s">
         <v>1338</v>
@@ -7784,7 +7756,7 @@
       <c r="H94" s="29" t="s">
         <v>982</v>
       </c>
-      <c r="I94" s="55"/>
+      <c r="I94" s="53"/>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
         <v>1338</v>
@@ -7899,7 +7871,7 @@
       <c r="H97" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="I97" s="55"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
         <v>1338</v>
@@ -7934,7 +7906,7 @@
       <c r="H98" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="I98" s="55"/>
+      <c r="I98" s="53"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32" t="s">
         <v>1338</v>
@@ -7971,7 +7943,7 @@
       <c r="H99" s="29" t="s">
         <v>988</v>
       </c>
-      <c r="I99" s="55"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
         <v>1338</v>
@@ -8008,7 +7980,7 @@
       <c r="H100" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I100" s="55"/>
+      <c r="I100" s="53"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
         <v>1338</v>
@@ -8045,7 +8017,7 @@
       <c r="H101" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I101" s="55"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
         <v>1338</v>
@@ -8082,7 +8054,7 @@
       <c r="H102" s="29" t="s">
         <v>991</v>
       </c>
-      <c r="I102" s="55"/>
+      <c r="I102" s="53"/>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
         <v>1338</v>
@@ -8119,7 +8091,7 @@
       <c r="H103" s="29" t="s">
         <v>992</v>
       </c>
-      <c r="I103" s="55"/>
+      <c r="I103" s="53"/>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
         <v>1338</v>
@@ -8156,7 +8128,7 @@
       <c r="H104" s="29" t="s">
         <v>993</v>
       </c>
-      <c r="I104" s="55"/>
+      <c r="I104" s="53"/>
       <c r="J104" s="32"/>
       <c r="K104" s="32" t="s">
         <v>1338</v>
@@ -8193,7 +8165,7 @@
       <c r="H105" s="29" t="s">
         <v>994</v>
       </c>
-      <c r="I105" s="55"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="32"/>
       <c r="K105" s="32" t="s">
         <v>1338</v>
@@ -8230,7 +8202,7 @@
       <c r="H106" s="29" t="s">
         <v>995</v>
       </c>
-      <c r="I106" s="55"/>
+      <c r="I106" s="53"/>
       <c r="J106" s="32"/>
       <c r="K106" s="32" t="s">
         <v>1338</v>
@@ -8343,7 +8315,7 @@
       <c r="H109" s="29" t="s">
         <v>999</v>
       </c>
-      <c r="I109" s="55"/>
+      <c r="I109" s="53"/>
       <c r="J109" s="32"/>
       <c r="K109" s="32" t="s">
         <v>1338</v>
@@ -8380,7 +8352,7 @@
       <c r="H110" s="29" t="s">
         <v>1000</v>
       </c>
-      <c r="I110" s="55"/>
+      <c r="I110" s="53"/>
       <c r="J110" s="32"/>
       <c r="K110" s="32" t="s">
         <v>1338</v>
@@ -8417,7 +8389,7 @@
       <c r="H111" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="I111" s="55"/>
+      <c r="I111" s="53"/>
       <c r="J111" s="32"/>
       <c r="K111" s="32" t="s">
         <v>1338</v>
@@ -8454,7 +8426,7 @@
       <c r="H112" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I112" s="55"/>
+      <c r="I112" s="53"/>
       <c r="J112" s="32"/>
       <c r="K112" s="32" t="s">
         <v>1338</v>
@@ -8491,7 +8463,7 @@
       <c r="H113" s="29" t="s">
         <v>1003</v>
       </c>
-      <c r="I113" s="55"/>
+      <c r="I113" s="53"/>
       <c r="J113" s="29"/>
       <c r="K113" s="32" t="s">
         <v>1338</v>
@@ -8528,7 +8500,7 @@
       <c r="H114" s="29" t="s">
         <v>1004</v>
       </c>
-      <c r="I114" s="55"/>
+      <c r="I114" s="53"/>
       <c r="J114" s="32"/>
       <c r="K114" s="32" t="s">
         <v>1338</v>
@@ -8561,7 +8533,7 @@
       <c r="H115" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="I115" s="55"/>
+      <c r="I115" s="53"/>
       <c r="J115" s="32"/>
       <c r="K115" s="32" t="s">
         <v>1339</v>
@@ -8596,7 +8568,7 @@
       <c r="H116" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="I116" s="55"/>
+      <c r="I116" s="53"/>
       <c r="J116" s="32"/>
       <c r="K116" s="32" t="s">
         <v>1339</v>
@@ -8631,7 +8603,7 @@
       <c r="H117" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="I117" s="55"/>
+      <c r="I117" s="53"/>
       <c r="J117" s="32"/>
       <c r="K117" s="32" t="s">
         <v>1339</v>
@@ -8664,7 +8636,7 @@
       <c r="H118" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="I118" s="55"/>
+      <c r="I118" s="53"/>
       <c r="J118" s="32"/>
       <c r="K118" s="32" t="s">
         <v>1340</v>
@@ -8699,7 +8671,7 @@
       <c r="H119" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="I119" s="55"/>
+      <c r="I119" s="53"/>
       <c r="J119" s="32"/>
       <c r="K119" s="32" t="s">
         <v>1340</v>
@@ -8736,7 +8708,7 @@
       <c r="H120" s="29" t="s">
         <v>1010</v>
       </c>
-      <c r="I120" s="55"/>
+      <c r="I120" s="53"/>
       <c r="J120" s="32"/>
       <c r="K120" s="32" t="s">
         <v>1340</v>
@@ -8773,7 +8745,7 @@
       <c r="H121" s="29" t="s">
         <v>1011</v>
       </c>
-      <c r="I121" s="55"/>
+      <c r="I121" s="53"/>
       <c r="J121" s="32"/>
       <c r="K121" s="32" t="s">
         <v>1340</v>
@@ -8810,7 +8782,7 @@
       <c r="H122" s="29" t="s">
         <v>1012</v>
       </c>
-      <c r="I122" s="55"/>
+      <c r="I122" s="53"/>
       <c r="J122" s="32"/>
       <c r="K122" s="32" t="s">
         <v>1340</v>
@@ -8847,7 +8819,7 @@
       <c r="H123" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="I123" s="55"/>
+      <c r="I123" s="53"/>
       <c r="J123" s="32"/>
       <c r="K123" s="32" t="s">
         <v>1340</v>
@@ -8882,7 +8854,7 @@
       <c r="H124" s="29" t="s">
         <v>1014</v>
       </c>
-      <c r="I124" s="55"/>
+      <c r="I124" s="53"/>
       <c r="J124" s="32"/>
       <c r="K124" s="32" t="s">
         <v>1340</v>
@@ -8919,7 +8891,7 @@
       <c r="H125" s="29" t="s">
         <v>1015</v>
       </c>
-      <c r="I125" s="55"/>
+      <c r="I125" s="53"/>
       <c r="J125" s="32"/>
       <c r="K125" s="32" t="s">
         <v>1340</v>
@@ -8956,7 +8928,7 @@
       <c r="H126" s="29" t="s">
         <v>1016</v>
       </c>
-      <c r="I126" s="55"/>
+      <c r="I126" s="53"/>
       <c r="J126" s="32"/>
       <c r="K126" s="32" t="s">
         <v>1340</v>
@@ -8991,7 +8963,7 @@
       <c r="H127" s="29" t="s">
         <v>1017</v>
       </c>
-      <c r="I127" s="55"/>
+      <c r="I127" s="53"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32" t="s">
         <v>1340</v>
@@ -9028,7 +9000,7 @@
       <c r="H128" s="29" t="s">
         <v>1018</v>
       </c>
-      <c r="I128" s="55"/>
+      <c r="I128" s="53"/>
       <c r="J128" s="32"/>
       <c r="K128" s="32" t="s">
         <v>1340</v>
@@ -9141,7 +9113,7 @@
       <c r="H131" s="29" t="s">
         <v>1022</v>
       </c>
-      <c r="I131" s="55"/>
+      <c r="I131" s="53"/>
       <c r="J131" s="32"/>
       <c r="K131" s="32" t="s">
         <v>1340</v>
@@ -9176,7 +9148,7 @@
       <c r="H132" s="29" t="s">
         <v>1023</v>
       </c>
-      <c r="I132" s="55"/>
+      <c r="I132" s="53"/>
       <c r="J132" s="32"/>
       <c r="K132" s="32" t="s">
         <v>1340</v>
@@ -9213,7 +9185,7 @@
       <c r="H133" s="29" t="s">
         <v>1024</v>
       </c>
-      <c r="I133" s="55"/>
+      <c r="I133" s="53"/>
       <c r="J133" s="32"/>
       <c r="K133" s="32" t="s">
         <v>1340</v>
@@ -9250,7 +9222,7 @@
       <c r="H134" s="29" t="s">
         <v>1025</v>
       </c>
-      <c r="I134" s="55"/>
+      <c r="I134" s="53"/>
       <c r="J134" s="32"/>
       <c r="K134" s="32" t="s">
         <v>1340</v>
@@ -9285,7 +9257,7 @@
       <c r="H135" s="29" t="s">
         <v>1026</v>
       </c>
-      <c r="I135" s="55"/>
+      <c r="I135" s="53"/>
       <c r="J135" s="32"/>
       <c r="K135" s="32" t="s">
         <v>1340</v>
@@ -9320,7 +9292,7 @@
       <c r="H136" s="29" t="s">
         <v>1027</v>
       </c>
-      <c r="I136" s="55"/>
+      <c r="I136" s="53"/>
       <c r="J136" s="32"/>
       <c r="K136" s="32" t="s">
         <v>1340</v>
@@ -9355,7 +9327,7 @@
       <c r="H137" s="29" t="s">
         <v>1028</v>
       </c>
-      <c r="I137" s="55"/>
+      <c r="I137" s="53"/>
       <c r="J137" s="32"/>
       <c r="K137" s="32" t="s">
         <v>1340</v>
@@ -9390,7 +9362,7 @@
       <c r="H138" s="29" t="s">
         <v>1029</v>
       </c>
-      <c r="I138" s="55"/>
+      <c r="I138" s="53"/>
       <c r="J138" s="32"/>
       <c r="K138" s="32" t="s">
         <v>1340</v>
@@ -9425,7 +9397,7 @@
       <c r="H139" s="29" t="s">
         <v>1030</v>
       </c>
-      <c r="I139" s="55"/>
+      <c r="I139" s="53"/>
       <c r="J139" s="32"/>
       <c r="K139" s="32" t="s">
         <v>1340</v>
@@ -9460,7 +9432,7 @@
       <c r="H140" s="29" t="s">
         <v>1031</v>
       </c>
-      <c r="I140" s="55"/>
+      <c r="I140" s="53"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32" t="s">
         <v>1340</v>
@@ -9497,7 +9469,7 @@
       <c r="H141" s="29" t="s">
         <v>1032</v>
       </c>
-      <c r="I141" s="55"/>
+      <c r="I141" s="53"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32" t="s">
         <v>1340</v>
@@ -9534,7 +9506,7 @@
       <c r="H142" s="29" t="s">
         <v>1033</v>
       </c>
-      <c r="I142" s="55"/>
+      <c r="I142" s="53"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32" t="s">
         <v>1340</v>
@@ -9571,7 +9543,7 @@
       <c r="H143" s="29" t="s">
         <v>1034</v>
       </c>
-      <c r="I143" s="55"/>
+      <c r="I143" s="53"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32" t="s">
         <v>1340</v>
@@ -9608,7 +9580,7 @@
       <c r="H144" s="29" t="s">
         <v>1035</v>
       </c>
-      <c r="I144" s="55"/>
+      <c r="I144" s="53"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32" t="s">
         <v>1340</v>
@@ -9645,7 +9617,7 @@
       <c r="H145" s="29" t="s">
         <v>1036</v>
       </c>
-      <c r="I145" s="55"/>
+      <c r="I145" s="53"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32" t="s">
         <v>1340</v>
@@ -9682,7 +9654,7 @@
       <c r="H146" s="29" t="s">
         <v>1037</v>
       </c>
-      <c r="I146" s="55"/>
+      <c r="I146" s="53"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32" t="s">
         <v>1340</v>
@@ -9719,7 +9691,7 @@
       <c r="H147" s="29" t="s">
         <v>1038</v>
       </c>
-      <c r="I147" s="55"/>
+      <c r="I147" s="53"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32" t="s">
         <v>1340</v>
@@ -9756,7 +9728,7 @@
       <c r="H148" s="29" t="s">
         <v>1039</v>
       </c>
-      <c r="I148" s="55"/>
+      <c r="I148" s="53"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32" t="s">
         <v>1340</v>
@@ -9793,7 +9765,7 @@
       <c r="H149" s="29" t="s">
         <v>1040</v>
       </c>
-      <c r="I149" s="55"/>
+      <c r="I149" s="53"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32" t="s">
         <v>1340</v>
@@ -9830,7 +9802,7 @@
       <c r="H150" s="29" t="s">
         <v>1041</v>
       </c>
-      <c r="I150" s="55"/>
+      <c r="I150" s="53"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32" t="s">
         <v>1340</v>
@@ -9865,7 +9837,7 @@
       <c r="H151" s="29" t="s">
         <v>1042</v>
       </c>
-      <c r="I151" s="55"/>
+      <c r="I151" s="53"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32" t="s">
         <v>1340</v>
@@ -9902,7 +9874,7 @@
       <c r="H152" s="29" t="s">
         <v>1043</v>
       </c>
-      <c r="I152" s="55"/>
+      <c r="I152" s="53"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32" t="s">
         <v>1340</v>
@@ -9939,7 +9911,7 @@
       <c r="H153" s="29" t="s">
         <v>1044</v>
       </c>
-      <c r="I153" s="55"/>
+      <c r="I153" s="53"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32" t="s">
         <v>1340</v>
@@ -9974,7 +9946,7 @@
       <c r="H154" s="29" t="s">
         <v>1045</v>
       </c>
-      <c r="I154" s="55"/>
+      <c r="I154" s="53"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32" t="s">
         <v>1340</v>
@@ -10011,7 +9983,7 @@
       <c r="H155" s="29" t="s">
         <v>1046</v>
       </c>
-      <c r="I155" s="55"/>
+      <c r="I155" s="53"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32" t="s">
         <v>1340</v>
@@ -10048,7 +10020,7 @@
       <c r="H156" s="29" t="s">
         <v>1047</v>
       </c>
-      <c r="I156" s="55"/>
+      <c r="I156" s="53"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32" t="s">
         <v>1340</v>
@@ -10085,7 +10057,7 @@
       <c r="H157" s="29" t="s">
         <v>1048</v>
       </c>
-      <c r="I157" s="55"/>
+      <c r="I157" s="53"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32" t="s">
         <v>1340</v>
@@ -10118,7 +10090,7 @@
       <c r="H158" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="I158" s="56"/>
+      <c r="I158" s="54"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32" t="s">
         <v>1341</v>
@@ -10153,7 +10125,7 @@
       <c r="H159" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="I159" s="56"/>
+      <c r="I159" s="54"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32" t="s">
         <v>1341</v>
@@ -10188,7 +10160,7 @@
       <c r="H160" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="I160" s="56"/>
+      <c r="I160" s="54"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32" t="s">
         <v>1341</v>
@@ -10223,7 +10195,7 @@
       <c r="H161" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="I161" s="56"/>
+      <c r="I161" s="54"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32" t="s">
         <v>1341</v>
@@ -10260,7 +10232,7 @@
       <c r="H162" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="I162" s="56"/>
+      <c r="I162" s="54"/>
       <c r="J162" s="32"/>
       <c r="K162" s="32" t="s">
         <v>1341</v>
@@ -10297,7 +10269,7 @@
       <c r="H163" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="I163" s="56"/>
+      <c r="I163" s="54"/>
       <c r="J163" s="32"/>
       <c r="K163" s="32" t="s">
         <v>1341</v>
@@ -10334,7 +10306,7 @@
       <c r="H164" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="I164" s="56"/>
+      <c r="I164" s="54"/>
       <c r="J164" s="32"/>
       <c r="K164" s="32" t="s">
         <v>1341</v>
@@ -10371,7 +10343,7 @@
       <c r="H165" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="I165" s="56"/>
+      <c r="I165" s="54"/>
       <c r="J165" s="32"/>
       <c r="K165" s="32" t="s">
         <v>1341</v>
@@ -10406,7 +10378,7 @@
       <c r="H166" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="I166" s="56"/>
+      <c r="I166" s="54"/>
       <c r="J166" s="32"/>
       <c r="K166" s="32" t="s">
         <v>1341</v>
@@ -10441,7 +10413,7 @@
       <c r="H167" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="I167" s="56"/>
+      <c r="I167" s="54"/>
       <c r="J167" s="32"/>
       <c r="K167" s="32" t="s">
         <v>1341</v>
@@ -10474,7 +10446,7 @@
       <c r="H168" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="I168" s="56"/>
+      <c r="I168" s="54"/>
       <c r="J168" s="32"/>
       <c r="K168" s="32" t="s">
         <v>1342</v>
@@ -10509,7 +10481,7 @@
       <c r="H169" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="I169" s="56"/>
+      <c r="I169" s="54"/>
       <c r="J169" s="32"/>
       <c r="K169" s="32" t="s">
         <v>1342</v>
@@ -10544,7 +10516,7 @@
       <c r="H170" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="I170" s="56"/>
+      <c r="I170" s="54"/>
       <c r="J170" s="32"/>
       <c r="K170" s="32" t="s">
         <v>1342</v>
@@ -10577,7 +10549,7 @@
       <c r="H171" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="I171" s="56"/>
+      <c r="I171" s="54"/>
       <c r="J171" s="32"/>
       <c r="K171" s="32" t="s">
         <v>1343</v>
@@ -10612,7 +10584,7 @@
       <c r="H172" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="I172" s="56"/>
+      <c r="I172" s="54"/>
       <c r="J172" s="32"/>
       <c r="K172" s="32" t="s">
         <v>1343</v>
@@ -10647,7 +10619,7 @@
       <c r="H173" t="s">
         <v>523</v>
       </c>
-      <c r="I173" s="57"/>
+      <c r="I173" s="55"/>
       <c r="J173" s="12"/>
       <c r="K173" s="32" t="s">
         <v>1343</v>
@@ -10682,7 +10654,7 @@
       <c r="H174" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I174" s="56"/>
+      <c r="I174" s="54"/>
       <c r="J174" s="32"/>
       <c r="K174" s="32" t="s">
         <v>1343</v>
@@ -10717,7 +10689,7 @@
       <c r="H175" t="s">
         <v>525</v>
       </c>
-      <c r="I175" s="57"/>
+      <c r="I175" s="55"/>
       <c r="J175" s="12"/>
       <c r="K175" s="32" t="s">
         <v>1343</v>
@@ -10752,7 +10724,7 @@
       <c r="H176" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="I176" s="56"/>
+      <c r="I176" s="54"/>
       <c r="J176" s="32"/>
       <c r="K176" s="32" t="s">
         <v>1343</v>
@@ -10787,7 +10759,7 @@
       <c r="H177" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="I177" s="56"/>
+      <c r="I177" s="54"/>
       <c r="J177" s="32"/>
       <c r="K177" s="32" t="s">
         <v>1343</v>
@@ -10820,7 +10792,7 @@
       <c r="H178" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="I178" s="56"/>
+      <c r="I178" s="54"/>
       <c r="J178" s="32"/>
       <c r="K178" s="32" t="s">
         <v>1344</v>
@@ -10855,7 +10827,7 @@
       <c r="H179" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="I179" s="56"/>
+      <c r="I179" s="54"/>
       <c r="J179" s="32"/>
       <c r="K179" s="32" t="s">
         <v>1344</v>
@@ -10890,7 +10862,7 @@
       <c r="H180" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="I180" s="56"/>
+      <c r="I180" s="54"/>
       <c r="J180" s="32"/>
       <c r="K180" s="32" t="s">
         <v>1344</v>
@@ -10925,7 +10897,7 @@
       <c r="H181" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="I181" s="56"/>
+      <c r="I181" s="54"/>
       <c r="J181" s="32"/>
       <c r="K181" s="32" t="s">
         <v>1344</v>
@@ -10960,7 +10932,7 @@
       <c r="H182" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="I182" s="56"/>
+      <c r="I182" s="54"/>
       <c r="J182" s="32"/>
       <c r="K182" s="32" t="s">
         <v>1344</v>
@@ -10997,7 +10969,7 @@
       <c r="H183" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="I183" s="56"/>
+      <c r="I183" s="54"/>
       <c r="J183" s="32"/>
       <c r="K183" s="32" t="s">
         <v>1344</v>
@@ -11034,7 +11006,7 @@
       <c r="H184" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="I184" s="56"/>
+      <c r="I184" s="54"/>
       <c r="J184" s="32"/>
       <c r="K184" s="32" t="s">
         <v>1344</v>
@@ -11067,7 +11039,7 @@
       <c r="H185" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="I185" s="56"/>
+      <c r="I185" s="54"/>
       <c r="J185" s="32"/>
       <c r="K185" s="32" t="s">
         <v>1345</v>
@@ -11102,7 +11074,7 @@
       <c r="H186" s="27" t="s">
         <v>536</v>
       </c>
-      <c r="I186" s="56"/>
+      <c r="I186" s="54"/>
       <c r="J186" s="32"/>
       <c r="K186" s="32" t="s">
         <v>1345</v>
@@ -11137,7 +11109,7 @@
       <c r="H187" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="I187" s="56"/>
+      <c r="I187" s="54"/>
       <c r="J187" s="32"/>
       <c r="K187" s="32" t="s">
         <v>1345</v>
@@ -11172,7 +11144,7 @@
       <c r="H188" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="I188" s="56"/>
+      <c r="I188" s="54"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32" t="s">
         <v>1345</v>
@@ -11207,7 +11179,7 @@
       <c r="H189" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="I189" s="56"/>
+      <c r="I189" s="54"/>
       <c r="J189" s="32"/>
       <c r="K189" s="32" t="s">
         <v>1345</v>
@@ -11242,7 +11214,7 @@
       <c r="H190" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="I190" s="56"/>
+      <c r="I190" s="54"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32" t="s">
         <v>1345</v>
@@ -11277,7 +11249,7 @@
       <c r="H191" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="I191" s="56"/>
+      <c r="I191" s="54"/>
       <c r="J191" s="32"/>
       <c r="K191" s="32" t="s">
         <v>1345</v>
@@ -11312,7 +11284,7 @@
       <c r="H192" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="I192" s="56"/>
+      <c r="I192" s="54"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32" t="s">
         <v>1345</v>
@@ -11347,7 +11319,7 @@
       <c r="H193" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="I193" s="56"/>
+      <c r="I193" s="54"/>
       <c r="J193" s="32"/>
       <c r="K193" s="32" t="s">
         <v>1345</v>
@@ -11382,7 +11354,7 @@
       <c r="H194" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="I194" s="56"/>
+      <c r="I194" s="54"/>
       <c r="J194" s="32"/>
       <c r="K194" s="32" t="s">
         <v>1345</v>
@@ -11495,7 +11467,7 @@
       <c r="H197" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="I197" s="56"/>
+      <c r="I197" s="54"/>
       <c r="J197" s="32"/>
       <c r="K197" s="32" t="s">
         <v>1345</v>
@@ -11530,7 +11502,7 @@
       <c r="H198" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="I198" s="56"/>
+      <c r="I198" s="54"/>
       <c r="J198" s="32"/>
       <c r="K198" s="32" t="s">
         <v>1345</v>
@@ -11565,7 +11537,7 @@
       <c r="H199" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="I199" s="56"/>
+      <c r="I199" s="54"/>
       <c r="J199" s="32"/>
       <c r="K199" s="32" t="s">
         <v>1345</v>
@@ -11600,7 +11572,7 @@
       <c r="H200" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="I200" s="56"/>
+      <c r="I200" s="54"/>
       <c r="J200" s="32"/>
       <c r="K200" s="32" t="s">
         <v>1345</v>
@@ -11635,7 +11607,7 @@
       <c r="H201" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="I201" s="56"/>
+      <c r="I201" s="54"/>
       <c r="J201" s="32"/>
       <c r="K201" s="32" t="s">
         <v>1345</v>
@@ -11748,7 +11720,7 @@
       <c r="H204" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="I204" s="56"/>
+      <c r="I204" s="54"/>
       <c r="J204" s="32"/>
       <c r="K204" s="32" t="s">
         <v>1345</v>
@@ -11861,7 +11833,7 @@
       <c r="H207" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="I207" s="56"/>
+      <c r="I207" s="54"/>
       <c r="J207" s="32"/>
       <c r="K207" s="32" t="s">
         <v>1345</v>
@@ -11894,7 +11866,7 @@
       <c r="H208" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="I208" s="56"/>
+      <c r="I208" s="54"/>
       <c r="J208" s="32"/>
       <c r="K208" s="32" t="s">
         <v>1346</v>
@@ -11929,7 +11901,7 @@
       <c r="H209" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="I209" s="56"/>
+      <c r="I209" s="54"/>
       <c r="J209" s="32"/>
       <c r="K209" s="32" t="s">
         <v>1346</v>
@@ -11964,7 +11936,7 @@
       <c r="H210" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="I210" s="56"/>
+      <c r="I210" s="54"/>
       <c r="J210" s="32"/>
       <c r="K210" s="32" t="s">
         <v>1346</v>
@@ -11999,7 +11971,7 @@
       <c r="H211" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="I211" s="56"/>
+      <c r="I211" s="54"/>
       <c r="J211" s="32"/>
       <c r="K211" s="32" t="s">
         <v>1346</v>
@@ -12034,7 +12006,7 @@
       <c r="H212" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="I212" s="56"/>
+      <c r="I212" s="54"/>
       <c r="J212" s="32"/>
       <c r="K212" s="32" t="s">
         <v>1346</v>
@@ -12069,7 +12041,7 @@
       <c r="H213" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="I213" s="56"/>
+      <c r="I213" s="54"/>
       <c r="J213" s="32"/>
       <c r="K213" s="32" t="s">
         <v>1346</v>
@@ -12104,7 +12076,7 @@
       <c r="H214" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="I214" s="56"/>
+      <c r="I214" s="54"/>
       <c r="J214" s="32"/>
       <c r="K214" s="32" t="s">
         <v>1346</v>
@@ -12139,7 +12111,7 @@
       <c r="H215" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="I215" s="56"/>
+      <c r="I215" s="54"/>
       <c r="J215" s="32"/>
       <c r="K215" s="32" t="s">
         <v>1346</v>
@@ -12174,7 +12146,7 @@
       <c r="H216" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="I216" s="56"/>
+      <c r="I216" s="54"/>
       <c r="J216" s="32"/>
       <c r="K216" s="32" t="s">
         <v>1346</v>
@@ -12209,7 +12181,7 @@
       <c r="H217" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="I217" s="56"/>
+      <c r="I217" s="54"/>
       <c r="J217" s="32"/>
       <c r="K217" s="32" t="s">
         <v>1346</v>
@@ -12244,7 +12216,7 @@
       <c r="H218" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="I218" s="56"/>
+      <c r="I218" s="54"/>
       <c r="J218" s="32"/>
       <c r="K218" s="32" t="s">
         <v>1346</v>
@@ -12279,7 +12251,7 @@
       <c r="H219" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="I219" s="56"/>
+      <c r="I219" s="54"/>
       <c r="J219" s="32"/>
       <c r="K219" s="32" t="s">
         <v>1346</v>
@@ -12314,7 +12286,7 @@
       <c r="H220" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="I220" s="56"/>
+      <c r="I220" s="54"/>
       <c r="J220" s="32"/>
       <c r="K220" s="32" t="s">
         <v>1346</v>
@@ -12349,7 +12321,7 @@
       <c r="H221" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="I221" s="56"/>
+      <c r="I221" s="54"/>
       <c r="J221" s="32"/>
       <c r="K221" s="32" t="s">
         <v>1346</v>
@@ -12384,7 +12356,7 @@
       <c r="H222" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="I222" s="56"/>
+      <c r="I222" s="54"/>
       <c r="J222" s="32"/>
       <c r="K222" s="32" t="s">
         <v>1346</v>
@@ -12419,7 +12391,7 @@
       <c r="H223" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="I223" s="56"/>
+      <c r="I223" s="54"/>
       <c r="J223" s="32"/>
       <c r="K223" s="32" t="s">
         <v>1346</v>
@@ -12454,7 +12426,7 @@
       <c r="H224" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="I224" s="56"/>
+      <c r="I224" s="54"/>
       <c r="J224" s="32"/>
       <c r="K224" s="32" t="s">
         <v>1346</v>
@@ -12489,7 +12461,7 @@
       <c r="H225" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="I225" s="56"/>
+      <c r="I225" s="54"/>
       <c r="J225" s="32"/>
       <c r="K225" s="32" t="s">
         <v>1346</v>
@@ -12524,7 +12496,7 @@
       <c r="H226" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="I226" s="56"/>
+      <c r="I226" s="54"/>
       <c r="J226" s="32"/>
       <c r="K226" s="32" t="s">
         <v>1346</v>
@@ -12559,7 +12531,7 @@
       <c r="H227" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="I227" s="56"/>
+      <c r="I227" s="54"/>
       <c r="J227" s="32"/>
       <c r="K227" s="32" t="s">
         <v>1346</v>
@@ -12594,7 +12566,7 @@
       <c r="H228" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="I228" s="56"/>
+      <c r="I228" s="54"/>
       <c r="J228" s="32"/>
       <c r="K228" s="32" t="s">
         <v>1346</v>
@@ -12629,7 +12601,7 @@
       <c r="H229" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I229" s="56"/>
+      <c r="I229" s="54"/>
       <c r="J229" s="32"/>
       <c r="K229" s="32" t="s">
         <v>1346</v>
@@ -12664,7 +12636,7 @@
       <c r="H230" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="I230" s="56"/>
+      <c r="I230" s="54"/>
       <c r="J230" s="32"/>
       <c r="K230" s="32" t="s">
         <v>1346</v>
@@ -12699,7 +12671,7 @@
       <c r="H231" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="I231" s="56"/>
+      <c r="I231" s="54"/>
       <c r="J231" s="32"/>
       <c r="K231" s="32" t="s">
         <v>1346</v>
@@ -12734,7 +12706,7 @@
       <c r="H232" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="I232" s="56"/>
+      <c r="I232" s="54"/>
       <c r="J232" s="32"/>
       <c r="K232" s="32" t="s">
         <v>1346</v>
@@ -12769,7 +12741,7 @@
       <c r="H233" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="I233" s="56"/>
+      <c r="I233" s="54"/>
       <c r="J233" s="32"/>
       <c r="K233" s="32" t="s">
         <v>1346</v>
@@ -12804,7 +12776,7 @@
       <c r="H234" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I234" s="56"/>
+      <c r="I234" s="54"/>
       <c r="J234" s="32"/>
       <c r="K234" s="32" t="s">
         <v>1346</v>
@@ -12839,7 +12811,7 @@
       <c r="H235" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="I235" s="56"/>
+      <c r="I235" s="54"/>
       <c r="J235" s="32"/>
       <c r="K235" s="32" t="s">
         <v>1346</v>
@@ -12874,7 +12846,7 @@
       <c r="H236" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="I236" s="56"/>
+      <c r="I236" s="54"/>
       <c r="J236" s="32"/>
       <c r="K236" s="32" t="s">
         <v>1346</v>
@@ -12909,7 +12881,7 @@
       <c r="H237" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="I237" s="56"/>
+      <c r="I237" s="54"/>
       <c r="J237" s="32"/>
       <c r="K237" s="32" t="s">
         <v>1346</v>
@@ -12942,7 +12914,7 @@
       <c r="H238" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="I238" s="56"/>
+      <c r="I238" s="54"/>
       <c r="J238" s="32"/>
       <c r="K238" s="32" t="s">
         <v>1347</v>
@@ -12977,7 +12949,7 @@
       <c r="H239" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="I239" s="56"/>
+      <c r="I239" s="54"/>
       <c r="J239" s="32"/>
       <c r="K239" s="32" t="s">
         <v>1347</v>
@@ -13012,7 +12984,7 @@
       <c r="H240" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I240" s="56"/>
+      <c r="I240" s="54"/>
       <c r="J240" s="32"/>
       <c r="K240" s="32" t="s">
         <v>1347</v>
@@ -13047,7 +13019,7 @@
       <c r="H241" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="I241" s="56"/>
+      <c r="I241" s="54"/>
       <c r="J241" s="32"/>
       <c r="K241" s="32" t="s">
         <v>1347</v>
@@ -13082,7 +13054,7 @@
       <c r="H242" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="I242" s="56"/>
+      <c r="I242" s="54"/>
       <c r="J242" s="32"/>
       <c r="K242" s="32" t="s">
         <v>1347</v>
@@ -13115,7 +13087,7 @@
       <c r="H243" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I243" s="56"/>
+      <c r="I243" s="54"/>
       <c r="J243" s="32"/>
       <c r="K243" s="32" t="s">
         <v>1348</v>
@@ -13150,7 +13122,7 @@
       <c r="H244" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="I244" s="56"/>
+      <c r="I244" s="54"/>
       <c r="J244" s="32"/>
       <c r="K244" s="32" t="s">
         <v>1348</v>
@@ -13185,7 +13157,7 @@
       <c r="H245" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="I245" s="56"/>
+      <c r="I245" s="54"/>
       <c r="J245" s="32"/>
       <c r="K245" s="32" t="s">
         <v>1348</v>
@@ -13220,7 +13192,7 @@
       <c r="H246" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="I246" s="56"/>
+      <c r="I246" s="54"/>
       <c r="J246" s="32"/>
       <c r="K246" s="32" t="s">
         <v>1348</v>
@@ -13255,7 +13227,7 @@
       <c r="H247" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="I247" s="56"/>
+      <c r="I247" s="54"/>
       <c r="J247" s="32"/>
       <c r="K247" s="32" t="s">
         <v>1348</v>
@@ -13290,7 +13262,7 @@
       <c r="H248" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="I248" s="56"/>
+      <c r="I248" s="54"/>
       <c r="J248" s="32"/>
       <c r="K248" s="32" t="s">
         <v>1348</v>
@@ -13323,7 +13295,7 @@
       <c r="H249" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="I249" s="56"/>
+      <c r="I249" s="54"/>
       <c r="J249" s="32"/>
       <c r="K249" s="32" t="s">
         <v>1349</v>
@@ -13358,7 +13330,7 @@
       <c r="H250" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="I250" s="56"/>
+      <c r="I250" s="54"/>
       <c r="J250" s="32"/>
       <c r="K250" s="32" t="s">
         <v>1349</v>
@@ -13393,7 +13365,7 @@
       <c r="H251" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="I251" s="56"/>
+      <c r="I251" s="54"/>
       <c r="J251" s="32"/>
       <c r="K251" s="32" t="s">
         <v>1349</v>
@@ -13428,7 +13400,7 @@
       <c r="H252" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="I252" s="56"/>
+      <c r="I252" s="54"/>
       <c r="J252" s="32"/>
       <c r="K252" s="32" t="s">
         <v>1349</v>
@@ -13463,7 +13435,7 @@
       <c r="H253" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="I253" s="56"/>
+      <c r="I253" s="54"/>
       <c r="J253" s="32"/>
       <c r="K253" s="32" t="s">
         <v>1349</v>
@@ -13498,7 +13470,7 @@
       <c r="H254" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="I254" s="56"/>
+      <c r="I254" s="54"/>
       <c r="J254" s="32"/>
       <c r="K254" s="32" t="s">
         <v>1349</v>
@@ -13533,7 +13505,7 @@
       <c r="H255" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="I255" s="56"/>
+      <c r="I255" s="54"/>
       <c r="J255" s="32"/>
       <c r="K255" s="32" t="s">
         <v>1349</v>
@@ -13570,7 +13542,7 @@
       <c r="H256" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="I256" s="56"/>
+      <c r="I256" s="54"/>
       <c r="J256" s="32"/>
       <c r="K256" s="32" t="s">
         <v>1349</v>
@@ -13607,7 +13579,7 @@
       <c r="H257" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="I257" s="56"/>
+      <c r="I257" s="54"/>
       <c r="J257" s="32"/>
       <c r="K257" s="32" t="s">
         <v>1349</v>
@@ -13642,7 +13614,7 @@
       <c r="H258" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="I258" s="56"/>
+      <c r="I258" s="54"/>
       <c r="J258" s="32"/>
       <c r="K258" s="32" t="s">
         <v>1349</v>
@@ -13675,7 +13647,7 @@
       <c r="H259" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="I259" s="56"/>
+      <c r="I259" s="54"/>
       <c r="J259" s="32"/>
       <c r="K259" s="32" t="s">
         <v>1350</v>
@@ -13710,7 +13682,7 @@
       <c r="H260" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="I260" s="56"/>
+      <c r="I260" s="54"/>
       <c r="J260" s="32"/>
       <c r="K260" s="32" t="s">
         <v>1350</v>
@@ -13745,7 +13717,7 @@
       <c r="H261" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="I261" s="56"/>
+      <c r="I261" s="54"/>
       <c r="J261" s="32"/>
       <c r="K261" s="32" t="s">
         <v>1350</v>
@@ -13782,7 +13754,7 @@
       <c r="H262" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="I262" s="56"/>
+      <c r="I262" s="54"/>
       <c r="J262" s="32"/>
       <c r="K262" s="32" t="s">
         <v>1350</v>
@@ -13819,7 +13791,7 @@
       <c r="H263" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="I263" s="56"/>
+      <c r="I263" s="54"/>
       <c r="J263" s="32"/>
       <c r="K263" s="32" t="s">
         <v>1350</v>
@@ -13854,7 +13826,7 @@
       <c r="H264" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="I264" s="56"/>
+      <c r="I264" s="54"/>
       <c r="J264" s="32"/>
       <c r="K264" s="32" t="s">
         <v>1350</v>
@@ -13889,7 +13861,7 @@
       <c r="H265" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="I265" s="56"/>
+      <c r="I265" s="54"/>
       <c r="J265" s="32"/>
       <c r="K265" s="32" t="s">
         <v>1350</v>
@@ -13922,7 +13894,7 @@
       <c r="H266" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="I266" s="56"/>
+      <c r="I266" s="54"/>
       <c r="J266" s="32"/>
       <c r="K266" s="32" t="s">
         <v>1351</v>
@@ -13957,7 +13929,7 @@
       <c r="H267" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="I267" s="56"/>
+      <c r="I267" s="54"/>
       <c r="J267" s="32"/>
       <c r="K267" s="32" t="s">
         <v>1351</v>
@@ -13992,7 +13964,7 @@
       <c r="H268" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="I268" s="56"/>
+      <c r="I268" s="54"/>
       <c r="J268" s="32"/>
       <c r="K268" s="32" t="s">
         <v>1351</v>
@@ -14027,7 +13999,7 @@
       <c r="H269" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="I269" s="56"/>
+      <c r="I269" s="54"/>
       <c r="J269" s="32"/>
       <c r="K269" s="32" t="s">
         <v>1351</v>
@@ -14062,7 +14034,7 @@
       <c r="H270" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="I270" s="56"/>
+      <c r="I270" s="54"/>
       <c r="J270" s="32"/>
       <c r="K270" s="32" t="s">
         <v>1351</v>
@@ -14097,7 +14069,7 @@
       <c r="H271" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="I271" s="56"/>
+      <c r="I271" s="54"/>
       <c r="J271" s="32"/>
       <c r="K271" s="32" t="s">
         <v>1351</v>
@@ -14132,7 +14104,7 @@
       <c r="H272" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="I272" s="56"/>
+      <c r="I272" s="54"/>
       <c r="J272" s="32"/>
       <c r="K272" s="32" t="s">
         <v>1351</v>
@@ -14167,7 +14139,7 @@
       <c r="H273" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="I273" s="56"/>
+      <c r="I273" s="54"/>
       <c r="J273" s="32"/>
       <c r="K273" s="32" t="s">
         <v>1351</v>
@@ -14202,7 +14174,7 @@
       <c r="H274" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="I274" s="56"/>
+      <c r="I274" s="54"/>
       <c r="J274" s="32"/>
       <c r="K274" s="32" t="s">
         <v>1351</v>
@@ -14237,7 +14209,7 @@
       <c r="H275" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="I275" s="56"/>
+      <c r="I275" s="54"/>
       <c r="J275" s="32"/>
       <c r="K275" s="32" t="s">
         <v>1351</v>
@@ -14272,7 +14244,7 @@
       <c r="H276" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="I276" s="56"/>
+      <c r="I276" s="54"/>
       <c r="J276" s="32"/>
       <c r="K276" s="32" t="s">
         <v>1351</v>
@@ -14307,7 +14279,7 @@
       <c r="H277" s="32" t="s">
         <v>630</v>
       </c>
-      <c r="I277" s="56"/>
+      <c r="I277" s="54"/>
       <c r="J277" s="32"/>
       <c r="K277" s="32" t="s">
         <v>1351</v>
@@ -14342,7 +14314,7 @@
       <c r="H278" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="I278" s="56"/>
+      <c r="I278" s="54"/>
       <c r="J278" s="32"/>
       <c r="K278" s="32" t="s">
         <v>1351</v>
@@ -14355,109 +14327,109 @@
       </c>
     </row>
     <row r="279" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I279" s="58"/>
+      <c r="I279" s="56"/>
       <c r="J279" s="16"/>
       <c r="K279" s="16"/>
       <c r="L279" s="16"/>
     </row>
     <row r="280" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I280" s="58"/>
+      <c r="I280" s="56"/>
       <c r="J280" s="16"/>
       <c r="K280" s="16"/>
       <c r="L280" s="16"/>
     </row>
     <row r="281" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I281" s="58"/>
+      <c r="I281" s="56"/>
       <c r="J281" s="16"/>
       <c r="K281" s="16"/>
       <c r="L281" s="16"/>
     </row>
     <row r="282" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I282" s="58"/>
+      <c r="I282" s="56"/>
       <c r="J282" s="16"/>
       <c r="K282" s="16"/>
       <c r="L282" s="16"/>
     </row>
     <row r="283" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I283" s="58"/>
+      <c r="I283" s="56"/>
       <c r="J283" s="16"/>
       <c r="K283" s="16"/>
       <c r="L283" s="16"/>
     </row>
     <row r="284" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I284" s="58"/>
+      <c r="I284" s="56"/>
       <c r="J284" s="16"/>
       <c r="K284" s="16"/>
       <c r="L284" s="16"/>
     </row>
     <row r="285" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I285" s="58"/>
+      <c r="I285" s="56"/>
       <c r="J285" s="16"/>
       <c r="K285" s="16"/>
       <c r="L285" s="16"/>
     </row>
     <row r="286" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I286" s="58"/>
+      <c r="I286" s="56"/>
       <c r="J286" s="16"/>
       <c r="K286" s="16"/>
       <c r="L286" s="16"/>
     </row>
     <row r="287" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I287" s="58"/>
+      <c r="I287" s="56"/>
       <c r="J287" s="16"/>
       <c r="K287" s="16"/>
       <c r="L287" s="16"/>
     </row>
     <row r="288" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I288" s="58"/>
+      <c r="I288" s="56"/>
       <c r="J288" s="16"/>
       <c r="K288" s="16"/>
       <c r="L288" s="16"/>
     </row>
     <row r="289" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I289" s="58"/>
+      <c r="I289" s="56"/>
       <c r="J289" s="16"/>
       <c r="K289" s="16"/>
       <c r="L289" s="16"/>
     </row>
     <row r="290" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I290" s="58"/>
+      <c r="I290" s="56"/>
       <c r="J290" s="16"/>
       <c r="K290" s="16"/>
       <c r="L290" s="16"/>
     </row>
     <row r="291" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I291" s="58"/>
+      <c r="I291" s="56"/>
       <c r="J291" s="16"/>
       <c r="K291" s="16"/>
       <c r="L291" s="16"/>
     </row>
     <row r="292" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I292" s="58"/>
+      <c r="I292" s="56"/>
       <c r="J292" s="16"/>
       <c r="K292" s="16"/>
       <c r="L292" s="16"/>
     </row>
     <row r="293" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I293" s="58"/>
+      <c r="I293" s="56"/>
       <c r="J293" s="16"/>
       <c r="K293" s="16"/>
       <c r="L293" s="16"/>
     </row>
     <row r="294" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I294" s="58"/>
+      <c r="I294" s="56"/>
       <c r="J294" s="16"/>
       <c r="K294" s="16"/>
       <c r="L294" s="16"/>
     </row>
     <row r="295" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I295" s="58"/>
+      <c r="I295" s="56"/>
       <c r="J295" s="16"/>
       <c r="K295" s="16"/>
       <c r="L295" s="16"/>
     </row>
     <row r="296" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I296" s="58"/>
+      <c r="I296" s="56"/>
       <c r="J296" s="16"/>
       <c r="K296" s="16"/>
       <c r="L296" s="16"/>
@@ -14466,14 +14438,14 @@
       <c r="B322" s="16"/>
       <c r="E322" s="16"/>
       <c r="G322" s="16"/>
-      <c r="I322" s="51"/>
+      <c r="I322" s="49"/>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" s="11"/>
     </row>
     <row r="444" spans="2:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B444" s="4"/>
-      <c r="I444" s="57"/>
+      <c r="I444" s="55"/>
       <c r="J444" s="12"/>
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
@@ -14484,21 +14456,21 @@
     <row r="450" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="4"/>
-      <c r="I450" s="57"/>
+      <c r="I450" s="55"/>
       <c r="J450" s="12"/>
       <c r="K450" s="12"/>
       <c r="L450" s="12"/>
     </row>
     <row r="454" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B454" s="4"/>
-      <c r="I454" s="57"/>
+      <c r="I454" s="55"/>
       <c r="J454" s="12"/>
       <c r="K454" s="12"/>
       <c r="L454" s="12"/>
     </row>
     <row r="467" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B467" s="4"/>
-      <c r="I467" s="57"/>
+      <c r="I467" s="55"/>
       <c r="J467" s="12"/>
       <c r="K467" s="12"/>
       <c r="L467" s="12"/>
@@ -14510,9 +14482,9 @@
       <c r="E478" s="5"/>
       <c r="G478" s="10"/>
       <c r="H478" s="2"/>
-      <c r="I478" s="59"/>
-      <c r="J478" s="47"/>
-      <c r="K478" s="47"/>
+      <c r="I478" s="57"/>
+      <c r="J478" s="45"/>
+      <c r="K478" s="45"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:M478">
@@ -14897,10 +14869,12 @@
     <hyperlink ref="L278" r:id="rId376" display="https://raw.githack.com/ANZSoilData/def-au-scma/master/html/00frontmatter/00WARNING.html" xr:uid="{00677D20-EC96-4609-AFE2-9D7EE399F72C}"/>
     <hyperlink ref="B18" r:id="rId377" xr:uid="{31571278-A517-460E-AA8B-2538A10AD1BA}"/>
     <hyperlink ref="B19" r:id="rId378" xr:uid="{386259F1-8A48-45EF-9526-D7EE660E59A8}"/>
+    <hyperlink ref="B21" r:id="rId379" xr:uid="{EE8E9D4B-625A-4996-B8E2-8A7D08DA3A45}"/>
+    <hyperlink ref="B27" r:id="rId380" xr:uid="{5C3E9EEF-EDCD-4317-84C5-348730CA5D31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId379"/>
-  <legacyDrawing r:id="rId380"/>
+  <pageSetup orientation="portrait" r:id="rId381"/>
+  <legacyDrawing r:id="rId382"/>
 </worksheet>
 </file>
 
@@ -14908,8 +14882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25E589-C762-47F7-A5B5-46A66BE90C97}">
   <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14941,7 +14915,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="43"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="3"/>
@@ -14961,7 +14935,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="43"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="3"/>
@@ -14981,7 +14955,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="43"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="3"/>
@@ -14993,7 +14967,7 @@
       <c r="B4" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>647</v>
       </c>
       <c r="D4" s="8"/>
@@ -15001,7 +14975,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="43"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="3"/>
@@ -15021,7 +14995,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="43"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="3"/>
@@ -15030,7 +15004,7 @@
       <c r="A6" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>1062</v>
       </c>
       <c r="C6" s="4"/>
@@ -15039,7 +15013,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="43"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="3"/>
@@ -15057,7 +15031,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="43"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="3"/>
@@ -15075,7 +15049,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="3"/>
@@ -15084,7 +15058,7 @@
       <c r="A9" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="39">
         <v>44624</v>
       </c>
       <c r="C9" s="4"/>
@@ -15093,7 +15067,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="3"/>
@@ -15102,7 +15076,7 @@
       <c r="A10" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="39">
         <v>44629</v>
       </c>
       <c r="C10" s="4"/>
@@ -15111,7 +15085,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="43"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="3"/>
@@ -15120,7 +15094,7 @@
       <c r="A11" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>1330</v>
       </c>
       <c r="C11" s="4"/>
@@ -15129,7 +15103,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="43"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="3"/>
@@ -15138,7 +15112,7 @@
       <c r="A12" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>1332</v>
       </c>
       <c r="C12" s="4"/>
@@ -15147,7 +15121,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="43"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="3"/>
@@ -15156,7 +15130,7 @@
       <c r="A13" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>1329</v>
       </c>
       <c r="C13" s="4"/>
@@ -15165,7 +15139,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="43"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="3"/>
@@ -15174,7 +15148,7 @@
       <c r="A14" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>1327</v>
       </c>
       <c r="C14" s="4"/>
@@ -15183,7 +15157,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="43"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="3"/>
@@ -15192,7 +15166,7 @@
       <c r="A15" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>1328</v>
       </c>
       <c r="C15" s="4"/>
@@ -15201,7 +15175,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="43"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="3"/>
@@ -15210,7 +15184,7 @@
       <c r="A16" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="65" t="s">
         <v>634</v>
       </c>
       <c r="C16" s="4"/>
@@ -15219,7 +15193,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="43"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="3"/>
@@ -15228,7 +15202,7 @@
       <c r="A17" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>635</v>
       </c>
       <c r="C17" s="4"/>
@@ -15237,7 +15211,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="3"/>
@@ -15246,7 +15220,7 @@
       <c r="A18" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>636</v>
       </c>
       <c r="C18" s="4"/>
@@ -15255,7 +15229,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="3"/>
@@ -15264,7 +15238,7 @@
       <c r="A19" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>1369</v>
       </c>
       <c r="C19" s="4"/>
@@ -15273,7 +15247,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="3"/>
@@ -15291,7 +15265,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="43"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="3"/>
@@ -15309,7 +15283,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="43"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="3"/>
@@ -15327,16 +15301,16 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="43"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="41" t="s">
         <v>1352</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="63" t="s">
         <v>1354</v>
       </c>
       <c r="C23" s="3"/>
@@ -15345,7 +15319,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -15360,9 +15334,9 @@
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -15376,9 +15350,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -15392,9 +15366,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -15422,13 +15396,13 @@
       <c r="H27" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="46" t="s">
         <v>1314</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="40" t="s">
         <v>1316</v>
       </c>
       <c r="L27" s="21" t="s">
@@ -15475,7 +15449,7 @@
       <c r="D29" s="31" t="s">
         <v>789</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F29" s="12"/>
@@ -15509,7 +15483,7 @@
       <c r="D30" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F30" s="12"/>
@@ -15543,7 +15517,7 @@
       <c r="D31" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F31" s="12"/>
@@ -16381,7 +16355,7 @@
       <c r="D61" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F61" s="12"/>
@@ -16394,8 +16368,8 @@
       <c r="I61" s="32" t="s">
         <v>1049</v>
       </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
       <c r="L61" s="27" t="s">
         <v>1067</v>
       </c>
@@ -16977,7 +16951,7 @@
       <c r="D82" s="31" t="s">
         <v>711</v>
       </c>
-      <c r="E82" s="60" t="s">
+      <c r="E82" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F82" s="12"/>
@@ -17209,7 +17183,7 @@
       <c r="D90" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="E90" s="60" t="s">
+      <c r="E90" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F90" s="12" t="s">
@@ -17541,7 +17515,7 @@
       <c r="D101" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="E101" s="60" t="s">
+      <c r="E101" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F101" s="12"/>
@@ -18153,7 +18127,7 @@
       <c r="D122" s="31" t="s">
         <v>755</v>
       </c>
-      <c r="E122" s="60" t="s">
+      <c r="E122" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F122" s="12" t="s">
@@ -20015,7 +19989,7 @@
       <c r="D187" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E187" s="60" t="s">
+      <c r="E187" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F187"/>
@@ -20187,7 +20161,7 @@
       <c r="D193" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E193" s="60" t="s">
+      <c r="E193" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F193"/>
@@ -20247,7 +20221,7 @@
       <c r="D195" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E195" s="60" t="s">
+      <c r="E195" s="58" t="s">
         <v>1355</v>
       </c>
       <c r="F195"/>
@@ -22411,14 +22385,14 @@
       <c r="E467" s="5"/>
       <c r="G467" s="10"/>
       <c r="H467" s="2"/>
-      <c r="I467" s="47"/>
+      <c r="I467" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DDFBFA4A-1B14-4D4E-A2BD-12DE76DDF6D0}"/>
     <hyperlink ref="C3" r:id="rId2" display="http://registry.it.csiro.au/sandbox/soil/scma/" xr:uid="{EDF8FFA1-F2F3-4BB1-BF34-39358F567457}"/>
-    <hyperlink ref="B1" r:id="rId3" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{06CEEB57-C964-4417-9D98-8525EB7C1644}"/>
+    <hyperlink ref="B1" r:id="rId3" xr:uid="{06CEEB57-C964-4417-9D98-8525EB7C1644}"/>
     <hyperlink ref="H106" r:id="rId4" xr:uid="{04389B99-8122-4DEE-9A4E-3C7BCF22DF7B}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{51359A00-70F8-41BF-ABD9-33E2124068E2}"/>
     <hyperlink ref="H28" r:id="rId6" xr:uid="{7C9D502A-B7C9-4C78-8562-107BC8C370C9}"/>
@@ -22549,10 +22523,12 @@
     <hyperlink ref="H193" r:id="rId131" xr:uid="{56A43D80-5339-4B76-9391-49A025D9212B}"/>
     <hyperlink ref="H195" r:id="rId132" xr:uid="{6315BB13-4B74-464B-9553-A415FD28F07F}"/>
     <hyperlink ref="B20" r:id="rId133" xr:uid="{5A650F16-2CB3-4CB1-820F-ED911B41CBB5}"/>
+    <hyperlink ref="C4" r:id="rId134" xr:uid="{9987F963-EAA1-40E1-9475-0DCBA757DE31}"/>
+    <hyperlink ref="B16" r:id="rId135" xr:uid="{299DA605-8C9B-4B33-9722-CA5BB6F69A14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId134"/>
-  <legacyDrawing r:id="rId135"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
+  <legacyDrawing r:id="rId137"/>
 </worksheet>
 </file>
 
